--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Tecnico</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>TUSA MAURIZIO</t>
-  </si>
-  <si>
-    <t>CATANIA GIUSEPPE</t>
   </si>
   <si>
     <t>Avanzamento €/h</t>
@@ -163,11 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -466,19 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -486,16 +482,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -503,17 +499,17 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4">
-        <f>D2-(D2*E2)/100</f>
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="E2" s="7">
-        <v>20</v>
+        <v>35.26</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2-(C2*D2)/100</f>
+        <v>28.207999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -521,17 +517,17 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C26" si="0">D3-(D3*E3)/100</f>
-        <v>164</v>
-      </c>
-      <c r="D3" s="5">
-        <v>205</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3-(C3*D3)/100</f>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -539,417 +535,399 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="D4" s="5">
-        <v>160</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4-(C4*D4)/100</f>
+        <v>37.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="D5" s="5">
-        <v>165</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20</v>
+        <v>35.32</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5-(C5*D5)/100</f>
+        <v>28.256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D6" s="5">
-        <v>51</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20</v>
+        <v>41.27</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6-(C6*D6)/100</f>
+        <v>33.016000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D7" s="5">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7">
-        <v>20</v>
+        <v>32.42</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7-(C7*D7)/100</f>
+        <v>25.936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>4121.6000000000004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5152</v>
-      </c>
-      <c r="E8" s="7">
-        <v>20</v>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8-(C8*D8)/100</f>
+        <v>13.247999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
-        <v>20</v>
+        <v>27.3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9-(C9*D9)/100</f>
+        <v>21.84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>20</v>
+        <v>28.26</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10-(C10*D10)/100</f>
+        <v>22.608000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>20</v>
+        <v>35.99</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C11-(C11*D11)/100</f>
+        <v>28.792000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D12" s="5">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7">
-        <v>20</v>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12-(C12*D12)/100</f>
+        <v>26.96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7">
-        <v>20</v>
+        <v>39.33</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C13-(C13*D13)/100</f>
+        <v>31.463999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>20</v>
+        <v>32.32</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <f>C14-(C14*D14)/100</f>
+        <v>25.856000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>16</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D15" s="5">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <f>C15-(C15*D15)/100</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>413.6</v>
-      </c>
-      <c r="D16" s="5">
-        <v>517</v>
-      </c>
-      <c r="E16" s="7">
-        <v>20</v>
+        <v>39.33</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16-(C16*D16)/100</f>
+        <v>31.463999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <f>C17-(C17*D17)/100</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
-        <v>20</v>
+        <v>28.81</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <f>C18-(C18*D18)/100</f>
+        <v>23.047999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D19" s="5">
-        <v>11</v>
-      </c>
-      <c r="E19" s="7">
-        <v>20</v>
+        <v>32.56</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <f>C19-(C19*D19)/100</f>
+        <v>26.048000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>20</v>
+        <v>37.54</v>
+      </c>
+      <c r="D20" s="6">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3">
+        <f>C20-(C20*D20)/100</f>
+        <v>30.032</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D21" s="5">
-        <v>23</v>
-      </c>
-      <c r="E21" s="7">
-        <v>20</v>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <f>C21-(C21*D21)/100</f>
+        <v>26.439999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7">
-        <v>20</v>
+        <v>35.32</v>
+      </c>
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3">
+        <f>C22-(C22*D22)/100</f>
+        <v>28.256</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>20</v>
+        <v>29.84</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <f>C23-(C23*D23)/100</f>
+        <v>23.872</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="D24" s="5">
-        <v>8</v>
-      </c>
-      <c r="E24" s="7">
-        <v>20</v>
+        <v>35.99</v>
+      </c>
+      <c r="D24" s="6">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3">
+        <f>C24-(C24*D24)/100</f>
+        <v>28.792000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7">
-        <v>20</v>
+        <v>41.83</v>
+      </c>
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <f>C25-(C25*D25)/100</f>
+        <v>33.463999999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:D25"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="3">
-        <f>C2-(C2*D2)/100</f>
+        <f t="shared" ref="E2:E25" si="0">C2-(C2*D2)/100</f>
         <v>28.207999999999998</v>
       </c>
     </row>
@@ -526,7 +526,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <f>C3-(C3*D3)/100</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <f>C4-(C4*D4)/100</f>
+        <f t="shared" si="0"/>
         <v>37.6</v>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3">
-        <f>C5-(C5*D5)/100</f>
+        <f t="shared" si="0"/>
         <v>28.256</v>
       </c>
     </row>
@@ -580,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <f>C6-(C6*D6)/100</f>
+        <f t="shared" si="0"/>
         <v>33.016000000000005</v>
       </c>
     </row>
@@ -598,7 +598,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <f>C7-(C7*D7)/100</f>
+        <f t="shared" si="0"/>
         <v>25.936</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="3">
-        <f>C8-(C8*D8)/100</f>
+        <f t="shared" si="0"/>
         <v>13.247999999999999</v>
       </c>
     </row>
@@ -634,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="3">
-        <f>C9-(C9*D9)/100</f>
+        <f t="shared" si="0"/>
         <v>21.84</v>
       </c>
     </row>
@@ -652,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="3">
-        <f>C10-(C10*D10)/100</f>
+        <f t="shared" si="0"/>
         <v>22.608000000000001</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="3">
-        <f>C11-(C11*D11)/100</f>
+        <f t="shared" si="0"/>
         <v>28.792000000000002</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="3">
-        <f>C12-(C12*D12)/100</f>
+        <f t="shared" si="0"/>
         <v>26.96</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="3">
-        <f>C13-(C13*D13)/100</f>
+        <f t="shared" si="0"/>
         <v>31.463999999999999</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="3">
-        <f>C14-(C14*D14)/100</f>
+        <f t="shared" si="0"/>
         <v>25.856000000000002</v>
       </c>
     </row>
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="3">
-        <f>C15-(C15*D15)/100</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="3">
-        <f>C16-(C16*D16)/100</f>
+        <f t="shared" si="0"/>
         <v>31.463999999999999</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="3">
-        <f>C17-(C17*D17)/100</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="3">
-        <f>C18-(C18*D18)/100</f>
+        <f t="shared" si="0"/>
         <v>23.047999999999998</v>
       </c>
     </row>
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="3">
-        <f>C19-(C19*D19)/100</f>
+        <f t="shared" si="0"/>
         <v>26.048000000000002</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="3">
-        <f>C20-(C20*D20)/100</f>
+        <f t="shared" si="0"/>
         <v>30.032</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="3">
-        <f>C21-(C21*D21)/100</f>
+        <f t="shared" si="0"/>
         <v>26.439999999999998</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="3">
-        <f>C22-(C22*D22)/100</f>
+        <f t="shared" si="0"/>
         <v>28.256</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="3">
-        <f>C23-(C23*D23)/100</f>
+        <f t="shared" si="0"/>
         <v>23.872</v>
       </c>
     </row>
@@ -898,14 +898,14 @@
         <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>35.99</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
-        <f>C24-(C24*D24)/100</f>
-        <v>28.792000000000002</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -922,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="3">
-        <f>C25-(C25*D25)/100</f>
+        <f t="shared" si="0"/>
         <v>33.463999999999999</v>
       </c>
     </row>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,14 +898,14 @@
         <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,14 +898,14 @@
         <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,14 +898,14 @@
         <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,14 +898,14 @@
         <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,17 +499,17 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
-        <v>35.26</v>
+        <v>34.92</v>
       </c>
       <c r="D2" s="6">
         <v>20</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E25" si="0">C2-(C2*D2)/100</f>
-        <v>28.207999999999998</v>
+        <v>27.936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -517,17 +517,17 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4">
-        <v>35</v>
+        <v>39.72</v>
       </c>
       <c r="D3" s="6">
         <v>20</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31.776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -553,17 +553,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4">
-        <v>35.32</v>
+        <v>34.9</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>28.256</v>
+        <v>27.919999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -571,17 +571,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4">
-        <v>41.27</v>
+        <v>35.28</v>
       </c>
       <c r="D6" s="6">
         <v>20</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>33.016000000000005</v>
+        <v>28.224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -592,14 +592,14 @@
         <v>44</v>
       </c>
       <c r="C7" s="4">
-        <v>32.42</v>
+        <v>33.04</v>
       </c>
       <c r="D7" s="6">
         <v>20</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>25.936</v>
+        <v>26.431999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -607,17 +607,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
-        <v>16.559999999999999</v>
+        <v>16.07</v>
       </c>
       <c r="D8" s="6">
         <v>20</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>13.247999999999999</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -628,14 +628,14 @@
         <v>88</v>
       </c>
       <c r="C9" s="4">
-        <v>27.3</v>
+        <v>30.3</v>
       </c>
       <c r="D9" s="6">
         <v>20</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>21.84</v>
+        <v>24.240000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -643,17 +643,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
-        <v>28.26</v>
+        <v>28.47</v>
       </c>
       <c r="D10" s="6">
         <v>20</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>22.608000000000001</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -661,17 +661,17 @@
         <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4">
-        <v>35.99</v>
+        <v>36.5</v>
       </c>
       <c r="D11" s="6">
         <v>20</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>28.792000000000002</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -679,17 +679,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C12" s="4">
-        <v>33.700000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="D12" s="6">
         <v>20</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>26.96</v>
+        <v>27.119999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -697,17 +697,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4">
-        <v>39.33</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="D13" s="6">
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>31.463999999999999</v>
+        <v>29.727999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -715,17 +715,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4">
-        <v>32.32</v>
+        <v>35.33</v>
       </c>
       <c r="D14" s="6">
         <v>20</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>25.856000000000002</v>
+        <v>28.263999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -751,17 +751,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C16" s="4">
-        <v>39.33</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="D16" s="6">
         <v>20</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>31.463999999999999</v>
+        <v>29.727999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -787,17 +787,17 @@
         <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4">
-        <v>28.81</v>
+        <v>26.51</v>
       </c>
       <c r="D18" s="6">
         <v>20</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>23.047999999999998</v>
+        <v>21.208000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -808,14 +808,14 @@
         <v>88</v>
       </c>
       <c r="C19" s="4">
-        <v>32.56</v>
+        <v>36.36</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>26.048000000000002</v>
+        <v>29.088000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -823,17 +823,17 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4">
-        <v>37.54</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="D20" s="6">
         <v>20</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>30.032</v>
+        <v>29.895999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -841,17 +841,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" s="4">
-        <v>33.049999999999997</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>26.439999999999998</v>
+        <v>25.927999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -862,14 +862,14 @@
         <v>8</v>
       </c>
       <c r="C22" s="4">
-        <v>35.32</v>
+        <v>34.9</v>
       </c>
       <c r="D22" s="6">
         <v>20</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>28.256</v>
+        <v>27.919999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -880,14 +880,14 @@
         <v>80</v>
       </c>
       <c r="C23" s="4">
-        <v>29.84</v>
+        <v>33.79</v>
       </c>
       <c r="D23" s="6">
         <v>20</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>23.872</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -895,17 +895,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C24" s="4">
-        <v>36</v>
+        <v>36.53</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>29.224</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -913,17 +913,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4">
-        <v>41.83</v>
+        <v>35.85</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>33.463999999999999</v>
+        <v>28.68</v>
       </c>
     </row>
   </sheetData>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tecnico</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Russo Giovanni</t>
-  </si>
-  <si>
-    <t>DI MAURO SALVATORE</t>
   </si>
   <si>
     <t>CAMPISI CHRISTIAN</t>
@@ -462,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,16 +479,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -508,13 +505,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E25" si="0">C2-(C2*D2)/100</f>
+        <f t="shared" ref="E2:E24" si="0">C2-(C2*D2)/100</f>
         <v>27.936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>88</v>
@@ -532,7 +529,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
@@ -586,348 +583,330 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
-        <v>33.04</v>
+        <v>16.07</v>
       </c>
       <c r="D7" s="6">
         <v>20</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>26.431999999999999</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4">
-        <v>16.07</v>
+        <v>30.3</v>
       </c>
       <c r="D8" s="6">
         <v>20</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>12.856</v>
+        <v>24.240000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4">
-        <v>30.3</v>
+        <v>28.47</v>
       </c>
       <c r="D9" s="6">
         <v>20</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>24.240000000000002</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4">
-        <v>28.47</v>
+        <v>36.5</v>
       </c>
       <c r="D10" s="6">
         <v>20</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>22.776</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>96</v>
       </c>
       <c r="C11" s="4">
-        <v>36.5</v>
+        <v>33.9</v>
       </c>
       <c r="D11" s="6">
         <v>20</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>29.2</v>
+        <v>27.119999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>96</v>
       </c>
       <c r="C12" s="4">
-        <v>33.9</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="D12" s="6">
         <v>20</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>27.119999999999997</v>
+        <v>29.727999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>96</v>
       </c>
       <c r="C13" s="4">
-        <v>37.159999999999997</v>
+        <v>35.33</v>
       </c>
       <c r="D13" s="6">
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>29.727999999999998</v>
+        <v>28.263999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>35.33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6">
         <v>20</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>28.263999999999999</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4">
-        <v>32</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="D15" s="6">
         <v>20</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>25.6</v>
+        <v>29.727999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>37.159999999999997</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6">
         <v>20</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>29.727999999999998</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C17" s="4">
-        <v>32</v>
+        <v>26.51</v>
       </c>
       <c r="D17" s="6">
         <v>20</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>25.6</v>
+        <v>21.208000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4">
-        <v>26.51</v>
+        <v>36.36</v>
       </c>
       <c r="D18" s="6">
         <v>20</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>21.208000000000002</v>
+        <v>29.088000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4">
-        <v>36.36</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>29.088000000000001</v>
+        <v>29.895999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4">
-        <v>37.369999999999997</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="D20" s="6">
         <v>20</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>29.895999999999997</v>
+        <v>25.927999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4">
-        <v>32.409999999999997</v>
+        <v>34.9</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>25.927999999999997</v>
+        <v>27.919999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4">
-        <v>34.9</v>
+        <v>33.79</v>
       </c>
       <c r="D22" s="6">
         <v>20</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>27.919999999999998</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4">
-        <v>33.79</v>
+        <v>36.53</v>
       </c>
       <c r="D23" s="6">
         <v>20</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>27.032</v>
+        <v>29.224</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
-        <v>36.53</v>
+        <v>35.85</v>
       </c>
       <c r="D24" s="6">
         <v>20</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>29.224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>88</v>
-      </c>
-      <c r="C25" s="4">
-        <v>35.85</v>
-      </c>
-      <c r="D25" s="6">
-        <v>20</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
         <v>28.68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -12,60 +12,36 @@
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tecnico</t>
   </si>
   <si>
-    <t>Daniele Di Bartolomeno</t>
-  </si>
-  <si>
-    <t>Marco D'Andrea</t>
-  </si>
-  <si>
     <t>TRECCARICHI GIOVANNI</t>
   </si>
   <si>
     <t>PONTE SALVATORE</t>
   </si>
   <si>
-    <t>Vittorio Francesco</t>
-  </si>
-  <si>
-    <t>Quadarella Andrea</t>
-  </si>
-  <si>
     <t>MAZZARELLA CRISTHIAN</t>
   </si>
   <si>
     <t>LITTERI DANIELE</t>
   </si>
   <si>
-    <t>Ganci Corrado</t>
-  </si>
-  <si>
     <t>MANCARELLA SALVATORE</t>
   </si>
   <si>
     <t>AVOLA IVAN</t>
   </si>
   <si>
-    <t>Guastella Stefano</t>
-  </si>
-  <si>
-    <t>Di Giorgio Danilo</t>
-  </si>
-  <si>
-    <t>Russo Giovanni</t>
-  </si>
-  <si>
     <t>CAMPISI CHRISTIAN</t>
   </si>
   <si>
@@ -84,9 +60,6 @@
     <t>GOLINO KEVIN</t>
   </si>
   <si>
-    <t>GIARDINA SALVATORE</t>
-  </si>
-  <si>
     <t>FUCILE FRANCESCO</t>
   </si>
   <si>
@@ -103,6 +76,30 @@
   </si>
   <si>
     <t>Ore lavorate</t>
+  </si>
+  <si>
+    <t>D'ANDREA MARCO</t>
+  </si>
+  <si>
+    <t>DI BARTOLOMEO DANIELE</t>
+  </si>
+  <si>
+    <t>DI GIORGIO DANILO</t>
+  </si>
+  <si>
+    <t>GANCI CORRADO</t>
+  </si>
+  <si>
+    <t>GUASTELLA STEFANO</t>
+  </si>
+  <si>
+    <t>QUADARELLA ANDREA</t>
+  </si>
+  <si>
+    <t>RUSSO GIOVANNI</t>
+  </si>
+  <si>
+    <t>VITTORIO FRANCESCO</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,57 +476,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
       </c>
       <c r="C2" s="4">
-        <v>34.92</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="D2" s="6">
         <v>20</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E24" si="0">C2-(C2*D2)/100</f>
-        <v>27.936</v>
+        <f t="shared" ref="E2:E23" si="0">C2-(C2*D2)/100</f>
+        <v>28.727999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>88</v>
       </c>
       <c r="C3" s="4">
-        <v>39.72</v>
+        <v>37.43</v>
       </c>
       <c r="D3" s="6">
         <v>20</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>31.776</v>
+        <v>29.943999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
@@ -547,61 +544,61 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>96</v>
       </c>
       <c r="C5" s="4">
-        <v>34.9</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>27.919999999999998</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4">
-        <v>35.28</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="D6" s="6">
         <v>20</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>28.224</v>
+        <v>28.416000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" s="4">
-        <v>16.07</v>
+        <v>18.64</v>
       </c>
       <c r="D7" s="6">
         <v>20</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>12.856</v>
+        <v>14.912000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>88</v>
@@ -619,294 +616,276 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4">
-        <v>28.47</v>
+        <v>40.82</v>
       </c>
       <c r="D9" s="6">
         <v>20</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>22.776</v>
+        <v>32.655999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>96</v>
       </c>
       <c r="C10" s="4">
-        <v>36.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D10" s="6">
         <v>20</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>29.2</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4">
-        <v>33.9</v>
+        <v>33.36</v>
       </c>
       <c r="D11" s="6">
         <v>20</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>27.119999999999997</v>
+        <v>26.687999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>96</v>
       </c>
       <c r="C12" s="4">
-        <v>37.159999999999997</v>
+        <v>35.49</v>
       </c>
       <c r="D12" s="6">
         <v>20</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>29.727999999999998</v>
+        <v>28.392000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4">
-        <v>35.33</v>
+        <v>27.39</v>
       </c>
       <c r="D13" s="6">
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>28.263999999999999</v>
+        <v>21.911999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4">
-        <v>32</v>
+        <v>33.36</v>
       </c>
       <c r="D14" s="6">
         <v>20</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>25.6</v>
+        <v>26.687999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
-        <v>37.159999999999997</v>
+        <v>27.39</v>
       </c>
       <c r="D15" s="6">
         <v>20</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>29.727999999999998</v>
+        <v>21.911999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C16" s="4">
-        <v>32</v>
+        <v>29.26</v>
       </c>
       <c r="D16" s="6">
         <v>20</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>25.6</v>
+        <v>23.408000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4">
-        <v>26.51</v>
+        <v>36.36</v>
       </c>
       <c r="D17" s="6">
         <v>20</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>21.208000000000002</v>
+        <v>29.088000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4">
-        <v>36.36</v>
+        <v>38.1</v>
       </c>
       <c r="D18" s="6">
         <v>20</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>29.088000000000001</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4">
-        <v>37.369999999999997</v>
+        <v>36.18</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>29.895999999999997</v>
+        <v>28.943999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4">
-        <v>32.409999999999997</v>
+        <v>37.76</v>
       </c>
       <c r="D20" s="6">
         <v>20</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>25.927999999999997</v>
+        <v>30.207999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4">
-        <v>34.9</v>
+        <v>34.04</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>27.919999999999998</v>
+        <v>27.231999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4">
-        <v>33.79</v>
+        <v>40.82</v>
       </c>
       <c r="D22" s="6">
         <v>20</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>27.032</v>
+        <v>32.655999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4">
-        <v>36.53</v>
+        <v>35.25</v>
       </c>
       <c r="D23" s="6">
         <v>20</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>29.224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>88</v>
-      </c>
-      <c r="C24" s="4">
-        <v>35.85</v>
-      </c>
-      <c r="D24" s="6">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>28.68</v>
+        <v>28.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -19,53 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Tecnico</t>
   </si>
   <si>
-    <t>TRECCARICHI GIOVANNI</t>
-  </si>
-  <si>
-    <t>PONTE SALVATORE</t>
-  </si>
-  <si>
-    <t>MAZZARELLA CRISTHIAN</t>
-  </si>
-  <si>
-    <t>LITTERI DANIELE</t>
-  </si>
-  <si>
-    <t>MANCARELLA SALVATORE</t>
-  </si>
-  <si>
-    <t>AVOLA IVAN</t>
-  </si>
-  <si>
-    <t>CAMPISI CHRISTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANNARELLA GIUSEPPE </t>
-  </si>
-  <si>
-    <t>ROCCELLA ALBERTO</t>
-  </si>
-  <si>
-    <t>VESPERTINO SIMONE</t>
-  </si>
-  <si>
-    <t>SANTACROCE CARMELO</t>
-  </si>
-  <si>
-    <t>GOLINO KEVIN</t>
-  </si>
-  <si>
-    <t>FUCILE FRANCESCO</t>
-  </si>
-  <si>
-    <t>TUSA MAURIZIO</t>
-  </si>
-  <si>
     <t>Avanzamento €/h</t>
   </si>
   <si>
@@ -78,28 +36,196 @@
     <t>Ore lavorate</t>
   </si>
   <si>
-    <t>D'ANDREA MARCO</t>
-  </si>
-  <si>
-    <t>DI BARTOLOMEO DANIELE</t>
-  </si>
-  <si>
-    <t>DI GIORGIO DANILO</t>
-  </si>
-  <si>
-    <t>GANCI CORRADO</t>
-  </si>
-  <si>
-    <t>GUASTELLA STEFANO</t>
-  </si>
-  <si>
-    <t>QUADARELLA ANDREA</t>
-  </si>
-  <si>
-    <t>RUSSO GIOVANNI</t>
-  </si>
-  <si>
-    <t>VITTORIO FRANCESCO</t>
+    <t>IRTE0000001 - INTAGLIATA ANTONINO</t>
+  </si>
+  <si>
+    <t>IRTE0000004 - ALFONSO DENIS</t>
+  </si>
+  <si>
+    <t>IRTE0000007 - APRILE LUIGI</t>
+  </si>
+  <si>
+    <t>IRTE0000009 - BALSAMO SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000010 - BONO ANDREA</t>
+  </si>
+  <si>
+    <t>IRTE0000011 - BOTTARO ANDREA</t>
+  </si>
+  <si>
+    <t>IRTE0000012 - CANNARELLA GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000018 - CHIOFALO MARIO</t>
+  </si>
+  <si>
+    <t>IRTE0000019 - COCO CARMELO</t>
+  </si>
+  <si>
+    <t>IRTE0000020 - DI PIETRO STEFANO</t>
+  </si>
+  <si>
+    <t>IRTE0000021 - DIGREGORIO JASON</t>
+  </si>
+  <si>
+    <t>IRTE0000023 - FALCONE GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000024 - FERRANTI PAOLO</t>
+  </si>
+  <si>
+    <t>IRTE0000028 - FUCILE FRANCESCO</t>
+  </si>
+  <si>
+    <t>IRTE0000029 - GANCI CORRADO</t>
+  </si>
+  <si>
+    <t>IRTE0000030 - GANCI FABIO</t>
+  </si>
+  <si>
+    <t>IRTE0000031 - GIARDINA SALVATORE JUNIOR</t>
+  </si>
+  <si>
+    <t>IRTE0000032 - GIONFRIDDO ANDREA</t>
+  </si>
+  <si>
+    <t>IRTE0000033 - GISINA SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000034 - GUASTELLA STEFANO</t>
+  </si>
+  <si>
+    <t>IRTE0000035 - IANNELLO JOHN</t>
+  </si>
+  <si>
+    <t>IRTE0000038 - LA MESA GAETANO</t>
+  </si>
+  <si>
+    <t>IRTE0000039 - LA ROCCA STEFANO</t>
+  </si>
+  <si>
+    <t>IRTE0000041 - LEONE LUCIANO</t>
+  </si>
+  <si>
+    <t>IRTE0000042 - MARINO LORENZO</t>
+  </si>
+  <si>
+    <t>IRTE0000043 - MAZZARELLA CRISTHIAN</t>
+  </si>
+  <si>
+    <t>IRTE0000044 - MIRABELLA SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000047 - PAGLIARO GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000048 - PANISSIDI ANDREA</t>
+  </si>
+  <si>
+    <t>IRTE0000052 - ROCCELLA ALBERTO</t>
+  </si>
+  <si>
+    <t>IRTE0000053 - ROCCELLA LUCA</t>
+  </si>
+  <si>
+    <t>IRTE0000055 - RUSSO FRANCESCO</t>
+  </si>
+  <si>
+    <t>IRTE0000056 - RUSSO GIOVANNI</t>
+  </si>
+  <si>
+    <t>IRTE0000059 - SANTACROCE CARMELO</t>
+  </si>
+  <si>
+    <t>IRTE0000060 - SANZARO EMANUELE</t>
+  </si>
+  <si>
+    <t>IRTE0000062 - SCARROZZA SANTINO</t>
+  </si>
+  <si>
+    <t>IRTE0000063 - SCRIVANO FEDERICO</t>
+  </si>
+  <si>
+    <t>IRTE0000064 - SIRNA GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000065 - TAFARO LEONARDO</t>
+  </si>
+  <si>
+    <t>IRTE0000067 - TUSA MAURIZIO</t>
+  </si>
+  <si>
+    <t>IRTE0000068 - VESPERTINO SIMONE</t>
+  </si>
+  <si>
+    <t>IRTE0000069 - SCORPO PAOLO</t>
+  </si>
+  <si>
+    <t>IRTE0000070 - DI MAURO SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000073 - QUADARELLA ANDREA</t>
+  </si>
+  <si>
+    <t>IRTE0000074 - GRASSO PAOLO</t>
+  </si>
+  <si>
+    <t>IRTE0000075 - ATTARDO LUIGI</t>
+  </si>
+  <si>
+    <t>IRTE0000078 - DI BARTOLOMEO DANIELE</t>
+  </si>
+  <si>
+    <t>IRTE0000079 - DI GIORGIO DANILO</t>
+  </si>
+  <si>
+    <t>IRTE0000080 - TRECCARICHI GIOVANNI</t>
+  </si>
+  <si>
+    <t>IRTE0000081 - VITTORIO FRANCESCO</t>
+  </si>
+  <si>
+    <t>IRTE0000082 - MANCARELLA SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000083 - D'ANDREA MARCO</t>
+  </si>
+  <si>
+    <t>IRTE0000088 - CAMPISI CHRISTIAN</t>
+  </si>
+  <si>
+    <t>IRTE0000089 - PONTE SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000093 - LITTERI DANIELE</t>
+  </si>
+  <si>
+    <t>IRTE0000094 - GIARRATANA ANTHONY</t>
+  </si>
+  <si>
+    <t>IRTE0000095 - CIURCINA MATTIA</t>
+  </si>
+  <si>
+    <t>IRTE0000096 - ALOISIO DANIELE</t>
+  </si>
+  <si>
+    <t>IRTE0000097 - RAGUSA GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000098 - AVOLA IVAN</t>
+  </si>
+  <si>
+    <t>IRTE0000099 - GILE' CARLO</t>
+  </si>
+  <si>
+    <t>IRTE0000100 - URSO FRANCESCO</t>
+  </si>
+  <si>
+    <t>IRTE0000106 - GOLINO KEVIN</t>
+  </si>
+  <si>
+    <t>#aggiornamento 25/08</t>
   </si>
 </sst>
 </file>
@@ -456,414 +582,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30.767268487858701</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E64" si="0">C2-(C2*D2)/100</f>
+        <v>24.613814790286959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>96</v>
-      </c>
-      <c r="C2" s="4">
-        <v>35.909999999999997</v>
-      </c>
-      <c r="D2" s="6">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E23" si="0">C2-(C2*D2)/100</f>
-        <v>28.727999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>146</v>
+      </c>
+      <c r="C3" s="4">
+        <v>33.759863245167402</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>27.007890596133922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>88</v>
-      </c>
-      <c r="C3" s="4">
-        <v>37.43</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>29.943999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4">
+        <v>33.017771637303902</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>26.414217309843121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B5" s="1">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
-        <v>35.299999999999997</v>
+        <v>37.164957816252503</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>28.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>29.731966253002003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4">
-        <v>35.520000000000003</v>
+        <v>39.435483870967701</v>
       </c>
       <c r="D6" s="6">
         <v>20</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>28.416000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31.54838709677416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4">
-        <v>18.64</v>
+        <v>30.739153835540801</v>
       </c>
       <c r="D7" s="6">
         <v>20</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>14.912000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>24.59132306843264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4">
-        <v>30.3</v>
+        <v>44.0615666666667</v>
       </c>
       <c r="D8" s="6">
         <v>20</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>24.240000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>35.249253333333357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4">
-        <v>40.82</v>
+        <v>30.817504828918299</v>
       </c>
       <c r="D9" s="6">
         <v>20</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>32.655999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>24.654003863134641</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
-        <v>36.299999999999997</v>
+        <v>40.578389632936499</v>
       </c>
       <c r="D10" s="6">
         <v>20</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>29.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>32.462711706349197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
-        <v>33.36</v>
+        <v>40.578389632936499</v>
       </c>
       <c r="D11" s="6">
         <v>20</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>26.687999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>32.462711706349197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4">
-        <v>35.49</v>
+        <v>37.6761322451989</v>
       </c>
       <c r="D12" s="6">
         <v>20</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>28.392000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>30.140905796159121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4">
+        <v>50.468407066052201</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>40.374725652841761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39.435483870967701</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>31.54838709677416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>29.7886704545455</v>
+      </c>
+      <c r="D15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>23.8309363636364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
-        <v>27.39</v>
-      </c>
-      <c r="D13" s="6">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>21.911999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>120</v>
       </c>
-      <c r="C14" s="4">
-        <v>33.36</v>
-      </c>
-      <c r="D14" s="6">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>26.687999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4">
-        <v>27.39</v>
-      </c>
-      <c r="D15" s="6">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>21.911999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1">
-        <v>104</v>
-      </c>
       <c r="C16" s="4">
-        <v>29.26</v>
+        <v>32.917370689655201</v>
       </c>
       <c r="D16" s="6">
         <v>20</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>23.408000000000001</v>
+        <v>26.333896551724159</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4">
-        <v>36.36</v>
+        <v>45.535722554965197</v>
       </c>
       <c r="D17" s="6">
         <v>20</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>29.088000000000001</v>
+        <v>36.428578043972159</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4">
-        <v>38.1</v>
+        <v>31.1328838222462</v>
       </c>
       <c r="D18" s="6">
         <v>20</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>30.48</v>
+        <v>24.906307057796958</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4">
-        <v>36.18</v>
+        <v>25.611587849650402</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>28.943999999999999</v>
+        <v>20.489270279720323</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4">
-        <v>37.76</v>
+        <v>45.535722554965197</v>
       </c>
       <c r="D20" s="6">
         <v>20</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>30.207999999999998</v>
+        <v>36.428578043972159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4">
-        <v>34.04</v>
+        <v>32.508736207729498</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>27.231999999999999</v>
+        <v>26.006988966183599</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4">
-        <v>40.82</v>
+        <v>43.634209590517202</v>
       </c>
       <c r="D22" s="6">
         <v>20</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>32.655999999999999</v>
+        <v>34.907367672413763</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -871,17 +1000,755 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4">
+        <v>42.4073465064386</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>33.925877205150883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30.703733811626201</v>
+      </c>
+      <c r="D24" s="6">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>24.562987049300961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4">
+        <v>51.173529958263501</v>
+      </c>
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>40.938823966610798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4">
+        <v>51.184480697431297</v>
+      </c>
+      <c r="D26" s="6">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>40.947584557945035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>160</v>
+      </c>
+      <c r="C27" s="4">
+        <v>34.979625720720698</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>27.98370057657656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4">
+        <v>34.198287599976503</v>
+      </c>
+      <c r="D28" s="6">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>27.358630079981204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4">
+        <v>51.173529958263501</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>40.938823966610798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30.2726403769841</v>
+      </c>
+      <c r="D30" s="6">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>24.218112301587279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>88</v>
+      </c>
+      <c r="C31" s="4">
+        <v>38.993916666666699</v>
+      </c>
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>31.195133333333359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43.550281698352997</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>34.840225358682396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50.496546211981602</v>
+      </c>
+      <c r="D33" s="6">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>40.397236969585279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>109</v>
+      </c>
+      <c r="C34" s="4">
+        <v>36.910862507645298</v>
+      </c>
+      <c r="D34" s="6">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>29.528690006116239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>144</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34.9160460526316</v>
+      </c>
+      <c r="D35" s="6">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>27.932836842105282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4">
+        <v>42.016932543103401</v>
+      </c>
+      <c r="D36" s="6">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>33.613546034482724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4">
+        <v>23.008893105158698</v>
+      </c>
+      <c r="D37" s="6">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>18.407114484126957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4">
+        <v>59.3276294642857</v>
+      </c>
+      <c r="D38" s="6">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>47.462103571428557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4">
+        <v>35.826222082549201</v>
+      </c>
+      <c r="D39" s="6">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>28.660977666039361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4">
+        <v>40.519181588902903</v>
+      </c>
+      <c r="D40" s="6">
+        <v>20</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>32.41534527112232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4">
+        <v>32.416799586776897</v>
+      </c>
+      <c r="D41" s="6">
+        <v>20</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>25.933439669421517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4">
+        <v>36.968860294117697</v>
+      </c>
+      <c r="D42" s="6">
+        <v>20</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>29.575088235294157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4">
+        <v>47.462103571428599</v>
+      </c>
+      <c r="D43" s="6">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>37.969682857142878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>84</v>
+      </c>
+      <c r="C44" s="4">
+        <v>32.678675323477798</v>
+      </c>
+      <c r="D44" s="6">
+        <v>20</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>26.142940258782239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>144</v>
+      </c>
+      <c r="C45" s="4">
+        <v>32.983118691992402</v>
+      </c>
+      <c r="D45" s="6">
+        <v>20</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>26.386494953593921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4">
+        <v>50.192040454246197</v>
+      </c>
+      <c r="D46" s="6">
+        <v>20</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>40.153632363396959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>112</v>
+      </c>
+      <c r="C47" s="4">
+        <v>50.192040454246197</v>
+      </c>
+      <c r="D47" s="6">
+        <v>20</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>40.153632363396959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
         <v>104</v>
       </c>
-      <c r="C23" s="4">
-        <v>35.25</v>
-      </c>
-      <c r="D23" s="6">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>28.2</v>
+      <c r="C48" s="4">
+        <v>32.479799999999997</v>
+      </c>
+      <c r="D48" s="6">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>25.983839999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
+        <v>136</v>
+      </c>
+      <c r="C49" s="4">
+        <v>34.704481447963801</v>
+      </c>
+      <c r="D49" s="6">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>27.76358515837104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
+        <v>37.977555555555597</v>
+      </c>
+      <c r="D50" s="6">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>30.382044444444478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1">
+        <v>144</v>
+      </c>
+      <c r="C51" s="4">
+        <v>37.143483704168197</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>29.714786963334557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1">
+        <v>136</v>
+      </c>
+      <c r="C52" s="4">
+        <v>35.841037398398299</v>
+      </c>
+      <c r="D52" s="6">
+        <v>20</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>28.672829918718641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1">
+        <v>72</v>
+      </c>
+      <c r="C53" s="4">
+        <v>30.21875</v>
+      </c>
+      <c r="D53" s="6">
+        <v>20</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>24.175000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1">
+        <v>136</v>
+      </c>
+      <c r="C54" s="4">
+        <v>35.518474368378897</v>
+      </c>
+      <c r="D54" s="6">
+        <v>20</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>28.414779494703119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4">
+        <v>30.21875</v>
+      </c>
+      <c r="D55" s="6">
+        <v>20</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>24.175000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1">
+        <v>144</v>
+      </c>
+      <c r="C56" s="4">
+        <v>34.677162162162197</v>
+      </c>
+      <c r="D56" s="6">
+        <v>20</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>27.741729729729759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1">
+        <v>48</v>
+      </c>
+      <c r="C57" s="4">
+        <v>31.538704525089599</v>
+      </c>
+      <c r="D57" s="6">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>25.23096362007168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1">
+        <v>24</v>
+      </c>
+      <c r="C58" s="4">
+        <v>48.665368055555597</v>
+      </c>
+      <c r="D58" s="6">
+        <v>20</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>38.93229444444448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>68.102956521739102</v>
+      </c>
+      <c r="D59" s="6">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>54.482365217391283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4">
+        <v>68.102956521739102</v>
+      </c>
+      <c r="D60" s="6">
+        <v>20</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>54.482365217391283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="1">
+        <v>136</v>
+      </c>
+      <c r="C61" s="4">
+        <v>34.6539291085206</v>
+      </c>
+      <c r="D61" s="6">
+        <v>20</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>27.72314328681648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40</v>
+      </c>
+      <c r="C62" s="4">
+        <v>40.505873309983002</v>
+      </c>
+      <c r="D62" s="6">
+        <v>20</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>32.4046986479864</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1">
+        <v>104</v>
+      </c>
+      <c r="C63" s="4">
+        <v>41.213482095017703</v>
+      </c>
+      <c r="D63" s="6">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>32.97078567601416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
+        <v>136</v>
+      </c>
+      <c r="C64" s="4">
+        <v>36.968860294117697</v>
+      </c>
+      <c r="D64" s="6">
+        <v>20</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>29.575088235294157</v>
       </c>
     </row>
   </sheetData>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -245,20 +245,13 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,26 +285,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -320,11 +298,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +595,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +606,7 @@
     <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -653,7 +628,7 @@
       <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -677,7 +652,7 @@
         <f t="shared" ref="F2:F64" si="0">D2-(D2*E2)/100</f>
         <v>24.613814790286959</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -701,7 +676,7 @@
         <f t="shared" si="0"/>
         <v>27.007890596133922</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -725,7 +700,7 @@
         <f t="shared" si="0"/>
         <v>26.414217309843121</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -749,7 +724,7 @@
         <f t="shared" si="0"/>
         <v>29.731966253002003</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -773,7 +748,7 @@
         <f t="shared" si="0"/>
         <v>31.54838709677416</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -797,7 +772,7 @@
         <f t="shared" si="0"/>
         <v>24.59132306843264</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -821,7 +796,7 @@
         <f t="shared" si="0"/>
         <v>35.249253333333357</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -845,6 +820,7 @@
         <f t="shared" si="0"/>
         <v>24.654003863134641</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="J9" t="s">
         <v>67</v>
       </c>
@@ -869,6 +845,7 @@
         <f t="shared" si="0"/>
         <v>32.462711706349197</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -890,6 +867,7 @@
         <f t="shared" si="0"/>
         <v>32.462711706349197</v>
       </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
@@ -911,6 +889,7 @@
         <f t="shared" si="0"/>
         <v>30.140905796159121</v>
       </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
@@ -932,6 +911,7 @@
         <f t="shared" si="0"/>
         <v>40.374725652841761</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
@@ -953,6 +933,7 @@
         <f t="shared" si="0"/>
         <v>31.54838709677416</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
@@ -974,6 +955,7 @@
         <f t="shared" si="0"/>
         <v>23.8309363636364</v>
       </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
@@ -995,8 +977,9 @@
         <f t="shared" si="0"/>
         <v>26.333896551724159</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1016,8 +999,9 @@
         <f t="shared" si="0"/>
         <v>36.428578043972159</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1037,8 +1021,9 @@
         <f t="shared" si="0"/>
         <v>24.906307057796958</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1058,8 +1043,9 @@
         <f t="shared" si="0"/>
         <v>20.489270279720323</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1079,8 +1065,9 @@
         <f t="shared" si="0"/>
         <v>36.428578043972159</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1100,8 +1087,9 @@
         <f t="shared" si="0"/>
         <v>26.006988966183599</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1121,8 +1109,9 @@
         <f t="shared" si="0"/>
         <v>34.907367672413763</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1142,8 +1131,9 @@
         <f t="shared" si="0"/>
         <v>33.925877205150883</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1163,8 +1153,9 @@
         <f t="shared" si="0"/>
         <v>24.562987049300961</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1184,8 +1175,9 @@
         <f t="shared" si="0"/>
         <v>40.938823966610798</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1205,8 +1197,9 @@
         <f t="shared" si="0"/>
         <v>40.947584557945035</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1226,8 +1219,9 @@
         <f t="shared" si="0"/>
         <v>27.98370057657656</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1247,8 +1241,9 @@
         <f t="shared" si="0"/>
         <v>27.358630079981204</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1268,8 +1263,9 @@
         <f t="shared" si="0"/>
         <v>40.938823966610798</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1289,8 +1285,9 @@
         <f t="shared" si="0"/>
         <v>24.218112301587279</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1310,8 +1307,9 @@
         <f t="shared" si="0"/>
         <v>31.195133333333359</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1331,8 +1329,9 @@
         <f t="shared" si="0"/>
         <v>34.840225358682396</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1352,8 +1351,9 @@
         <f t="shared" si="0"/>
         <v>40.397236969585279</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1373,8 +1373,9 @@
         <f t="shared" si="0"/>
         <v>29.528690006116239</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1394,8 +1395,9 @@
         <f t="shared" si="0"/>
         <v>27.932836842105282</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1415,8 +1417,9 @@
         <f t="shared" si="0"/>
         <v>33.613546034482724</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1436,8 +1439,9 @@
         <f t="shared" si="0"/>
         <v>18.407114484126957</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1457,8 +1461,9 @@
         <f t="shared" si="0"/>
         <v>47.462103571428557</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1478,8 +1483,9 @@
         <f t="shared" si="0"/>
         <v>28.660977666039361</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1499,8 +1505,9 @@
         <f t="shared" si="0"/>
         <v>32.41534527112232</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1520,8 +1527,9 @@
         <f t="shared" si="0"/>
         <v>25.933439669421517</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1541,8 +1549,9 @@
         <f t="shared" si="0"/>
         <v>29.575088235294157</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1562,8 +1571,9 @@
         <f t="shared" si="0"/>
         <v>37.969682857142878</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1583,8 +1593,9 @@
         <f t="shared" si="0"/>
         <v>26.142940258782239</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1604,8 +1615,9 @@
         <f t="shared" si="0"/>
         <v>26.386494953593921</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1625,8 +1637,9 @@
         <f t="shared" si="0"/>
         <v>40.153632363396959</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1646,8 +1659,9 @@
         <f t="shared" si="0"/>
         <v>40.153632363396959</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1667,8 +1681,9 @@
         <f t="shared" si="0"/>
         <v>25.983839999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1688,8 +1703,9 @@
         <f t="shared" si="0"/>
         <v>27.76358515837104</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1709,8 +1725,9 @@
         <f t="shared" si="0"/>
         <v>30.382044444444478</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1730,8 +1747,9 @@
         <f t="shared" si="0"/>
         <v>29.714786963334557</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1751,8 +1769,9 @@
         <f t="shared" si="0"/>
         <v>28.672829918718641</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1772,8 +1791,9 @@
         <f t="shared" si="0"/>
         <v>24.175000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -1793,8 +1813,9 @@
         <f t="shared" si="0"/>
         <v>28.414779494703119</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1814,8 +1835,9 @@
         <f t="shared" si="0"/>
         <v>24.175000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1835,8 +1857,9 @@
         <f t="shared" si="0"/>
         <v>27.741729729729759</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -1856,8 +1879,9 @@
         <f t="shared" si="0"/>
         <v>25.23096362007168</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -1877,8 +1901,9 @@
         <f t="shared" si="0"/>
         <v>38.93229444444448</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -1898,8 +1923,9 @@
         <f t="shared" si="0"/>
         <v>54.482365217391283</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -1919,8 +1945,9 @@
         <f t="shared" si="0"/>
         <v>54.482365217391283</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -1940,8 +1967,9 @@
         <f t="shared" si="0"/>
         <v>27.72314328681648</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -1961,8 +1989,9 @@
         <f t="shared" si="0"/>
         <v>32.4046986479864</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -1982,8 +2011,9 @@
         <f t="shared" si="0"/>
         <v>32.97078567601416</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -2003,6 +2033,7 @@
         <f t="shared" si="0"/>
         <v>29.575088235294157</v>
       </c>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E23">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -228,13 +228,13 @@
     <t>Data aggiornamento</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>luca.bianco@euroirte.it</t>
   </si>
   <si>
     <t>Avanzamento</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -653,7 +653,7 @@
         <v>24.613814790286959</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -677,7 +677,7 @@
         <v>27.007890596133922</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -701,7 +701,7 @@
         <v>26.414217309843121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -725,7 +725,7 @@
         <v>29.731966253002003</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -749,7 +749,7 @@
         <v>31.54838709677416</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -773,7 +773,7 @@
         <v>24.59132306843264</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -797,7 +797,7 @@
         <v>35.249253333333357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$64</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Tecnico</t>
   </si>
@@ -222,9 +222,6 @@
     <t>IRTE0000106 - GOLINO KEVIN</t>
   </si>
   <si>
-    <t>#aggiornamento 25/08</t>
-  </si>
-  <si>
     <t>Data aggiornamento</t>
   </si>
   <si>
@@ -234,7 +231,10 @@
     <t>Avanzamento</t>
   </si>
   <si>
-    <t>mail</t>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>#aggiornamento 28/08</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -637,23 +637,23 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4">
-        <v>30.767268487858701</v>
+        <v>33.493576161649202</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F64" si="0">D2-(D2*E2)/100</f>
-        <v>24.613814790286959</v>
+        <v>26.794860929319363</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -661,23 +661,23 @@
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C3" s="1">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4">
-        <v>33.759863245167402</v>
+        <v>34.045959818753097</v>
       </c>
       <c r="E3" s="6">
         <v>20</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>27.007890596133922</v>
+        <v>27.236767855002476</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -685,31 +685,29 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C4" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4">
-        <v>33.017771637303902</v>
+        <v>33.338765109503598</v>
       </c>
       <c r="E4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>26.414217309843121</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>26.671012087602879</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C5" s="1">
         <v>44</v>
@@ -724,105 +722,97 @@
         <f t="shared" si="0"/>
         <v>29.731966253002003</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C6" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4">
-        <v>39.435483870967701</v>
+        <v>32.614404255319201</v>
       </c>
       <c r="E6" s="6">
         <v>20</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>31.54838709677416</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>26.091523404255362</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C7" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4">
-        <v>30.739153835540801</v>
+        <v>34.681497421862602</v>
       </c>
       <c r="E7" s="6">
         <v>20</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>24.59132306843264</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>27.745197937490083</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C8" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4">
-        <v>44.0615666666667</v>
+        <v>40.051767857142899</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>35.249253333333357</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>32.041414285714318</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C9" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4">
-        <v>30.817504828918299</v>
+        <v>34.637563113547102</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>24.654003863134641</v>
+        <v>27.710050490837681</v>
       </c>
       <c r="G9" s="1"/>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -830,20 +820,20 @@
         <v>12</v>
       </c>
       <c r="B10" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C10" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4">
-        <v>40.578389632936499</v>
+        <v>49.750151811821198</v>
       </c>
       <c r="E10" s="6">
         <v>20</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>32.462711706349197</v>
+        <v>39.80012144945696</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -852,20 +842,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C11" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4">
-        <v>40.578389632936499</v>
+        <v>49.750151811821198</v>
       </c>
       <c r="E11" s="6">
         <v>20</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>32.462711706349197</v>
+        <v>39.80012144945696</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -874,20 +864,20 @@
         <v>14</v>
       </c>
       <c r="B12" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C12" s="1">
         <v>58</v>
       </c>
       <c r="D12" s="4">
-        <v>37.6761322451989</v>
+        <v>38.051405106133501</v>
       </c>
       <c r="E12" s="6">
         <v>20</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>30.140905796159121</v>
+        <v>30.4411240849068</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -896,20 +886,20 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C13" s="1">
         <v>81</v>
       </c>
       <c r="D13" s="4">
-        <v>50.468407066052201</v>
+        <v>50.442304549082202</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>40.374725652841761</v>
+        <v>40.353843639265762</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -918,20 +908,20 @@
         <v>16</v>
       </c>
       <c r="B14" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4">
-        <v>39.435483870967701</v>
+        <v>32.614404255319201</v>
       </c>
       <c r="E14" s="6">
         <v>20</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>31.54838709677416</v>
+        <v>26.091523404255362</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -940,20 +930,20 @@
         <v>17</v>
       </c>
       <c r="B15" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C15" s="1">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
-        <v>29.7886704545455</v>
+        <v>32.573919642857099</v>
       </c>
       <c r="E15" s="6">
         <v>20</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>23.8309363636364</v>
+        <v>26.059135714285681</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -962,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C16" s="1">
         <v>120</v>
@@ -984,20 +974,20 @@
         <v>19</v>
       </c>
       <c r="B17" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C17" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4">
-        <v>45.535722554965197</v>
+        <v>48.715567981664201</v>
       </c>
       <c r="E17" s="6">
         <v>20</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>36.428578043972159</v>
+        <v>38.972454385331361</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1006,20 +996,20 @@
         <v>20</v>
       </c>
       <c r="B18" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C18" s="1">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
-        <v>31.1328838222462</v>
+        <v>31.854371052404499</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>24.906307057796958</v>
+        <v>25.4834968419236</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1028,20 +1018,20 @@
         <v>21</v>
       </c>
       <c r="B19" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C19" s="1">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4">
-        <v>25.611587849650402</v>
+        <v>29.103016639433601</v>
       </c>
       <c r="E19" s="6">
         <v>20</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>20.489270279720323</v>
+        <v>23.282413311546883</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1050,20 +1040,20 @@
         <v>22</v>
       </c>
       <c r="B20" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C20" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4">
-        <v>45.535722554965197</v>
+        <v>48.773530770417103</v>
       </c>
       <c r="E20" s="6">
         <v>20</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>36.428578043972159</v>
+        <v>39.018824616333681</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1072,20 +1062,20 @@
         <v>23</v>
       </c>
       <c r="B21" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C21" s="1">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D21" s="4">
-        <v>32.508736207729498</v>
+        <v>35.194614888663999</v>
       </c>
       <c r="E21" s="6">
         <v>20</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>26.006988966183599</v>
+        <v>28.1556919109312</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1094,20 +1084,20 @@
         <v>24</v>
       </c>
       <c r="B22" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C22" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4">
-        <v>43.634209590517202</v>
+        <v>43.148011119886398</v>
       </c>
       <c r="E22" s="6">
         <v>20</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>34.907367672413763</v>
+        <v>34.518408895909118</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1116,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C23" s="1">
         <v>80</v>
@@ -1138,20 +1128,20 @@
         <v>26</v>
       </c>
       <c r="B24" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C24" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4">
-        <v>30.703733811626201</v>
+        <v>34.663014010083401</v>
       </c>
       <c r="E24" s="6">
         <v>20</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>24.562987049300961</v>
+        <v>27.73041120806672</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1160,20 +1150,20 @@
         <v>27</v>
       </c>
       <c r="B25" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C25" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4">
-        <v>51.173529958263501</v>
+        <v>49.727448459003497</v>
       </c>
       <c r="E25" s="6">
         <v>20</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>40.938823966610798</v>
+        <v>39.781958767202795</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1182,20 +1172,20 @@
         <v>28</v>
       </c>
       <c r="B26" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C26" s="1">
         <v>72</v>
       </c>
       <c r="D26" s="4">
-        <v>51.184480697431297</v>
+        <v>51.475803969236203</v>
       </c>
       <c r="E26" s="6">
         <v>20</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>40.947584557945035</v>
+        <v>41.180643175388965</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1204,20 +1194,20 @@
         <v>29</v>
       </c>
       <c r="B27" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C27" s="1">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D27" s="4">
-        <v>34.979625720720698</v>
+        <v>37.113206103494001</v>
       </c>
       <c r="E27" s="6">
         <v>20</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>27.98370057657656</v>
+        <v>29.690564882795201</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1226,20 +1216,20 @@
         <v>30</v>
       </c>
       <c r="B28" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C28" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4">
-        <v>34.198287599976503</v>
+        <v>36.325160511523201</v>
       </c>
       <c r="E28" s="6">
         <v>20</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>27.358630079981204</v>
+        <v>29.06012840921856</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1248,20 +1238,20 @@
         <v>31</v>
       </c>
       <c r="B29" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C29" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4">
-        <v>51.173529958263501</v>
+        <v>49.840954827262102</v>
       </c>
       <c r="E29" s="6">
         <v>20</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>40.938823966610798</v>
+        <v>39.87276386180968</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1270,20 +1260,20 @@
         <v>32</v>
       </c>
       <c r="B30" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C30" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4">
-        <v>30.2726403769841</v>
+        <v>29.6128112244898</v>
       </c>
       <c r="E30" s="6">
         <v>20</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>24.218112301587279</v>
+        <v>23.690248979591839</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1292,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C31" s="1">
         <v>88</v>
@@ -1314,20 +1304,20 @@
         <v>34</v>
       </c>
       <c r="B32" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C32" s="1">
         <v>80</v>
       </c>
       <c r="D32" s="4">
-        <v>43.550281698352997</v>
+        <v>43.6</v>
       </c>
       <c r="E32" s="6">
         <v>20</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>34.840225358682396</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1336,20 +1326,20 @@
         <v>35</v>
       </c>
       <c r="B33" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C33" s="1">
         <v>75</v>
       </c>
       <c r="D33" s="4">
-        <v>50.496546211981602</v>
+        <v>50.471487795690301</v>
       </c>
       <c r="E33" s="6">
         <v>20</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>40.397236969585279</v>
+        <v>40.377190236552238</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1358,20 +1348,20 @@
         <v>36</v>
       </c>
       <c r="B34" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C34" s="1">
         <v>109</v>
       </c>
       <c r="D34" s="4">
-        <v>36.910862507645298</v>
+        <v>38.687102321483799</v>
       </c>
       <c r="E34" s="6">
         <v>20</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>29.528690006116239</v>
+        <v>30.949681857187038</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1380,20 +1370,20 @@
         <v>37</v>
       </c>
       <c r="B35" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D35" s="4">
-        <v>34.9160460526316</v>
+        <v>33.361909090909101</v>
       </c>
       <c r="E35" s="6">
         <v>20</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>27.932836842105282</v>
+        <v>26.689527272727283</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1402,20 +1392,20 @@
         <v>38</v>
       </c>
       <c r="B36" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C36" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D36" s="4">
-        <v>42.016932543103401</v>
+        <v>41.985297270653597</v>
       </c>
       <c r="E36" s="6">
         <v>20</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>33.613546034482724</v>
+        <v>33.588237816522877</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1424,20 +1414,20 @@
         <v>39</v>
       </c>
       <c r="B37" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C37" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D37" s="4">
-        <v>23.008893105158698</v>
+        <v>23.6698475765306</v>
       </c>
       <c r="E37" s="6">
         <v>20</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>18.407114484126957</v>
+        <v>18.935878061224479</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1446,20 +1436,20 @@
         <v>40</v>
       </c>
       <c r="B38" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C38" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4">
-        <v>59.3276294642857</v>
+        <v>55.963805269905897</v>
       </c>
       <c r="E38" s="6">
         <v>20</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>47.462103571428557</v>
+        <v>44.771044215924718</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1468,20 +1458,20 @@
         <v>41</v>
       </c>
       <c r="B39" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C39" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4">
-        <v>35.826222082549201</v>
+        <v>37.174130954177599</v>
       </c>
       <c r="E39" s="6">
         <v>20</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>28.660977666039361</v>
+        <v>29.73930476334208</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1490,20 +1480,20 @@
         <v>42</v>
       </c>
       <c r="B40" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C40" s="1">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4">
-        <v>40.519181588902903</v>
+        <v>40.7395564013841</v>
       </c>
       <c r="E40" s="6">
         <v>20</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="0"/>
-        <v>32.41534527112232</v>
+        <v>32.591645121107277</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1512,20 +1502,20 @@
         <v>43</v>
       </c>
       <c r="B41" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C41" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D41" s="4">
-        <v>32.416799586776897</v>
+        <v>32.339772664835202</v>
       </c>
       <c r="E41" s="6">
         <v>20</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="0"/>
-        <v>25.933439669421517</v>
+        <v>25.87181813186816</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1534,20 +1524,20 @@
         <v>44</v>
       </c>
       <c r="B42" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C42" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D42" s="4">
-        <v>36.968860294117697</v>
+        <v>37.146762500000001</v>
       </c>
       <c r="E42" s="6">
         <v>20</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="0"/>
-        <v>29.575088235294157</v>
+        <v>29.717410000000001</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1556,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C43" s="1">
         <v>40</v>
@@ -1578,20 +1568,20 @@
         <v>46</v>
       </c>
       <c r="B44" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C44" s="1">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D44" s="4">
-        <v>32.678675323477798</v>
+        <v>33.509018629645801</v>
       </c>
       <c r="E44" s="6">
         <v>20</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
-        <v>26.142940258782239</v>
+        <v>26.807214903716641</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1600,20 +1590,20 @@
         <v>47</v>
       </c>
       <c r="B45" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C45" s="1">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4">
-        <v>32.983118691992402</v>
+        <v>34.025030428607302</v>
       </c>
       <c r="E45" s="6">
         <v>20</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="0"/>
-        <v>26.386494953593921</v>
+        <v>27.220024342885843</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1622,20 +1612,20 @@
         <v>48</v>
       </c>
       <c r="B46" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C46" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D46" s="4">
-        <v>50.192040454246197</v>
+        <v>50.1459122007183</v>
       </c>
       <c r="E46" s="6">
         <v>20</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="0"/>
-        <v>40.153632363396959</v>
+        <v>40.116729760574643</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1644,20 +1634,20 @@
         <v>49</v>
       </c>
       <c r="B47" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C47" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D47" s="4">
-        <v>50.192040454246197</v>
+        <v>50.1459122007183</v>
       </c>
       <c r="E47" s="6">
         <v>20</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="0"/>
-        <v>40.153632363396959</v>
+        <v>40.116729760574643</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1666,20 +1656,20 @@
         <v>50</v>
       </c>
       <c r="B48" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C48" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D48" s="4">
-        <v>32.479799999999997</v>
+        <v>36.952222222222197</v>
       </c>
       <c r="E48" s="6">
         <v>20</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="0"/>
-        <v>25.983839999999997</v>
+        <v>29.561777777777756</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1688,20 +1678,20 @@
         <v>51</v>
       </c>
       <c r="B49" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C49" s="1">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D49" s="4">
-        <v>34.704481447963801</v>
+        <v>36.661600051440303</v>
       </c>
       <c r="E49" s="6">
         <v>20</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="0"/>
-        <v>27.76358515837104</v>
+        <v>29.329280041152241</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1710,20 +1700,20 @@
         <v>52</v>
       </c>
       <c r="B50" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C50" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4">
-        <v>37.977555555555597</v>
+        <v>41.718985994397798</v>
       </c>
       <c r="E50" s="6">
         <v>20</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="0"/>
-        <v>30.382044444444478</v>
+        <v>33.375188795518241</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1732,20 +1722,20 @@
         <v>53</v>
       </c>
       <c r="B51" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C51" s="1">
         <v>144</v>
       </c>
       <c r="D51" s="4">
-        <v>37.143483704168197</v>
+        <v>40.593911633986899</v>
       </c>
       <c r="E51" s="6">
         <v>20</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="0"/>
-        <v>29.714786963334557</v>
+        <v>32.475129307189519</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1754,20 +1744,20 @@
         <v>54</v>
       </c>
       <c r="B52" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C52" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D52" s="4">
-        <v>35.841037398398299</v>
+        <v>34.372724362841304</v>
       </c>
       <c r="E52" s="6">
         <v>20</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="0"/>
-        <v>28.672829918718641</v>
+        <v>27.498179490273042</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1776,20 +1766,20 @@
         <v>55</v>
       </c>
       <c r="B53" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C53" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D53" s="4">
-        <v>30.21875</v>
+        <v>36.976624999999999</v>
       </c>
       <c r="E53" s="6">
         <v>20</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="0"/>
-        <v>24.175000000000001</v>
+        <v>29.581299999999999</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1798,20 +1788,20 @@
         <v>56</v>
       </c>
       <c r="B54" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C54" s="1">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4">
-        <v>35.518474368378897</v>
+        <v>37.077519030687299</v>
       </c>
       <c r="E54" s="6">
         <v>20</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="0"/>
-        <v>28.414779494703119</v>
+        <v>29.66201522454984</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1820,20 +1810,20 @@
         <v>57</v>
       </c>
       <c r="B55" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C55" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D55" s="4">
-        <v>30.21875</v>
+        <v>36.976624999999999</v>
       </c>
       <c r="E55" s="6">
         <v>20</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="0"/>
-        <v>24.175000000000001</v>
+        <v>29.581299999999999</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1842,20 +1832,20 @@
         <v>58</v>
       </c>
       <c r="B56" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C56" s="1">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D56" s="4">
-        <v>34.677162162162197</v>
+        <v>36.926553509509098</v>
       </c>
       <c r="E56" s="6">
         <v>20</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="0"/>
-        <v>27.741729729729759</v>
+        <v>29.541242807607279</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1864,20 +1854,20 @@
         <v>59</v>
       </c>
       <c r="B57" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C57" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D57" s="4">
-        <v>31.538704525089599</v>
+        <v>29.4941557469323</v>
       </c>
       <c r="E57" s="6">
         <v>20</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="0"/>
-        <v>25.23096362007168</v>
+        <v>23.59532459754584</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1886,20 +1876,20 @@
         <v>60</v>
       </c>
       <c r="B58" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C58" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D58" s="4">
-        <v>48.665368055555597</v>
+        <v>51.568374177631597</v>
       </c>
       <c r="E58" s="6">
         <v>20</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="0"/>
-        <v>38.93229444444448</v>
+        <v>41.254699342105276</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1908,20 +1898,20 @@
         <v>61</v>
       </c>
       <c r="B59" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C59" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4">
-        <v>68.102956521739102</v>
+        <v>57.8625928571429</v>
       </c>
       <c r="E59" s="6">
         <v>20</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="0"/>
-        <v>54.482365217391283</v>
+        <v>46.290074285714319</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -1930,20 +1920,20 @@
         <v>62</v>
       </c>
       <c r="B60" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C60" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
-        <v>68.102956521739102</v>
+        <v>57.8625928571429</v>
       </c>
       <c r="E60" s="6">
         <v>20</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="0"/>
-        <v>54.482365217391283</v>
+        <v>46.290074285714319</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -1952,20 +1942,20 @@
         <v>63</v>
       </c>
       <c r="B61" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C61" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D61" s="4">
-        <v>34.6539291085206</v>
+        <v>35.228637661990398</v>
       </c>
       <c r="E61" s="6">
         <v>20</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="0"/>
-        <v>27.72314328681648</v>
+        <v>28.182910129592319</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -1974,20 +1964,20 @@
         <v>64</v>
       </c>
       <c r="B62" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C62" s="1">
         <v>40</v>
       </c>
       <c r="D62" s="4">
-        <v>40.505873309983002</v>
+        <v>42.8507583977024</v>
       </c>
       <c r="E62" s="6">
         <v>20</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="0"/>
-        <v>32.4046986479864</v>
+        <v>34.28060671816192</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -1996,20 +1986,20 @@
         <v>65</v>
       </c>
       <c r="B63" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C63" s="1">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D63" s="4">
-        <v>41.213482095017703</v>
+        <v>40.9669293114776</v>
       </c>
       <c r="E63" s="6">
         <v>20</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="0"/>
-        <v>32.97078567601416</v>
+        <v>32.773543449182078</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -2018,30 +2008,27 @@
         <v>66</v>
       </c>
       <c r="B64" s="7">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="C64" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D64" s="4">
-        <v>36.968860294117697</v>
+        <v>37.146762500000001</v>
       </c>
       <c r="E64" s="6">
         <v>20</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="0"/>
-        <v>29.575088235294157</v>
+        <v>29.717410000000001</v>
       </c>
       <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23">
-    <filterColumn colId="1"/>
-  </autoFilter>
+  <autoFilter ref="A1:G64"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3:G8" r:id="rId2" display="luca.bianco@euroirte.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28692" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
   <si>
     <t>Tecnico</t>
   </si>
@@ -431,7 +431,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;€&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,###,###,##0&quot; h.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,###,###,##0&quot; h.&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -543,10 +543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -844,22 +844,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C2" s="9">
         <v>80</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C3" s="9">
         <v>178</v>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C4" s="9">
         <v>88</v>
@@ -969,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C5" s="9">
         <v>44</v>
@@ -994,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C6" s="9">
         <v>72</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C7" s="9">
         <v>104</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C8" s="9">
         <v>104</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C9" s="9">
         <v>144</v>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C10" s="9">
         <v>80</v>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C11" s="9">
         <v>88</v>
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C12" s="9">
         <v>58</v>
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C13" s="9">
         <v>81</v>
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C14" s="9">
         <v>80</v>
@@ -1222,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C15" s="9">
         <v>112</v>
@@ -1247,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C16" s="9">
         <v>120</v>
@@ -1272,7 +1272,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C17" s="9">
         <v>88</v>
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C18" s="9">
         <v>108</v>
@@ -1322,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C19" s="9">
         <v>88</v>
@@ -1347,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C20" s="9">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C21" s="9">
         <v>168</v>
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C22" s="9">
         <v>88</v>
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C23" s="9">
         <v>80</v>
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C24" s="9">
         <v>88</v>
@@ -1472,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C25" s="9">
         <v>128</v>
@@ -1497,7 +1497,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C26" s="9">
         <v>72</v>
@@ -1522,7 +1522,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C27" s="9">
         <v>176</v>
@@ -1547,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C28" s="9">
         <v>80</v>
@@ -1572,7 +1572,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C29" s="9">
         <v>120</v>
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C30" s="9">
         <v>72</v>
@@ -1622,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C31" s="9">
         <v>88</v>
@@ -1647,7 +1647,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C32" s="9">
         <v>80</v>
@@ -1672,7 +1672,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C33" s="9">
         <v>83</v>
@@ -1697,7 +1697,7 @@
         <v>133</v>
       </c>
       <c r="B34" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C34" s="9">
         <v>109</v>
@@ -1715,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C35" s="9">
         <v>176</v>
@@ -1740,7 +1740,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C36" s="9">
         <v>80</v>
@@ -1765,7 +1765,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C37" s="9">
         <v>72</v>
@@ -1790,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="9">
         <v>64</v>
@@ -1815,7 +1815,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C39" s="9">
         <v>88</v>
@@ -1840,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C40" s="9">
         <v>101</v>
@@ -1865,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C41" s="9">
         <v>112</v>
@@ -1890,7 +1890,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C42" s="9">
         <v>176</v>
@@ -1915,7 +1915,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C43" s="9">
         <v>48</v>
@@ -1940,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C44" s="9">
         <v>124</v>
@@ -1965,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C45" s="9">
         <v>184</v>
@@ -1990,7 +1990,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C46" s="9">
         <v>152</v>
@@ -2015,7 +2015,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C47" s="9">
         <v>152</v>
@@ -2040,7 +2040,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C48" s="9">
         <v>144</v>
@@ -2065,7 +2065,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C49" s="9">
         <v>176</v>
@@ -2090,7 +2090,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C50" s="9">
         <v>88</v>
@@ -2115,7 +2115,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C51" s="9">
         <v>176</v>
@@ -2140,7 +2140,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C52" s="9">
         <v>168</v>
@@ -2165,7 +2165,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C53" s="9">
         <v>104</v>
@@ -2190,7 +2190,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C54" s="9">
         <v>160</v>
@@ -2215,7 +2215,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C55" s="9">
         <v>104</v>
@@ -2240,7 +2240,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C56" s="9">
         <v>184</v>
@@ -2265,7 +2265,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C57" s="9">
         <v>88</v>
@@ -2290,7 +2290,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C58" s="9">
         <v>32</v>
@@ -2315,7 +2315,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C59" s="9">
         <v>80</v>
@@ -2340,7 +2340,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C60" s="9">
         <v>80</v>
@@ -2365,7 +2365,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C61" s="9">
         <v>176</v>
@@ -2390,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C62" s="9">
         <v>40</v>
@@ -2415,7 +2415,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C63" s="9">
         <v>144</v>
@@ -2440,7 +2440,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C64" s="9">
         <v>176</v>
@@ -2465,7 +2465,7 @@
         <v>134</v>
       </c>
       <c r="B65" s="7">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C65" s="10">
         <v>8</v>
@@ -2477,11 +2477,1606 @@
         <v>20</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ref="F65" si="1">D65-(D65*E65)/100</f>
+        <f t="shared" ref="F65:F97" si="1">D65-(D65*E65)/100</f>
         <v>44.117918253968242</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C66" s="9">
+        <v>8</v>
+      </c>
+      <c r="D66" s="4">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6">
+        <v>20</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C67" s="9">
+        <v>178</v>
+      </c>
+      <c r="D67" s="4">
+        <v>37.471191269757803</v>
+      </c>
+      <c r="E67" s="6">
+        <v>20</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="1"/>
+        <v>29.976953015806242</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C68" s="9">
+        <v>88</v>
+      </c>
+      <c r="D68" s="4">
+        <v>35.873228451258399</v>
+      </c>
+      <c r="E68" s="6">
+        <v>20</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="1"/>
+        <v>28.698582761006719</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C69" s="9">
+        <v>44</v>
+      </c>
+      <c r="D69" s="4">
+        <v>38.767588703437603</v>
+      </c>
+      <c r="E69" s="6">
+        <v>20</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="1"/>
+        <v>31.014070962750083</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C70" s="9">
+        <v>72</v>
+      </c>
+      <c r="D70" s="4">
+        <v>33.901364035087703</v>
+      </c>
+      <c r="E70" s="6">
+        <v>20</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="1"/>
+        <v>27.121091228070163</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C71" s="9">
+        <v>104</v>
+      </c>
+      <c r="D71" s="4">
+        <v>33.8106152355397</v>
+      </c>
+      <c r="E71" s="6">
+        <v>20</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="1"/>
+        <v>27.048492188431759</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C72" s="9">
+        <v>104</v>
+      </c>
+      <c r="D72" s="4">
+        <v>42.480804999999997</v>
+      </c>
+      <c r="E72" s="6">
+        <v>20</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="1"/>
+        <v>33.984643999999996</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C73" s="9">
+        <v>144</v>
+      </c>
+      <c r="D73" s="4">
+        <v>33.410398368160898</v>
+      </c>
+      <c r="E73" s="6">
+        <v>20</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="1"/>
+        <v>26.728318694528717</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C74" s="9">
+        <v>80</v>
+      </c>
+      <c r="D74" s="4">
+        <v>56.036142410714298</v>
+      </c>
+      <c r="E74" s="6">
+        <v>20</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="1"/>
+        <v>44.828913928571438</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C75" s="9">
+        <v>88</v>
+      </c>
+      <c r="D75" s="4">
+        <v>57.025137581168799</v>
+      </c>
+      <c r="E75" s="6">
+        <v>20</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="1"/>
+        <v>45.620110064935041</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C76" s="9">
+        <v>58</v>
+      </c>
+      <c r="D76" s="4">
+        <v>41.678208919916798</v>
+      </c>
+      <c r="E76" s="6">
+        <v>20</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="1"/>
+        <v>33.342567135933436</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C77" s="9">
+        <v>81</v>
+      </c>
+      <c r="D77" s="4">
+        <v>49.833428893489803</v>
+      </c>
+      <c r="E77" s="6">
+        <v>20</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="1"/>
+        <v>39.866743114791845</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C78" s="9">
+        <v>80</v>
+      </c>
+      <c r="D78" s="4">
+        <v>33.901364035087703</v>
+      </c>
+      <c r="E78" s="6">
+        <v>20</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="1"/>
+        <v>27.121091228070163</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C79" s="9">
+        <v>112</v>
+      </c>
+      <c r="D79" s="4">
+        <v>35.231900000000003</v>
+      </c>
+      <c r="E79" s="6">
+        <v>20</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="1"/>
+        <v>28.185520000000004</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C80" s="9">
+        <v>120</v>
+      </c>
+      <c r="D80" s="4">
+        <v>32.917370689655201</v>
+      </c>
+      <c r="E80" s="6">
+        <v>20</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="1"/>
+        <v>26.333896551724159</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C81" s="9">
+        <v>88</v>
+      </c>
+      <c r="D81" s="4">
+        <v>50.621781176790499</v>
+      </c>
+      <c r="E81" s="6">
+        <v>20</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="1"/>
+        <v>40.497424941432399</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C82" s="9">
+        <v>108</v>
+      </c>
+      <c r="D82" s="4">
+        <v>29.428291115808801</v>
+      </c>
+      <c r="E82" s="6">
+        <v>20</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="1"/>
+        <v>23.542632892647042</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C83" s="9">
+        <v>88</v>
+      </c>
+      <c r="D83" s="4">
+        <v>33.143076233592602</v>
+      </c>
+      <c r="E83" s="6">
+        <v>20</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="1"/>
+        <v>26.514460986874081</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C84" s="9">
+        <v>80</v>
+      </c>
+      <c r="D84" s="4">
+        <v>50.7137183306141</v>
+      </c>
+      <c r="E84" s="6">
+        <v>20</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="1"/>
+        <v>40.570974664491281</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C85" s="9">
+        <v>168</v>
+      </c>
+      <c r="D85" s="4">
+        <v>35.228261827458297</v>
+      </c>
+      <c r="E85" s="6">
+        <v>20</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="1"/>
+        <v>28.182609461966639</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C86" s="9">
+        <v>88</v>
+      </c>
+      <c r="D86" s="4">
+        <v>50.631631236291803</v>
+      </c>
+      <c r="E86" s="6">
+        <v>20</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="1"/>
+        <v>40.505304989033441</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C87" s="9">
+        <v>80</v>
+      </c>
+      <c r="D87" s="4">
+        <v>42.774616084751898</v>
+      </c>
+      <c r="E87" s="6">
+        <v>20</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="1"/>
+        <v>34.21969286780152</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C88" s="9">
+        <v>88</v>
+      </c>
+      <c r="D88" s="4">
+        <v>33.827031536293198</v>
+      </c>
+      <c r="E88" s="6">
+        <v>20</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="1"/>
+        <v>27.061625229034558</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C89" s="9">
+        <v>128</v>
+      </c>
+      <c r="D89" s="4">
+        <v>54.794365825797101</v>
+      </c>
+      <c r="E89" s="6">
+        <v>20</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>43.835492660637684</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C90" s="9">
+        <v>72</v>
+      </c>
+      <c r="D90" s="4">
+        <v>63.300873226190497</v>
+      </c>
+      <c r="E90" s="6">
+        <v>20</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="1"/>
+        <v>50.640698580952396</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C91" s="9">
+        <v>176</v>
+      </c>
+      <c r="D91" s="4">
+        <v>35.9104838079122</v>
+      </c>
+      <c r="E91" s="6">
+        <v>20</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="1"/>
+        <v>28.728387046329761</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C92" s="9">
+        <v>80</v>
+      </c>
+      <c r="D92" s="4">
+        <v>36.147401980316403</v>
+      </c>
+      <c r="E92" s="6">
+        <v>20</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="1"/>
+        <v>28.917921584253122</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C93" s="9">
+        <v>120</v>
+      </c>
+      <c r="D93" s="4">
+        <v>55.133829571613298</v>
+      </c>
+      <c r="E93" s="6">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="1"/>
+        <v>44.107063657290638</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C94" s="9">
+        <v>72</v>
+      </c>
+      <c r="D94" s="4">
+        <v>65.598487654321005</v>
+      </c>
+      <c r="E94" s="6">
+        <v>20</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="1"/>
+        <v>52.478790123456804</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C95" s="9">
+        <v>88</v>
+      </c>
+      <c r="D95" s="4">
+        <v>38.993916666666699</v>
+      </c>
+      <c r="E95" s="6">
+        <v>20</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="1"/>
+        <v>31.195133333333359</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C96" s="9">
+        <v>80</v>
+      </c>
+      <c r="D96" s="4">
+        <v>43.648220252569899</v>
+      </c>
+      <c r="E96" s="6">
+        <v>20</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="1"/>
+        <v>34.918576202055917</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C97" s="9">
+        <v>83</v>
+      </c>
+      <c r="D97" s="4">
+        <v>49.817302907696998</v>
+      </c>
+      <c r="E97" s="6">
+        <v>20</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="1"/>
+        <v>39.853842326157597</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C98" s="9">
+        <v>109</v>
+      </c>
+      <c r="D98" s="4">
+        <v>39.548839420416499</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C99" s="9">
+        <v>176</v>
+      </c>
+      <c r="D99" s="4">
+        <v>35.366809782608698</v>
+      </c>
+      <c r="E99" s="6">
+        <v>20</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" ref="F99:F129" si="2">D99-(D99*E99)/100</f>
+        <v>28.293447826086958</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C100" s="9">
+        <v>80</v>
+      </c>
+      <c r="D100" s="4">
+        <v>49.989056165476498</v>
+      </c>
+      <c r="E100" s="6">
+        <v>20</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="2"/>
+        <v>39.9912449323812</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C101" s="9">
+        <v>72</v>
+      </c>
+      <c r="D101" s="4">
+        <v>66.910549107142899</v>
+      </c>
+      <c r="E101" s="6">
+        <v>20</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="2"/>
+        <v>53.52843928571432</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C102" s="9">
+        <v>64</v>
+      </c>
+      <c r="D102" s="4">
+        <v>62.975282023377297</v>
+      </c>
+      <c r="E102" s="6">
+        <v>20</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="2"/>
+        <v>50.380225618701836</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C103" s="9">
+        <v>88</v>
+      </c>
+      <c r="D103" s="4">
+        <v>36.858174027143399</v>
+      </c>
+      <c r="E103" s="6">
+        <v>20</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="2"/>
+        <v>29.486539221714718</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C104" s="9">
+        <v>101</v>
+      </c>
+      <c r="D104" s="4">
+        <v>43.032317067420998</v>
+      </c>
+      <c r="E104" s="6">
+        <v>20</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="2"/>
+        <v>34.425853653936798</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C105" s="9">
+        <v>112</v>
+      </c>
+      <c r="D105" s="4">
+        <v>35.906135714285703</v>
+      </c>
+      <c r="E105" s="6">
+        <v>20</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="2"/>
+        <v>28.724908571428564</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C106" s="9">
+        <v>176</v>
+      </c>
+      <c r="D106" s="4">
+        <v>40.199076704545497</v>
+      </c>
+      <c r="E106" s="6">
+        <v>20</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="2"/>
+        <v>32.159261363636396</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C107" s="9">
+        <v>48</v>
+      </c>
+      <c r="D107" s="4">
+        <v>55.735333333333301</v>
+      </c>
+      <c r="E107" s="6">
+        <v>20</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="2"/>
+        <v>44.588266666666641</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C108" s="9">
+        <v>124</v>
+      </c>
+      <c r="D108" s="4">
+        <v>30.8341437850064</v>
+      </c>
+      <c r="E108" s="6">
+        <v>20</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="2"/>
+        <v>24.66731502800512</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C109" s="9">
+        <v>184</v>
+      </c>
+      <c r="D109" s="4">
+        <v>34.819682315967803</v>
+      </c>
+      <c r="E109" s="6">
+        <v>20</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="2"/>
+        <v>27.855745852774241</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C110" s="9">
+        <v>152</v>
+      </c>
+      <c r="D110" s="4">
+        <v>49.269868126838801</v>
+      </c>
+      <c r="E110" s="6">
+        <v>20</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="2"/>
+        <v>39.415894501471044</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C111" s="9">
+        <v>152</v>
+      </c>
+      <c r="D111" s="4">
+        <v>49.269868126838801</v>
+      </c>
+      <c r="E111" s="6">
+        <v>20</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="2"/>
+        <v>39.415894501471044</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C112" s="9">
+        <v>144</v>
+      </c>
+      <c r="D112" s="4">
+        <v>38.888214285714199</v>
+      </c>
+      <c r="E112" s="6">
+        <v>20</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="2"/>
+        <v>31.110571428571358</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C113" s="9">
+        <v>176</v>
+      </c>
+      <c r="D113" s="4">
+        <v>37.0796970731474</v>
+      </c>
+      <c r="E113" s="6">
+        <v>20</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="2"/>
+        <v>29.66375765851792</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C114" s="9">
+        <v>88</v>
+      </c>
+      <c r="D114" s="4">
+        <v>40.680184210526299</v>
+      </c>
+      <c r="E114" s="6">
+        <v>20</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="2"/>
+        <v>32.544147368421037</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C115" s="9">
+        <v>176</v>
+      </c>
+      <c r="D115" s="4">
+        <v>39.904647620700104</v>
+      </c>
+      <c r="E115" s="6">
+        <v>20</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="2"/>
+        <v>31.923718096560084</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C116" s="9">
+        <v>168</v>
+      </c>
+      <c r="D116" s="4">
+        <v>35.748658582615001</v>
+      </c>
+      <c r="E116" s="6">
+        <v>20</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="2"/>
+        <v>28.598926866092</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C117" s="9">
+        <v>104</v>
+      </c>
+      <c r="D117" s="4">
+        <v>35.489615384615398</v>
+      </c>
+      <c r="E117" s="6">
+        <v>20</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="2"/>
+        <v>28.391692307692317</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C118" s="9">
+        <v>160</v>
+      </c>
+      <c r="D118" s="4">
+        <v>37.692864038656097</v>
+      </c>
+      <c r="E118" s="6">
+        <v>20</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="2"/>
+        <v>30.154291230924876</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C119" s="9">
+        <v>104</v>
+      </c>
+      <c r="D119" s="4">
+        <v>35.489615384615398</v>
+      </c>
+      <c r="E119" s="6">
+        <v>20</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="2"/>
+        <v>28.391692307692317</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C120" s="9">
+        <v>184</v>
+      </c>
+      <c r="D120" s="4">
+        <v>35.756832265699899</v>
+      </c>
+      <c r="E120" s="6">
+        <v>20</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="2"/>
+        <v>28.60546581255992</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C121" s="9">
+        <v>88</v>
+      </c>
+      <c r="D121" s="4">
+        <v>39.940754471405803</v>
+      </c>
+      <c r="E121" s="6">
+        <v>20</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="2"/>
+        <v>31.952603577124641</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C122" s="9">
+        <v>32</v>
+      </c>
+      <c r="D122" s="4">
+        <v>103.419017857143</v>
+      </c>
+      <c r="E122" s="6">
+        <v>20</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="2"/>
+        <v>82.735214285714406</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C123" s="9">
+        <v>80</v>
+      </c>
+      <c r="D123" s="4">
+        <v>54.355906976744201</v>
+      </c>
+      <c r="E123" s="6">
+        <v>20</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="2"/>
+        <v>43.484725581395359</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C124" s="9">
+        <v>80</v>
+      </c>
+      <c r="D124" s="4">
+        <v>54.355906976744201</v>
+      </c>
+      <c r="E124" s="6">
+        <v>20</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="2"/>
+        <v>43.484725581395359</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C125" s="9">
+        <v>176</v>
+      </c>
+      <c r="D125" s="4">
+        <v>37.093207839738596</v>
+      </c>
+      <c r="E125" s="6">
+        <v>20</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="2"/>
+        <v>29.674566271790876</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C126" s="9">
+        <v>40</v>
+      </c>
+      <c r="D126" s="4">
+        <v>64.570401411675505</v>
+      </c>
+      <c r="E126" s="6">
+        <v>20</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="2"/>
+        <v>51.656321129340405</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C127" s="9">
+        <v>144</v>
+      </c>
+      <c r="D127" s="4">
+        <v>47.510096316225201</v>
+      </c>
+      <c r="E127" s="6">
+        <v>20</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="2"/>
+        <v>38.008077052980163</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C128" s="9">
+        <v>176</v>
+      </c>
+      <c r="D128" s="4">
+        <v>40.199076704545497</v>
+      </c>
+      <c r="E128" s="6">
+        <v>20</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="2"/>
+        <v>32.159261363636396</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C129" s="10">
+        <v>8</v>
+      </c>
+      <c r="D129" s="4">
+        <v>55.147397817460302</v>
+      </c>
+      <c r="E129" s="6">
+        <v>20</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="2"/>
+        <v>44.117918253968242</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G64"/>
@@ -2549,6 +4144,69 @@
     <hyperlink ref="H62" r:id="rId61"/>
     <hyperlink ref="H63" r:id="rId62"/>
     <hyperlink ref="H64" r:id="rId63"/>
+    <hyperlink ref="G66" r:id="rId64"/>
+    <hyperlink ref="H66" r:id="rId65"/>
+    <hyperlink ref="H67" r:id="rId66"/>
+    <hyperlink ref="H68" r:id="rId67"/>
+    <hyperlink ref="H69" r:id="rId68"/>
+    <hyperlink ref="H70" r:id="rId69"/>
+    <hyperlink ref="H71" r:id="rId70"/>
+    <hyperlink ref="H72" r:id="rId71"/>
+    <hyperlink ref="H73" r:id="rId72"/>
+    <hyperlink ref="H74" r:id="rId73"/>
+    <hyperlink ref="H75" r:id="rId74"/>
+    <hyperlink ref="H76" r:id="rId75"/>
+    <hyperlink ref="H77" r:id="rId76"/>
+    <hyperlink ref="H78" r:id="rId77"/>
+    <hyperlink ref="H79" r:id="rId78"/>
+    <hyperlink ref="H80" r:id="rId79"/>
+    <hyperlink ref="H81" r:id="rId80"/>
+    <hyperlink ref="H82" r:id="rId81"/>
+    <hyperlink ref="H83" r:id="rId82"/>
+    <hyperlink ref="H84" r:id="rId83"/>
+    <hyperlink ref="H85" r:id="rId84"/>
+    <hyperlink ref="H86" r:id="rId85"/>
+    <hyperlink ref="H87" r:id="rId86"/>
+    <hyperlink ref="H88" r:id="rId87"/>
+    <hyperlink ref="H89" r:id="rId88"/>
+    <hyperlink ref="H90" r:id="rId89"/>
+    <hyperlink ref="H91" r:id="rId90"/>
+    <hyperlink ref="H92" r:id="rId91"/>
+    <hyperlink ref="H93" r:id="rId92"/>
+    <hyperlink ref="H94" r:id="rId93"/>
+    <hyperlink ref="H95" r:id="rId94"/>
+    <hyperlink ref="H96" r:id="rId95"/>
+    <hyperlink ref="H97" r:id="rId96"/>
+    <hyperlink ref="H99" r:id="rId97"/>
+    <hyperlink ref="H100" r:id="rId98"/>
+    <hyperlink ref="H101" r:id="rId99"/>
+    <hyperlink ref="H102" r:id="rId100"/>
+    <hyperlink ref="H103" r:id="rId101"/>
+    <hyperlink ref="H104" r:id="rId102"/>
+    <hyperlink ref="H105" r:id="rId103"/>
+    <hyperlink ref="H106" r:id="rId104"/>
+    <hyperlink ref="H107" r:id="rId105"/>
+    <hyperlink ref="H108" r:id="rId106"/>
+    <hyperlink ref="H109" r:id="rId107"/>
+    <hyperlink ref="H110" r:id="rId108"/>
+    <hyperlink ref="H111" r:id="rId109"/>
+    <hyperlink ref="H112" r:id="rId110"/>
+    <hyperlink ref="H113" r:id="rId111"/>
+    <hyperlink ref="H114" r:id="rId112"/>
+    <hyperlink ref="H115" r:id="rId113"/>
+    <hyperlink ref="H116" r:id="rId114"/>
+    <hyperlink ref="H117" r:id="rId115"/>
+    <hyperlink ref="H118" r:id="rId116"/>
+    <hyperlink ref="H119" r:id="rId117"/>
+    <hyperlink ref="H120" r:id="rId118"/>
+    <hyperlink ref="H121" r:id="rId119"/>
+    <hyperlink ref="H122" r:id="rId120"/>
+    <hyperlink ref="H123" r:id="rId121"/>
+    <hyperlink ref="H124" r:id="rId122"/>
+    <hyperlink ref="H125" r:id="rId123"/>
+    <hyperlink ref="H126" r:id="rId124"/>
+    <hyperlink ref="H127" r:id="rId125"/>
+    <hyperlink ref="H128" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t>Tecnico</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>#aggiornamento 28/08</t>
-  </si>
-  <si>
     <t>alberto.roccella@gmail.com</t>
   </si>
   <si>
@@ -422,6 +419,12 @@
   </si>
   <si>
     <t>IRTE0000108 - RUSSO SALVATORE</t>
+  </si>
+  <si>
+    <t>IRTE0000107 - PAVONE NUNZIO</t>
+  </si>
+  <si>
+    <t>#aggiornamento 04/09</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -512,19 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9A9A9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9A9A9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,7 +523,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -544,9 +534,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -844,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,8 +845,10 @@
     <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -909,7 +898,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -936,7 +925,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -961,7 +950,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -986,7 +975,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1011,7 +1000,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1036,7 +1025,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1061,7 +1050,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1086,10 +1075,10 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1114,7 +1103,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1139,7 +1128,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1164,7 +1153,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1189,7 +1178,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1214,7 +1203,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1239,7 +1228,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1264,7 +1253,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1289,7 +1278,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1314,7 +1303,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1339,7 +1328,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1364,7 +1353,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1389,7 +1378,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1414,7 +1403,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1439,7 +1428,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1464,7 +1453,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1489,7 +1478,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1514,7 +1503,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1539,7 +1528,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1564,7 +1553,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1589,7 +1578,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1614,7 +1603,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1639,7 +1628,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1664,7 +1653,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1689,12 +1678,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="7">
         <v>45900</v>
@@ -1732,7 +1721,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1757,7 +1746,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1782,7 +1771,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1807,7 +1796,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1832,7 +1821,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1857,7 +1846,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1882,7 +1871,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1907,7 +1896,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1932,7 +1921,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1957,7 +1946,7 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1982,7 +1971,7 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2007,7 +1996,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2032,7 +2021,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2057,7 +2046,7 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2082,7 +2071,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2107,7 +2096,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2132,7 +2121,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2157,7 +2146,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2182,7 +2171,7 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2207,7 +2196,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2232,7 +2221,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2257,7 +2246,7 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2282,7 +2271,7 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2307,7 +2296,7 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2332,7 +2321,7 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2357,7 +2346,7 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2382,7 +2371,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2407,7 +2396,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2432,7 +2421,7 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2457,17 +2446,17 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65" s="7">
         <v>45900</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>8</v>
       </c>
       <c r="D65" s="4">
@@ -2477,11 +2466,11 @@
         <v>20</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ref="F65:F97" si="1">D65-(D65*E65)/100</f>
+        <f t="shared" ref="F65:F129" si="1">D65-(D65*E65)/100</f>
         <v>44.117918253968242</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -2491,23 +2480,23 @@
         <v>45904</v>
       </c>
       <c r="C66" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D66" s="4">
-        <v>10</v>
+        <v>22.308084337349399</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>17.846467469879521</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2518,23 +2507,23 @@
         <v>45904</v>
       </c>
       <c r="C67" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="D67" s="4">
-        <v>37.471191269757803</v>
+        <v>41.350124999999998</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>29.976953015806242</v>
+        <v>33.080100000000002</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2545,21 +2534,21 @@
         <v>45904</v>
       </c>
       <c r="C68" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="D68" s="4">
-        <v>35.873228451258399</v>
+        <v>32.091337962963003</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>28.698582761006719</v>
+        <v>25.673070370370404</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2570,21 +2559,21 @@
         <v>45904</v>
       </c>
       <c r="C69" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D69" s="4">
-        <v>38.767588703437603</v>
+        <v>43.854208333333297</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>31.014070962750083</v>
+        <v>35.083366666666635</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2595,21 +2584,21 @@
         <v>45904</v>
       </c>
       <c r="C70" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D70" s="4">
-        <v>33.901364035087703</v>
+        <v>26.461039215686299</v>
       </c>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="1"/>
-        <v>27.121091228070163</v>
+        <v>21.16883137254904</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2620,21 +2609,21 @@
         <v>45904</v>
       </c>
       <c r="C71" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D71" s="4">
-        <v>33.8106152355397</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>27.048492188431759</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2645,21 +2634,21 @@
         <v>45904</v>
       </c>
       <c r="C72" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D72" s="4">
-        <v>42.480804999999997</v>
+        <v>23.933071428571399</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>33.984643999999996</v>
+        <v>19.14645714285712</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2670,21 +2659,21 @@
         <v>45904</v>
       </c>
       <c r="C73" s="9">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D73" s="4">
-        <v>33.410398368160898</v>
+        <v>32.728757575757598</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>26.728318694528717</v>
+        <v>26.183006060606079</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2695,21 +2684,21 @@
         <v>45904</v>
       </c>
       <c r="C74" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D74" s="4">
-        <v>56.036142410714298</v>
+        <v>50.264016826923097</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>44.828913928571438</v>
+        <v>40.211213461538478</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2720,21 +2709,21 @@
         <v>45904</v>
       </c>
       <c r="C75" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D75" s="4">
-        <v>57.025137581168799</v>
+        <v>50.264016826923097</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>45.620110064935041</v>
+        <v>40.211213461538478</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2745,21 +2734,21 @@
         <v>45904</v>
       </c>
       <c r="C76" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D76" s="4">
-        <v>41.678208919916798</v>
+        <v>20.675062499999999</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>33.342567135933436</v>
+        <v>16.540050000000001</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2770,21 +2759,21 @@
         <v>45904</v>
       </c>
       <c r="C77" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D77" s="4">
-        <v>49.833428893489803</v>
+        <v>79.793398897058793</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="1"/>
-        <v>39.866743114791845</v>
+        <v>63.834719117647033</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2795,21 +2784,21 @@
         <v>45904</v>
       </c>
       <c r="C78" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4">
-        <v>33.901364035087703</v>
+        <v>26.461039215686299</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="1"/>
-        <v>27.121091228070163</v>
+        <v>21.16883137254904</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2820,21 +2809,21 @@
         <v>45904</v>
       </c>
       <c r="C79" s="9">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="D79" s="4">
-        <v>35.231900000000003</v>
+        <v>25.578357142857101</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>28.185520000000004</v>
+        <v>20.46268571428568</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2845,21 +2834,21 @@
         <v>45904</v>
       </c>
       <c r="C80" s="9">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D80" s="4">
-        <v>32.917370689655201</v>
+        <v>26.6965</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>26.333896551724159</v>
+        <v>21.357199999999999</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2870,21 +2859,21 @@
         <v>45904</v>
       </c>
       <c r="C81" s="9">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D81" s="4">
-        <v>50.621781176790499</v>
+        <v>105.9090625</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>40.497424941432399</v>
+        <v>84.727249999999998</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2895,21 +2884,21 @@
         <v>45904</v>
       </c>
       <c r="C82" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D82" s="4">
-        <v>29.428291115808801</v>
+        <v>22.308084337349399</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>23.542632892647042</v>
+        <v>17.846467469879521</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2920,21 +2909,21 @@
         <v>45904</v>
       </c>
       <c r="C83" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4">
-        <v>33.143076233592602</v>
+        <v>25.163531249999998</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>26.514460986874081</v>
+        <v>20.130824999999998</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2945,21 +2934,21 @@
         <v>45904</v>
       </c>
       <c r="C84" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D84" s="4">
-        <v>50.7137183306141</v>
+        <v>88.498620098039197</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>40.570974664491281</v>
+        <v>70.798896078431355</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2970,21 +2959,21 @@
         <v>45904</v>
       </c>
       <c r="C85" s="9">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D85" s="4">
-        <v>35.228261827458297</v>
+        <v>23.088593750000001</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>28.182609461966639</v>
+        <v>18.470874999999999</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2995,21 +2984,21 @@
         <v>45904</v>
       </c>
       <c r="C86" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D86" s="4">
-        <v>50.631631236291803</v>
+        <v>64.052572443181802</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>40.505304989033441</v>
+        <v>51.242057954545444</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3020,21 +3009,21 @@
         <v>45904</v>
       </c>
       <c r="C87" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D87" s="4">
-        <v>42.774616084751898</v>
+        <v>47.267367424242401</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>34.21969286780152</v>
+        <v>37.813893939393921</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3045,21 +3034,21 @@
         <v>45904</v>
       </c>
       <c r="C88" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D88" s="4">
-        <v>33.827031536293198</v>
+        <v>32.728757575757598</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>27.061625229034558</v>
+        <v>26.183006060606079</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3070,21 +3059,21 @@
         <v>45904</v>
       </c>
       <c r="C89" s="9">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D89" s="4">
-        <v>54.794365825797101</v>
+        <v>50.862215010142002</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>43.835492660637684</v>
+        <v>40.6897720081136</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3095,21 +3084,21 @@
         <v>45904</v>
       </c>
       <c r="C90" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D90" s="4">
-        <v>63.300873226190497</v>
+        <v>57.207942307692299</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>50.640698580952396</v>
+        <v>45.766353846153841</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3120,21 +3109,21 @@
         <v>45904</v>
       </c>
       <c r="C91" s="9">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D91" s="4">
-        <v>35.9104838079122</v>
+        <v>26.259062499999999</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>28.728387046329761</v>
+        <v>21.007249999999999</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3145,21 +3134,21 @@
         <v>45904</v>
       </c>
       <c r="C92" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D92" s="4">
-        <v>36.147401980316403</v>
+        <v>27.461944444444399</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>28.917921584253122</v>
+        <v>21.96955555555552</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3170,21 +3159,21 @@
         <v>45904</v>
       </c>
       <c r="C93" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D93" s="4">
-        <v>55.133829571613298</v>
+        <v>50.862215010142002</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="1"/>
-        <v>44.107063657290638</v>
+        <v>40.6897720081136</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3195,21 +3184,21 @@
         <v>45904</v>
       </c>
       <c r="C94" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D94" s="4">
-        <v>65.598487654321005</v>
+        <v>25.218</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>52.478790123456804</v>
+        <v>20.174399999999999</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3220,21 +3209,21 @@
         <v>45904</v>
       </c>
       <c r="C95" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D95" s="4">
-        <v>38.993916666666699</v>
+        <v>30.418453124999999</v>
       </c>
       <c r="E95" s="6">
         <v>20</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="1"/>
-        <v>31.195133333333359</v>
+        <v>24.3347625</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3245,21 +3234,21 @@
         <v>45904</v>
       </c>
       <c r="C96" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D96" s="4">
-        <v>43.648220252569899</v>
+        <v>47.267367424242401</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>34.918576202055917</v>
+        <v>37.813893939393921</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3270,60 +3259,67 @@
         <v>45904</v>
       </c>
       <c r="C97" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D97" s="4">
-        <v>49.817302907696998</v>
+        <v>62.4852272727273</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="1"/>
-        <v>39.853842326157597</v>
+        <v>49.988181818181843</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B98" s="7">
         <v>45904</v>
       </c>
       <c r="C98" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D98" s="4">
-        <v>39.548839420416499</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="3"/>
+        <v>29.2101875</v>
+      </c>
+      <c r="E98" s="6">
+        <v>20</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="1"/>
+        <v>23.36815</v>
+      </c>
       <c r="G98" s="1"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B99" s="7">
         <v>45904</v>
       </c>
       <c r="C99" s="9">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D99" s="4">
-        <v>35.366809782608698</v>
+        <v>64.052572443181802</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" ref="F99:F129" si="2">D99-(D99*E99)/100</f>
-        <v>28.293447826086958</v>
+        <f t="shared" si="1"/>
+        <v>51.242057954545444</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3332,23 +3328,23 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B100" s="7">
         <v>45904</v>
       </c>
       <c r="C100" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D100" s="4">
-        <v>49.989056165476498</v>
+        <v>25.218</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="2"/>
-        <v>39.9912449323812</v>
+        <f t="shared" si="1"/>
+        <v>20.174399999999999</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3357,48 +3353,48 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B101" s="7">
         <v>45904</v>
       </c>
       <c r="C101" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D101" s="4">
-        <v>66.910549107142899</v>
+        <v>57.207942307692299</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="2"/>
-        <v>53.52843928571432</v>
+        <f t="shared" si="1"/>
+        <v>45.766353846153841</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B102" s="7">
         <v>45904</v>
       </c>
       <c r="C102" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D102" s="4">
-        <v>62.975282023377297</v>
+        <v>27.461944444444399</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="2"/>
-        <v>50.380225618701836</v>
+        <f t="shared" si="1"/>
+        <v>21.96955555555552</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3407,48 +3403,48 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B103" s="7">
         <v>45904</v>
       </c>
       <c r="C103" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D103" s="4">
-        <v>36.858174027143399</v>
+        <v>29.395525423728799</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="2"/>
-        <v>29.486539221714718</v>
+        <f t="shared" si="1"/>
+        <v>23.516420338983039</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B104" s="7">
         <v>45904</v>
       </c>
       <c r="C104" s="9">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D104" s="4">
-        <v>43.032317067420998</v>
+        <v>42.205916666666702</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="2"/>
-        <v>34.425853653936798</v>
+        <f t="shared" si="1"/>
+        <v>33.764733333333361</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3457,23 +3453,23 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B105" s="7">
         <v>45904</v>
       </c>
       <c r="C105" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D105" s="4">
-        <v>35.906135714285703</v>
+        <v>25.132453125000001</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="2"/>
-        <v>28.724908571428564</v>
+        <f t="shared" si="1"/>
+        <v>20.1059625</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3482,273 +3478,273 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="7">
         <v>45904</v>
       </c>
       <c r="C106" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D106" s="4">
-        <v>40.199076704545497</v>
+        <v>57.207942307692299</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="2"/>
-        <v>32.159261363636396</v>
+        <f t="shared" si="1"/>
+        <v>45.766353846153841</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" s="7">
         <v>45904</v>
       </c>
       <c r="C107" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D107" s="4">
-        <v>55.735333333333301</v>
+        <v>22.308084337349399</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="2"/>
-        <v>44.588266666666641</v>
+        <f t="shared" si="1"/>
+        <v>17.846467469879521</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B108" s="7">
         <v>45904</v>
       </c>
       <c r="C108" s="9">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D108" s="4">
-        <v>30.8341437850064</v>
+        <v>0</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="2"/>
-        <v>24.66731502800512</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B109" s="7">
         <v>45904</v>
       </c>
       <c r="C109" s="9">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="D109" s="4">
-        <v>34.819682315967803</v>
+        <v>62.4852272727273</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="2"/>
-        <v>27.855745852774241</v>
+        <f t="shared" si="1"/>
+        <v>49.988181818181843</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B110" s="7">
         <v>45904</v>
       </c>
       <c r="C110" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="D110" s="4">
-        <v>49.269868126838801</v>
+        <v>62.4852272727273</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="2"/>
-        <v>39.415894501471044</v>
+        <f t="shared" si="1"/>
+        <v>49.988181818181843</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B111" s="7">
         <v>45904</v>
       </c>
       <c r="C111" s="9">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D111" s="4">
-        <v>49.269868126838801</v>
+        <v>33.980937500000003</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="2"/>
-        <v>39.415894501471044</v>
+        <f t="shared" si="1"/>
+        <v>27.184750000000001</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B112" s="7">
         <v>45904</v>
       </c>
       <c r="C112" s="9">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D112" s="4">
-        <v>38.888214285714199</v>
+        <v>0</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="2"/>
-        <v>31.110571428571358</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113" s="7">
         <v>45904</v>
       </c>
       <c r="C113" s="9">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D113" s="4">
-        <v>37.0796970731474</v>
+        <v>33.980937500000003</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="2"/>
-        <v>29.66375765851792</v>
+        <f t="shared" si="1"/>
+        <v>27.184750000000001</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B114" s="7">
         <v>45904</v>
       </c>
       <c r="C114" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D114" s="4">
-        <v>40.680184210526299</v>
+        <v>23.088593750000001</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="2"/>
-        <v>32.544147368421037</v>
+        <f t="shared" si="1"/>
+        <v>18.470874999999999</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" s="7">
         <v>45904</v>
       </c>
       <c r="C115" s="9">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D115" s="4">
-        <v>39.904647620700104</v>
+        <v>0</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="2"/>
-        <v>31.923718096560084</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B116" s="7">
         <v>45904</v>
       </c>
       <c r="C116" s="9">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>35.748658582615001</v>
+        <v>28.205937500000001</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="2"/>
-        <v>28.598926866092</v>
+        <f t="shared" si="1"/>
+        <v>22.56475</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3757,23 +3753,23 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117" s="7">
         <v>45904</v>
       </c>
       <c r="C117" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D117" s="4">
-        <v>35.489615384615398</v>
+        <v>26.6965</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="2"/>
-        <v>28.391692307692317</v>
+        <f t="shared" si="1"/>
+        <v>21.357199999999999</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3782,23 +3778,23 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B118" s="7">
         <v>45904</v>
       </c>
       <c r="C118" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D118" s="4">
-        <v>37.692864038656097</v>
+        <v>28.205937500000001</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="2"/>
-        <v>30.154291230924876</v>
+        <f t="shared" si="1"/>
+        <v>22.56475</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
@@ -3807,23 +3803,23 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B119" s="7">
         <v>45904</v>
       </c>
       <c r="C119" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D119" s="4">
-        <v>35.489615384615398</v>
+        <v>26.259062499999999</v>
       </c>
       <c r="E119" s="6">
         <v>20</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="2"/>
-        <v>28.391692307692317</v>
+        <f t="shared" si="1"/>
+        <v>21.007249999999999</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
@@ -3832,23 +3828,23 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" s="7">
         <v>45904</v>
       </c>
       <c r="C120" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D120" s="4">
-        <v>35.756832265699899</v>
+        <v>26.461039215686299</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="2"/>
-        <v>28.60546581255992</v>
+        <f t="shared" si="1"/>
+        <v>21.16883137254904</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
@@ -3857,23 +3853,23 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B121" s="7">
         <v>45904</v>
       </c>
       <c r="C121" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D121" s="4">
-        <v>39.940754471405803</v>
+        <v>28.603971153846199</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="2"/>
-        <v>31.952603577124641</v>
+        <f t="shared" si="1"/>
+        <v>22.883176923076959</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3882,7 +3878,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" s="7">
         <v>45904</v>
@@ -3891,14 +3887,14 @@
         <v>32</v>
       </c>
       <c r="D122" s="4">
-        <v>103.419017857143</v>
+        <v>36.141406250000003</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="2"/>
-        <v>82.735214285714406</v>
+        <f t="shared" si="1"/>
+        <v>28.913125000000001</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3907,23 +3903,23 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B123" s="7">
         <v>45904</v>
       </c>
       <c r="C123" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D123" s="4">
-        <v>54.355906976744201</v>
+        <v>36.141406250000003</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="2"/>
-        <v>43.484725581395359</v>
+        <f t="shared" si="1"/>
+        <v>28.913125000000001</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3932,48 +3928,48 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B124" s="7">
         <v>45904</v>
       </c>
       <c r="C124" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D124" s="4">
-        <v>54.355906976744201</v>
+        <v>20.839943452381</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="2"/>
-        <v>43.484725581395359</v>
+        <f t="shared" si="1"/>
+        <v>16.6719547619048</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B125" s="7">
         <v>45904</v>
       </c>
       <c r="C125" s="9">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="D125" s="4">
-        <v>37.093207839738596</v>
+        <v>43.854208333333297</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="2"/>
-        <v>29.674566271790876</v>
+        <f t="shared" si="1"/>
+        <v>35.083366666666635</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3982,23 +3978,23 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B126" s="7">
         <v>45904</v>
       </c>
       <c r="C126" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D126" s="4">
-        <v>64.570401411675505</v>
+        <v>27.461944444444399</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="2"/>
-        <v>51.656321129340405</v>
+        <f t="shared" si="1"/>
+        <v>21.96955555555552</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4007,23 +4003,23 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" s="7">
         <v>45904</v>
       </c>
       <c r="C127" s="9">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D127" s="4">
-        <v>47.510096316225201</v>
+        <v>25.132453125000001</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="2"/>
-        <v>38.008077052980163</v>
+        <f t="shared" si="1"/>
+        <v>20.1059625</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
@@ -4032,51 +4028,69 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B128" s="7">
         <v>45904</v>
       </c>
       <c r="C128" s="9">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D128" s="4">
-        <v>40.199076704545497</v>
+        <v>123.22734375</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="2"/>
-        <v>32.159261363636396</v>
+        <f t="shared" si="1"/>
+        <v>98.581874999999997</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="H128" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="7">
         <v>45904</v>
       </c>
-      <c r="C129" s="10">
-        <v>8</v>
+      <c r="C129" s="9">
+        <v>27</v>
       </c>
       <c r="D129" s="4">
-        <v>55.147397817460302</v>
+        <v>29.395525423728799</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="2"/>
-        <v>44.117918253968242</v>
+        <f t="shared" si="1"/>
+        <v>23.516420338983039</v>
       </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G64"/>
@@ -4177,36 +4191,36 @@
     <hyperlink ref="H95" r:id="rId94"/>
     <hyperlink ref="H96" r:id="rId95"/>
     <hyperlink ref="H97" r:id="rId96"/>
-    <hyperlink ref="H99" r:id="rId97"/>
-    <hyperlink ref="H100" r:id="rId98"/>
-    <hyperlink ref="H101" r:id="rId99"/>
-    <hyperlink ref="H102" r:id="rId100"/>
-    <hyperlink ref="H103" r:id="rId101"/>
-    <hyperlink ref="H104" r:id="rId102"/>
-    <hyperlink ref="H105" r:id="rId103"/>
-    <hyperlink ref="H106" r:id="rId104"/>
-    <hyperlink ref="H107" r:id="rId105"/>
-    <hyperlink ref="H108" r:id="rId106"/>
-    <hyperlink ref="H109" r:id="rId107"/>
-    <hyperlink ref="H110" r:id="rId108"/>
-    <hyperlink ref="H111" r:id="rId109"/>
-    <hyperlink ref="H112" r:id="rId110"/>
-    <hyperlink ref="H113" r:id="rId111"/>
-    <hyperlink ref="H114" r:id="rId112"/>
-    <hyperlink ref="H115" r:id="rId113"/>
-    <hyperlink ref="H116" r:id="rId114"/>
-    <hyperlink ref="H117" r:id="rId115"/>
-    <hyperlink ref="H118" r:id="rId116"/>
-    <hyperlink ref="H119" r:id="rId117"/>
-    <hyperlink ref="H120" r:id="rId118"/>
-    <hyperlink ref="H121" r:id="rId119"/>
-    <hyperlink ref="H122" r:id="rId120"/>
-    <hyperlink ref="H123" r:id="rId121"/>
-    <hyperlink ref="H124" r:id="rId122"/>
-    <hyperlink ref="H125" r:id="rId123"/>
-    <hyperlink ref="H126" r:id="rId124"/>
-    <hyperlink ref="H127" r:id="rId125"/>
-    <hyperlink ref="H128" r:id="rId126"/>
+    <hyperlink ref="H98" r:id="rId97"/>
+    <hyperlink ref="H99" r:id="rId98"/>
+    <hyperlink ref="H100" r:id="rId99"/>
+    <hyperlink ref="H101" r:id="rId100"/>
+    <hyperlink ref="H102" r:id="rId101"/>
+    <hyperlink ref="H103" r:id="rId102"/>
+    <hyperlink ref="H104" r:id="rId103"/>
+    <hyperlink ref="H105" r:id="rId104"/>
+    <hyperlink ref="H106" r:id="rId105"/>
+    <hyperlink ref="H107" r:id="rId106"/>
+    <hyperlink ref="H108" r:id="rId107"/>
+    <hyperlink ref="H109" r:id="rId108"/>
+    <hyperlink ref="H110" r:id="rId109"/>
+    <hyperlink ref="H111" r:id="rId110"/>
+    <hyperlink ref="H112" r:id="rId111"/>
+    <hyperlink ref="H113" r:id="rId112"/>
+    <hyperlink ref="H114" r:id="rId113"/>
+    <hyperlink ref="H115" r:id="rId114"/>
+    <hyperlink ref="H116" r:id="rId115"/>
+    <hyperlink ref="H117" r:id="rId116"/>
+    <hyperlink ref="H118" r:id="rId117"/>
+    <hyperlink ref="H119" r:id="rId118"/>
+    <hyperlink ref="H120" r:id="rId119"/>
+    <hyperlink ref="H121" r:id="rId120"/>
+    <hyperlink ref="H122" r:id="rId121"/>
+    <hyperlink ref="H123" r:id="rId122"/>
+    <hyperlink ref="H124" r:id="rId123"/>
+    <hyperlink ref="H125" r:id="rId124"/>
+    <hyperlink ref="H126" r:id="rId125"/>
+    <hyperlink ref="H127" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
   <si>
     <t>Tecnico</t>
   </si>
@@ -424,7 +424,13 @@
     <t>IRTE0000107 - PAVONE NUNZIO</t>
   </si>
   <si>
-    <t>#aggiornamento 04/09</t>
+    <t>IRTE0000110 - SPAMPINATO MICHELE</t>
+  </si>
+  <si>
+    <t>IRTE0000111 - FINOCCHIARO SEBASTIANO</t>
+  </si>
+  <si>
+    <t>#aggiornamento 15/09</t>
   </si>
 </sst>
 </file>
@@ -833,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,7 +1084,7 @@
         <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2466,7 +2472,7 @@
         <v>20</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ref="F65:F129" si="1">D65-(D65*E65)/100</f>
+        <f t="shared" ref="F65:F130" si="1">D65-(D65*E65)/100</f>
         <v>44.117918253968242</v>
       </c>
       <c r="G65" s="1"/>
@@ -2477,20 +2483,20 @@
         <v>4</v>
       </c>
       <c r="B66" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C66" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D66" s="4">
-        <v>22.308084337349399</v>
+        <v>21.229618357487901</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>17.846467469879521</v>
+        <v>16.983694685990322</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2504,20 +2510,20 @@
         <v>5</v>
       </c>
       <c r="B67" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C67" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D67" s="4">
-        <v>41.350124999999998</v>
+        <v>34.584327380952402</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>33.080100000000002</v>
+        <v>27.667461904761922</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2531,20 +2537,20 @@
         <v>6</v>
       </c>
       <c r="B68" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C68" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4">
-        <v>32.091337962963003</v>
+        <v>24.603209710602801</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>25.673070370370404</v>
+        <v>19.68256776848224</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2556,20 +2562,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C69" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D69" s="4">
-        <v>43.854208333333297</v>
+        <v>43.662488888888902</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>35.083366666666635</v>
+        <v>34.929991111111121</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2581,20 +2587,20 @@
         <v>8</v>
       </c>
       <c r="B70" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C70" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>26.461039215686299</v>
+        <v>27.0969065420561</v>
       </c>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="1"/>
-        <v>21.16883137254904</v>
+        <v>21.677525233644879</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8" t="s">
@@ -2606,20 +2612,20 @@
         <v>9</v>
       </c>
       <c r="B71" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C71" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D71" s="4">
-        <v>0</v>
+        <v>32.214852192028999</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.771881753623198</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2631,20 +2637,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C72" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D72" s="4">
-        <v>23.933071428571399</v>
+        <v>32.853565476190496</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>19.14645714285712</v>
+        <v>26.282852380952399</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
@@ -2656,20 +2662,20 @@
         <v>11</v>
       </c>
       <c r="B73" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C73" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D73" s="4">
-        <v>32.728757575757598</v>
+        <v>34.358980000000003</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>26.183006060606079</v>
+        <v>27.487184000000003</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2681,20 +2687,20 @@
         <v>12</v>
       </c>
       <c r="B74" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C74" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
-        <v>50.264016826923097</v>
+        <v>38.503424523007801</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>40.211213461538478</v>
+        <v>30.802739618406243</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2706,20 +2712,20 @@
         <v>13</v>
       </c>
       <c r="B75" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C75" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4">
-        <v>50.264016826923097</v>
+        <v>45.038658585858599</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>40.211213461538478</v>
+        <v>36.030926868686876</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2731,20 +2737,20 @@
         <v>14</v>
       </c>
       <c r="B76" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C76" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D76" s="4">
-        <v>20.675062499999999</v>
+        <v>27.018381493506499</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>16.540050000000001</v>
+        <v>21.6147051948052</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2756,20 +2762,20 @@
         <v>15</v>
       </c>
       <c r="B77" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C77" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D77" s="4">
-        <v>79.793398897058793</v>
+        <v>52.2456660464251</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="1"/>
-        <v>63.834719117647033</v>
+        <v>41.796532837140077</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
@@ -2781,20 +2787,20 @@
         <v>16</v>
       </c>
       <c r="B78" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C78" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D78" s="4">
-        <v>26.461039215686299</v>
+        <v>27.0969065420561</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="1"/>
-        <v>21.16883137254904</v>
+        <v>21.677525233644879</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
@@ -2806,20 +2812,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C79" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D79" s="4">
-        <v>25.578357142857101</v>
+        <v>31.9553739417989</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>20.46268571428568</v>
+        <v>25.564299153439119</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
@@ -2831,20 +2837,20 @@
         <v>18</v>
       </c>
       <c r="B80" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C80" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4">
-        <v>26.6965</v>
+        <v>30.021267857142899</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>21.357199999999999</v>
+        <v>24.017014285714318</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
@@ -2856,20 +2862,20 @@
         <v>19</v>
       </c>
       <c r="B81" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C81" s="9">
         <v>8</v>
       </c>
       <c r="D81" s="4">
-        <v>105.9090625</v>
+        <v>53.400759036144599</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>84.727249999999998</v>
+        <v>42.720607228915682</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
@@ -2881,20 +2887,20 @@
         <v>20</v>
       </c>
       <c r="B82" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C82" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D82" s="4">
-        <v>22.308084337349399</v>
+        <v>21.229618357487901</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>17.846467469879521</v>
+        <v>16.983694685990322</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -2906,20 +2912,20 @@
         <v>21</v>
       </c>
       <c r="B83" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C83" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D83" s="4">
-        <v>25.163531249999998</v>
+        <v>27.957097853535402</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>20.130824999999998</v>
+        <v>22.36567828282832</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2931,20 +2937,20 @@
         <v>22</v>
       </c>
       <c r="B84" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C84" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D84" s="4">
-        <v>88.498620098039197</v>
+        <v>52.592193943340902</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>70.798896078431355</v>
+        <v>42.073755154672725</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
@@ -2956,20 +2962,20 @@
         <v>23</v>
       </c>
       <c r="B85" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C85" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D85" s="4">
-        <v>23.088593750000001</v>
+        <v>26.910224007936499</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>18.470874999999999</v>
+        <v>21.528179206349201</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -2981,20 +2987,20 @@
         <v>24</v>
       </c>
       <c r="B86" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C86" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D86" s="4">
-        <v>64.052572443181802</v>
+        <v>51.6577027777778</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>51.242057954545444</v>
+        <v>41.326162222222237</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
@@ -3006,20 +3012,20 @@
         <v>25</v>
       </c>
       <c r="B87" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C87" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D87" s="4">
-        <v>47.267367424242401</v>
+        <v>37.834085625</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>37.813893939393921</v>
+        <v>30.2672685</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3031,20 +3037,20 @@
         <v>26</v>
       </c>
       <c r="B88" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C88" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D88" s="4">
-        <v>32.728757575757598</v>
+        <v>33.406034307568397</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>26.183006060606079</v>
+        <v>26.724827446054718</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3056,20 +3062,20 @@
         <v>27</v>
       </c>
       <c r="B89" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C89" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D89" s="4">
-        <v>50.862215010142002</v>
+        <v>45.743702551986203</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>40.6897720081136</v>
+        <v>36.594962041588964</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
@@ -3081,20 +3087,20 @@
         <v>28</v>
       </c>
       <c r="B90" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C90" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4">
-        <v>57.207942307692299</v>
+        <v>103.855765151515</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>45.766353846153841</v>
+        <v>83.084612121212004</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3106,20 +3112,20 @@
         <v>29</v>
       </c>
       <c r="B91" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C91" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4">
-        <v>26.259062499999999</v>
+        <v>31.227558441558401</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>21.007249999999999</v>
+        <v>24.982046753246721</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
@@ -3131,20 +3137,20 @@
         <v>30</v>
       </c>
       <c r="B92" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C92" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D92" s="4">
-        <v>27.461944444444399</v>
+        <v>22.415405263157901</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>21.96955555555552</v>
+        <v>17.932324210526321</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3156,20 +3162,20 @@
         <v>31</v>
       </c>
       <c r="B93" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C93" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D93" s="4">
-        <v>50.862215010142002</v>
+        <v>46.4397985960006</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="1"/>
-        <v>40.6897720081136</v>
+        <v>37.151838876800483</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
@@ -3181,20 +3187,20 @@
         <v>32</v>
       </c>
       <c r="B94" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C94" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D94" s="4">
-        <v>25.218</v>
+        <v>44.117345265151499</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>20.174399999999999</v>
+        <v>35.293876212121198</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3206,20 +3212,20 @@
         <v>33</v>
       </c>
       <c r="B95" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C95" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D95" s="4">
-        <v>30.418453124999999</v>
+        <v>30.242720959595999</v>
       </c>
       <c r="E95" s="6">
         <v>20</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="1"/>
-        <v>24.3347625</v>
+        <v>24.194176767676801</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
@@ -3231,20 +3237,20 @@
         <v>34</v>
       </c>
       <c r="B96" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C96" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D96" s="4">
-        <v>47.267367424242401</v>
+        <v>37.834085625</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>37.813893939393921</v>
+        <v>30.2672685</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3256,20 +3262,20 @@
         <v>35</v>
       </c>
       <c r="B97" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C97" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D97" s="4">
-        <v>62.4852272727273</v>
+        <v>63.022763888888903</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="1"/>
-        <v>49.988181818181843</v>
+        <v>50.41821111111112</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
@@ -3281,20 +3287,20 @@
         <v>36</v>
       </c>
       <c r="B98" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C98" s="9">
         <v>32</v>
       </c>
       <c r="D98" s="4">
-        <v>29.2101875</v>
+        <v>34.416531249999998</v>
       </c>
       <c r="E98" s="6">
         <v>20</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="1"/>
-        <v>23.36815</v>
+        <v>27.533224999999998</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
@@ -3306,20 +3312,20 @@
         <v>37</v>
       </c>
       <c r="B99" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C99" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D99" s="4">
-        <v>64.052572443181802</v>
+        <v>56.328335880559301</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="1"/>
-        <v>51.242057954545444</v>
+        <v>45.062668704447439</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3331,20 +3337,20 @@
         <v>38</v>
       </c>
       <c r="B100" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C100" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D100" s="4">
-        <v>25.218</v>
+        <v>37.479743055555602</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>20.174399999999999</v>
+        <v>29.983794444444481</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3356,20 +3362,20 @@
         <v>39</v>
       </c>
       <c r="B101" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C101" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D101" s="4">
-        <v>57.207942307692299</v>
+        <v>103.855765151515</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>45.766353846153841</v>
+        <v>83.084612121212004</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3381,20 +3387,20 @@
         <v>40</v>
       </c>
       <c r="B102" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C102" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D102" s="4">
-        <v>27.461944444444399</v>
+        <v>23.157217041429899</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>21.96955555555552</v>
+        <v>18.52577363314392</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3406,20 +3412,20 @@
         <v>41</v>
       </c>
       <c r="B103" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C103" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D103" s="4">
-        <v>29.395525423728799</v>
+        <v>29.0917112676056</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>23.516420338983039</v>
+        <v>23.27336901408448</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3431,20 +3437,20 @@
         <v>42</v>
       </c>
       <c r="B104" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C104" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D104" s="4">
-        <v>42.205916666666702</v>
+        <v>31.497125</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="1"/>
-        <v>33.764733333333361</v>
+        <v>25.197700000000001</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3456,20 +3462,20 @@
         <v>43</v>
       </c>
       <c r="B105" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C105" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D105" s="4">
-        <v>25.132453125000001</v>
+        <v>30.198838541666699</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="1"/>
-        <v>20.1059625</v>
+        <v>24.159070833333359</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3481,20 +3487,20 @@
         <v>44</v>
       </c>
       <c r="B106" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C106" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D106" s="4">
-        <v>57.207942307692299</v>
+        <v>76.558015719696996</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>45.766353846153841</v>
+        <v>61.246412575757596</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3506,20 +3512,20 @@
         <v>45</v>
       </c>
       <c r="B107" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C107" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D107" s="4">
-        <v>22.308084337349399</v>
+        <v>21.229618357487901</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>17.846467469879521</v>
+        <v>16.983694685990322</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3531,20 +3537,20 @@
         <v>46</v>
       </c>
       <c r="B108" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C108" s="9">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D108" s="4">
-        <v>0</v>
+        <v>30.528910714285701</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.42312857142856</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
@@ -3556,20 +3562,20 @@
         <v>47</v>
       </c>
       <c r="B109" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C109" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D109" s="4">
-        <v>62.4852272727273</v>
+        <v>63.022763888888903</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="1"/>
-        <v>49.988181818181843</v>
+        <v>50.41821111111112</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
@@ -3581,20 +3587,20 @@
         <v>48</v>
       </c>
       <c r="B110" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C110" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D110" s="4">
-        <v>62.4852272727273</v>
+        <v>63.022763888888903</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="1"/>
-        <v>49.988181818181843</v>
+        <v>50.41821111111112</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
@@ -3606,20 +3612,20 @@
         <v>49</v>
       </c>
       <c r="B111" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C111" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D111" s="4">
-        <v>33.980937500000003</v>
+        <v>31.43734375</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="1"/>
-        <v>27.184750000000001</v>
+        <v>25.149875000000002</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
@@ -3631,20 +3637,20 @@
         <v>50</v>
       </c>
       <c r="B112" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C112" s="9">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D112" s="4">
-        <v>0</v>
+        <v>17.294230769230801</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.83538461538464</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
@@ -3656,20 +3662,20 @@
         <v>51</v>
       </c>
       <c r="B113" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C113" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D113" s="4">
-        <v>33.980937500000003</v>
+        <v>31.361640997023802</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="1"/>
-        <v>27.184750000000001</v>
+        <v>25.089312797619041</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
@@ -3681,20 +3687,20 @@
         <v>52</v>
       </c>
       <c r="B114" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C114" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D114" s="4">
-        <v>23.088593750000001</v>
+        <v>23.715736623041298</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="1"/>
-        <v>18.470874999999999</v>
+        <v>18.972589298433039</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
@@ -3706,20 +3712,20 @@
         <v>53</v>
       </c>
       <c r="B115" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C115" s="9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D115" s="4">
-        <v>0</v>
+        <v>28.868114914021199</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.094491931216957</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3731,20 +3737,20 @@
         <v>54</v>
       </c>
       <c r="B116" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C116" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D116" s="4">
-        <v>28.205937500000001</v>
+        <v>32.049187500000002</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>22.56475</v>
+        <v>25.63935</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3756,20 +3762,20 @@
         <v>55</v>
       </c>
       <c r="B117" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C117" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D117" s="4">
-        <v>26.6965</v>
+        <v>28.400528571428602</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>21.357199999999999</v>
+        <v>22.720422857142882</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3781,20 +3787,20 @@
         <v>56</v>
       </c>
       <c r="B118" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C118" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D118" s="4">
-        <v>28.205937500000001</v>
+        <v>26.707656249999999</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="1"/>
-        <v>22.56475</v>
+        <v>21.366125</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
@@ -3806,20 +3812,20 @@
         <v>57</v>
       </c>
       <c r="B119" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C119" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D119" s="4">
-        <v>26.259062499999999</v>
+        <v>31.626785714285699</v>
       </c>
       <c r="E119" s="6">
         <v>20</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="1"/>
-        <v>21.007249999999999</v>
+        <v>25.301428571428559</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
@@ -3831,20 +3837,20 @@
         <v>58</v>
       </c>
       <c r="B120" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C120" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D120" s="4">
-        <v>26.461039215686299</v>
+        <v>27.0969065420561</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="1"/>
-        <v>21.16883137254904</v>
+        <v>21.677525233644879</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
@@ -3856,20 +3862,20 @@
         <v>59</v>
       </c>
       <c r="B121" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C121" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D121" s="4">
-        <v>28.603971153846199</v>
+        <v>66.590647306397301</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>22.883176923076959</v>
+        <v>53.272517845117839</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3881,20 +3887,20 @@
         <v>60</v>
       </c>
       <c r="B122" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C122" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D122" s="4">
-        <v>36.141406250000003</v>
+        <v>44.588249261943098</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>28.913125000000001</v>
+        <v>35.670599409554477</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3906,20 +3912,20 @@
         <v>61</v>
       </c>
       <c r="B123" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C123" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D123" s="4">
-        <v>36.141406250000003</v>
+        <v>47.508078124999997</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>28.913125000000001</v>
+        <v>38.006462499999998</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3931,20 +3937,20 @@
         <v>62</v>
       </c>
       <c r="B124" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C124" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D124" s="4">
-        <v>20.839943452381</v>
+        <v>31.688876406926401</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>16.6719547619048</v>
+        <v>25.35110112554112</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3956,20 +3962,20 @@
         <v>63</v>
       </c>
       <c r="B125" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C125" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D125" s="4">
-        <v>43.854208333333297</v>
+        <v>43.662488888888902</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>35.083366666666635</v>
+        <v>34.929991111111121</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3981,20 +3987,20 @@
         <v>64</v>
       </c>
       <c r="B126" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C126" s="9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D126" s="4">
-        <v>27.461944444444399</v>
+        <v>63.392396531100502</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>21.96955555555552</v>
+        <v>50.713917224880404</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4006,20 +4012,20 @@
         <v>65</v>
       </c>
       <c r="B127" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C127" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D127" s="4">
-        <v>25.132453125000001</v>
+        <v>30.198838541666699</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>20.1059625</v>
+        <v>24.159070833333359</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
@@ -4031,20 +4037,20 @@
         <v>134</v>
       </c>
       <c r="B128" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C128" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D128" s="4">
-        <v>123.22734375</v>
+        <v>122.97576388888901</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>98.581874999999997</v>
+        <v>98.380611111111207</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
@@ -4054,41 +4060,67 @@
         <v>133</v>
       </c>
       <c r="B129" s="7">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="C129" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D129" s="4">
-        <v>29.395525423728799</v>
+        <v>29.0917112676056</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>23.516420338983039</v>
+        <v>23.27336901408448</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="1"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="3"/>
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="7">
+        <v>45915</v>
+      </c>
+      <c r="C130" s="9">
+        <v>8</v>
+      </c>
+      <c r="D130" s="4">
+        <v>30.528910714285701</v>
+      </c>
+      <c r="E130" s="6">
+        <v>20</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="1"/>
+        <v>24.42312857142856</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="1"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="3"/>
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="7">
+        <v>45915</v>
+      </c>
+      <c r="C131" s="9">
+        <v>8</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="6">
+        <v>20</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" ref="F131" si="2">D131-(D131*E131)/100</f>
+        <v>0</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>
     </row>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
   <si>
     <t>Tecnico</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>IRTE0000111 - FINOCCHIARO SEBASTIANO</t>
-  </si>
-  <si>
-    <t>#aggiornamento 15/09</t>
   </si>
 </sst>
 </file>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,11 +850,10 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,7 +903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,7 +930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,7 +955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,7 +980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,11 +1079,8 @@
       <c r="H9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,7 +1205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2483,20 +2476,20 @@
         <v>4</v>
       </c>
       <c r="B66" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C66" s="9">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D66" s="4">
-        <v>21.229618357487901</v>
+        <v>33.043489878542502</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>16.983694685990322</v>
+        <v>26.434791902834</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2510,20 +2503,20 @@
         <v>5</v>
       </c>
       <c r="B67" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C67" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D67" s="4">
-        <v>34.584327380952402</v>
+        <v>43.181779220779198</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>27.667461904761922</v>
+        <v>34.545423376623361</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2537,20 +2530,20 @@
         <v>6</v>
       </c>
       <c r="B68" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C68" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D68" s="4">
-        <v>24.603209710602801</v>
+        <v>27.478606930308199</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>19.68256776848224</v>
+        <v>21.98288554424656</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2562,20 +2555,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C69" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D69" s="4">
-        <v>43.662488888888902</v>
+        <v>39.756593903940903</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>34.929991111111121</v>
+        <v>31.805275123152722</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2587,20 +2580,20 @@
         <v>8</v>
       </c>
       <c r="B70" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C70" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D70" s="4">
-        <v>27.0969065420561</v>
+        <v>29.132693548387099</v>
       </c>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="1"/>
-        <v>21.677525233644879</v>
+        <v>23.306154838709681</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8" t="s">
@@ -2612,20 +2605,20 @@
         <v>9</v>
       </c>
       <c r="B71" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C71" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
-        <v>32.214852192028999</v>
+        <v>43.5968314864582</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>25.771881753623198</v>
+        <v>34.877465189166557</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2637,20 +2630,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C72" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D72" s="4">
-        <v>32.853565476190496</v>
+        <v>32.059944444444497</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>26.282852380952399</v>
+        <v>25.647955555555598</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
@@ -2662,20 +2655,20 @@
         <v>11</v>
       </c>
       <c r="B73" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C73" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
-        <v>34.358980000000003</v>
+        <v>33.7079425287356</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>27.487184000000003</v>
+        <v>26.966354022988479</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2687,20 +2680,20 @@
         <v>12</v>
       </c>
       <c r="B74" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C74" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D74" s="4">
-        <v>38.503424523007801</v>
+        <v>50.734555403700597</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>30.802739618406243</v>
+        <v>40.587644322960479</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2712,20 +2705,20 @@
         <v>13</v>
       </c>
       <c r="B75" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C75" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D75" s="4">
-        <v>45.038658585858599</v>
+        <v>55.452292933622303</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>36.030926868686876</v>
+        <v>44.361834346897844</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2737,20 +2730,20 @@
         <v>14</v>
       </c>
       <c r="B76" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C76" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D76" s="4">
-        <v>27.018381493506499</v>
+        <v>33.869414529914501</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>21.6147051948052</v>
+        <v>27.095531623931599</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2762,20 +2755,20 @@
         <v>15</v>
       </c>
       <c r="B77" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C77" s="9">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4">
-        <v>52.2456660464251</v>
+        <v>48.874758824386703</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="1"/>
-        <v>41.796532837140077</v>
+        <v>39.099807059509359</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
@@ -2787,20 +2780,20 @@
         <v>16</v>
       </c>
       <c r="B78" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C78" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D78" s="4">
-        <v>27.0969065420561</v>
+        <v>29.132693548387099</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="1"/>
-        <v>21.677525233644879</v>
+        <v>23.306154838709681</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
@@ -2812,20 +2805,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C79" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D79" s="4">
-        <v>31.9553739417989</v>
+        <v>30.546490562678098</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>25.564299153439119</v>
+        <v>24.437192450142479</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
@@ -2837,20 +2830,20 @@
         <v>18</v>
       </c>
       <c r="B80" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C80" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D80" s="4">
-        <v>30.021267857142899</v>
+        <v>31.6699326923077</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>24.017014285714318</v>
+        <v>25.335946153846159</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
@@ -2862,20 +2855,20 @@
         <v>19</v>
       </c>
       <c r="B81" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C81" s="9">
         <v>8</v>
       </c>
       <c r="D81" s="4">
-        <v>53.400759036144599</v>
+        <v>48.4532523364486</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>42.720607228915682</v>
+        <v>38.762601869158878</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
@@ -2887,20 +2880,20 @@
         <v>20</v>
       </c>
       <c r="B82" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C82" s="9">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4">
-        <v>21.229618357487901</v>
+        <v>33.043489878542502</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>16.983694685990322</v>
+        <v>26.434791902834</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -2912,20 +2905,20 @@
         <v>21</v>
       </c>
       <c r="B83" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C83" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D83" s="4">
-        <v>27.957097853535402</v>
+        <v>29.7360729166667</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>22.36567828282832</v>
+        <v>23.788858333333359</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2937,20 +2930,20 @@
         <v>22</v>
       </c>
       <c r="B84" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C84" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D84" s="4">
-        <v>52.592193943340902</v>
+        <v>48.153669096165302</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>42.073755154672725</v>
+        <v>38.522935276932245</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
@@ -2962,20 +2955,20 @@
         <v>23</v>
       </c>
       <c r="B85" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C85" s="9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D85" s="4">
-        <v>26.910224007936499</v>
+        <v>33.459429142826899</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>21.528179206349201</v>
+        <v>26.76754331426152</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -2987,20 +2980,20 @@
         <v>24</v>
       </c>
       <c r="B86" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C86" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D86" s="4">
-        <v>51.6577027777778</v>
+        <v>52.911842567688701</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>41.326162222222237</v>
+        <v>42.329474054150964</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
@@ -3012,20 +3005,20 @@
         <v>25</v>
       </c>
       <c r="B87" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C87" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D87" s="4">
-        <v>37.834085625</v>
+        <v>52.126151979565797</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>30.2672685</v>
+        <v>41.700921583652637</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3037,20 +3030,20 @@
         <v>26</v>
       </c>
       <c r="B88" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C88" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D88" s="4">
-        <v>33.406034307568397</v>
+        <v>39.793412656564897</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>26.724827446054718</v>
+        <v>31.834730125251916</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3062,20 +3055,20 @@
         <v>27</v>
       </c>
       <c r="B89" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C89" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D89" s="4">
-        <v>45.743702551986203</v>
+        <v>44.524294946439703</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>36.594962041588964</v>
+        <v>35.619435957151765</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
@@ -3087,20 +3080,20 @@
         <v>28</v>
       </c>
       <c r="B90" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C90" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
-        <v>103.855765151515</v>
+        <v>112.065143292683</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>83.084612121212004</v>
+        <v>89.6521146341464</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3112,20 +3105,20 @@
         <v>29</v>
       </c>
       <c r="B91" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C91" s="9">
         <v>88</v>
       </c>
       <c r="D91" s="4">
-        <v>31.227558441558401</v>
+        <v>32.022577272727297</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>24.982046753246721</v>
+        <v>25.618061818181836</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
@@ -3137,20 +3130,20 @@
         <v>30</v>
       </c>
       <c r="B92" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C92" s="9">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D92" s="4">
-        <v>22.415405263157901</v>
+        <v>25.001824427480901</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>17.932324210526321</v>
+        <v>20.001459541984723</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3162,20 +3155,20 @@
         <v>31</v>
       </c>
       <c r="B93" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C93" s="9">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4">
-        <v>46.4397985960006</v>
+        <v>44.815328827181098</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="1"/>
-        <v>37.151838876800483</v>
+        <v>35.852263061744878</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
@@ -3187,20 +3180,20 @@
         <v>32</v>
       </c>
       <c r="B94" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C94" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D94" s="4">
-        <v>44.117345265151499</v>
+        <v>40.3412567327236</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>35.293876212121198</v>
+        <v>32.27300538617888</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3212,20 +3205,20 @@
         <v>33</v>
       </c>
       <c r="B95" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C95" s="9">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D95" s="4">
-        <v>30.242720959595999</v>
+        <v>30.8888623511905</v>
       </c>
       <c r="E95" s="6">
         <v>20</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="1"/>
-        <v>24.194176767676801</v>
+        <v>24.7110898809524</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
@@ -3237,20 +3230,20 @@
         <v>34</v>
       </c>
       <c r="B96" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C96" s="9">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D96" s="4">
-        <v>37.834085625</v>
+        <v>58.120051110877498</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>30.2672685</v>
+        <v>46.496040888701998</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3262,20 +3255,20 @@
         <v>35</v>
       </c>
       <c r="B97" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C97" s="9">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D97" s="4">
-        <v>63.022763888888903</v>
+        <v>65.327544871794899</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="1"/>
-        <v>50.41821111111112</v>
+        <v>52.262035897435922</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
@@ -3287,20 +3280,20 @@
         <v>36</v>
       </c>
       <c r="B98" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C98" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D98" s="4">
-        <v>34.416531249999998</v>
+        <v>26.656775</v>
       </c>
       <c r="E98" s="6">
         <v>20</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="1"/>
-        <v>27.533224999999998</v>
+        <v>21.325420000000001</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
@@ -3312,20 +3305,20 @@
         <v>37</v>
       </c>
       <c r="B99" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C99" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D99" s="4">
-        <v>56.328335880559301</v>
+        <v>55.899965169864899</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="1"/>
-        <v>45.062668704447439</v>
+        <v>44.719972135891922</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3337,20 +3330,20 @@
         <v>38</v>
       </c>
       <c r="B100" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C100" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D100" s="4">
-        <v>37.479743055555602</v>
+        <v>33.820903409090903</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>29.983794444444481</v>
+        <v>27.056722727272721</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3362,20 +3355,20 @@
         <v>39</v>
       </c>
       <c r="B101" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C101" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D101" s="4">
-        <v>103.855765151515</v>
+        <v>112.065143292683</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>83.084612121212004</v>
+        <v>89.6521146341464</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3387,20 +3380,20 @@
         <v>40</v>
       </c>
       <c r="B102" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C102" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D102" s="4">
-        <v>23.157217041429899</v>
+        <v>25.749629336301901</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>18.52577363314392</v>
+        <v>20.599703469041522</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3412,20 +3405,20 @@
         <v>41</v>
       </c>
       <c r="B103" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C103" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4">
-        <v>29.0917112676056</v>
+        <v>33.975483333333301</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>23.27336901408448</v>
+        <v>27.180386666666642</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3437,20 +3430,20 @@
         <v>42</v>
       </c>
       <c r="B104" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C104" s="9">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D104" s="4">
-        <v>31.497125</v>
+        <v>34.1102432692308</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="1"/>
-        <v>25.197700000000001</v>
+        <v>27.28819461538464</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3462,20 +3455,20 @@
         <v>43</v>
       </c>
       <c r="B105" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C105" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D105" s="4">
-        <v>30.198838541666699</v>
+        <v>33.789924999999997</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="1"/>
-        <v>24.159070833333359</v>
+        <v>27.031939999999999</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3487,20 +3480,20 @@
         <v>44</v>
       </c>
       <c r="B106" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C106" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D106" s="4">
-        <v>76.558015719696996</v>
+        <v>77.630007097467498</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>61.246412575757596</v>
+        <v>62.104005677974001</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3512,20 +3505,20 @@
         <v>45</v>
       </c>
       <c r="B107" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C107" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D107" s="4">
-        <v>21.229618357487901</v>
+        <v>33.043489878542502</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>16.983694685990322</v>
+        <v>26.434791902834</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3537,20 +3530,20 @@
         <v>46</v>
       </c>
       <c r="B108" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C108" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D108" s="4">
-        <v>30.528910714285701</v>
+        <v>32.7152125</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="1"/>
-        <v>24.42312857142856</v>
+        <v>26.172170000000001</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
@@ -3562,20 +3555,20 @@
         <v>47</v>
       </c>
       <c r="B109" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C109" s="9">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D109" s="4">
-        <v>63.022763888888903</v>
+        <v>65.327544871794899</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="1"/>
-        <v>50.41821111111112</v>
+        <v>52.262035897435922</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
@@ -3587,20 +3580,20 @@
         <v>48</v>
       </c>
       <c r="B110" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C110" s="9">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D110" s="4">
-        <v>63.022763888888903</v>
+        <v>65.327544871794899</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="1"/>
-        <v>50.41821111111112</v>
+        <v>52.262035897435922</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
@@ -3612,20 +3605,20 @@
         <v>49</v>
       </c>
       <c r="B111" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C111" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D111" s="4">
-        <v>31.43734375</v>
+        <v>31.642708333333299</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="1"/>
-        <v>25.149875000000002</v>
+        <v>25.31416666666664</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
@@ -3637,20 +3630,20 @@
         <v>50</v>
       </c>
       <c r="B112" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C112" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D112" s="4">
-        <v>17.294230769230801</v>
+        <v>27.020347222222199</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="1"/>
-        <v>13.83538461538464</v>
+        <v>21.616277777777761</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
@@ -3662,20 +3655,20 @@
         <v>51</v>
       </c>
       <c r="B113" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C113" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D113" s="4">
-        <v>31.361640997023802</v>
+        <v>31.714208611111101</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="1"/>
-        <v>25.089312797619041</v>
+        <v>25.371366888888879</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
@@ -3687,20 +3680,20 @@
         <v>52</v>
       </c>
       <c r="B114" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C114" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D114" s="4">
-        <v>23.715736623041298</v>
+        <v>28.923002104377101</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="1"/>
-        <v>18.972589298433039</v>
+        <v>23.13840168350168</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
@@ -3712,20 +3705,20 @@
         <v>53</v>
       </c>
       <c r="B115" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C115" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D115" s="4">
-        <v>28.868114914021199</v>
+        <v>30.579786146723698</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>23.094491931216957</v>
+        <v>24.463828917378958</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3737,20 +3730,20 @@
         <v>54</v>
       </c>
       <c r="B116" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C116" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D116" s="4">
-        <v>32.049187500000002</v>
+        <v>35.161183231488103</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>25.63935</v>
+        <v>28.128946585190484</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3762,20 +3755,20 @@
         <v>55</v>
       </c>
       <c r="B117" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C117" s="9">
         <v>80</v>
       </c>
       <c r="D117" s="4">
-        <v>28.400528571428602</v>
+        <v>33.1502161675824</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>22.720422857142882</v>
+        <v>26.520172934065918</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3787,20 +3780,20 @@
         <v>56</v>
       </c>
       <c r="B118" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C118" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D118" s="4">
-        <v>26.707656249999999</v>
+        <v>28.431708333333301</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="1"/>
-        <v>21.366125</v>
+        <v>22.745366666666641</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
@@ -3812,7 +3805,7 @@
         <v>57</v>
       </c>
       <c r="B119" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C119" s="9">
         <v>40</v>
@@ -3837,20 +3830,20 @@
         <v>58</v>
       </c>
       <c r="B120" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C120" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D120" s="4">
-        <v>27.0969065420561</v>
+        <v>29.132693548387099</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="1"/>
-        <v>21.677525233644879</v>
+        <v>23.306154838709681</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
@@ -3862,20 +3855,20 @@
         <v>59</v>
       </c>
       <c r="B121" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C121" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D121" s="4">
-        <v>66.590647306397301</v>
+        <v>66.425528299181906</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>53.272517845117839</v>
+        <v>53.140422639345523</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3887,20 +3880,20 @@
         <v>60</v>
       </c>
       <c r="B122" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C122" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D122" s="4">
-        <v>44.588249261943098</v>
+        <v>44.736744413734002</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>35.670599409554477</v>
+        <v>35.7893955309872</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3912,20 +3905,20 @@
         <v>61</v>
       </c>
       <c r="B123" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C123" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D123" s="4">
-        <v>47.508078124999997</v>
+        <v>45.711182291666702</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>38.006462499999998</v>
+        <v>36.568945833333359</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3937,20 +3930,20 @@
         <v>62</v>
       </c>
       <c r="B124" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C124" s="9">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D124" s="4">
-        <v>31.688876406926401</v>
+        <v>31.1100080891331</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>25.35110112554112</v>
+        <v>24.888006471306479</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3962,20 +3955,20 @@
         <v>63</v>
       </c>
       <c r="B125" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C125" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D125" s="4">
-        <v>43.662488888888902</v>
+        <v>38.856184985632197</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>34.929991111111121</v>
+        <v>31.084947988505757</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3987,20 +3980,20 @@
         <v>64</v>
       </c>
       <c r="B126" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C126" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D126" s="4">
-        <v>63.392396531100502</v>
+        <v>69.798391112445103</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>50.713917224880404</v>
+        <v>55.838712889956085</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4012,20 +4005,20 @@
         <v>65</v>
       </c>
       <c r="B127" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C127" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D127" s="4">
-        <v>30.198838541666699</v>
+        <v>33.789924999999997</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>24.159070833333359</v>
+        <v>27.031939999999999</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
@@ -4037,20 +4030,20 @@
         <v>134</v>
       </c>
       <c r="B128" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C128" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D128" s="4">
-        <v>122.97576388888901</v>
+        <v>142.19632692307701</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>98.380611111111207</v>
+        <v>113.75706153846161</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
@@ -4060,20 +4053,20 @@
         <v>133</v>
       </c>
       <c r="B129" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C129" s="9">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D129" s="4">
-        <v>29.0917112676056</v>
+        <v>33.975483333333301</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>23.27336901408448</v>
+        <v>27.180386666666642</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
@@ -4083,20 +4076,20 @@
         <v>135</v>
       </c>
       <c r="B130" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C130" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D130" s="4">
-        <v>30.528910714285701</v>
+        <v>32.7152125</v>
       </c>
       <c r="E130" s="6">
         <v>20</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="1"/>
-        <v>24.42312857142856</v>
+        <v>26.172170000000001</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="8"/>
@@ -4106,20 +4099,20 @@
         <v>136</v>
       </c>
       <c r="B131" s="7">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="C131" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D131" s="4">
-        <v>0</v>
+        <v>28.684999999999999</v>
       </c>
       <c r="E131" s="6">
         <v>20</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" ref="F131" si="2">D131-(D131*E131)/100</f>
-        <v>0</v>
+        <v>22.948</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28692" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -837,20 +837,19 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2476,20 +2475,20 @@
         <v>4</v>
       </c>
       <c r="B66" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C66" s="9">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="D66" s="4">
-        <v>33.043489878542502</v>
+        <v>29.3250473947176</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>26.434791902834</v>
+        <v>23.46003791577408</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2503,20 +2502,20 @@
         <v>5</v>
       </c>
       <c r="B67" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C67" s="9">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>43.181779220779198</v>
+        <v>41.006811961756902</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>34.545423376623361</v>
+        <v>32.805449569405525</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2530,20 +2529,20 @@
         <v>6</v>
       </c>
       <c r="B68" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C68" s="9">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D68" s="4">
-        <v>27.478606930308199</v>
+        <v>27.226316785923402</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.98288554424656</v>
+        <v>21.781053428738723</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2555,20 +2554,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C69" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D69" s="4">
-        <v>39.756593903940903</v>
+        <v>48.409619897411098</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>31.805275123152722</v>
+        <v>38.727695917928877</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2580,20 +2579,20 @@
         <v>8</v>
       </c>
       <c r="B70" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C70" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D70" s="4">
-        <v>29.132693548387099</v>
+        <v>29.009171314741</v>
       </c>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="1"/>
-        <v>23.306154838709681</v>
+        <v>23.207337051792798</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8" t="s">
@@ -2605,20 +2604,20 @@
         <v>9</v>
       </c>
       <c r="B71" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C71" s="9">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D71" s="4">
-        <v>43.5968314864582</v>
+        <v>37.708077886767697</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>34.877465189166557</v>
+        <v>30.166462309414158</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2630,20 +2629,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C72" s="9">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D72" s="4">
-        <v>32.059944444444497</v>
+        <v>31.203829268292701</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>25.647955555555598</v>
+        <v>24.96306341463416</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
@@ -2655,20 +2654,20 @@
         <v>11</v>
       </c>
       <c r="B73" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C73" s="9">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D73" s="4">
-        <v>33.7079425287356</v>
+        <v>29.897329781486899</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>26.966354022988479</v>
+        <v>23.917863825189521</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2680,20 +2679,20 @@
         <v>12</v>
       </c>
       <c r="B74" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C74" s="9">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D74" s="4">
-        <v>50.734555403700597</v>
+        <v>60.202800456056799</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>40.587644322960479</v>
+        <v>48.162240364845438</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2705,20 +2704,20 @@
         <v>13</v>
       </c>
       <c r="B75" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C75" s="9">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="D75" s="4">
-        <v>55.452292933622303</v>
+        <v>62.094904397588401</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>44.361834346897844</v>
+        <v>49.675923518070718</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2730,20 +2729,20 @@
         <v>14</v>
       </c>
       <c r="B76" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C76" s="9">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D76" s="4">
-        <v>33.869414529914501</v>
+        <v>51.449999944660902</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>27.095531623931599</v>
+        <v>41.159999955728722</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2755,20 +2754,20 @@
         <v>15</v>
       </c>
       <c r="B77" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C77" s="9">
         <v>64</v>
       </c>
       <c r="D77" s="4">
-        <v>48.874758824386703</v>
+        <v>45.1610522145914</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="1"/>
-        <v>39.099807059509359</v>
+        <v>36.128841771673123</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
@@ -2780,20 +2779,20 @@
         <v>16</v>
       </c>
       <c r="B78" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C78" s="9">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D78" s="4">
-        <v>29.132693548387099</v>
+        <v>29.009171314741</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="1"/>
-        <v>23.306154838709681</v>
+        <v>23.207337051792798</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
@@ -2805,20 +2804,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C79" s="9">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D79" s="4">
-        <v>30.546490562678098</v>
+        <v>35.636179924953097</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>24.437192450142479</v>
+        <v>28.508943939962478</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
@@ -2830,20 +2829,20 @@
         <v>18</v>
       </c>
       <c r="B80" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C80" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D80" s="4">
-        <v>31.6699326923077</v>
+        <v>34.350281250000002</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>25.335946153846159</v>
+        <v>27.480225000000001</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
@@ -2855,20 +2854,20 @@
         <v>19</v>
       </c>
       <c r="B81" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C81" s="9">
         <v>8</v>
       </c>
       <c r="D81" s="4">
-        <v>48.4532523364486</v>
+        <v>43.553472560975599</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>38.762601869158878</v>
+        <v>34.842778048780481</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
@@ -2880,20 +2879,20 @@
         <v>20</v>
       </c>
       <c r="B82" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C82" s="9">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="D82" s="4">
-        <v>33.043489878542502</v>
+        <v>25.740173512588001</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>26.434791902834</v>
+        <v>20.592138810070402</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -2905,20 +2904,20 @@
         <v>21</v>
       </c>
       <c r="B83" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C83" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D83" s="4">
-        <v>29.7360729166667</v>
+        <v>31.4029666666667</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>23.788858333333359</v>
+        <v>25.122373333333361</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2930,20 +2929,20 @@
         <v>22</v>
       </c>
       <c r="B84" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C84" s="9">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="D84" s="4">
-        <v>48.153669096165302</v>
+        <v>44.050445252678202</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>38.522935276932245</v>
+        <v>35.240356202142564</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
@@ -2955,20 +2954,20 @@
         <v>23</v>
       </c>
       <c r="B85" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C85" s="9">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>33.459429142826899</v>
+        <v>30.008119457236798</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>26.76754331426152</v>
+        <v>24.006495565789439</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -2980,20 +2979,20 @@
         <v>24</v>
       </c>
       <c r="B86" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C86" s="9">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D86" s="4">
-        <v>52.911842567688701</v>
+        <v>51.371344042016801</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>42.329474054150964</v>
+        <v>41.097075233613438</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
@@ -3005,20 +3004,20 @@
         <v>25</v>
       </c>
       <c r="B87" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C87" s="9">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D87" s="4">
-        <v>52.126151979565797</v>
+        <v>41.591657001846201</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>41.700921583652637</v>
+        <v>33.273325601476962</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3030,20 +3029,20 @@
         <v>26</v>
       </c>
       <c r="B88" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C88" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D88" s="4">
-        <v>39.793412656564897</v>
+        <v>33.831602297357001</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>31.834730125251916</v>
+        <v>27.0652818378856</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3055,20 +3054,20 @@
         <v>27</v>
       </c>
       <c r="B89" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C89" s="9">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D89" s="4">
-        <v>44.524294946439703</v>
+        <v>50.6066562757808</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>35.619435957151765</v>
+        <v>40.485325020624643</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
@@ -3080,20 +3079,20 @@
         <v>28</v>
       </c>
       <c r="B90" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C90" s="9">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D90" s="4">
-        <v>112.065143292683</v>
+        <v>95.295164987907597</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>89.6521146341464</v>
+        <v>76.236131990326072</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3105,20 +3104,20 @@
         <v>29</v>
       </c>
       <c r="B91" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C91" s="9">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D91" s="4">
-        <v>32.022577272727297</v>
+        <v>30.775804824561401</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>25.618061818181836</v>
+        <v>24.620643859649121</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
@@ -3130,20 +3129,20 @@
         <v>30</v>
       </c>
       <c r="B92" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C92" s="9">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D92" s="4">
-        <v>25.001824427480901</v>
+        <v>25.9576258307373</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.001459541984723</v>
+        <v>20.766100664589839</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3155,20 +3154,20 @@
         <v>31</v>
       </c>
       <c r="B93" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C93" s="9">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D93" s="4">
-        <v>44.815328827181098</v>
+        <v>48.037334006666903</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="1"/>
-        <v>35.852263061744878</v>
+        <v>38.429867205333522</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
@@ -3180,20 +3179,20 @@
         <v>32</v>
       </c>
       <c r="B94" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C94" s="9">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D94" s="4">
-        <v>40.3412567327236</v>
+        <v>46.476930276619903</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>32.27300538617888</v>
+        <v>37.181544221295923</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3205,20 +3204,20 @@
         <v>33</v>
       </c>
       <c r="B95" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C95" s="9">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D95" s="4">
-        <v>30.8888623511905</v>
+        <v>33.215114583333303</v>
       </c>
       <c r="E95" s="6">
         <v>20</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="1"/>
-        <v>24.7110898809524</v>
+        <v>26.572091666666644</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
@@ -3230,20 +3229,20 @@
         <v>34</v>
       </c>
       <c r="B96" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C96" s="9">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D96" s="4">
-        <v>58.120051110877498</v>
+        <v>44.727215370748098</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>46.496040888701998</v>
+        <v>35.781772296598476</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3255,20 +3254,20 @@
         <v>35</v>
       </c>
       <c r="B97" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C97" s="9">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D97" s="4">
-        <v>65.327544871794899</v>
+        <v>85.370580357142899</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="1"/>
-        <v>52.262035897435922</v>
+        <v>68.296464285714322</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
@@ -3280,20 +3279,20 @@
         <v>36</v>
       </c>
       <c r="B98" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C98" s="9">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D98" s="4">
-        <v>26.656775</v>
+        <v>26.901294642857099</v>
       </c>
       <c r="E98" s="6">
         <v>20</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="1"/>
-        <v>21.325420000000001</v>
+        <v>21.521035714285681</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
@@ -3305,20 +3304,20 @@
         <v>37</v>
       </c>
       <c r="B99" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C99" s="9">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="D99" s="4">
-        <v>55.899965169864899</v>
+        <v>52.016683498154002</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="1"/>
-        <v>44.719972135891922</v>
+        <v>41.613346798523203</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3330,20 +3329,20 @@
         <v>38</v>
       </c>
       <c r="B100" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C100" s="9">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D100" s="4">
-        <v>33.820903409090903</v>
+        <v>43.593693857758602</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>27.056722727272721</v>
+        <v>34.874955086206882</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3355,20 +3354,20 @@
         <v>39</v>
       </c>
       <c r="B101" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C101" s="9">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D101" s="4">
-        <v>112.065143292683</v>
+        <v>96.975073361437396</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>89.6521146341464</v>
+        <v>77.580058689149922</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3380,20 +3379,20 @@
         <v>40</v>
       </c>
       <c r="B102" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C102" s="9">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D102" s="4">
-        <v>25.749629336301901</v>
+        <v>26.570711273405401</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>20.599703469041522</v>
+        <v>21.256569018724321</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3405,20 +3404,20 @@
         <v>41</v>
       </c>
       <c r="B103" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C103" s="9">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D103" s="4">
-        <v>33.975483333333301</v>
+        <v>29.152475131709501</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>27.180386666666642</v>
+        <v>23.321980105367601</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3430,20 +3429,20 @@
         <v>42</v>
       </c>
       <c r="B104" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C104" s="9">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D104" s="4">
-        <v>34.1102432692308</v>
+        <v>38.5037438891097</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="1"/>
-        <v>27.28819461538464</v>
+        <v>30.80299511128776</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3455,20 +3454,20 @@
         <v>43</v>
       </c>
       <c r="B105" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C105" s="9">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D105" s="4">
-        <v>33.789924999999997</v>
+        <v>34.570979166666703</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="1"/>
-        <v>27.031939999999999</v>
+        <v>27.656783333333362</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3480,20 +3479,20 @@
         <v>44</v>
       </c>
       <c r="B106" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C106" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D106" s="4">
-        <v>77.630007097467498</v>
+        <v>73.558227682077103</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>62.104005677974001</v>
+        <v>58.846582145661685</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3505,20 +3504,20 @@
         <v>45</v>
       </c>
       <c r="B107" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C107" s="9">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D107" s="4">
-        <v>33.043489878542502</v>
+        <v>26.293460941433398</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>26.434791902834</v>
+        <v>21.034768753146718</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3530,20 +3529,20 @@
         <v>46</v>
       </c>
       <c r="B108" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C108" s="9">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D108" s="4">
-        <v>32.7152125</v>
+        <v>32.536164473684202</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="1"/>
-        <v>26.172170000000001</v>
+        <v>26.028931578947361</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
@@ -3555,20 +3554,20 @@
         <v>47</v>
       </c>
       <c r="B109" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C109" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D109" s="4">
-        <v>65.327544871794899</v>
+        <v>85.370580357142899</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="1"/>
-        <v>52.262035897435922</v>
+        <v>68.296464285714322</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
@@ -3580,20 +3579,20 @@
         <v>48</v>
       </c>
       <c r="B110" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C110" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D110" s="4">
-        <v>65.327544871794899</v>
+        <v>85.370580357142899</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="1"/>
-        <v>52.262035897435922</v>
+        <v>68.296464285714322</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
@@ -3605,20 +3604,20 @@
         <v>49</v>
       </c>
       <c r="B111" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C111" s="9">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="D111" s="4">
-        <v>31.642708333333299</v>
+        <v>36.592207446808501</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="1"/>
-        <v>25.31416666666664</v>
+        <v>29.273765957446802</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
@@ -3630,20 +3629,20 @@
         <v>50</v>
       </c>
       <c r="B112" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C112" s="9">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D112" s="4">
-        <v>27.020347222222199</v>
+        <v>38.049743767312997</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="1"/>
-        <v>21.616277777777761</v>
+        <v>30.439795013850397</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
@@ -3655,20 +3654,20 @@
         <v>51</v>
       </c>
       <c r="B113" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C113" s="9">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D113" s="4">
-        <v>31.714208611111101</v>
+        <v>36.399062543326401</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="1"/>
-        <v>25.371366888888879</v>
+        <v>29.119250034661121</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
@@ -3680,20 +3679,20 @@
         <v>52</v>
       </c>
       <c r="B114" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C114" s="9">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D114" s="4">
-        <v>28.923002104377101</v>
+        <v>34.740122348540197</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="1"/>
-        <v>23.13840168350168</v>
+        <v>27.792097878832159</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
@@ -3705,20 +3704,20 @@
         <v>53</v>
       </c>
       <c r="B115" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C115" s="9">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D115" s="4">
-        <v>30.579786146723698</v>
+        <v>32.458925520833297</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>24.463828917378958</v>
+        <v>25.967140416666638</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3730,20 +3729,20 @@
         <v>54</v>
       </c>
       <c r="B116" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C116" s="9">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D116" s="4">
-        <v>35.161183231488103</v>
+        <v>38.652756059018103</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>28.128946585190484</v>
+        <v>30.922204847214481</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3755,20 +3754,20 @@
         <v>55</v>
       </c>
       <c r="B117" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C117" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D117" s="4">
-        <v>33.1502161675824</v>
+        <v>31.8095996436404</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>26.520172934065918</v>
+        <v>25.447679714912319</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3780,20 +3779,20 @@
         <v>56</v>
       </c>
       <c r="B118" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C118" s="9">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D118" s="4">
-        <v>28.431708333333301</v>
+        <v>29.5901488095238</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="1"/>
-        <v>22.745366666666641</v>
+        <v>23.672119047619042</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
@@ -3805,20 +3804,20 @@
         <v>57</v>
       </c>
       <c r="B119" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C119" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D119" s="4">
-        <v>31.626785714285699</v>
+        <v>29.1161047149123</v>
       </c>
       <c r="E119" s="6">
         <v>20</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="1"/>
-        <v>25.301428571428559</v>
+        <v>23.292883771929841</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
@@ -3830,20 +3829,20 @@
         <v>58</v>
       </c>
       <c r="B120" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C120" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D120" s="4">
-        <v>29.132693548387099</v>
+        <v>29.009171314741</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="1"/>
-        <v>23.306154838709681</v>
+        <v>23.207337051792798</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
@@ -3855,20 +3854,20 @@
         <v>59</v>
       </c>
       <c r="B121" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C121" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D121" s="4">
-        <v>66.425528299181906</v>
+        <v>70.876134708704299</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>53.140422639345523</v>
+        <v>56.700907766963439</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3880,20 +3879,20 @@
         <v>60</v>
       </c>
       <c r="B122" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C122" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D122" s="4">
-        <v>44.736744413734002</v>
+        <v>42.808175608094203</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>35.7893955309872</v>
+        <v>34.246540486475361</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3905,20 +3904,20 @@
         <v>61</v>
       </c>
       <c r="B123" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C123" s="9">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D123" s="4">
-        <v>45.711182291666702</v>
+        <v>43.668628124999998</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>36.568945833333359</v>
+        <v>34.9349025</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3930,20 +3929,20 @@
         <v>62</v>
       </c>
       <c r="B124" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C124" s="9">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D124" s="4">
-        <v>31.1100080891331</v>
+        <v>29.7101949190391</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>24.888006471306479</v>
+        <v>23.768155935231281</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3955,20 +3954,20 @@
         <v>63</v>
       </c>
       <c r="B125" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C125" s="9">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D125" s="4">
-        <v>38.856184985632197</v>
+        <v>47.792538833386999</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>31.084947988505757</v>
+        <v>38.234031066709598</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3980,20 +3979,20 @@
         <v>64</v>
       </c>
       <c r="B126" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C126" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>69.798391112445103</v>
+        <v>71.825460004562302</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>55.838712889956085</v>
+        <v>57.46036800364984</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4005,20 +4004,20 @@
         <v>65</v>
       </c>
       <c r="B127" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C127" s="9">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="D127" s="4">
-        <v>33.789924999999997</v>
+        <v>33.401038862179497</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>27.031939999999999</v>
+        <v>26.720831089743598</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
@@ -4030,20 +4029,20 @@
         <v>134</v>
       </c>
       <c r="B128" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C128" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D128" s="4">
-        <v>142.19632692307701</v>
+        <v>108.004322222222</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>113.75706153846161</v>
+        <v>86.403457777777604</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
@@ -4053,20 +4052,20 @@
         <v>133</v>
       </c>
       <c r="B129" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C129" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D129" s="4">
-        <v>33.975483333333301</v>
+        <v>29.227503496503498</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>27.180386666666642</v>
+        <v>23.382002797202798</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
@@ -4076,20 +4075,20 @@
         <v>135</v>
       </c>
       <c r="B130" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C130" s="9">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D130" s="4">
-        <v>32.7152125</v>
+        <v>32.536164473684202</v>
       </c>
       <c r="E130" s="6">
         <v>20</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="1"/>
-        <v>26.172170000000001</v>
+        <v>26.028931578947361</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="8"/>
@@ -4099,20 +4098,20 @@
         <v>136</v>
       </c>
       <c r="B131" s="7">
-        <v>45918</v>
+        <v>45930</v>
       </c>
       <c r="C131" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D131" s="4">
-        <v>28.684999999999999</v>
+        <v>30.212656249999998</v>
       </c>
       <c r="E131" s="6">
         <v>20</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" ref="F131" si="2">D131-(D131*E131)/100</f>
-        <v>22.948</v>
+        <v>24.170124999999999</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2481,14 +2481,14 @@
         <v>175</v>
       </c>
       <c r="D66" s="4">
-        <v>29.3250473947176</v>
+        <v>29.237926973373401</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>23.46003791577408</v>
+        <v>23.39034157869872</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2508,14 +2508,14 @@
         <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>41.006811961756902</v>
+        <v>41.853499128812601</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>32.805449569405525</v>
+        <v>33.482799303050079</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2532,17 +2532,17 @@
         <v>45930</v>
       </c>
       <c r="C68" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D68" s="4">
-        <v>27.226316785923402</v>
+        <v>26.775168090786401</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.781053428738723</v>
+        <v>21.420134472629123</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2560,14 +2560,14 @@
         <v>120</v>
       </c>
       <c r="D69" s="4">
-        <v>48.409619897411098</v>
+        <v>48.311080659107397</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>38.727695917928877</v>
+        <v>38.648864527285916</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2582,17 +2582,17 @@
         <v>45930</v>
       </c>
       <c r="C70" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D70" s="4">
-        <v>29.009171314741</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="1"/>
-        <v>23.207337051792798</v>
+        <v>22.858622053231919</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8" t="s">
@@ -2607,17 +2607,17 @@
         <v>45930</v>
       </c>
       <c r="C71" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D71" s="4">
-        <v>37.708077886767697</v>
+        <v>40.093497186019398</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>30.166462309414158</v>
+        <v>32.07479774881552</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2635,14 +2635,14 @@
         <v>184</v>
       </c>
       <c r="D72" s="4">
-        <v>31.203829268292701</v>
+        <v>31.780536585365901</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>24.96306341463416</v>
+        <v>25.42442926829272</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
@@ -2657,17 +2657,17 @@
         <v>45930</v>
       </c>
       <c r="C73" s="9">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D73" s="4">
-        <v>29.897329781486899</v>
+        <v>33.741710735250201</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>23.917863825189521</v>
+        <v>26.993368588200163</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2685,14 +2685,14 @@
         <v>160</v>
       </c>
       <c r="D74" s="4">
-        <v>60.202800456056799</v>
+        <v>59.2818476108068</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>48.162240364845438</v>
+        <v>47.425478088645441</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2707,17 +2707,17 @@
         <v>45930</v>
       </c>
       <c r="C75" s="9">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D75" s="4">
-        <v>62.094904397588401</v>
+        <v>60.856685425766599</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>49.675923518070718</v>
+        <v>48.685348340613281</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2735,14 +2735,14 @@
         <v>132</v>
       </c>
       <c r="D76" s="4">
-        <v>51.449999944660902</v>
+        <v>52.144468873261999</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>41.159999955728722</v>
+        <v>41.715575098609598</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2760,14 +2760,14 @@
         <v>64</v>
       </c>
       <c r="D77" s="4">
-        <v>45.1610522145914</v>
+        <v>44.972536565901301</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="1"/>
-        <v>36.128841771673123</v>
+        <v>35.978029252721043</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
@@ -2782,17 +2782,17 @@
         <v>45930</v>
       </c>
       <c r="C78" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D78" s="4">
-        <v>29.009171314741</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="1"/>
-        <v>23.207337051792798</v>
+        <v>22.858622053231919</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
@@ -2810,14 +2810,14 @@
         <v>160</v>
       </c>
       <c r="D79" s="4">
-        <v>35.636179924953097</v>
+        <v>35.665015290806799</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>28.508943939962478</v>
+        <v>28.532012232645439</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
@@ -2860,14 +2860,14 @@
         <v>8</v>
       </c>
       <c r="D81" s="4">
-        <v>43.553472560975599</v>
+        <v>43.636136627907</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>34.842778048780481</v>
+        <v>34.908909302325597</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
@@ -2885,14 +2885,14 @@
         <v>168</v>
       </c>
       <c r="D82" s="4">
-        <v>25.740173512588001</v>
+        <v>25.857861904483901</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>20.592138810070402</v>
+        <v>20.686289523587121</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -2910,14 +2910,14 @@
         <v>168</v>
       </c>
       <c r="D83" s="4">
-        <v>31.4029666666667</v>
+        <v>31.253423015873</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>25.122373333333361</v>
+        <v>25.002738412698399</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2932,17 +2932,17 @@
         <v>45930</v>
       </c>
       <c r="C84" s="9">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D84" s="4">
-        <v>44.050445252678202</v>
+        <v>44.031594599410397</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>35.240356202142564</v>
+        <v>35.225275679528316</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
@@ -2960,14 +2960,14 @@
         <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>30.008119457236798</v>
+        <v>30.190300707236801</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>24.006495565789439</v>
+        <v>24.152240565789441</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -2982,17 +2982,17 @@
         <v>45930</v>
       </c>
       <c r="C86" s="9">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D86" s="4">
-        <v>51.371344042016801</v>
+        <v>49.901317293941098</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>41.097075233613438</v>
+        <v>39.921053835152875</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
@@ -3007,17 +3007,17 @@
         <v>45930</v>
       </c>
       <c r="C87" s="9">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>41.591657001846201</v>
+        <v>40.917800928913003</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>33.273325601476962</v>
+        <v>32.7342407431304</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3032,17 +3032,17 @@
         <v>45930</v>
       </c>
       <c r="C88" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D88" s="4">
-        <v>33.831602297357001</v>
+        <v>35.802042386979601</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>27.0652818378856</v>
+        <v>28.641633909583682</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3057,17 +3057,17 @@
         <v>45930</v>
       </c>
       <c r="C89" s="9">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D89" s="4">
-        <v>50.6066562757808</v>
+        <v>49.698799846698897</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>40.485325020624643</v>
+        <v>39.759039877359115</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
@@ -3082,17 +3082,17 @@
         <v>45930</v>
       </c>
       <c r="C90" s="9">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D90" s="4">
-        <v>95.295164987907597</v>
+        <v>92.0665249242561</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>76.236131990326072</v>
+        <v>73.653219939404877</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3107,17 +3107,17 @@
         <v>45930</v>
       </c>
       <c r="C91" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D91" s="4">
-        <v>30.775804824561401</v>
+        <v>32.306667307692301</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>24.620643859649121</v>
+        <v>25.845333846153842</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
@@ -3132,17 +3132,17 @@
         <v>45930</v>
       </c>
       <c r="C92" s="9">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>25.9576258307373</v>
+        <v>25.417425653784399</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.766100664589839</v>
+        <v>20.333940523027518</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3157,17 +3157,17 @@
         <v>45930</v>
       </c>
       <c r="C93" s="9">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D93" s="4">
-        <v>48.037334006666903</v>
+        <v>47.438137801035097</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="1"/>
-        <v>38.429867205333522</v>
+        <v>37.950510240828081</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
@@ -3182,17 +3182,17 @@
         <v>45930</v>
       </c>
       <c r="C94" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D94" s="4">
-        <v>46.476930276619903</v>
+        <v>44.165378198286298</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>37.181544221295923</v>
+        <v>35.332302558629038</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3232,17 +3232,17 @@
         <v>45930</v>
       </c>
       <c r="C96" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D96" s="4">
-        <v>44.727215370748098</v>
+        <v>43.721122756013301</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>35.781772296598476</v>
+        <v>34.976898204810638</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3257,17 +3257,17 @@
         <v>45930</v>
       </c>
       <c r="C97" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D97" s="4">
-        <v>85.370580357142899</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="1"/>
-        <v>68.296464285714322</v>
+        <v>64.823762711864404</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
@@ -3307,17 +3307,17 @@
         <v>45930</v>
       </c>
       <c r="C99" s="9">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D99" s="4">
-        <v>52.016683498154002</v>
+        <v>50.860851520567998</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="1"/>
-        <v>41.613346798523203</v>
+        <v>40.688681216454398</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3332,17 +3332,17 @@
         <v>45930</v>
       </c>
       <c r="C100" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D100" s="4">
-        <v>43.593693857758602</v>
+        <v>41.517803674055799</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>34.874955086206882</v>
+        <v>33.214242939244642</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3357,17 +3357,17 @@
         <v>45930</v>
       </c>
       <c r="C101" s="9">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D101" s="4">
-        <v>96.975073361437396</v>
+        <v>93.5786039218506</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>77.580058689149922</v>
+        <v>74.86288313748048</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3385,14 +3385,14 @@
         <v>152</v>
       </c>
       <c r="D102" s="4">
-        <v>26.570711273405401</v>
+        <v>25.9888573411728</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>21.256569018724321</v>
+        <v>20.79108587293824</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3407,17 +3407,17 @@
         <v>45930</v>
       </c>
       <c r="C103" s="9">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D103" s="4">
-        <v>29.152475131709501</v>
+        <v>27.627710261205099</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>23.321980105367601</v>
+        <v>22.102168208964081</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3435,14 +3435,14 @@
         <v>136</v>
       </c>
       <c r="D104" s="4">
-        <v>38.5037438891097</v>
+        <v>38.4600450131976</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="1"/>
-        <v>30.80299511128776</v>
+        <v>30.768036010558081</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3482,17 +3482,17 @@
         <v>45930</v>
       </c>
       <c r="C106" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D106" s="4">
-        <v>73.558227682077103</v>
+        <v>73.448572987089804</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>58.846582145661685</v>
+        <v>58.758858389671843</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3510,14 +3510,14 @@
         <v>156</v>
       </c>
       <c r="D107" s="4">
-        <v>26.293460941433398</v>
+        <v>26.673684976789598</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>21.034768753146718</v>
+        <v>21.33894798143168</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3532,17 +3532,17 @@
         <v>45930</v>
       </c>
       <c r="C108" s="9">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D108" s="4">
-        <v>32.536164473684202</v>
+        <v>35.714481249999999</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="1"/>
-        <v>26.028931578947361</v>
+        <v>28.571584999999999</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
@@ -3557,17 +3557,17 @@
         <v>45930</v>
       </c>
       <c r="C109" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D109" s="4">
-        <v>85.370580357142899</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="1"/>
-        <v>68.296464285714322</v>
+        <v>64.823762711864404</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
@@ -3582,17 +3582,17 @@
         <v>45930</v>
       </c>
       <c r="C110" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D110" s="4">
-        <v>85.370580357142899</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="1"/>
-        <v>68.296464285714322</v>
+        <v>64.823762711864404</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
@@ -3607,17 +3607,17 @@
         <v>45930</v>
       </c>
       <c r="C111" s="9">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D111" s="4">
-        <v>36.592207446808501</v>
+        <v>42.041652962155702</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="1"/>
-        <v>29.273765957446802</v>
+        <v>33.63332236972456</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
@@ -3632,17 +3632,17 @@
         <v>45930</v>
       </c>
       <c r="C112" s="9">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D112" s="4">
-        <v>38.049743767312997</v>
+        <v>35.0972051363348</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="1"/>
-        <v>30.439795013850397</v>
+        <v>28.077764109067839</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
@@ -3657,17 +3657,17 @@
         <v>45930</v>
       </c>
       <c r="C113" s="9">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D113" s="4">
-        <v>36.399062543326401</v>
+        <v>41.72819933281</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="1"/>
-        <v>29.119250034661121</v>
+        <v>33.382559466247997</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
@@ -3682,17 +3682,17 @@
         <v>45930</v>
       </c>
       <c r="C114" s="9">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D114" s="4">
-        <v>34.740122348540197</v>
+        <v>33.8435735713743</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="1"/>
-        <v>27.792097878832159</v>
+        <v>27.074858857099439</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
@@ -3710,14 +3710,14 @@
         <v>128</v>
       </c>
       <c r="D115" s="4">
-        <v>32.458925520833297</v>
+        <v>32.458925520833397</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>25.967140416666638</v>
+        <v>25.967140416666716</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3732,17 +3732,17 @@
         <v>45930</v>
       </c>
       <c r="C116" s="9">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D116" s="4">
-        <v>38.652756059018103</v>
+        <v>39.0950206798762</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>30.922204847214481</v>
+        <v>31.276016543900958</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3760,14 +3760,14 @@
         <v>96</v>
       </c>
       <c r="D117" s="4">
-        <v>31.8095996436404</v>
+        <v>32.149164236111098</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>25.447679714912319</v>
+        <v>25.719331388888879</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3782,17 +3782,17 @@
         <v>45930</v>
       </c>
       <c r="C118" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D118" s="4">
-        <v>29.5901488095238</v>
+        <v>31.474488636363599</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="1"/>
-        <v>23.672119047619042</v>
+        <v>25.17959090909088</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
@@ -3807,17 +3807,17 @@
         <v>45930</v>
       </c>
       <c r="C119" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D119" s="4">
-        <v>29.1161047149123</v>
+        <v>29.6587761470985</v>
       </c>
       <c r="E119" s="6">
         <v>20</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="1"/>
-        <v>23.292883771929841</v>
+        <v>23.7270209176788</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
@@ -3832,17 +3832,17 @@
         <v>45930</v>
       </c>
       <c r="C120" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D120" s="4">
-        <v>29.009171314741</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="1"/>
-        <v>23.207337051792798</v>
+        <v>22.858622053231919</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
@@ -3857,17 +3857,17 @@
         <v>45930</v>
       </c>
       <c r="C121" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D121" s="4">
-        <v>70.876134708704299</v>
+        <v>68.226912149263498</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>56.700907766963439</v>
+        <v>54.581529719410796</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3882,17 +3882,17 @@
         <v>45930</v>
       </c>
       <c r="C122" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D122" s="4">
-        <v>42.808175608094203</v>
+        <v>40.862349444089901</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>34.246540486475361</v>
+        <v>32.689879555271922</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3907,17 +3907,17 @@
         <v>45930</v>
       </c>
       <c r="C123" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D123" s="4">
-        <v>43.668628124999998</v>
+        <v>41.589169642857101</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>34.9349025</v>
+        <v>33.271335714285684</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3935,14 +3935,14 @@
         <v>184</v>
       </c>
       <c r="D124" s="4">
-        <v>29.7101949190391</v>
+        <v>30.136456849049701</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>23.768155935231281</v>
+        <v>24.10916547923976</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3960,14 +3960,14 @@
         <v>104</v>
       </c>
       <c r="D125" s="4">
-        <v>47.792538833386999</v>
+        <v>47.735689272827202</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>38.234031066709598</v>
+        <v>38.18855141826176</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3985,14 +3985,14 @@
         <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>71.825460004562302</v>
+        <v>70.325269855422803</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>57.46036800364984</v>
+        <v>56.260215884338244</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4032,17 +4032,17 @@
         <v>45930</v>
       </c>
       <c r="C128" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D128" s="4">
-        <v>108.004322222222</v>
+        <v>105.384265957447</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>86.403457777777604</v>
+        <v>84.307412765957594</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
@@ -4055,17 +4055,17 @@
         <v>45930</v>
       </c>
       <c r="C129" s="9">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D129" s="4">
-        <v>29.227503496503498</v>
+        <v>27.6790264900662</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>23.382002797202798</v>
+        <v>22.143221192052959</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
@@ -4078,17 +4078,17 @@
         <v>45930</v>
       </c>
       <c r="C130" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D130" s="4">
-        <v>32.536164473684202</v>
+        <v>35.714481249999999</v>
       </c>
       <c r="E130" s="6">
         <v>20</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="1"/>
-        <v>26.028931578947361</v>
+        <v>28.571584999999999</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="8"/>
@@ -4101,17 +4101,17 @@
         <v>45930</v>
       </c>
       <c r="C131" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D131" s="4">
-        <v>30.212656249999998</v>
+        <v>33.073374999999999</v>
       </c>
       <c r="E131" s="6">
         <v>20</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" ref="F131" si="2">D131-(D131*E131)/100</f>
-        <v>24.170124999999999</v>
+        <v>26.4587</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2508,14 +2508,14 @@
         <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>41.853499128812601</v>
+        <v>43.242674199327503</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>33.482799303050079</v>
+        <v>34.594139359462005</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2535,14 +2535,14 @@
         <v>168</v>
       </c>
       <c r="D68" s="4">
-        <v>26.775168090786401</v>
+        <v>26.968554675444</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.420134472629123</v>
+        <v>21.574843740355199</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2635,14 +2635,14 @@
         <v>184</v>
       </c>
       <c r="D72" s="4">
-        <v>31.780536585365901</v>
+        <v>32.000048780487802</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>25.42442926829272</v>
+        <v>25.600039024390242</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="8" t="s">
@@ -2735,14 +2735,14 @@
         <v>132</v>
       </c>
       <c r="D76" s="4">
-        <v>52.144468873261999</v>
+        <v>53.331171415930001</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>41.715575098609598</v>
+        <v>42.664937132744001</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2810,14 +2810,14 @@
         <v>160</v>
       </c>
       <c r="D79" s="4">
-        <v>35.665015290806799</v>
+        <v>36.556056285178201</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="1"/>
-        <v>28.532012232645439</v>
+        <v>29.24484502814256</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
@@ -2835,14 +2835,14 @@
         <v>168</v>
       </c>
       <c r="D80" s="4">
-        <v>34.350281250000002</v>
+        <v>35.585638888888901</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>27.480225000000001</v>
+        <v>28.46851111111112</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
@@ -2910,14 +2910,14 @@
         <v>168</v>
       </c>
       <c r="D83" s="4">
-        <v>31.253423015873</v>
+        <v>31.4012015873016</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>25.002738412698399</v>
+        <v>25.120961269841281</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2960,14 +2960,14 @@
         <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>30.190300707236801</v>
+        <v>31.2606573391813</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>24.152240565789441</v>
+        <v>25.008525871345039</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -3010,14 +3010,14 @@
         <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>40.917800928913003</v>
+        <v>40.960740823549003</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>32.7342407431304</v>
+        <v>32.768592658839204</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3035,14 +3035,14 @@
         <v>176</v>
       </c>
       <c r="D88" s="4">
-        <v>35.802042386979601</v>
+        <v>36.235617341826</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>28.641633909583682</v>
+        <v>28.988493873460801</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3135,14 +3135,14 @@
         <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>25.417425653784399</v>
+        <v>25.3093183413974</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.333940523027518</v>
+        <v>20.247454673117922</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3235,14 +3235,14 @@
         <v>168</v>
       </c>
       <c r="D96" s="4">
-        <v>43.721122756013301</v>
+        <v>43.757928379987</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>34.976898204810638</v>
+        <v>35.006342703989603</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3285,14 +3285,14 @@
         <v>112</v>
       </c>
       <c r="D98" s="4">
-        <v>26.901294642857099</v>
+        <v>32.315026785714302</v>
       </c>
       <c r="E98" s="6">
         <v>20</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="1"/>
-        <v>21.521035714285681</v>
+        <v>25.85202142857144</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
@@ -3385,14 +3385,14 @@
         <v>152</v>
       </c>
       <c r="D102" s="4">
-        <v>25.9888573411728</v>
+        <v>26.0163981880644</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>20.79108587293824</v>
+        <v>20.81311855045152</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3410,14 +3410,14 @@
         <v>156</v>
       </c>
       <c r="D103" s="4">
-        <v>27.627710261205099</v>
+        <v>29.964407982952501</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>22.102168208964081</v>
+        <v>23.971526386362001</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3435,14 +3435,14 @@
         <v>136</v>
       </c>
       <c r="D104" s="4">
-        <v>38.4600450131976</v>
+        <v>39.553742521367603</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="1"/>
-        <v>30.768036010558081</v>
+        <v>31.642994017094082</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
@@ -3460,14 +3460,14 @@
         <v>144</v>
       </c>
       <c r="D105" s="4">
-        <v>34.570979166666703</v>
+        <v>36.801722222222203</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="1"/>
-        <v>27.656783333333362</v>
+        <v>29.441377777777763</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3710,14 +3710,14 @@
         <v>128</v>
       </c>
       <c r="D115" s="4">
-        <v>32.458925520833397</v>
+        <v>33.464523090277801</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>25.967140416666716</v>
+        <v>26.77161847222224</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3760,14 +3760,14 @@
         <v>96</v>
       </c>
       <c r="D117" s="4">
-        <v>32.149164236111098</v>
+        <v>33.310427835648198</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>25.719331388888879</v>
+        <v>26.648342268518558</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3935,14 +3935,14 @@
         <v>184</v>
       </c>
       <c r="D124" s="4">
-        <v>30.136456849049701</v>
+        <v>30.4467243076515</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>24.10916547923976</v>
+        <v>24.3573794461212</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3985,14 +3985,14 @@
         <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>70.325269855422803</v>
+        <v>70.316847293609598</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>56.260215884338244</v>
+        <v>56.253477834887676</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4010,14 +4010,14 @@
         <v>192</v>
       </c>
       <c r="D127" s="4">
-        <v>33.401038862179497</v>
+        <v>35.267092948718002</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>26.720831089743598</v>
+        <v>28.213674358974401</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
@@ -4058,14 +4058,14 @@
         <v>96</v>
       </c>
       <c r="D129" s="4">
-        <v>27.6790264900662</v>
+        <v>30.063688741721901</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>22.143221192052959</v>
+        <v>24.050950993377519</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2481,14 +2481,14 @@
         <v>175</v>
       </c>
       <c r="D66" s="4">
-        <v>29.237926973373401</v>
+        <v>30.4796224427736</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>23.39034157869872</v>
+        <v>24.383697954218881</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2508,14 +2508,14 @@
         <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>43.242674199327503</v>
+        <v>43.670197075095402</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>34.594139359462005</v>
+        <v>34.936157660076319</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2535,14 +2535,14 @@
         <v>168</v>
       </c>
       <c r="D68" s="4">
-        <v>26.968554675444</v>
+        <v>26.9223577910596</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.574843740355199</v>
+        <v>21.537886232847679</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2560,14 +2560,14 @@
         <v>120</v>
       </c>
       <c r="D69" s="4">
-        <v>48.311080659107397</v>
+        <v>52.653562131096599</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>38.648864527285916</v>
+        <v>42.122849704877282</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2610,14 +2610,14 @@
         <v>120</v>
       </c>
       <c r="D71" s="4">
-        <v>40.093497186019398</v>
+        <v>38.288378542549701</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>32.07479774881552</v>
+        <v>30.630702834039759</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2660,14 +2660,14 @@
         <v>128</v>
       </c>
       <c r="D73" s="4">
-        <v>33.741710735250201</v>
+        <v>32.274288017826002</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>26.993368588200163</v>
+        <v>25.8194304142608</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2685,14 +2685,14 @@
         <v>160</v>
       </c>
       <c r="D74" s="4">
-        <v>59.2818476108068</v>
+        <v>61.155298750225697</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>47.425478088645441</v>
+        <v>48.924239000180556</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2710,14 +2710,14 @@
         <v>184</v>
       </c>
       <c r="D75" s="4">
-        <v>60.856685425766599</v>
+        <v>62.703213748923702</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>48.685348340613281</v>
+        <v>50.162570999138964</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2735,14 +2735,14 @@
         <v>132</v>
       </c>
       <c r="D76" s="4">
-        <v>53.331171415930001</v>
+        <v>53.7327838143786</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>42.664937132744001</v>
+        <v>42.98622705150288</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2885,14 +2885,14 @@
         <v>168</v>
       </c>
       <c r="D82" s="4">
-        <v>25.857861904483901</v>
+        <v>27.1032531964238</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>20.686289523587121</v>
+        <v>21.682602557139042</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -2910,14 +2910,14 @@
         <v>168</v>
       </c>
       <c r="D83" s="4">
-        <v>31.4012015873016</v>
+        <v>31.424534920634901</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>25.120961269841281</v>
+        <v>25.139627936507921</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
@@ -2960,14 +2960,14 @@
         <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>31.2606573391813</v>
+        <v>31.4199073391813</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>25.008525871345039</v>
+        <v>25.135925871345041</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
@@ -3010,14 +3010,14 @@
         <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>40.960740823549003</v>
+        <v>40.950688020746199</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>32.768592658839204</v>
+        <v>32.760550416596956</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3035,14 +3035,14 @@
         <v>176</v>
       </c>
       <c r="D88" s="4">
-        <v>36.235617341826</v>
+        <v>34.866680198944998</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>28.988493873460801</v>
+        <v>27.893344159155998</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3085,14 +3085,14 @@
         <v>160</v>
       </c>
       <c r="D90" s="4">
-        <v>92.0665249242561</v>
+        <v>93.189302289873396</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>73.653219939404877</v>
+        <v>74.551441831898714</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3135,14 +3135,14 @@
         <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>25.3093183413974</v>
+        <v>25.3334939885636</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.247454673117922</v>
+        <v>20.266795190850878</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3185,14 +3185,14 @@
         <v>176</v>
       </c>
       <c r="D94" s="4">
-        <v>44.165378198286298</v>
+        <v>44.4334738728435</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>35.332302558629038</v>
+        <v>35.546779098274797</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3235,14 +3235,14 @@
         <v>168</v>
       </c>
       <c r="D96" s="4">
-        <v>43.757928379987</v>
+        <v>43.805567710536202</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>35.006342703989603</v>
+        <v>35.044454168428963</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3335,14 +3335,14 @@
         <v>168</v>
       </c>
       <c r="D100" s="4">
-        <v>41.517803674055799</v>
+        <v>41.742409790640401</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>33.214242939244642</v>
+        <v>33.393927832512318</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3360,14 +3360,14 @@
         <v>144</v>
       </c>
       <c r="D101" s="4">
-        <v>93.5786039218506</v>
+        <v>94.654398077086</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>74.86288313748048</v>
+        <v>75.723518461668803</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3460,14 +3460,14 @@
         <v>144</v>
       </c>
       <c r="D105" s="4">
-        <v>36.801722222222203</v>
+        <v>37.3849826388889</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="1"/>
-        <v>29.441377777777763</v>
+        <v>29.907986111111121</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
@@ -3485,14 +3485,14 @@
         <v>112</v>
       </c>
       <c r="D106" s="4">
-        <v>73.448572987089804</v>
+        <v>74.312100629670397</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>58.758858389671843</v>
+        <v>59.449680503736317</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3510,14 +3510,14 @@
         <v>156</v>
       </c>
       <c r="D107" s="4">
-        <v>26.673684976789598</v>
+        <v>27.5479324259333</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>21.33894798143168</v>
+        <v>22.038345940746641</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3710,14 +3710,14 @@
         <v>128</v>
       </c>
       <c r="D115" s="4">
-        <v>33.464523090277801</v>
+        <v>33.525773090277802</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>26.77161847222224</v>
+        <v>26.820618472222243</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
@@ -3760,14 +3760,14 @@
         <v>96</v>
       </c>
       <c r="D117" s="4">
-        <v>33.310427835648198</v>
+        <v>33.412511168981503</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>26.648342268518558</v>
+        <v>26.730008935185204</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
@@ -3860,14 +3860,14 @@
         <v>112</v>
       </c>
       <c r="D121" s="4">
-        <v>68.226912149263498</v>
+        <v>69.058091459141295</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>54.581529719410796</v>
+        <v>55.246473167313034</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3885,14 +3885,14 @@
         <v>176</v>
       </c>
       <c r="D122" s="4">
-        <v>40.862349444089901</v>
+        <v>42.576660968486202</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>32.689879555271922</v>
+        <v>34.061328774788961</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3910,14 +3910,14 @@
         <v>168</v>
       </c>
       <c r="D123" s="4">
-        <v>41.589169642857101</v>
+        <v>43.319398809523797</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>33.271335714285684</v>
+        <v>34.655519047619038</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
@@ -3935,14 +3935,14 @@
         <v>184</v>
       </c>
       <c r="D124" s="4">
-        <v>30.4467243076515</v>
+        <v>30.457376481564602</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>24.3573794461212</v>
+        <v>24.36590118525168</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
@@ -3960,14 +3960,14 @@
         <v>104</v>
       </c>
       <c r="D125" s="4">
-        <v>47.735689272827202</v>
+        <v>52.236506004014601</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>38.18855141826176</v>
+        <v>41.789204803211682</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3985,14 +3985,14 @@
         <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>70.316847293609598</v>
+        <v>70.974174818238893</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>56.253477834887676</v>
+        <v>56.779339854591115</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4010,14 +4010,14 @@
         <v>192</v>
       </c>
       <c r="D127" s="4">
-        <v>35.267092948718002</v>
+        <v>35.704538261217998</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>28.213674358974401</v>
+        <v>28.5636306089744</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
   <si>
     <t>Tecnico</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>IRTE0000111 - FINOCCHIARO SEBASTIANO</t>
+  </si>
+  <si>
+    <t>IRTE0000046 - NITTO PAOLO</t>
+  </si>
+  <si>
+    <t>cyborg.3@hotmail.it</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H195" sqref="A195:H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2478,17 +2484,17 @@
         <v>45930</v>
       </c>
       <c r="C66" s="9">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D66" s="4">
-        <v>30.4796224427736</v>
+        <v>29.135067590293101</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>24.383697954218881</v>
+        <v>23.30805407223448</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2508,14 +2514,14 @@
         <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>43.670197075095402</v>
+        <v>43.206422052631297</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>34.936157660076319</v>
+        <v>34.565137642105036</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2535,14 +2541,14 @@
         <v>168</v>
       </c>
       <c r="D68" s="4">
-        <v>26.9223577910596</v>
+        <v>26.983380962705699</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.537886232847679</v>
+        <v>21.586704770164559</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2557,17 +2563,17 @@
         <v>45930</v>
       </c>
       <c r="C69" s="9">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D69" s="4">
-        <v>52.653562131096599</v>
+        <v>44.040239923619303</v>
       </c>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="1"/>
-        <v>42.122849704877282</v>
+        <v>35.23219193889544</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8" t="s">
@@ -2610,14 +2616,14 @@
         <v>120</v>
       </c>
       <c r="D71" s="4">
-        <v>38.288378542549701</v>
+        <v>38.138249189678596</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>30.630702834039759</v>
+        <v>30.510599351742876</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2660,14 +2666,14 @@
         <v>128</v>
       </c>
       <c r="D73" s="4">
-        <v>32.274288017826002</v>
+        <v>32.102540585939103</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>25.8194304142608</v>
+        <v>25.682032468751281</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2685,14 +2691,14 @@
         <v>160</v>
       </c>
       <c r="D74" s="4">
-        <v>61.155298750225697</v>
+        <v>63.153596683821903</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>48.924239000180556</v>
+        <v>50.522877347057523</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2710,14 +2716,14 @@
         <v>184</v>
       </c>
       <c r="D75" s="4">
-        <v>62.703213748923702</v>
+        <v>64.651179700810502</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>50.162570999138964</v>
+        <v>51.720943760648403</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2735,14 +2741,14 @@
         <v>132</v>
       </c>
       <c r="D76" s="4">
-        <v>53.7327838143786</v>
+        <v>54.058329031371301</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="1"/>
-        <v>42.98622705150288</v>
+        <v>43.246663225097038</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
@@ -2882,17 +2888,17 @@
         <v>45930</v>
       </c>
       <c r="C82" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D82" s="4">
-        <v>27.1032531964238</v>
+        <v>25.819117331257001</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>21.682602557139042</v>
+        <v>20.6552938650056</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -3010,14 +3016,14 @@
         <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>40.950688020746199</v>
+        <v>40.949257757149297</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>32.760550416596956</v>
+        <v>32.759406205719436</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3035,14 +3041,14 @@
         <v>176</v>
       </c>
       <c r="D88" s="4">
-        <v>34.866680198944998</v>
+        <v>34.835498503924001</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>27.893344159155998</v>
+        <v>27.8683988031392</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3060,14 +3066,14 @@
         <v>132</v>
       </c>
       <c r="D89" s="4">
-        <v>49.698799846698897</v>
+        <v>49.568454434259202</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>39.759039877359115</v>
+        <v>39.654763547407363</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
@@ -3085,14 +3091,14 @@
         <v>160</v>
       </c>
       <c r="D90" s="4">
-        <v>93.189302289873396</v>
+        <v>93.984443249597007</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>74.551441831898714</v>
+        <v>75.187554599677611</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3135,14 +3141,14 @@
         <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>25.3334939885636</v>
+        <v>25.359650876464201</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.266795190850878</v>
+        <v>20.287720701171359</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3185,14 +3191,14 @@
         <v>176</v>
       </c>
       <c r="D94" s="4">
-        <v>44.4334738728435</v>
+        <v>46.276630142882098</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>35.546779098274797</v>
+        <v>37.021304114305678</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3235,14 +3241,14 @@
         <v>168</v>
       </c>
       <c r="D96" s="4">
-        <v>43.805567710536202</v>
+        <v>43.8378879576047</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>35.044454168428963</v>
+        <v>35.07031036608376</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3310,14 +3316,14 @@
         <v>172</v>
       </c>
       <c r="D99" s="4">
-        <v>50.860851520567998</v>
+        <v>50.760818994742202</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="1"/>
-        <v>40.688681216454398</v>
+        <v>40.608655195793759</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
@@ -3335,14 +3341,14 @@
         <v>168</v>
       </c>
       <c r="D100" s="4">
-        <v>41.742409790640401</v>
+        <v>43.639789219576699</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>33.393927832512318</v>
+        <v>34.911831375661357</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3360,14 +3366,14 @@
         <v>144</v>
       </c>
       <c r="D101" s="4">
-        <v>94.654398077086</v>
+        <v>95.383951139149602</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>75.723518461668803</v>
+        <v>76.307160911319684</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3385,14 +3391,14 @@
         <v>152</v>
       </c>
       <c r="D102" s="4">
-        <v>26.0163981880644</v>
+        <v>26.0478425937807</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>20.81311855045152</v>
+        <v>20.838274075024561</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3410,14 +3416,14 @@
         <v>156</v>
       </c>
       <c r="D103" s="4">
-        <v>29.964407982952501</v>
+        <v>30.550362389473101</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>23.971526386362001</v>
+        <v>24.440289911578482</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3482,17 +3488,17 @@
         <v>45930</v>
       </c>
       <c r="C106" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
-        <v>74.312100629670397</v>
+        <v>74.244244347159807</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>59.449680503736317</v>
+        <v>59.395395477727845</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3507,17 +3513,17 @@
         <v>45930</v>
       </c>
       <c r="C107" s="9">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D107" s="4">
-        <v>27.5479324259333</v>
+        <v>26.419906830290799</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>22.038345940746641</v>
+        <v>21.135925464232638</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3735,14 +3741,14 @@
         <v>157</v>
       </c>
       <c r="D116" s="4">
-        <v>39.0950206798762</v>
+        <v>38.985430906360101</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>31.276016543900958</v>
+        <v>31.188344725088079</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
@@ -3857,17 +3863,17 @@
         <v>45930</v>
       </c>
       <c r="C121" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D121" s="4">
-        <v>69.058091459141295</v>
+        <v>70.221666668422301</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>55.246473167313034</v>
+        <v>56.177333334737838</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3885,14 +3891,14 @@
         <v>176</v>
       </c>
       <c r="D122" s="4">
-        <v>42.576660968486202</v>
+        <v>42.516226024360599</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>34.061328774788961</v>
+        <v>34.012980819488476</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
@@ -3957,17 +3963,17 @@
         <v>45930</v>
       </c>
       <c r="C125" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D125" s="4">
-        <v>52.236506004014601</v>
+        <v>43.304056056055998</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>41.789204803211682</v>
+        <v>34.643244844844801</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
@@ -3985,14 +3991,14 @@
         <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>70.974174818238893</v>
+        <v>71.508841589087197</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>56.779339854591115</v>
+        <v>57.207073271269756</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4032,17 +4038,17 @@
         <v>45930</v>
       </c>
       <c r="C128" s="9">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D128" s="4">
-        <v>105.384265957447</v>
+        <v>101.082867346939</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>84.307412765957594</v>
+        <v>80.8662938775512</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
@@ -4058,14 +4064,14 @@
         <v>96</v>
       </c>
       <c r="D129" s="4">
-        <v>30.063688741721901</v>
+        <v>30.661132450331099</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>24.050950993377519</v>
+        <v>24.528905960264879</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
@@ -4110,11 +4116,1666 @@
         <v>20</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131" si="2">D131-(D131*E131)/100</f>
+        <f t="shared" ref="F131:F195" si="2">D131-(D131*E131)/100</f>
         <v>26.4587</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C132" s="9">
+        <v>24</v>
+      </c>
+      <c r="D132" s="4">
+        <v>34.023578125</v>
+      </c>
+      <c r="E132" s="6">
+        <v>20</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="2"/>
+        <v>27.2188625</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="6">
+        <v>20</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C134" s="9">
+        <v>24</v>
+      </c>
+      <c r="D134" s="4">
+        <v>20.288514285714299</v>
+      </c>
+      <c r="E134" s="6">
+        <v>20</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="2"/>
+        <v>16.230811428571439</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C135" s="9">
+        <v>16</v>
+      </c>
+      <c r="D135" s="4">
+        <v>26.78565</v>
+      </c>
+      <c r="E135" s="6">
+        <v>20</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="2"/>
+        <v>21.428519999999999</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C136" s="9">
+        <v>40</v>
+      </c>
+      <c r="D136" s="4">
+        <v>18.860270833333299</v>
+      </c>
+      <c r="E136" s="6">
+        <v>20</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="2"/>
+        <v>15.088216666666639</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C137" s="9">
+        <v>24</v>
+      </c>
+      <c r="D137" s="4">
+        <v>21.892553191489402</v>
+      </c>
+      <c r="E137" s="6">
+        <v>20</v>
+      </c>
+      <c r="F137" s="3">
+        <f t="shared" si="2"/>
+        <v>17.514042553191523</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C138" s="9">
+        <v>40</v>
+      </c>
+      <c r="D138" s="4">
+        <v>21.94735</v>
+      </c>
+      <c r="E138" s="6">
+        <v>20</v>
+      </c>
+      <c r="F138" s="3">
+        <f t="shared" si="2"/>
+        <v>17.557880000000001</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C139" s="9">
+        <v>24</v>
+      </c>
+      <c r="D139" s="4">
+        <v>21.892553191489402</v>
+      </c>
+      <c r="E139" s="6">
+        <v>20</v>
+      </c>
+      <c r="F139" s="3">
+        <f t="shared" si="2"/>
+        <v>17.514042553191523</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C140" s="9">
+        <v>24</v>
+      </c>
+      <c r="D140" s="4">
+        <v>140.807911111111</v>
+      </c>
+      <c r="E140" s="6">
+        <v>20</v>
+      </c>
+      <c r="F140" s="3">
+        <f t="shared" si="2"/>
+        <v>112.6463288888888</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C141" s="9">
+        <v>8</v>
+      </c>
+      <c r="D141" s="4">
+        <v>211.21186666666699</v>
+      </c>
+      <c r="E141" s="6">
+        <v>20</v>
+      </c>
+      <c r="F141" s="3">
+        <f t="shared" si="2"/>
+        <v>168.96949333333359</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C142" s="9">
+        <v>5</v>
+      </c>
+      <c r="D142" s="4">
+        <v>21.892553191489402</v>
+      </c>
+      <c r="E142" s="6">
+        <v>20</v>
+      </c>
+      <c r="F142" s="3">
+        <f t="shared" si="2"/>
+        <v>17.514042553191523</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="6">
+        <v>20</v>
+      </c>
+      <c r="F143" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C144" s="9">
+        <v>40</v>
+      </c>
+      <c r="D144" s="4">
+        <v>18.860270833333299</v>
+      </c>
+      <c r="E144" s="6">
+        <v>20</v>
+      </c>
+      <c r="F144" s="3">
+        <f t="shared" si="2"/>
+        <v>15.088216666666639</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C145" s="9">
+        <v>40</v>
+      </c>
+      <c r="D145" s="4">
+        <v>20.445071428571399</v>
+      </c>
+      <c r="E145" s="6">
+        <v>20</v>
+      </c>
+      <c r="F145" s="3">
+        <f t="shared" si="2"/>
+        <v>16.356057142857118</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C146" s="9">
+        <v>40</v>
+      </c>
+      <c r="D146" s="4">
+        <v>19.3990277777778</v>
+      </c>
+      <c r="E146" s="6">
+        <v>20</v>
+      </c>
+      <c r="F146" s="3">
+        <f t="shared" si="2"/>
+        <v>15.51922222222224</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="6">
+        <v>20</v>
+      </c>
+      <c r="F147" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C148" s="9">
+        <v>16</v>
+      </c>
+      <c r="D148" s="4">
+        <v>34.023578125</v>
+      </c>
+      <c r="E148" s="6">
+        <v>20</v>
+      </c>
+      <c r="F148" s="3">
+        <f t="shared" si="2"/>
+        <v>27.2188625</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C149" s="9">
+        <v>48</v>
+      </c>
+      <c r="D149" s="4">
+        <v>26.502498647186101</v>
+      </c>
+      <c r="E149" s="6">
+        <v>20</v>
+      </c>
+      <c r="F149" s="3">
+        <f t="shared" si="2"/>
+        <v>21.201998917748881</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C150" s="9">
+        <v>28</v>
+      </c>
+      <c r="D150" s="4">
+        <v>50.732428571428599</v>
+      </c>
+      <c r="E150" s="6">
+        <v>20</v>
+      </c>
+      <c r="F150" s="3">
+        <f t="shared" si="2"/>
+        <v>40.585942857142882</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C151" s="9">
+        <v>32</v>
+      </c>
+      <c r="D151" s="4">
+        <v>8.9237500000000001</v>
+      </c>
+      <c r="E151" s="6">
+        <v>20</v>
+      </c>
+      <c r="F151" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1390000000000002</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C152" s="9">
+        <v>28</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44.298499999999997</v>
+      </c>
+      <c r="E152" s="6">
+        <v>20</v>
+      </c>
+      <c r="F152" s="3">
+        <f t="shared" si="2"/>
+        <v>35.438800000000001</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C153" s="9">
+        <v>21</v>
+      </c>
+      <c r="D153" s="4">
+        <v>63.606976190476203</v>
+      </c>
+      <c r="E153" s="6">
+        <v>20</v>
+      </c>
+      <c r="F153" s="3">
+        <f t="shared" si="2"/>
+        <v>50.885580952380963</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C154" s="9">
+        <v>16</v>
+      </c>
+      <c r="D154" s="4">
+        <v>21.892553191489402</v>
+      </c>
+      <c r="E154" s="6">
+        <v>20</v>
+      </c>
+      <c r="F154" s="3">
+        <f t="shared" si="2"/>
+        <v>17.514042553191523</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C155" s="9">
+        <v>28</v>
+      </c>
+      <c r="D155" s="4">
+        <v>47.2515653757468</v>
+      </c>
+      <c r="E155" s="6">
+        <v>20</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="2"/>
+        <v>37.80125230059744</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C156" s="9">
+        <v>24</v>
+      </c>
+      <c r="D156" s="4">
+        <v>211.21186666666699</v>
+      </c>
+      <c r="E156" s="6">
+        <v>20</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="2"/>
+        <v>168.96949333333359</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C157" s="9">
+        <v>8</v>
+      </c>
+      <c r="D157" s="4">
+        <v>35.722499999999997</v>
+      </c>
+      <c r="E157" s="6">
+        <v>20</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" si="2"/>
+        <v>28.577999999999996</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C158" s="9">
+        <v>22</v>
+      </c>
+      <c r="D158" s="4">
+        <v>20.288514285714299</v>
+      </c>
+      <c r="E158" s="6">
+        <v>20</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="2"/>
+        <v>16.230811428571439</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C159" s="9">
+        <v>24</v>
+      </c>
+      <c r="D159" s="4">
+        <v>77.701473286052007</v>
+      </c>
+      <c r="E159" s="6">
+        <v>20</v>
+      </c>
+      <c r="F159" s="3">
+        <f t="shared" si="2"/>
+        <v>62.161178628841604</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C160" s="9">
+        <v>28</v>
+      </c>
+      <c r="D160" s="4">
+        <v>47.2515653757468</v>
+      </c>
+      <c r="E160" s="6">
+        <v>20</v>
+      </c>
+      <c r="F160" s="3">
+        <f t="shared" si="2"/>
+        <v>37.80125230059744</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C161" s="9">
+        <v>31</v>
+      </c>
+      <c r="D161" s="4">
+        <v>120.12549569892499</v>
+      </c>
+      <c r="E161" s="6">
+        <v>20</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" si="2"/>
+        <v>96.100396559139995</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C162" s="9">
+        <v>48</v>
+      </c>
+      <c r="D162" s="4">
+        <v>24.327761363636402</v>
+      </c>
+      <c r="E162" s="6">
+        <v>20</v>
+      </c>
+      <c r="F162" s="3">
+        <f t="shared" si="2"/>
+        <v>19.46220909090912</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C163" s="9">
+        <v>21</v>
+      </c>
+      <c r="D163" s="4">
+        <v>63.606976190476203</v>
+      </c>
+      <c r="E163" s="6">
+        <v>20</v>
+      </c>
+      <c r="F163" s="3">
+        <f t="shared" si="2"/>
+        <v>50.885580952380963</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C164" s="9">
+        <v>24</v>
+      </c>
+      <c r="D164" s="4">
+        <v>88.676416666666697</v>
+      </c>
+      <c r="E164" s="6">
+        <v>20</v>
+      </c>
+      <c r="F164" s="3">
+        <f t="shared" si="2"/>
+        <v>70.941133333333354</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C165" s="9">
+        <v>48</v>
+      </c>
+      <c r="D165" s="4">
+        <v>29.917683333333301</v>
+      </c>
+      <c r="E165" s="6">
+        <v>20</v>
+      </c>
+      <c r="F165" s="3">
+        <f t="shared" si="2"/>
+        <v>23.934146666666642</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C166" s="9">
+        <v>28</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44.298499999999997</v>
+      </c>
+      <c r="E166" s="6">
+        <v>20</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" si="2"/>
+        <v>35.438800000000001</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C167" s="9">
+        <v>31</v>
+      </c>
+      <c r="D167" s="4">
+        <v>120.12549569892499</v>
+      </c>
+      <c r="E167" s="6">
+        <v>20</v>
+      </c>
+      <c r="F167" s="3">
+        <f t="shared" si="2"/>
+        <v>96.100396559139995</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C168" s="9">
+        <v>24</v>
+      </c>
+      <c r="D168" s="4">
+        <v>211.21186666666699</v>
+      </c>
+      <c r="E168" s="6">
+        <v>20</v>
+      </c>
+      <c r="F168" s="3">
+        <f t="shared" si="2"/>
+        <v>168.96949333333359</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C169" s="9">
+        <v>24</v>
+      </c>
+      <c r="D169" s="4">
+        <v>20.288514285714299</v>
+      </c>
+      <c r="E169" s="6">
+        <v>20</v>
+      </c>
+      <c r="F169" s="3">
+        <f t="shared" si="2"/>
+        <v>16.230811428571439</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C170" s="9">
+        <v>28</v>
+      </c>
+      <c r="D170" s="4">
+        <v>31.842910714285701</v>
+      </c>
+      <c r="E170" s="6">
+        <v>20</v>
+      </c>
+      <c r="F170" s="3">
+        <f t="shared" si="2"/>
+        <v>25.474328571428561</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B171" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C171" s="9">
+        <v>32</v>
+      </c>
+      <c r="D171" s="4">
+        <v>26.000187499999999</v>
+      </c>
+      <c r="E171" s="6">
+        <v>20</v>
+      </c>
+      <c r="F171" s="3">
+        <f t="shared" si="2"/>
+        <v>20.800149999999999</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C172" s="9">
+        <v>40</v>
+      </c>
+      <c r="D172" s="4">
+        <v>29.979050000000001</v>
+      </c>
+      <c r="E172" s="6">
+        <v>20</v>
+      </c>
+      <c r="F172" s="3">
+        <f t="shared" si="2"/>
+        <v>23.983240000000002</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C173" s="9">
+        <v>16</v>
+      </c>
+      <c r="D173" s="4">
+        <v>26.78565</v>
+      </c>
+      <c r="E173" s="6">
+        <v>20</v>
+      </c>
+      <c r="F173" s="3">
+        <f t="shared" si="2"/>
+        <v>21.428519999999999</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C174" s="9">
+        <v>32</v>
+      </c>
+      <c r="D174" s="4">
+        <v>31.5996239346591</v>
+      </c>
+      <c r="E174" s="6">
+        <v>20</v>
+      </c>
+      <c r="F174" s="3">
+        <f t="shared" si="2"/>
+        <v>25.279699147727278</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C175" s="9">
+        <v>40</v>
+      </c>
+      <c r="D175" s="4">
+        <v>22.291374999999999</v>
+      </c>
+      <c r="E175" s="6">
+        <v>20</v>
+      </c>
+      <c r="F175" s="3">
+        <f t="shared" si="2"/>
+        <v>17.833099999999998</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C176" s="9">
+        <v>24</v>
+      </c>
+      <c r="D176" s="4">
+        <v>88.676416666666697</v>
+      </c>
+      <c r="E176" s="6">
+        <v>20</v>
+      </c>
+      <c r="F176" s="3">
+        <f t="shared" si="2"/>
+        <v>70.941133333333354</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C177" s="9">
+        <v>24</v>
+      </c>
+      <c r="D177" s="4">
+        <v>88.676416666666697</v>
+      </c>
+      <c r="E177" s="6">
+        <v>20</v>
+      </c>
+      <c r="F177" s="3">
+        <f t="shared" si="2"/>
+        <v>70.941133333333354</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C178" s="9">
+        <v>32</v>
+      </c>
+      <c r="D178" s="4">
+        <v>9.8903125000000003</v>
+      </c>
+      <c r="E178" s="6">
+        <v>20</v>
+      </c>
+      <c r="F178" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9122500000000002</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C179" s="9">
+        <v>32</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4.21875</v>
+      </c>
+      <c r="E179" s="6">
+        <v>20</v>
+      </c>
+      <c r="F179" s="3">
+        <f t="shared" si="2"/>
+        <v>3.375</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C180" s="9">
+        <v>32</v>
+      </c>
+      <c r="D180" s="4">
+        <v>9.8903125000000003</v>
+      </c>
+      <c r="E180" s="6">
+        <v>20</v>
+      </c>
+      <c r="F180" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9122500000000002</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C181" s="9">
+        <v>40</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="E181" s="6">
+        <v>20</v>
+      </c>
+      <c r="F181" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B182" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C182" s="9">
+        <v>48</v>
+      </c>
+      <c r="D182" s="4">
+        <v>23.467056018518502</v>
+      </c>
+      <c r="E182" s="6">
+        <v>20</v>
+      </c>
+      <c r="F182" s="3">
+        <f t="shared" si="2"/>
+        <v>18.773644814814801</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C183" s="9">
+        <v>36</v>
+      </c>
+      <c r="D183" s="4">
+        <v>39.458555555555598</v>
+      </c>
+      <c r="E183" s="6">
+        <v>20</v>
+      </c>
+      <c r="F183" s="3">
+        <f t="shared" si="2"/>
+        <v>31.566844444444477</v>
+      </c>
+      <c r="G183" s="1"/>
+      <c r="H183" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C184" s="9">
+        <v>40</v>
+      </c>
+      <c r="D184" s="4">
+        <v>7.1390000000000002</v>
+      </c>
+      <c r="E184" s="6">
+        <v>20</v>
+      </c>
+      <c r="F184" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7111999999999998</v>
+      </c>
+      <c r="G184" s="1"/>
+      <c r="H184" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C185" s="9">
+        <v>43</v>
+      </c>
+      <c r="D185" s="4">
+        <v>11.162018043303901</v>
+      </c>
+      <c r="E185" s="6">
+        <v>20</v>
+      </c>
+      <c r="F185" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9296144346431205</v>
+      </c>
+      <c r="G185" s="1"/>
+      <c r="H185" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C186" s="9">
+        <v>40</v>
+      </c>
+      <c r="D186" s="4">
+        <v>21.433499999999999</v>
+      </c>
+      <c r="E186" s="6">
+        <v>20</v>
+      </c>
+      <c r="F186" s="3">
+        <f t="shared" si="2"/>
+        <v>17.146799999999999</v>
+      </c>
+      <c r="G186" s="1"/>
+      <c r="H186" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C187" s="9">
+        <v>24</v>
+      </c>
+      <c r="D187" s="4">
+        <v>21.502063888888902</v>
+      </c>
+      <c r="E187" s="6">
+        <v>20</v>
+      </c>
+      <c r="F187" s="3">
+        <f t="shared" si="2"/>
+        <v>17.201651111111122</v>
+      </c>
+      <c r="G187" s="1"/>
+      <c r="H187" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C188" s="9">
+        <v>5</v>
+      </c>
+      <c r="D188" s="4">
+        <v>21.892553191489402</v>
+      </c>
+      <c r="E188" s="6">
+        <v>20</v>
+      </c>
+      <c r="F188" s="3">
+        <f t="shared" si="2"/>
+        <v>17.514042553191523</v>
+      </c>
+      <c r="G188" s="1"/>
+      <c r="H188" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C189" s="9">
+        <v>28</v>
+      </c>
+      <c r="D189" s="4">
+        <v>35.147517857142901</v>
+      </c>
+      <c r="E189" s="6">
+        <v>20</v>
+      </c>
+      <c r="F189" s="3">
+        <f t="shared" si="2"/>
+        <v>28.11801428571432</v>
+      </c>
+      <c r="G189" s="1"/>
+      <c r="H189" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C190" s="9">
+        <v>28</v>
+      </c>
+      <c r="D190" s="4">
+        <v>35.147517857142901</v>
+      </c>
+      <c r="E190" s="6">
+        <v>20</v>
+      </c>
+      <c r="F190" s="3">
+        <f t="shared" si="2"/>
+        <v>28.11801428571432</v>
+      </c>
+      <c r="G190" s="1"/>
+      <c r="H190" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C191" s="9">
+        <v>32</v>
+      </c>
+      <c r="D191" s="4">
+        <v>21.571780357142899</v>
+      </c>
+      <c r="E191" s="6">
+        <v>20</v>
+      </c>
+      <c r="F191" s="3">
+        <f t="shared" si="2"/>
+        <v>17.257424285714318</v>
+      </c>
+      <c r="G191" s="1"/>
+      <c r="H191" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="6">
+        <v>20</v>
+      </c>
+      <c r="F192" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="1"/>
+      <c r="H192" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B193" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C193" s="9">
+        <v>24</v>
+      </c>
+      <c r="D193" s="4">
+        <v>77.701473286052007</v>
+      </c>
+      <c r="E193" s="6">
+        <v>20</v>
+      </c>
+      <c r="F193" s="3">
+        <f t="shared" si="2"/>
+        <v>62.161178628841604</v>
+      </c>
+      <c r="G193" s="1"/>
+      <c r="H193" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B194" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C194" s="9">
+        <v>40</v>
+      </c>
+      <c r="D194" s="4">
+        <v>29.979050000000001</v>
+      </c>
+      <c r="E194" s="6">
+        <v>20</v>
+      </c>
+      <c r="F194" s="3">
+        <f t="shared" si="2"/>
+        <v>23.983240000000002</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B195" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C195" s="9">
+        <v>28</v>
+      </c>
+      <c r="D195" s="4">
+        <v>101.98396428571399</v>
+      </c>
+      <c r="E195" s="6">
+        <v>20</v>
+      </c>
+      <c r="F195" s="3">
+        <f t="shared" si="2"/>
+        <v>81.587171428571196</v>
+      </c>
+      <c r="G195" s="1"/>
+      <c r="H195" s="8"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C196" s="9">
+        <v>28</v>
+      </c>
+      <c r="D196" s="4">
+        <v>31.842910714285701</v>
+      </c>
+      <c r="E196" s="6">
+        <v>20</v>
+      </c>
+      <c r="F196" s="3">
+        <f t="shared" ref="F196:F198" si="3">D196-(D196*E196)/100</f>
+        <v>25.474328571428561</v>
+      </c>
+      <c r="G196" s="1"/>
+      <c r="H196" s="8"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C197" s="9">
+        <v>40</v>
+      </c>
+      <c r="D197" s="4">
+        <v>22.291374999999999</v>
+      </c>
+      <c r="E197" s="6">
+        <v>20</v>
+      </c>
+      <c r="F197" s="3">
+        <f t="shared" si="3"/>
+        <v>17.833099999999998</v>
+      </c>
+      <c r="G197" s="1"/>
+      <c r="H197" s="8"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B198" s="7">
+        <v>45937</v>
+      </c>
+      <c r="C198" s="9">
+        <v>43</v>
+      </c>
+      <c r="D198" s="4">
+        <v>11.162018043303901</v>
+      </c>
+      <c r="E198" s="6">
+        <v>20</v>
+      </c>
+      <c r="F198" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9296144346431205</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G64"/>
@@ -4245,6 +5906,70 @@
     <hyperlink ref="H125" r:id="rId124"/>
     <hyperlink ref="H126" r:id="rId125"/>
     <hyperlink ref="H127" r:id="rId126"/>
+    <hyperlink ref="G132" r:id="rId127"/>
+    <hyperlink ref="H132" r:id="rId128"/>
+    <hyperlink ref="H133" r:id="rId129"/>
+    <hyperlink ref="H134" r:id="rId130"/>
+    <hyperlink ref="H135" r:id="rId131"/>
+    <hyperlink ref="H136" r:id="rId132"/>
+    <hyperlink ref="H137" r:id="rId133"/>
+    <hyperlink ref="H138" r:id="rId134"/>
+    <hyperlink ref="H139" r:id="rId135"/>
+    <hyperlink ref="H140" r:id="rId136"/>
+    <hyperlink ref="H141" r:id="rId137"/>
+    <hyperlink ref="H142" r:id="rId138"/>
+    <hyperlink ref="H143" r:id="rId139"/>
+    <hyperlink ref="H144" r:id="rId140"/>
+    <hyperlink ref="H145" r:id="rId141"/>
+    <hyperlink ref="H146" r:id="rId142"/>
+    <hyperlink ref="H147" r:id="rId143"/>
+    <hyperlink ref="H148" r:id="rId144"/>
+    <hyperlink ref="H149" r:id="rId145"/>
+    <hyperlink ref="H150" r:id="rId146"/>
+    <hyperlink ref="H151" r:id="rId147"/>
+    <hyperlink ref="H152" r:id="rId148"/>
+    <hyperlink ref="H153" r:id="rId149"/>
+    <hyperlink ref="H154" r:id="rId150"/>
+    <hyperlink ref="H155" r:id="rId151"/>
+    <hyperlink ref="H156" r:id="rId152"/>
+    <hyperlink ref="H157" r:id="rId153"/>
+    <hyperlink ref="H158" r:id="rId154"/>
+    <hyperlink ref="H160" r:id="rId155"/>
+    <hyperlink ref="H161" r:id="rId156"/>
+    <hyperlink ref="H162" r:id="rId157"/>
+    <hyperlink ref="H163" r:id="rId158"/>
+    <hyperlink ref="H164" r:id="rId159"/>
+    <hyperlink ref="H165" r:id="rId160"/>
+    <hyperlink ref="H166" r:id="rId161"/>
+    <hyperlink ref="H167" r:id="rId162"/>
+    <hyperlink ref="H168" r:id="rId163"/>
+    <hyperlink ref="H169" r:id="rId164"/>
+    <hyperlink ref="H170" r:id="rId165"/>
+    <hyperlink ref="H171" r:id="rId166"/>
+    <hyperlink ref="H172" r:id="rId167"/>
+    <hyperlink ref="H173" r:id="rId168"/>
+    <hyperlink ref="H174" r:id="rId169"/>
+    <hyperlink ref="H175" r:id="rId170"/>
+    <hyperlink ref="H176" r:id="rId171"/>
+    <hyperlink ref="H177" r:id="rId172"/>
+    <hyperlink ref="H178" r:id="rId173"/>
+    <hyperlink ref="H179" r:id="rId174"/>
+    <hyperlink ref="H180" r:id="rId175"/>
+    <hyperlink ref="H181" r:id="rId176"/>
+    <hyperlink ref="H182" r:id="rId177"/>
+    <hyperlink ref="H183" r:id="rId178"/>
+    <hyperlink ref="H184" r:id="rId179"/>
+    <hyperlink ref="H185" r:id="rId180"/>
+    <hyperlink ref="H186" r:id="rId181"/>
+    <hyperlink ref="H187" r:id="rId182"/>
+    <hyperlink ref="H188" r:id="rId183"/>
+    <hyperlink ref="H189" r:id="rId184"/>
+    <hyperlink ref="H190" r:id="rId185"/>
+    <hyperlink ref="H191" r:id="rId186"/>
+    <hyperlink ref="H192" r:id="rId187"/>
+    <hyperlink ref="H193" r:id="rId188"/>
+    <hyperlink ref="H194" r:id="rId189"/>
+    <hyperlink ref="H159" r:id="rId190" display="mailto:cyborg.3@hotmail.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H195" sqref="A195:H196"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2487,14 +2487,14 @@
         <v>183</v>
       </c>
       <c r="D66" s="4">
-        <v>29.135067590293101</v>
+        <v>29.098407310896601</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="1"/>
-        <v>23.30805407223448</v>
+        <v>23.278725848717279</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>67</v>
@@ -2514,14 +2514,14 @@
         <v>124</v>
       </c>
       <c r="D67" s="4">
-        <v>43.206422052631297</v>
+        <v>43.208398147101398</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="1"/>
-        <v>34.565137642105036</v>
+        <v>34.566718517681117</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -2541,14 +2541,14 @@
         <v>168</v>
       </c>
       <c r="D68" s="4">
-        <v>26.983380962705699</v>
+        <v>26.998544461743599</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="1"/>
-        <v>21.586704770164559</v>
+        <v>21.598835569394879</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
@@ -2616,14 +2616,14 @@
         <v>120</v>
       </c>
       <c r="D71" s="4">
-        <v>38.138249189678596</v>
+        <v>38.021105914220598</v>
       </c>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="1"/>
-        <v>30.510599351742876</v>
+        <v>30.416884731376477</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8" t="s">
@@ -2666,14 +2666,14 @@
         <v>128</v>
       </c>
       <c r="D73" s="4">
-        <v>32.102540585939103</v>
+        <v>31.8993314716536</v>
       </c>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>25.682032468751281</v>
+        <v>25.519465177322878</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8" t="s">
@@ -2691,14 +2691,14 @@
         <v>160</v>
       </c>
       <c r="D74" s="4">
-        <v>63.153596683821903</v>
+        <v>63.121971294066903</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="1"/>
-        <v>50.522877347057523</v>
+        <v>50.497577035253521</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="8" t="s">
@@ -2716,14 +2716,14 @@
         <v>184</v>
       </c>
       <c r="D75" s="4">
-        <v>64.651179700810502</v>
+        <v>64.596179022975704</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="1"/>
-        <v>51.720943760648403</v>
+        <v>51.676943218380565</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="8" t="s">
@@ -2891,14 +2891,14 @@
         <v>176</v>
       </c>
       <c r="D82" s="4">
-        <v>25.819117331257001</v>
+        <v>25.809749326889001</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>20.6552938650056</v>
+        <v>20.647799461511202</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
@@ -3016,14 +3016,14 @@
         <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>40.949257757149297</v>
+        <v>40.947826534259697</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>32.759406205719436</v>
+        <v>32.758261227407758</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
@@ -3041,14 +3041,14 @@
         <v>176</v>
       </c>
       <c r="D88" s="4">
-        <v>34.835498503924001</v>
+        <v>34.718156071366998</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>27.8683988031392</v>
+        <v>27.774524857093599</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
@@ -3091,14 +3091,14 @@
         <v>160</v>
       </c>
       <c r="D90" s="4">
-        <v>93.984443249597007</v>
+        <v>93.436506818957</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>75.187554599677611</v>
+        <v>74.749205455165594</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
@@ -3141,14 +3141,14 @@
         <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>25.359650876464201</v>
+        <v>25.389892626012099</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="1"/>
-        <v>20.287720701171359</v>
+        <v>20.31191410080968</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
@@ -3191,14 +3191,14 @@
         <v>176</v>
       </c>
       <c r="D94" s="4">
-        <v>46.276630142882098</v>
+        <v>49.418090015832</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="1"/>
-        <v>37.021304114305678</v>
+        <v>39.534472012665603</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
@@ -3241,14 +3241,14 @@
         <v>168</v>
       </c>
       <c r="D96" s="4">
-        <v>43.8378879576047</v>
+        <v>43.806541776313701</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="1"/>
-        <v>35.07031036608376</v>
+        <v>35.045233421050959</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
@@ -3341,14 +3341,14 @@
         <v>168</v>
       </c>
       <c r="D100" s="4">
-        <v>43.639789219576699</v>
+        <v>46.9609618386243</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="1"/>
-        <v>34.911831375661357</v>
+        <v>37.56876947089944</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
@@ -3366,14 +3366,14 @@
         <v>144</v>
       </c>
       <c r="D101" s="4">
-        <v>95.383951139149602</v>
+        <v>94.810272204832899</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="1"/>
-        <v>76.307160911319684</v>
+        <v>75.848217763866316</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
@@ -3391,14 +3391,14 @@
         <v>152</v>
       </c>
       <c r="D102" s="4">
-        <v>26.0478425937807</v>
+        <v>26.0752479039311</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="1"/>
-        <v>20.838274075024561</v>
+        <v>20.860198323144878</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
@@ -3416,14 +3416,14 @@
         <v>156</v>
       </c>
       <c r="D103" s="4">
-        <v>30.550362389473101</v>
+        <v>30.550951417632401</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="1"/>
-        <v>24.440289911578482</v>
+        <v>24.440761134105919</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
@@ -3491,14 +3491,14 @@
         <v>120</v>
       </c>
       <c r="D106" s="4">
-        <v>74.244244347159807</v>
+        <v>73.9490740427796</v>
       </c>
       <c r="E106" s="6">
         <v>20</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>59.395395477727845</v>
+        <v>59.159259234223683</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="8" t="s">
@@ -3516,14 +3516,14 @@
         <v>164</v>
       </c>
       <c r="D107" s="4">
-        <v>26.419906830290799</v>
+        <v>26.3897464259841</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>21.135925464232638</v>
+        <v>21.111797140787282</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
@@ -3866,14 +3866,14 @@
         <v>120</v>
       </c>
       <c r="D121" s="4">
-        <v>70.221666668422301</v>
+        <v>70.010830736722298</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>56.177333334737838</v>
+        <v>56.008664589377837</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
@@ -3991,14 +3991,14 @@
         <v>104</v>
       </c>
       <c r="D126" s="4">
-        <v>71.508841589087197</v>
+        <v>71.316579918616796</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>57.207073271269756</v>
+        <v>57.053263934893437</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
@@ -4130,17 +4130,17 @@
         <v>45937</v>
       </c>
       <c r="C132" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D132" s="4">
-        <v>34.023578125</v>
+        <v>25.645908396946599</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>27.2188625</v>
+        <v>20.51672671755728</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>67</v>
@@ -4180,17 +4180,17 @@
         <v>45937</v>
       </c>
       <c r="C134" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D134" s="4">
-        <v>20.288514285714299</v>
+        <v>20.275764705882398</v>
       </c>
       <c r="E134" s="6">
         <v>20</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>16.230811428571439</v>
+        <v>16.220611764705918</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="8" t="s">
@@ -4230,17 +4230,17 @@
         <v>45937</v>
       </c>
       <c r="C136" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D136" s="4">
-        <v>18.860270833333299</v>
+        <v>26.430525388579699</v>
       </c>
       <c r="E136" s="6">
         <v>20</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>15.088216666666639</v>
+        <v>21.144420310863758</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="8" t="s">
@@ -4255,17 +4255,17 @@
         <v>45937</v>
       </c>
       <c r="C137" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D137" s="4">
-        <v>21.892553191489402</v>
+        <v>44.206913333333297</v>
       </c>
       <c r="E137" s="6">
         <v>20</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="2"/>
-        <v>17.514042553191523</v>
+        <v>35.365530666666636</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="8" t="s">
@@ -4280,17 +4280,17 @@
         <v>45937</v>
       </c>
       <c r="C138" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4">
-        <v>21.94735</v>
+        <v>23.775254098360602</v>
       </c>
       <c r="E138" s="6">
         <v>20</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="2"/>
-        <v>17.557880000000001</v>
+        <v>19.020203278688481</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="8" t="s">
@@ -4305,17 +4305,17 @@
         <v>45937</v>
       </c>
       <c r="C139" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D139" s="4">
-        <v>21.892553191489402</v>
+        <v>44.206913333333297</v>
       </c>
       <c r="E139" s="6">
         <v>20</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="2"/>
-        <v>17.514042553191523</v>
+        <v>35.365530666666636</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="8" t="s">
@@ -4330,17 +4330,17 @@
         <v>45937</v>
       </c>
       <c r="C140" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D140" s="4">
-        <v>140.807911111111</v>
+        <v>78.265681789539997</v>
       </c>
       <c r="E140" s="6">
         <v>20</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="2"/>
-        <v>112.6463288888888</v>
+        <v>62.612545431632</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="8" t="s">
@@ -4355,17 +4355,17 @@
         <v>45937</v>
       </c>
       <c r="C141" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D141" s="4">
-        <v>211.21186666666699</v>
+        <v>73.107066802536195</v>
       </c>
       <c r="E141" s="6">
         <v>20</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="2"/>
-        <v>168.96949333333359</v>
+        <v>58.485653442028955</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="8" t="s">
@@ -4383,14 +4383,14 @@
         <v>5</v>
       </c>
       <c r="D142" s="4">
-        <v>21.892553191489402</v>
+        <v>44.206913333333297</v>
       </c>
       <c r="E142" s="6">
         <v>20</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="2"/>
-        <v>17.514042553191523</v>
+        <v>35.365530666666636</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="8" t="s">
@@ -4426,17 +4426,17 @@
         <v>45937</v>
       </c>
       <c r="C144" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D144" s="4">
-        <v>18.860270833333299</v>
+        <v>27.879128055555601</v>
       </c>
       <c r="E144" s="6">
         <v>20</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="2"/>
-        <v>15.088216666666639</v>
+        <v>22.30330244444448</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="8" t="s">
@@ -4451,17 +4451,17 @@
         <v>45937</v>
       </c>
       <c r="C145" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D145" s="4">
-        <v>20.445071428571399</v>
+        <v>28.978114583333301</v>
       </c>
       <c r="E145" s="6">
         <v>20</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="2"/>
-        <v>16.356057142857118</v>
+        <v>23.182491666666643</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="8" t="s">
@@ -4476,17 +4476,17 @@
         <v>45937</v>
       </c>
       <c r="C146" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D146" s="4">
-        <v>19.3990277777778</v>
+        <v>24.445243421052599</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="2"/>
-        <v>15.51922222222224</v>
+        <v>19.55619473684208</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="8" t="s">
@@ -4525,14 +4525,14 @@
         <v>16</v>
       </c>
       <c r="D148" s="4">
-        <v>34.023578125</v>
+        <v>25.645908396946599</v>
       </c>
       <c r="E148" s="6">
         <v>20</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="2"/>
-        <v>27.2188625</v>
+        <v>20.51672671755728</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="8" t="s">
@@ -4547,17 +4547,17 @@
         <v>45937</v>
       </c>
       <c r="C149" s="9">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D149" s="4">
-        <v>26.502498647186101</v>
+        <v>30.149755459001799</v>
       </c>
       <c r="E149" s="6">
         <v>20</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="2"/>
-        <v>21.201998917748881</v>
+        <v>24.119804367201439</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="8" t="s">
@@ -4572,17 +4572,17 @@
         <v>45937</v>
       </c>
       <c r="C150" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D150" s="4">
-        <v>50.732428571428599</v>
+        <v>45.072317465321603</v>
       </c>
       <c r="E150" s="6">
         <v>20</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="2"/>
-        <v>40.585942857142882</v>
+        <v>36.057853972257284</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="8" t="s">
@@ -4597,17 +4597,17 @@
         <v>45937</v>
       </c>
       <c r="C151" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D151" s="4">
-        <v>8.9237500000000001</v>
+        <v>26.121555555555599</v>
       </c>
       <c r="E151" s="6">
         <v>20</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="2"/>
-        <v>7.1390000000000002</v>
+        <v>20.897244444444478</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="8" t="s">
@@ -4622,17 +4622,17 @@
         <v>45937</v>
       </c>
       <c r="C152" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D152" s="4">
-        <v>44.298499999999997</v>
+        <v>65.251128846153804</v>
       </c>
       <c r="E152" s="6">
         <v>20</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="2"/>
-        <v>35.438800000000001</v>
+        <v>52.200903076923041</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="8" t="s">
@@ -4650,14 +4650,14 @@
         <v>21</v>
       </c>
       <c r="D153" s="4">
-        <v>63.606976190476203</v>
+        <v>36.3826355932203</v>
       </c>
       <c r="E153" s="6">
         <v>20</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="2"/>
-        <v>50.885580952380963</v>
+        <v>29.106108474576239</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="8" t="s">
@@ -4672,17 +4672,17 @@
         <v>45937</v>
       </c>
       <c r="C154" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D154" s="4">
-        <v>21.892553191489402</v>
+        <v>39.508054864739101</v>
       </c>
       <c r="E154" s="6">
         <v>20</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="2"/>
-        <v>17.514042553191523</v>
+        <v>31.60644389179128</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="8" t="s">
@@ -4697,17 +4697,17 @@
         <v>45937</v>
       </c>
       <c r="C155" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D155" s="4">
-        <v>47.2515653757468</v>
+        <v>48.609101017234103</v>
       </c>
       <c r="E155" s="6">
         <v>20</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="2"/>
-        <v>37.80125230059744</v>
+        <v>38.887280813787285</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="8" t="s">
@@ -4722,17 +4722,17 @@
         <v>45937</v>
       </c>
       <c r="C156" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D156" s="4">
-        <v>211.21186666666699</v>
+        <v>167.97085416666701</v>
       </c>
       <c r="E156" s="6">
         <v>20</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="2"/>
-        <v>168.96949333333359</v>
+        <v>134.3766833333336</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="8" t="s">
@@ -4747,17 +4747,17 @@
         <v>45937</v>
       </c>
       <c r="C157" s="9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D157" s="4">
-        <v>35.722499999999997</v>
+        <v>36.361176470588198</v>
       </c>
       <c r="E157" s="6">
         <v>20</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="2"/>
-        <v>28.577999999999996</v>
+        <v>29.088941176470559</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="8" t="s">
@@ -4772,17 +4772,17 @@
         <v>45937</v>
       </c>
       <c r="C158" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D158" s="4">
-        <v>20.288514285714299</v>
+        <v>20.275764705882398</v>
       </c>
       <c r="E158" s="6">
         <v>20</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="2"/>
-        <v>16.230811428571439</v>
+        <v>16.220611764705918</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="8" t="s">
@@ -4797,17 +4797,17 @@
         <v>45937</v>
       </c>
       <c r="C159" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D159" s="4">
-        <v>77.701473286052007</v>
+        <v>56.1832641929212</v>
       </c>
       <c r="E159" s="6">
         <v>20</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="2"/>
-        <v>62.161178628841604</v>
+        <v>44.946611354336959</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="8" t="s">
@@ -4822,17 +4822,17 @@
         <v>45937</v>
       </c>
       <c r="C160" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D160" s="4">
-        <v>47.2515653757468</v>
+        <v>48.609101017234103</v>
       </c>
       <c r="E160" s="6">
         <v>20</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="2"/>
-        <v>37.80125230059744</v>
+        <v>38.887280813787285</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="8" t="s">
@@ -4847,17 +4847,17 @@
         <v>45937</v>
       </c>
       <c r="C161" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D161" s="4">
-        <v>120.12549569892499</v>
+        <v>83.428492907801399</v>
       </c>
       <c r="E161" s="6">
         <v>20</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="2"/>
-        <v>96.100396559139995</v>
+        <v>66.742794326241125</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="8" t="s">
@@ -4872,17 +4872,17 @@
         <v>45937</v>
       </c>
       <c r="C162" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D162" s="4">
-        <v>24.327761363636402</v>
+        <v>26.6183088235294</v>
       </c>
       <c r="E162" s="6">
         <v>20</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="2"/>
-        <v>19.46220909090912</v>
+        <v>21.294647058823521</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="8" t="s">
@@ -4897,17 +4897,17 @@
         <v>45937</v>
       </c>
       <c r="C163" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D163" s="4">
-        <v>63.606976190476203</v>
+        <v>35.854541465766602</v>
       </c>
       <c r="E163" s="6">
         <v>20</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="2"/>
-        <v>50.885580952380963</v>
+        <v>28.68363317261328</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="8" t="s">
@@ -4922,17 +4922,17 @@
         <v>45937</v>
       </c>
       <c r="C164" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D164" s="4">
-        <v>88.676416666666697</v>
+        <v>54.6541904761905</v>
       </c>
       <c r="E164" s="6">
         <v>20</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="2"/>
-        <v>70.941133333333354</v>
+        <v>43.723352380952399</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="8" t="s">
@@ -4947,17 +4947,17 @@
         <v>45937</v>
       </c>
       <c r="C165" s="9">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D165" s="4">
-        <v>29.917683333333301</v>
+        <v>31.939614008941899</v>
       </c>
       <c r="E165" s="6">
         <v>20</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="2"/>
-        <v>23.934146666666642</v>
+        <v>25.551691207153517</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="8" t="s">
@@ -4972,17 +4972,17 @@
         <v>45937</v>
       </c>
       <c r="C166" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D166" s="4">
-        <v>44.298499999999997</v>
+        <v>65.251128846153804</v>
       </c>
       <c r="E166" s="6">
         <v>20</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="2"/>
-        <v>35.438800000000001</v>
+        <v>52.200903076923041</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="8" t="s">
@@ -4997,17 +4997,17 @@
         <v>45937</v>
       </c>
       <c r="C167" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D167" s="4">
-        <v>120.12549569892499</v>
+        <v>83.428492907801399</v>
       </c>
       <c r="E167" s="6">
         <v>20</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="2"/>
-        <v>96.100396559139995</v>
+        <v>66.742794326241125</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="8" t="s">
@@ -5022,17 +5022,17 @@
         <v>45937</v>
       </c>
       <c r="C168" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D168" s="4">
-        <v>211.21186666666699</v>
+        <v>167.97085416666701</v>
       </c>
       <c r="E168" s="6">
         <v>20</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="2"/>
-        <v>168.96949333333359</v>
+        <v>134.3766833333336</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
@@ -5047,17 +5047,17 @@
         <v>45937</v>
       </c>
       <c r="C169" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D169" s="4">
-        <v>20.288514285714299</v>
+        <v>20.275764705882398</v>
       </c>
       <c r="E169" s="6">
         <v>20</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="2"/>
-        <v>16.230811428571439</v>
+        <v>16.220611764705918</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="8" t="s">
@@ -5072,17 +5072,17 @@
         <v>45937</v>
       </c>
       <c r="C170" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D170" s="4">
-        <v>31.842910714285701</v>
+        <v>33.795250000000003</v>
       </c>
       <c r="E170" s="6">
         <v>20</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="2"/>
-        <v>25.474328571428561</v>
+        <v>27.036200000000001</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="8" t="s">
@@ -5097,17 +5097,17 @@
         <v>45937</v>
       </c>
       <c r="C171" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D171" s="4">
-        <v>26.000187499999999</v>
+        <v>32.644125000000003</v>
       </c>
       <c r="E171" s="6">
         <v>20</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="2"/>
-        <v>20.800149999999999</v>
+        <v>26.115300000000001</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="8" t="s">
@@ -5122,17 +5122,17 @@
         <v>45937</v>
       </c>
       <c r="C172" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D172" s="4">
-        <v>29.979050000000001</v>
+        <v>31.908559210526299</v>
       </c>
       <c r="E172" s="6">
         <v>20</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="2"/>
-        <v>23.983240000000002</v>
+        <v>25.526847368421038</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="8" t="s">
@@ -5147,17 +5147,17 @@
         <v>45937</v>
       </c>
       <c r="C173" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D173" s="4">
-        <v>26.78565</v>
+        <v>111.49677250000001</v>
       </c>
       <c r="E173" s="6">
         <v>20</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="2"/>
-        <v>21.428519999999999</v>
+        <v>89.197417999999999</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="8" t="s">
@@ -5172,17 +5172,17 @@
         <v>45937</v>
       </c>
       <c r="C174" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D174" s="4">
-        <v>31.5996239346591</v>
+        <v>25.767458450269402</v>
       </c>
       <c r="E174" s="6">
         <v>20</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="2"/>
-        <v>25.279699147727278</v>
+        <v>20.613966760215522</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="8" t="s">
@@ -5197,17 +5197,17 @@
         <v>45937</v>
       </c>
       <c r="C175" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D175" s="4">
-        <v>22.291374999999999</v>
+        <v>39.469583333333297</v>
       </c>
       <c r="E175" s="6">
         <v>20</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="2"/>
-        <v>17.833099999999998</v>
+        <v>31.575666666666638</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="8" t="s">
@@ -5222,17 +5222,17 @@
         <v>45937</v>
       </c>
       <c r="C176" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D176" s="4">
-        <v>88.676416666666697</v>
+        <v>54.6541904761905</v>
       </c>
       <c r="E176" s="6">
         <v>20</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="2"/>
-        <v>70.941133333333354</v>
+        <v>43.723352380952399</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="8" t="s">
@@ -5247,17 +5247,17 @@
         <v>45937</v>
       </c>
       <c r="C177" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D177" s="4">
-        <v>88.676416666666697</v>
+        <v>56.0669775510204</v>
       </c>
       <c r="E177" s="6">
         <v>20</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="2"/>
-        <v>70.941133333333354</v>
+        <v>44.85358204081632</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="8" t="s">
@@ -5272,17 +5272,17 @@
         <v>45937</v>
       </c>
       <c r="C178" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D178" s="4">
-        <v>9.8903125000000003</v>
+        <v>50.134625</v>
       </c>
       <c r="E178" s="6">
         <v>20</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="2"/>
-        <v>7.9122500000000002</v>
+        <v>40.107700000000001</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="8" t="s">
@@ -5297,17 +5297,17 @@
         <v>45937</v>
       </c>
       <c r="C179" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D179" s="4">
-        <v>4.21875</v>
+        <v>26.9791421568627</v>
       </c>
       <c r="E179" s="6">
         <v>20</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="2"/>
-        <v>3.375</v>
+        <v>21.583313725490161</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="8" t="s">
@@ -5322,17 +5322,17 @@
         <v>45937</v>
       </c>
       <c r="C180" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D180" s="4">
-        <v>9.8903125000000003</v>
+        <v>50.134625</v>
       </c>
       <c r="E180" s="6">
         <v>20</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="2"/>
-        <v>7.9122500000000002</v>
+        <v>40.107700000000001</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="8" t="s">
@@ -5347,17 +5347,17 @@
         <v>45937</v>
       </c>
       <c r="C181" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D181" s="4">
-        <v>2.25</v>
+        <v>23.787573529411802</v>
       </c>
       <c r="E181" s="6">
         <v>20</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>19.030058823529441</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="8" t="s">
@@ -5372,17 +5372,17 @@
         <v>45937</v>
       </c>
       <c r="C182" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D182" s="4">
-        <v>23.467056018518502</v>
+        <v>26.059607646678199</v>
       </c>
       <c r="E182" s="6">
         <v>20</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="2"/>
-        <v>18.773644814814801</v>
+        <v>20.847686117342558</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="8" t="s">
@@ -5397,17 +5397,17 @@
         <v>45937</v>
       </c>
       <c r="C183" s="9">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D183" s="4">
-        <v>39.458555555555598</v>
+        <v>38.448515572372898</v>
       </c>
       <c r="E183" s="6">
         <v>20</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="2"/>
-        <v>31.566844444444477</v>
+        <v>30.758812457898319</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="8" t="s">
@@ -5422,17 +5422,17 @@
         <v>45937</v>
       </c>
       <c r="C184" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D184" s="4">
-        <v>7.1390000000000002</v>
+        <v>26.126149999999999</v>
       </c>
       <c r="E184" s="6">
         <v>20</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="2"/>
-        <v>5.7111999999999998</v>
+        <v>20.900919999999999</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="8" t="s">
@@ -5447,17 +5447,17 @@
         <v>45937</v>
       </c>
       <c r="C185" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D185" s="4">
-        <v>11.162018043303901</v>
+        <v>31.018444569672099</v>
       </c>
       <c r="E185" s="6">
         <v>20</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="2"/>
-        <v>8.9296144346431205</v>
+        <v>24.814755655737677</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="8" t="s">
@@ -5472,17 +5472,17 @@
         <v>45937</v>
       </c>
       <c r="C186" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D186" s="4">
-        <v>21.433499999999999</v>
+        <v>32.590313180827899</v>
       </c>
       <c r="E186" s="6">
         <v>20</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="2"/>
-        <v>17.146799999999999</v>
+        <v>26.072250544662317</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="8" t="s">
@@ -5497,17 +5497,17 @@
         <v>45937</v>
       </c>
       <c r="C187" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D187" s="4">
-        <v>21.502063888888902</v>
+        <v>28.565365049098698</v>
       </c>
       <c r="E187" s="6">
         <v>20</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="2"/>
-        <v>17.201651111111122</v>
+        <v>22.852292039278957</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="8" t="s">
@@ -5525,14 +5525,14 @@
         <v>5</v>
       </c>
       <c r="D188" s="4">
-        <v>21.892553191489402</v>
+        <v>44.206913333333297</v>
       </c>
       <c r="E188" s="6">
         <v>20</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="2"/>
-        <v>17.514042553191523</v>
+        <v>35.365530666666636</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="8" t="s">
@@ -5547,17 +5547,17 @@
         <v>45937</v>
       </c>
       <c r="C189" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D189" s="4">
-        <v>35.147517857142901</v>
+        <v>36.447826923076903</v>
       </c>
       <c r="E189" s="6">
         <v>20</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="2"/>
-        <v>28.11801428571432</v>
+        <v>29.158261538461524</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="8" t="s">
@@ -5572,17 +5572,17 @@
         <v>45937</v>
       </c>
       <c r="C190" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D190" s="4">
-        <v>35.147517857142901</v>
+        <v>36.447826923076903</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="2"/>
-        <v>28.11801428571432</v>
+        <v>29.158261538461524</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="8" t="s">
@@ -5597,17 +5597,17 @@
         <v>45937</v>
       </c>
       <c r="C191" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D191" s="4">
-        <v>21.571780357142899</v>
+        <v>26.3724399933926</v>
       </c>
       <c r="E191" s="6">
         <v>20</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="2"/>
-        <v>17.257424285714318</v>
+        <v>21.09795199471408</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="8" t="s">
@@ -5646,14 +5646,14 @@
         <v>24</v>
       </c>
       <c r="D193" s="4">
-        <v>77.701473286052007</v>
+        <v>99.017672500000003</v>
       </c>
       <c r="E193" s="6">
         <v>20</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="2"/>
-        <v>62.161178628841604</v>
+        <v>79.214138000000005</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="8" t="s">
@@ -5668,17 +5668,17 @@
         <v>45937</v>
       </c>
       <c r="C194" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D194" s="4">
-        <v>29.979050000000001</v>
+        <v>31.162227631579</v>
       </c>
       <c r="E194" s="6">
         <v>20</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="2"/>
-        <v>23.983240000000002</v>
+        <v>24.9297821052632</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="8" t="s">
@@ -5693,17 +5693,17 @@
         <v>45937</v>
       </c>
       <c r="C195" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D195" s="4">
-        <v>101.98396428571399</v>
+        <v>102.423183333333</v>
       </c>
       <c r="E195" s="6">
         <v>20</v>
       </c>
       <c r="F195" s="3">
         <f t="shared" si="2"/>
-        <v>81.587171428571196</v>
+        <v>81.938546666666397</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="8"/>
@@ -5716,17 +5716,17 @@
         <v>45937</v>
       </c>
       <c r="C196" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D196" s="4">
-        <v>31.842910714285701</v>
+        <v>33.795250000000003</v>
       </c>
       <c r="E196" s="6">
         <v>20</v>
       </c>
       <c r="F196" s="3">
         <f t="shared" ref="F196:F198" si="3">D196-(D196*E196)/100</f>
-        <v>25.474328571428561</v>
+        <v>27.036200000000001</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
@@ -5739,17 +5739,17 @@
         <v>45937</v>
       </c>
       <c r="C197" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D197" s="4">
-        <v>22.291374999999999</v>
+        <v>39.469583333333297</v>
       </c>
       <c r="E197" s="6">
         <v>20</v>
       </c>
       <c r="F197" s="3">
         <f t="shared" si="3"/>
-        <v>17.833099999999998</v>
+        <v>31.575666666666638</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
@@ -5762,17 +5762,17 @@
         <v>45937</v>
       </c>
       <c r="C198" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D198" s="4">
-        <v>11.162018043303901</v>
+        <v>32.106578909941703</v>
       </c>
       <c r="E198" s="6">
         <v>20</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="3"/>
-        <v>8.9296144346431205</v>
+        <v>25.685263127953363</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28692" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -842,20 +842,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M174" sqref="M174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4130,17 +4130,17 @@
         <v>45937</v>
       </c>
       <c r="C132" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D132" s="4">
-        <v>25.645908396946599</v>
+        <v>30.3114236453202</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>20.51672671755728</v>
+        <v>24.249138916256161</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>67</v>
@@ -4156,14 +4156,18 @@
       <c r="B133" s="7">
         <v>45937</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="4"/>
+      <c r="C133" s="9">
+        <v>16</v>
+      </c>
+      <c r="D133" s="4">
+        <v>45.217416666666701</v>
+      </c>
       <c r="E133" s="6">
         <v>20</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36.173933333333359</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>67</v>
@@ -4180,17 +4184,17 @@
         <v>45937</v>
       </c>
       <c r="C134" s="9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D134" s="4">
-        <v>20.275764705882398</v>
+        <v>24.668935131878399</v>
       </c>
       <c r="E134" s="6">
         <v>20</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>16.220611764705918</v>
+        <v>19.73514810550272</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="8" t="s">
@@ -4208,14 +4212,14 @@
         <v>16</v>
       </c>
       <c r="D135" s="4">
-        <v>26.78565</v>
+        <v>49.00365</v>
       </c>
       <c r="E135" s="6">
         <v>20</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="2"/>
-        <v>21.428519999999999</v>
+        <v>39.202919999999999</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="8" t="s">
@@ -4230,17 +4234,17 @@
         <v>45937</v>
       </c>
       <c r="C136" s="9">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D136" s="4">
-        <v>26.430525388579699</v>
+        <v>29.235006697208</v>
       </c>
       <c r="E136" s="6">
         <v>20</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>21.144420310863758</v>
+        <v>23.388005357766399</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="8" t="s">
@@ -4255,17 +4259,17 @@
         <v>45937</v>
       </c>
       <c r="C137" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D137" s="4">
-        <v>44.206913333333297</v>
+        <v>32.211071428571401</v>
       </c>
       <c r="E137" s="6">
         <v>20</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="2"/>
-        <v>35.365530666666636</v>
+        <v>25.768857142857122</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="8" t="s">
@@ -4280,17 +4284,17 @@
         <v>45937</v>
       </c>
       <c r="C138" s="9">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D138" s="4">
-        <v>23.775254098360602</v>
+        <v>26.4935786516854</v>
       </c>
       <c r="E138" s="6">
         <v>20</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="2"/>
-        <v>19.020203278688481</v>
+        <v>21.194862921348321</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="8" t="s">
@@ -4305,17 +4309,17 @@
         <v>45937</v>
       </c>
       <c r="C139" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D139" s="4">
-        <v>44.206913333333297</v>
+        <v>32.211071428571401</v>
       </c>
       <c r="E139" s="6">
         <v>20</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="2"/>
-        <v>35.365530666666636</v>
+        <v>25.768857142857122</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="8" t="s">
@@ -4330,17 +4334,17 @@
         <v>45937</v>
       </c>
       <c r="C140" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D140" s="4">
-        <v>78.265681789539997</v>
+        <v>53.532069150662203</v>
       </c>
       <c r="E140" s="6">
         <v>20</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="2"/>
-        <v>62.612545431632</v>
+        <v>42.825655320529762</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="8" t="s">
@@ -4355,17 +4359,17 @@
         <v>45937</v>
       </c>
       <c r="C141" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D141" s="4">
-        <v>73.107066802536195</v>
+        <v>48.9125172360609</v>
       </c>
       <c r="E141" s="6">
         <v>20</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="2"/>
-        <v>58.485653442028955</v>
+        <v>39.130013788848721</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="8" t="s">
@@ -4380,17 +4384,17 @@
         <v>45937</v>
       </c>
       <c r="C142" s="9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D142" s="4">
-        <v>44.206913333333297</v>
+        <v>43.889646031745997</v>
       </c>
       <c r="E142" s="6">
         <v>20</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="2"/>
-        <v>35.365530666666636</v>
+        <v>35.111716825396798</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="8" t="s">
@@ -4426,17 +4430,17 @@
         <v>45937</v>
       </c>
       <c r="C144" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D144" s="4">
-        <v>27.879128055555601</v>
+        <v>28.7219018103109</v>
       </c>
       <c r="E144" s="6">
         <v>20</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="2"/>
-        <v>22.30330244444448</v>
+        <v>22.977521448248719</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="8" t="s">
@@ -4451,17 +4455,17 @@
         <v>45937</v>
       </c>
       <c r="C145" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D145" s="4">
-        <v>28.978114583333301</v>
+        <v>28.881026315789502</v>
       </c>
       <c r="E145" s="6">
         <v>20</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="2"/>
-        <v>23.182491666666643</v>
+        <v>23.1048210526316</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="8" t="s">
@@ -4476,17 +4480,17 @@
         <v>45937</v>
       </c>
       <c r="C146" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D146" s="4">
-        <v>24.445243421052599</v>
+        <v>25.466421875000002</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="2"/>
-        <v>19.55619473684208</v>
+        <v>20.373137500000002</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="8" t="s">
@@ -4522,17 +4526,17 @@
         <v>45937</v>
       </c>
       <c r="C148" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D148" s="4">
-        <v>25.645908396946599</v>
+        <v>30.3114236453202</v>
       </c>
       <c r="E148" s="6">
         <v>20</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="2"/>
-        <v>20.51672671755728</v>
+        <v>24.249138916256161</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="8" t="s">
@@ -4547,17 +4551,17 @@
         <v>45937</v>
       </c>
       <c r="C149" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D149" s="4">
-        <v>30.149755459001799</v>
+        <v>28.440480310014198</v>
       </c>
       <c r="E149" s="6">
         <v>20</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="2"/>
-        <v>24.119804367201439</v>
+        <v>22.75238424801136</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="8" t="s">
@@ -4572,17 +4576,17 @@
         <v>45937</v>
       </c>
       <c r="C150" s="9">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D150" s="4">
-        <v>45.072317465321603</v>
+        <v>35.757417453804003</v>
       </c>
       <c r="E150" s="6">
         <v>20</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="2"/>
-        <v>36.057853972257284</v>
+        <v>28.605933963043203</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="8" t="s">
@@ -4597,17 +4601,17 @@
         <v>45937</v>
       </c>
       <c r="C151" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D151" s="4">
-        <v>26.121555555555599</v>
+        <v>30.9769659090909</v>
       </c>
       <c r="E151" s="6">
         <v>20</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="2"/>
-        <v>20.897244444444478</v>
+        <v>24.781572727272721</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="8" t="s">
@@ -4622,17 +4626,17 @@
         <v>45937</v>
       </c>
       <c r="C152" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D152" s="4">
-        <v>65.251128846153804</v>
+        <v>51.7218390591336</v>
       </c>
       <c r="E152" s="6">
         <v>20</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="2"/>
-        <v>52.200903076923041</v>
+        <v>41.377471247306879</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="8" t="s">
@@ -4647,17 +4651,17 @@
         <v>45937</v>
       </c>
       <c r="C153" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D153" s="4">
-        <v>36.3826355932203</v>
+        <v>35.287946434084603</v>
       </c>
       <c r="E153" s="6">
         <v>20</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="2"/>
-        <v>29.106108474576239</v>
+        <v>28.230357147267682</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="8" t="s">
@@ -4672,17 +4676,17 @@
         <v>45937</v>
       </c>
       <c r="C154" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D154" s="4">
-        <v>39.508054864739101</v>
+        <v>35.765294253566402</v>
       </c>
       <c r="E154" s="6">
         <v>20</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="2"/>
-        <v>31.60644389179128</v>
+        <v>28.612235402853123</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="8" t="s">
@@ -4697,17 +4701,17 @@
         <v>45937</v>
       </c>
       <c r="C155" s="9">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D155" s="4">
-        <v>48.609101017234103</v>
+        <v>36.458431812142102</v>
       </c>
       <c r="E155" s="6">
         <v>20</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="2"/>
-        <v>38.887280813787285</v>
+        <v>29.16674544971368</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="8" t="s">
@@ -4722,17 +4726,17 @@
         <v>45937</v>
       </c>
       <c r="C156" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D156" s="4">
-        <v>167.97085416666701</v>
+        <v>134.55597635135101</v>
       </c>
       <c r="E156" s="6">
         <v>20</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="2"/>
-        <v>134.3766833333336</v>
+        <v>107.64478108108081</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="8" t="s">
@@ -4747,17 +4751,17 @@
         <v>45937</v>
       </c>
       <c r="C157" s="9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D157" s="4">
-        <v>36.361176470588198</v>
+        <v>38.862000000000002</v>
       </c>
       <c r="E157" s="6">
         <v>20</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="2"/>
-        <v>29.088941176470559</v>
+        <v>31.089600000000001</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="8" t="s">
@@ -4772,17 +4776,17 @@
         <v>45937</v>
       </c>
       <c r="C158" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D158" s="4">
-        <v>20.275764705882398</v>
+        <v>24.734709576326299</v>
       </c>
       <c r="E158" s="6">
         <v>20</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="2"/>
-        <v>16.220611764705918</v>
+        <v>19.787767661061039</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="8" t="s">
@@ -4797,17 +4801,17 @@
         <v>45937</v>
       </c>
       <c r="C159" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D159" s="4">
-        <v>56.1832641929212</v>
+        <v>42.644799783525002</v>
       </c>
       <c r="E159" s="6">
         <v>20</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="2"/>
-        <v>44.946611354336959</v>
+        <v>34.11583982682</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="8" t="s">
@@ -4822,17 +4826,17 @@
         <v>45937</v>
       </c>
       <c r="C160" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D160" s="4">
-        <v>48.609101017234103</v>
+        <v>36.079806687436701</v>
       </c>
       <c r="E160" s="6">
         <v>20</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="2"/>
-        <v>38.887280813787285</v>
+        <v>28.863845349949361</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="8" t="s">
@@ -4847,17 +4851,17 @@
         <v>45937</v>
       </c>
       <c r="C161" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D161" s="4">
-        <v>83.428492907801399</v>
+        <v>57.909146313919599</v>
       </c>
       <c r="E161" s="6">
         <v>20</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="2"/>
-        <v>66.742794326241125</v>
+        <v>46.32731705113568</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="8" t="s">
@@ -4872,17 +4876,17 @@
         <v>45937</v>
       </c>
       <c r="C162" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D162" s="4">
-        <v>26.6183088235294</v>
+        <v>29.243366847826099</v>
       </c>
       <c r="E162" s="6">
         <v>20</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="2"/>
-        <v>21.294647058823521</v>
+        <v>23.39469347826088</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="8" t="s">
@@ -4897,17 +4901,17 @@
         <v>45937</v>
       </c>
       <c r="C163" s="9">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D163" s="4">
-        <v>35.854541465766602</v>
+        <v>41.2626874671518</v>
       </c>
       <c r="E163" s="6">
         <v>20</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="2"/>
-        <v>28.68363317261328</v>
+        <v>33.01014997372144</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="8" t="s">
@@ -4922,17 +4926,17 @@
         <v>45937</v>
       </c>
       <c r="C164" s="9">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D164" s="4">
-        <v>54.6541904761905</v>
+        <v>82.111958241128406</v>
       </c>
       <c r="E164" s="6">
         <v>20</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="2"/>
-        <v>43.723352380952399</v>
+        <v>65.689566592902722</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="8" t="s">
@@ -4947,17 +4951,17 @@
         <v>45937</v>
       </c>
       <c r="C165" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D165" s="4">
-        <v>31.939614008941899</v>
+        <v>28.709071910112399</v>
       </c>
       <c r="E165" s="6">
         <v>20</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="2"/>
-        <v>25.551691207153517</v>
+        <v>22.96725752808992</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="8" t="s">
@@ -4972,17 +4976,17 @@
         <v>45937</v>
       </c>
       <c r="C166" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D166" s="4">
-        <v>65.251128846153804</v>
+        <v>51.7218390591336</v>
       </c>
       <c r="E166" s="6">
         <v>20</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="2"/>
-        <v>52.200903076923041</v>
+        <v>41.377471247306879</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="8" t="s">
@@ -4997,17 +5001,17 @@
         <v>45937</v>
       </c>
       <c r="C167" s="9">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D167" s="4">
-        <v>83.428492907801399</v>
+        <v>55.651195969893998</v>
       </c>
       <c r="E167" s="6">
         <v>20</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="2"/>
-        <v>66.742794326241125</v>
+        <v>44.520956775915195</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="8" t="s">
@@ -5022,17 +5026,17 @@
         <v>45937</v>
       </c>
       <c r="C168" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D168" s="4">
-        <v>167.97085416666701</v>
+        <v>134.55597635135101</v>
       </c>
       <c r="E168" s="6">
         <v>20</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="2"/>
-        <v>134.3766833333336</v>
+        <v>107.64478108108081</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
@@ -5047,17 +5051,17 @@
         <v>45937</v>
       </c>
       <c r="C169" s="9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D169" s="4">
-        <v>20.275764705882398</v>
+        <v>24.668935131878399</v>
       </c>
       <c r="E169" s="6">
         <v>20</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="2"/>
-        <v>16.220611764705918</v>
+        <v>19.73514810550272</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="8" t="s">
@@ -5072,17 +5076,17 @@
         <v>45937</v>
       </c>
       <c r="C170" s="9">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D170" s="4">
-        <v>33.795250000000003</v>
+        <v>28.685465467239499</v>
       </c>
       <c r="E170" s="6">
         <v>20</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="2"/>
-        <v>27.036200000000001</v>
+        <v>22.948372373791599</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="8" t="s">
@@ -5097,17 +5101,17 @@
         <v>45937</v>
       </c>
       <c r="C171" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D171" s="4">
-        <v>32.644125000000003</v>
+        <v>28.310937500000001</v>
       </c>
       <c r="E171" s="6">
         <v>20</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="2"/>
-        <v>26.115300000000001</v>
+        <v>22.64875</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="8" t="s">
@@ -5122,17 +5126,17 @@
         <v>45937</v>
       </c>
       <c r="C172" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D172" s="4">
-        <v>31.908559210526299</v>
+        <v>34.597802884615398</v>
       </c>
       <c r="E172" s="6">
         <v>20</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="2"/>
-        <v>25.526847368421038</v>
+        <v>27.678242307692319</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="8" t="s">
@@ -5147,17 +5151,17 @@
         <v>45937</v>
       </c>
       <c r="C173" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D173" s="4">
-        <v>111.49677250000001</v>
+        <v>115.544348273273</v>
       </c>
       <c r="E173" s="6">
         <v>20</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="2"/>
-        <v>89.197417999999999</v>
+        <v>92.435478618618404</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="8" t="s">
@@ -5172,17 +5176,17 @@
         <v>45937</v>
       </c>
       <c r="C174" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D174" s="4">
-        <v>25.767458450269402</v>
+        <v>29.903275942385999</v>
       </c>
       <c r="E174" s="6">
         <v>20</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="2"/>
-        <v>20.613966760215522</v>
+        <v>23.922620753908799</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="8" t="s">
@@ -5197,17 +5201,17 @@
         <v>45937</v>
       </c>
       <c r="C175" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D175" s="4">
-        <v>39.469583333333297</v>
+        <v>37.066153846153803</v>
       </c>
       <c r="E175" s="6">
         <v>20</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="2"/>
-        <v>31.575666666666638</v>
+        <v>29.652923076923042</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="8" t="s">
@@ -5222,17 +5226,17 @@
         <v>45937</v>
       </c>
       <c r="C176" s="9">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D176" s="4">
-        <v>54.6541904761905</v>
+        <v>79.541402665082899</v>
       </c>
       <c r="E176" s="6">
         <v>20</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="2"/>
-        <v>43.723352380952399</v>
+        <v>63.633122132066319</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="8" t="s">
@@ -5247,17 +5251,17 @@
         <v>45937</v>
       </c>
       <c r="C177" s="9">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D177" s="4">
-        <v>56.0669775510204</v>
+        <v>78.434027126736098</v>
       </c>
       <c r="E177" s="6">
         <v>20</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="2"/>
-        <v>44.85358204081632</v>
+        <v>62.747221701388881</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="8" t="s">
@@ -5272,17 +5276,17 @@
         <v>45937</v>
       </c>
       <c r="C178" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D178" s="4">
-        <v>50.134625</v>
+        <v>46.947067307692301</v>
       </c>
       <c r="E178" s="6">
         <v>20</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="2"/>
-        <v>40.107700000000001</v>
+        <v>37.557653846153841</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="8" t="s">
@@ -5297,17 +5301,17 @@
         <v>45937</v>
       </c>
       <c r="C179" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D179" s="4">
-        <v>26.9791421568627</v>
+        <v>34.772486471861498</v>
       </c>
       <c r="E179" s="6">
         <v>20</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="2"/>
-        <v>21.583313725490161</v>
+        <v>27.817989177489199</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="8" t="s">
@@ -5322,17 +5326,17 @@
         <v>45937</v>
       </c>
       <c r="C180" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D180" s="4">
-        <v>50.134625</v>
+        <v>44.845238095238102</v>
       </c>
       <c r="E180" s="6">
         <v>20</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="2"/>
-        <v>40.107700000000001</v>
+        <v>35.87619047619048</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="8" t="s">
@@ -5347,17 +5351,17 @@
         <v>45937</v>
       </c>
       <c r="C181" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D181" s="4">
-        <v>23.787573529411802</v>
+        <v>28.137475649350701</v>
       </c>
       <c r="E181" s="6">
         <v>20</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="2"/>
-        <v>19.030058823529441</v>
+        <v>22.50998051948056</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="8" t="s">
@@ -5372,17 +5376,17 @@
         <v>45937</v>
       </c>
       <c r="C182" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D182" s="4">
-        <v>26.059607646678199</v>
+        <v>27.134801211604401</v>
       </c>
       <c r="E182" s="6">
         <v>20</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="2"/>
-        <v>20.847686117342558</v>
+        <v>21.70784096928352</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="8" t="s">
@@ -5397,17 +5401,17 @@
         <v>45937</v>
       </c>
       <c r="C183" s="9">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D183" s="4">
-        <v>38.448515572372898</v>
+        <v>25.7869010224174</v>
       </c>
       <c r="E183" s="6">
         <v>20</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="2"/>
-        <v>30.758812457898319</v>
+        <v>20.629520817933919</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="8" t="s">
@@ -5422,17 +5426,17 @@
         <v>45937</v>
       </c>
       <c r="C184" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D184" s="4">
-        <v>26.126149999999999</v>
+        <v>29.372905003987199</v>
       </c>
       <c r="E184" s="6">
         <v>20</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="2"/>
-        <v>20.900919999999999</v>
+        <v>23.498324003189758</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="8" t="s">
@@ -5447,17 +5451,17 @@
         <v>45937</v>
       </c>
       <c r="C185" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D185" s="4">
-        <v>31.018444569672099</v>
+        <v>31.833244783834601</v>
       </c>
       <c r="E185" s="6">
         <v>20</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="2"/>
-        <v>24.814755655737677</v>
+        <v>25.466595827067682</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="8" t="s">
@@ -5472,17 +5476,17 @@
         <v>45937</v>
       </c>
       <c r="C186" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D186" s="4">
-        <v>32.590313180827899</v>
+        <v>35.767905303030297</v>
       </c>
       <c r="E186" s="6">
         <v>20</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="2"/>
-        <v>26.072250544662317</v>
+        <v>28.614324242424239</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="8" t="s">
@@ -5497,17 +5501,17 @@
         <v>45937</v>
       </c>
       <c r="C187" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D187" s="4">
-        <v>28.565365049098698</v>
+        <v>33.203245687434901</v>
       </c>
       <c r="E187" s="6">
         <v>20</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="2"/>
-        <v>22.852292039278957</v>
+        <v>26.562596549947919</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="8" t="s">
@@ -5522,17 +5526,17 @@
         <v>45937</v>
       </c>
       <c r="C188" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D188" s="4">
-        <v>44.206913333333297</v>
+        <v>42.372193877550998</v>
       </c>
       <c r="E188" s="6">
         <v>20</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="2"/>
-        <v>35.365530666666636</v>
+        <v>33.897755102040797</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="8" t="s">
@@ -5547,17 +5551,17 @@
         <v>45937</v>
       </c>
       <c r="C189" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D189" s="4">
-        <v>36.447826923076903</v>
+        <v>42.036697368421002</v>
       </c>
       <c r="E189" s="6">
         <v>20</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="2"/>
-        <v>29.158261538461524</v>
+        <v>33.629357894736799</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="8" t="s">
@@ -5572,17 +5576,17 @@
         <v>45937</v>
       </c>
       <c r="C190" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D190" s="4">
-        <v>36.447826923076903</v>
+        <v>42.036697368421002</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="2"/>
-        <v>29.158261538461524</v>
+        <v>33.629357894736799</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="8" t="s">
@@ -5597,17 +5601,17 @@
         <v>45937</v>
       </c>
       <c r="C191" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D191" s="4">
-        <v>26.3724399933926</v>
+        <v>26.713803290212201</v>
       </c>
       <c r="E191" s="6">
         <v>20</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="2"/>
-        <v>21.09795199471408</v>
+        <v>21.371042632169761</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="8" t="s">
@@ -5643,17 +5647,17 @@
         <v>45937</v>
       </c>
       <c r="C193" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D193" s="4">
-        <v>99.017672500000003</v>
+        <v>96.549568532818498</v>
       </c>
       <c r="E193" s="6">
         <v>20</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="2"/>
-        <v>79.214138000000005</v>
+        <v>77.239654826254792</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="8" t="s">
@@ -5668,17 +5672,17 @@
         <v>45937</v>
       </c>
       <c r="C194" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D194" s="4">
-        <v>31.162227631579</v>
+        <v>33.537220200440998</v>
       </c>
       <c r="E194" s="6">
         <v>20</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="2"/>
-        <v>24.9297821052632</v>
+        <v>26.8297761603528</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="8" t="s">
@@ -5693,17 +5697,17 @@
         <v>45937</v>
       </c>
       <c r="C195" s="9">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D195" s="4">
-        <v>102.423183333333</v>
+        <v>111.99980555555599</v>
       </c>
       <c r="E195" s="6">
         <v>20</v>
       </c>
       <c r="F195" s="3">
         <f t="shared" si="2"/>
-        <v>81.938546666666397</v>
+        <v>89.599844444444798</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="8"/>
@@ -5716,17 +5720,17 @@
         <v>45937</v>
       </c>
       <c r="C196" s="9">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D196" s="4">
-        <v>33.795250000000003</v>
+        <v>27.8946928571429</v>
       </c>
       <c r="E196" s="6">
         <v>20</v>
       </c>
       <c r="F196" s="3">
         <f t="shared" ref="F196:F198" si="3">D196-(D196*E196)/100</f>
-        <v>27.036200000000001</v>
+        <v>22.31575428571432</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
@@ -5739,17 +5743,17 @@
         <v>45937</v>
       </c>
       <c r="C197" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D197" s="4">
-        <v>39.469583333333297</v>
+        <v>37.066153846153803</v>
       </c>
       <c r="E197" s="6">
         <v>20</v>
       </c>
       <c r="F197" s="3">
         <f t="shared" si="3"/>
-        <v>31.575666666666638</v>
+        <v>29.652923076923042</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
@@ -5762,17 +5766,17 @@
         <v>45937</v>
       </c>
       <c r="C198" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D198" s="4">
-        <v>32.106578909941703</v>
+        <v>40.717745980630703</v>
       </c>
       <c r="E198" s="6">
         <v>20</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="3"/>
-        <v>25.685263127953363</v>
+        <v>32.574196784504565</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="M174" sqref="M174"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4127,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C132" s="9">
         <v>80</v>
@@ -4154,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="B133" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C133" s="9">
         <v>16</v>
@@ -4181,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C134" s="9">
         <v>88</v>
@@ -4206,7 +4206,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C135" s="9">
         <v>16</v>
@@ -4231,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C136" s="9">
         <v>86</v>
@@ -4256,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C137" s="9">
         <v>64</v>
@@ -4281,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C138" s="9">
         <v>93</v>
@@ -4306,7 +4306,7 @@
         <v>11</v>
       </c>
       <c r="B139" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C139" s="9">
         <v>80</v>
@@ -4331,7 +4331,7 @@
         <v>12</v>
       </c>
       <c r="B140" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C140" s="9">
         <v>70</v>
@@ -4356,7 +4356,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C141" s="9">
         <v>56</v>
@@ -4381,7 +4381,7 @@
         <v>14</v>
       </c>
       <c r="B142" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C142" s="9">
         <v>15</v>
@@ -4406,7 +4406,7 @@
         <v>15</v>
       </c>
       <c r="B143" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -4427,7 +4427,7 @@
         <v>16</v>
       </c>
       <c r="B144" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C144" s="9">
         <v>88</v>
@@ -4452,7 +4452,7 @@
         <v>17</v>
       </c>
       <c r="B145" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C145" s="9">
         <v>96</v>
@@ -4477,7 +4477,7 @@
         <v>18</v>
       </c>
       <c r="B146" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C146" s="9">
         <v>104</v>
@@ -4502,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="B147" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
@@ -4523,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="B148" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C148" s="9">
         <v>40</v>
@@ -4548,7 +4548,7 @@
         <v>21</v>
       </c>
       <c r="B149" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C149" s="9">
         <v>120</v>
@@ -4573,7 +4573,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C150" s="9">
         <v>70</v>
@@ -4598,7 +4598,7 @@
         <v>23</v>
       </c>
       <c r="B151" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C151" s="9">
         <v>88</v>
@@ -4623,7 +4623,7 @@
         <v>24</v>
       </c>
       <c r="B152" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C152" s="9">
         <v>76</v>
@@ -4648,7 +4648,7 @@
         <v>25</v>
       </c>
       <c r="B153" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C153" s="9">
         <v>41</v>
@@ -4673,7 +4673,7 @@
         <v>26</v>
       </c>
       <c r="B154" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C154" s="9">
         <v>72</v>
@@ -4698,7 +4698,7 @@
         <v>27</v>
       </c>
       <c r="B155" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C155" s="9">
         <v>78</v>
@@ -4723,7 +4723,7 @@
         <v>28</v>
       </c>
       <c r="B156" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C156" s="9">
         <v>80</v>
@@ -4748,7 +4748,7 @@
         <v>29</v>
       </c>
       <c r="B157" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C157" s="9">
         <v>88</v>
@@ -4773,7 +4773,7 @@
         <v>30</v>
       </c>
       <c r="B158" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C158" s="9">
         <v>86</v>
@@ -4798,7 +4798,7 @@
         <v>137</v>
       </c>
       <c r="B159" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C159" s="9">
         <v>64</v>
@@ -4823,7 +4823,7 @@
         <v>31</v>
       </c>
       <c r="B160" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C160" s="9">
         <v>76</v>
@@ -4848,7 +4848,7 @@
         <v>32</v>
       </c>
       <c r="B161" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C161" s="9">
         <v>71</v>
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B162" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C162" s="9">
         <v>112</v>
@@ -4898,7 +4898,7 @@
         <v>34</v>
       </c>
       <c r="B163" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C163" s="9">
         <v>85</v>
@@ -4923,7 +4923,7 @@
         <v>35</v>
       </c>
       <c r="B164" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C164" s="9">
         <v>88</v>
@@ -4948,7 +4948,7 @@
         <v>36</v>
       </c>
       <c r="B165" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C165" s="9">
         <v>120</v>
@@ -4973,7 +4973,7 @@
         <v>37</v>
       </c>
       <c r="B166" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C166" s="9">
         <v>76</v>
@@ -4998,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="B167" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C167" s="9">
         <v>79</v>
@@ -5023,7 +5023,7 @@
         <v>39</v>
       </c>
       <c r="B168" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C168" s="9">
         <v>80</v>
@@ -5048,7 +5048,7 @@
         <v>40</v>
       </c>
       <c r="B169" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C169" s="9">
         <v>88</v>
@@ -5073,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="B170" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C170" s="9">
         <v>84</v>
@@ -5098,7 +5098,7 @@
         <v>42</v>
       </c>
       <c r="B171" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C171" s="9">
         <v>96</v>
@@ -5123,7 +5123,7 @@
         <v>43</v>
       </c>
       <c r="B172" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C172" s="9">
         <v>112</v>
@@ -5148,7 +5148,7 @@
         <v>44</v>
       </c>
       <c r="B173" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C173" s="9">
         <v>72</v>
@@ -5173,7 +5173,7 @@
         <v>45</v>
       </c>
       <c r="B174" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C174" s="9">
         <v>88</v>
@@ -5198,7 +5198,7 @@
         <v>46</v>
       </c>
       <c r="B175" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C175" s="9">
         <v>104</v>
@@ -5223,7 +5223,7 @@
         <v>47</v>
       </c>
       <c r="B176" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C176" s="9">
         <v>72</v>
@@ -5248,7 +5248,7 @@
         <v>48</v>
       </c>
       <c r="B177" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C177" s="9">
         <v>64</v>
@@ -5273,7 +5273,7 @@
         <v>49</v>
       </c>
       <c r="B178" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C178" s="9">
         <v>104</v>
@@ -5298,7 +5298,7 @@
         <v>50</v>
       </c>
       <c r="B179" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C179" s="9">
         <v>112</v>
@@ -5323,7 +5323,7 @@
         <v>51</v>
       </c>
       <c r="B180" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C180" s="9">
         <v>112</v>
@@ -5348,7 +5348,7 @@
         <v>52</v>
       </c>
       <c r="B181" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C181" s="9">
         <v>112</v>
@@ -5373,7 +5373,7 @@
         <v>53</v>
       </c>
       <c r="B182" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C182" s="9">
         <v>112</v>
@@ -5398,7 +5398,7 @@
         <v>54</v>
       </c>
       <c r="B183" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C183" s="9">
         <v>100</v>
@@ -5423,7 +5423,7 @@
         <v>55</v>
       </c>
       <c r="B184" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C184" s="9">
         <v>112</v>
@@ -5448,7 +5448,7 @@
         <v>56</v>
       </c>
       <c r="B185" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C185" s="9">
         <v>112</v>
@@ -5473,7 +5473,7 @@
         <v>57</v>
       </c>
       <c r="B186" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C186" s="9">
         <v>88</v>
@@ -5498,7 +5498,7 @@
         <v>58</v>
       </c>
       <c r="B187" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C187" s="9">
         <v>56</v>
@@ -5523,7 +5523,7 @@
         <v>59</v>
       </c>
       <c r="B188" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C188" s="9">
         <v>7</v>
@@ -5548,7 +5548,7 @@
         <v>60</v>
       </c>
       <c r="B189" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C189" s="9">
         <v>71</v>
@@ -5573,7 +5573,7 @@
         <v>61</v>
       </c>
       <c r="B190" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C190" s="9">
         <v>76</v>
@@ -5598,7 +5598,7 @@
         <v>62</v>
       </c>
       <c r="B191" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C191" s="9">
         <v>104</v>
@@ -5623,7 +5623,7 @@
         <v>63</v>
       </c>
       <c r="B192" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="4"/>
@@ -5644,7 +5644,7 @@
         <v>64</v>
       </c>
       <c r="B193" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C193" s="9">
         <v>32</v>
@@ -5669,7 +5669,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C194" s="9">
         <v>112</v>
@@ -5694,7 +5694,7 @@
         <v>134</v>
       </c>
       <c r="B195" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C195" s="9">
         <v>84</v>
@@ -5717,7 +5717,7 @@
         <v>133</v>
       </c>
       <c r="B196" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C196" s="9">
         <v>64</v>
@@ -5740,7 +5740,7 @@
         <v>135</v>
       </c>
       <c r="B197" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C197" s="9">
         <v>104</v>
@@ -5763,7 +5763,7 @@
         <v>136</v>
       </c>
       <c r="B198" s="7">
-        <v>45937</v>
+        <v>45947</v>
       </c>
       <c r="C198" s="9">
         <v>104</v>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4127,20 +4127,20 @@
         <v>4</v>
       </c>
       <c r="B132" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C132" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D132" s="4">
-        <v>30.3114236453202</v>
+        <v>23.484425867507898</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>24.249138916256161</v>
+        <v>18.787540694006317</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>67</v>
@@ -4154,20 +4154,20 @@
         <v>5</v>
       </c>
       <c r="B133" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C133" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D133" s="4">
-        <v>45.217416666666701</v>
+        <v>31.9332142857143</v>
       </c>
       <c r="E133" s="6">
         <v>20</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="2"/>
-        <v>36.173933333333359</v>
+        <v>25.54657142857144</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>67</v>
@@ -4181,20 +4181,20 @@
         <v>6</v>
       </c>
       <c r="B134" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C134" s="9">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D134" s="4">
-        <v>24.668935131878399</v>
+        <v>22.380329975698999</v>
       </c>
       <c r="E134" s="6">
         <v>20</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>19.73514810550272</v>
+        <v>17.9042639805592</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="8" t="s">
@@ -4206,20 +4206,20 @@
         <v>7</v>
       </c>
       <c r="B135" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C135" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D135" s="4">
-        <v>49.00365</v>
+        <v>52.972809782608699</v>
       </c>
       <c r="E135" s="6">
         <v>20</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="2"/>
-        <v>39.202919999999999</v>
+        <v>42.378247826086962</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="8" t="s">
@@ -4231,20 +4231,20 @@
         <v>8</v>
       </c>
       <c r="B136" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C136" s="9">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D136" s="4">
-        <v>29.235006697208</v>
+        <v>23.762229730464899</v>
       </c>
       <c r="E136" s="6">
         <v>20</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>23.388005357766399</v>
+        <v>19.009783784371919</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="8" t="s">
@@ -4256,20 +4256,20 @@
         <v>9</v>
       </c>
       <c r="B137" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C137" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D137" s="4">
-        <v>32.211071428571401</v>
+        <v>28.039414340776201</v>
       </c>
       <c r="E137" s="6">
         <v>20</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="2"/>
-        <v>25.768857142857122</v>
+        <v>22.431531472620961</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="8" t="s">
@@ -4281,20 +4281,20 @@
         <v>10</v>
       </c>
       <c r="B138" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C138" s="9">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D138" s="4">
-        <v>26.4935786516854</v>
+        <v>27.8095</v>
       </c>
       <c r="E138" s="6">
         <v>20</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="2"/>
-        <v>21.194862921348321</v>
+        <v>22.247599999999998</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="8" t="s">
@@ -4306,20 +4306,20 @@
         <v>11</v>
       </c>
       <c r="B139" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C139" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D139" s="4">
-        <v>32.211071428571401</v>
+        <v>29.039643274853798</v>
       </c>
       <c r="E139" s="6">
         <v>20</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="2"/>
-        <v>25.768857142857122</v>
+        <v>23.231714619883039</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="8" t="s">
@@ -4331,20 +4331,20 @@
         <v>12</v>
       </c>
       <c r="B140" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C140" s="9">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D140" s="4">
-        <v>53.532069150662203</v>
+        <v>58.032376345163001</v>
       </c>
       <c r="E140" s="6">
         <v>20</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="2"/>
-        <v>42.825655320529762</v>
+        <v>46.425901076130401</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="8" t="s">
@@ -4356,20 +4356,20 @@
         <v>13</v>
       </c>
       <c r="B141" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C141" s="9">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D141" s="4">
-        <v>48.9125172360609</v>
+        <v>55.952125116442403</v>
       </c>
       <c r="E141" s="6">
         <v>20</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="2"/>
-        <v>39.130013788848721</v>
+        <v>44.76170009315392</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="8" t="s">
@@ -4381,20 +4381,20 @@
         <v>14</v>
       </c>
       <c r="B142" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C142" s="9">
         <v>15</v>
       </c>
       <c r="D142" s="4">
-        <v>43.889646031745997</v>
+        <v>35.747595377332203</v>
       </c>
       <c r="E142" s="6">
         <v>20</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="2"/>
-        <v>35.111716825396798</v>
+        <v>28.598076301865763</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="8" t="s">
@@ -4406,7 +4406,7 @@
         <v>15</v>
       </c>
       <c r="B143" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -4427,20 +4427,20 @@
         <v>16</v>
       </c>
       <c r="B144" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C144" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D144" s="4">
-        <v>28.7219018103109</v>
+        <v>23.3413880904697</v>
       </c>
       <c r="E144" s="6">
         <v>20</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="2"/>
-        <v>22.977521448248719</v>
+        <v>18.673110472375761</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="8" t="s">
@@ -4452,20 +4452,20 @@
         <v>17</v>
       </c>
       <c r="B145" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C145" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D145" s="4">
-        <v>28.881026315789502</v>
+        <v>33.763718538324397</v>
       </c>
       <c r="E145" s="6">
         <v>20</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="2"/>
-        <v>23.1048210526316</v>
+        <v>27.010974830659517</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="8" t="s">
@@ -4477,20 +4477,20 @@
         <v>18</v>
       </c>
       <c r="B146" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C146" s="9">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D146" s="4">
-        <v>25.466421875000002</v>
+        <v>27.938995833333301</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="2"/>
-        <v>20.373137500000002</v>
+        <v>22.351196666666642</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="8" t="s">
@@ -4502,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="B147" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
@@ -4523,20 +4523,20 @@
         <v>20</v>
       </c>
       <c r="B148" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C148" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D148" s="4">
-        <v>30.3114236453202</v>
+        <v>24.329128443966098</v>
       </c>
       <c r="E148" s="6">
         <v>20</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="2"/>
-        <v>24.249138916256161</v>
+        <v>19.463302755172879</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="8" t="s">
@@ -4548,20 +4548,20 @@
         <v>21</v>
       </c>
       <c r="B149" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C149" s="9">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D149" s="4">
-        <v>28.440480310014198</v>
+        <v>27.589664657148099</v>
       </c>
       <c r="E149" s="6">
         <v>20</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="2"/>
-        <v>22.75238424801136</v>
+        <v>22.071731725718479</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="8" t="s">
@@ -4573,20 +4573,20 @@
         <v>22</v>
       </c>
       <c r="B150" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C150" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D150" s="4">
-        <v>35.757417453804003</v>
+        <v>31.8876392356491</v>
       </c>
       <c r="E150" s="6">
         <v>20</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="2"/>
-        <v>28.605933963043203</v>
+        <v>25.510111388519281</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="8" t="s">
@@ -4598,20 +4598,20 @@
         <v>23</v>
       </c>
       <c r="B151" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C151" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D151" s="4">
-        <v>30.9769659090909</v>
+        <v>30.559908333333301</v>
       </c>
       <c r="E151" s="6">
         <v>20</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="2"/>
-        <v>24.781572727272721</v>
+        <v>24.447926666666639</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="8" t="s">
@@ -4623,20 +4623,20 @@
         <v>24</v>
       </c>
       <c r="B152" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C152" s="9">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D152" s="4">
-        <v>51.7218390591336</v>
+        <v>50.485115802048398</v>
       </c>
       <c r="E152" s="6">
         <v>20</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="2"/>
-        <v>41.377471247306879</v>
+        <v>40.388092641638721</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="8" t="s">
@@ -4648,20 +4648,20 @@
         <v>25</v>
       </c>
       <c r="B153" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C153" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D153" s="4">
-        <v>35.287946434084603</v>
+        <v>34.1655235053654</v>
       </c>
       <c r="E153" s="6">
         <v>20</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="2"/>
-        <v>28.230357147267682</v>
+        <v>27.33241880429232</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="8" t="s">
@@ -4673,20 +4673,20 @@
         <v>26</v>
       </c>
       <c r="B154" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C154" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D154" s="4">
-        <v>35.765294253566402</v>
+        <v>31.1678414548856</v>
       </c>
       <c r="E154" s="6">
         <v>20</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="2"/>
-        <v>28.612235402853123</v>
+        <v>24.934273163908479</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="8" t="s">
@@ -4698,20 +4698,20 @@
         <v>27</v>
       </c>
       <c r="B155" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C155" s="9">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D155" s="4">
-        <v>36.458431812142102</v>
+        <v>39.393967826391901</v>
       </c>
       <c r="E155" s="6">
         <v>20</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="2"/>
-        <v>29.16674544971368</v>
+        <v>31.515174261113522</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="8" t="s">
@@ -4723,20 +4723,20 @@
         <v>28</v>
       </c>
       <c r="B156" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C156" s="9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D156" s="4">
-        <v>134.55597635135101</v>
+        <v>146.95989024390201</v>
       </c>
       <c r="E156" s="6">
         <v>20</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="2"/>
-        <v>107.64478108108081</v>
+        <v>117.56791219512161</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="8" t="s">
@@ -4748,20 +4748,20 @@
         <v>29</v>
       </c>
       <c r="B157" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C157" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D157" s="4">
-        <v>38.862000000000002</v>
+        <v>38.147370689655197</v>
       </c>
       <c r="E157" s="6">
         <v>20</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="2"/>
-        <v>31.089600000000001</v>
+        <v>30.517896551724156</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="8" t="s">
@@ -4773,20 +4773,20 @@
         <v>30</v>
       </c>
       <c r="B158" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C158" s="9">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D158" s="4">
-        <v>24.734709576326299</v>
+        <v>22.4165499096834</v>
       </c>
       <c r="E158" s="6">
         <v>20</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="2"/>
-        <v>19.787767661061039</v>
+        <v>17.933239927746719</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="8" t="s">
@@ -4798,20 +4798,20 @@
         <v>137</v>
       </c>
       <c r="B159" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C159" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D159" s="4">
-        <v>42.644799783525002</v>
+        <v>40.213982070950799</v>
       </c>
       <c r="E159" s="6">
         <v>20</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="2"/>
-        <v>34.11583982682</v>
+        <v>32.171185656760642</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="8" t="s">
@@ -4823,20 +4823,20 @@
         <v>31</v>
       </c>
       <c r="B160" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C160" s="9">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D160" s="4">
-        <v>36.079806687436701</v>
+        <v>40.062459067785198</v>
       </c>
       <c r="E160" s="6">
         <v>20</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="2"/>
-        <v>28.863845349949361</v>
+        <v>32.049967254228157</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="8" t="s">
@@ -4848,20 +4848,20 @@
         <v>32</v>
       </c>
       <c r="B161" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C161" s="9">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D161" s="4">
-        <v>57.909146313919599</v>
+        <v>64.567901082233107</v>
       </c>
       <c r="E161" s="6">
         <v>20</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="2"/>
-        <v>46.32731705113568</v>
+        <v>51.654320865786488</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="8" t="s">
@@ -4873,20 +4873,20 @@
         <v>33</v>
       </c>
       <c r="B162" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C162" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D162" s="4">
-        <v>29.243366847826099</v>
+        <v>26.024028472222199</v>
       </c>
       <c r="E162" s="6">
         <v>20</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="2"/>
-        <v>23.39469347826088</v>
+        <v>20.81922277777776</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="8" t="s">
@@ -4898,20 +4898,20 @@
         <v>34</v>
       </c>
       <c r="B163" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C163" s="9">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D163" s="4">
-        <v>41.2626874671518</v>
+        <v>37.645438755559397</v>
       </c>
       <c r="E163" s="6">
         <v>20</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="2"/>
-        <v>33.01014997372144</v>
+        <v>30.116351004447516</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="8" t="s">
@@ -4923,20 +4923,20 @@
         <v>35</v>
       </c>
       <c r="B164" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C164" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D164" s="4">
-        <v>82.111958241128406</v>
+        <v>71.202320059426</v>
       </c>
       <c r="E164" s="6">
         <v>20</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="2"/>
-        <v>65.689566592902722</v>
+        <v>56.961856047540799</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="8" t="s">
@@ -4948,20 +4948,20 @@
         <v>36</v>
       </c>
       <c r="B165" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C165" s="9">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D165" s="4">
-        <v>28.709071910112399</v>
+        <v>29.323228869578202</v>
       </c>
       <c r="E165" s="6">
         <v>20</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="2"/>
-        <v>22.96725752808992</v>
+        <v>23.458583095662561</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="8" t="s">
@@ -4973,20 +4973,20 @@
         <v>37</v>
       </c>
       <c r="B166" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C166" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D166" s="4">
-        <v>51.7218390591336</v>
+        <v>50.4444836077557</v>
       </c>
       <c r="E166" s="6">
         <v>20</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="2"/>
-        <v>41.377471247306879</v>
+        <v>40.355586886204563</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="8" t="s">
@@ -4998,20 +4998,20 @@
         <v>38</v>
       </c>
       <c r="B167" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C167" s="9">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D167" s="4">
-        <v>55.651195969893998</v>
+        <v>63.475825425953303</v>
       </c>
       <c r="E167" s="6">
         <v>20</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="2"/>
-        <v>44.520956775915195</v>
+        <v>50.780660340762644</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="8" t="s">
@@ -5023,20 +5023,20 @@
         <v>39</v>
       </c>
       <c r="B168" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C168" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D168" s="4">
-        <v>134.55597635135101</v>
+        <v>136.391982723577</v>
       </c>
       <c r="E168" s="6">
         <v>20</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="2"/>
-        <v>107.64478108108081</v>
+        <v>109.1135861788616</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
@@ -5048,20 +5048,20 @@
         <v>40</v>
       </c>
       <c r="B169" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C169" s="9">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D169" s="4">
-        <v>24.668935131878399</v>
+        <v>22.7581639635515</v>
       </c>
       <c r="E169" s="6">
         <v>20</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="2"/>
-        <v>19.73514810550272</v>
+        <v>18.206531170841199</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="8" t="s">
@@ -5073,20 +5073,20 @@
         <v>41</v>
       </c>
       <c r="B170" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C170" s="9">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D170" s="4">
-        <v>28.685465467239499</v>
+        <v>27.3717045666106</v>
       </c>
       <c r="E170" s="6">
         <v>20</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="2"/>
-        <v>22.948372373791599</v>
+        <v>21.89736365328848</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="8" t="s">
@@ -5098,20 +5098,20 @@
         <v>42</v>
       </c>
       <c r="B171" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C171" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D171" s="4">
-        <v>28.310937500000001</v>
+        <v>32.078083333333403</v>
       </c>
       <c r="E171" s="6">
         <v>20</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="2"/>
-        <v>22.64875</v>
+        <v>25.662466666666724</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="8" t="s">
@@ -5123,20 +5123,20 @@
         <v>43</v>
       </c>
       <c r="B172" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C172" s="9">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D172" s="4">
-        <v>34.597802884615398</v>
+        <v>37.267277343750003</v>
       </c>
       <c r="E172" s="6">
         <v>20</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="2"/>
-        <v>27.678242307692319</v>
+        <v>29.813821875000002</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="8" t="s">
@@ -5148,20 +5148,20 @@
         <v>44</v>
       </c>
       <c r="B173" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C173" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D173" s="4">
-        <v>115.544348273273</v>
+        <v>121.327050118095</v>
       </c>
       <c r="E173" s="6">
         <v>20</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="2"/>
-        <v>92.435478618618404</v>
+        <v>97.061640094476004</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="8" t="s">
@@ -5173,20 +5173,20 @@
         <v>45</v>
       </c>
       <c r="B174" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C174" s="9">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D174" s="4">
-        <v>29.903275942385999</v>
+        <v>24.083633930530802</v>
       </c>
       <c r="E174" s="6">
         <v>20</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="2"/>
-        <v>23.922620753908799</v>
+        <v>19.266907144424643</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="8" t="s">
@@ -5198,20 +5198,20 @@
         <v>46</v>
       </c>
       <c r="B175" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C175" s="9">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D175" s="4">
-        <v>37.066153846153803</v>
+        <v>36.585333333333303</v>
       </c>
       <c r="E175" s="6">
         <v>20</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="2"/>
-        <v>29.652923076923042</v>
+        <v>29.268266666666641</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="8" t="s">
@@ -5223,20 +5223,20 @@
         <v>47</v>
       </c>
       <c r="B176" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C176" s="9">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D176" s="4">
-        <v>79.541402665082899</v>
+        <v>66.520789757562298</v>
       </c>
       <c r="E176" s="6">
         <v>20</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="2"/>
-        <v>63.633122132066319</v>
+        <v>53.21663180604984</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="8" t="s">
@@ -5248,20 +5248,20 @@
         <v>48</v>
       </c>
       <c r="B177" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C177" s="9">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D177" s="4">
-        <v>78.434027126736098</v>
+        <v>66.065149241603507</v>
       </c>
       <c r="E177" s="6">
         <v>20</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="2"/>
-        <v>62.747221701388881</v>
+        <v>52.852119393282806</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="8" t="s">
@@ -5273,20 +5273,20 @@
         <v>49</v>
       </c>
       <c r="B178" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C178" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D178" s="4">
-        <v>46.947067307692301</v>
+        <v>46.833973214285699</v>
       </c>
       <c r="E178" s="6">
         <v>20</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="2"/>
-        <v>37.557653846153841</v>
+        <v>37.467178571428562</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="8" t="s">
@@ -5298,20 +5298,20 @@
         <v>50</v>
       </c>
       <c r="B179" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C179" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D179" s="4">
-        <v>34.772486471861498</v>
+        <v>34.958366666666699</v>
       </c>
       <c r="E179" s="6">
         <v>20</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="2"/>
-        <v>27.817989177489199</v>
+        <v>27.96669333333336</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="8" t="s">
@@ -5323,20 +5323,20 @@
         <v>51</v>
       </c>
       <c r="B180" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C180" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D180" s="4">
-        <v>44.845238095238102</v>
+        <v>45.487352777777801</v>
       </c>
       <c r="E180" s="6">
         <v>20</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="2"/>
-        <v>35.87619047619048</v>
+        <v>36.389882222222241</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="8" t="s">
@@ -5348,20 +5348,20 @@
         <v>52</v>
       </c>
       <c r="B181" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C181" s="9">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D181" s="4">
-        <v>28.137475649350701</v>
+        <v>31.0937916666667</v>
       </c>
       <c r="E181" s="6">
         <v>20</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="2"/>
-        <v>22.50998051948056</v>
+        <v>24.875033333333359</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="8" t="s">
@@ -5373,20 +5373,20 @@
         <v>53</v>
       </c>
       <c r="B182" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C182" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D182" s="4">
-        <v>27.134801211604401</v>
+        <v>28.955813194444499</v>
       </c>
       <c r="E182" s="6">
         <v>20</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="2"/>
-        <v>21.70784096928352</v>
+        <v>23.1646505555556</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="8" t="s">
@@ -5398,20 +5398,20 @@
         <v>54</v>
       </c>
       <c r="B183" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C183" s="9">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D183" s="4">
-        <v>25.7869010224174</v>
+        <v>24.710265146971999</v>
       </c>
       <c r="E183" s="6">
         <v>20</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="2"/>
-        <v>20.629520817933919</v>
+        <v>19.768212117577598</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="8" t="s">
@@ -5423,20 +5423,20 @@
         <v>55</v>
       </c>
       <c r="B184" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C184" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D184" s="4">
-        <v>29.372905003987199</v>
+        <v>30.082779103535401</v>
       </c>
       <c r="E184" s="6">
         <v>20</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="2"/>
-        <v>23.498324003189758</v>
+        <v>24.066223282828322</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="8" t="s">
@@ -5448,20 +5448,20 @@
         <v>56</v>
       </c>
       <c r="B185" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C185" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D185" s="4">
-        <v>31.833244783834601</v>
+        <v>32.9346700177936</v>
       </c>
       <c r="E185" s="6">
         <v>20</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="2"/>
-        <v>25.466595827067682</v>
+        <v>26.347736014234879</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="8" t="s">
@@ -5473,20 +5473,20 @@
         <v>57</v>
       </c>
       <c r="B186" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C186" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D186" s="4">
-        <v>35.767905303030297</v>
+        <v>36.340249557913403</v>
       </c>
       <c r="E186" s="6">
         <v>20</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="2"/>
-        <v>28.614324242424239</v>
+        <v>29.072199646330724</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="8" t="s">
@@ -5498,20 +5498,20 @@
         <v>58</v>
       </c>
       <c r="B187" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C187" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D187" s="4">
-        <v>33.203245687434901</v>
+        <v>39.249717131681898</v>
       </c>
       <c r="E187" s="6">
         <v>20</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="2"/>
-        <v>26.562596549947919</v>
+        <v>31.399773705345517</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="8" t="s">
@@ -5523,20 +5523,20 @@
         <v>59</v>
       </c>
       <c r="B188" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C188" s="9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D188" s="4">
-        <v>42.372193877550998</v>
+        <v>35.747595377332203</v>
       </c>
       <c r="E188" s="6">
         <v>20</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="2"/>
-        <v>33.897755102040797</v>
+        <v>28.598076301865763</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="8" t="s">
@@ -5548,20 +5548,20 @@
         <v>60</v>
       </c>
       <c r="B189" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C189" s="9">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D189" s="4">
-        <v>42.036697368421002</v>
+        <v>41.8106851851852</v>
       </c>
       <c r="E189" s="6">
         <v>20</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="2"/>
-        <v>33.629357894736799</v>
+        <v>33.448548148148163</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="8" t="s">
@@ -5573,20 +5573,20 @@
         <v>61</v>
       </c>
       <c r="B190" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C190" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D190" s="4">
-        <v>42.036697368421002</v>
+        <v>41.8106851851852</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="2"/>
-        <v>33.629357894736799</v>
+        <v>33.448548148148163</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="8" t="s">
@@ -5598,20 +5598,20 @@
         <v>62</v>
       </c>
       <c r="B191" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C191" s="9">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D191" s="4">
-        <v>26.713803290212201</v>
+        <v>29.2276397355249</v>
       </c>
       <c r="E191" s="6">
         <v>20</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="2"/>
-        <v>21.371042632169761</v>
+        <v>23.38211178841992</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="8" t="s">
@@ -5623,16 +5623,20 @@
         <v>63</v>
       </c>
       <c r="B192" s="7">
-        <v>45947</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="4"/>
+        <v>45952</v>
+      </c>
+      <c r="C192" s="9">
+        <v>40</v>
+      </c>
+      <c r="D192" s="4">
+        <v>46.407247826087001</v>
+      </c>
       <c r="E192" s="6">
         <v>20</v>
       </c>
       <c r="F192" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37.125798260869601</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="8" t="s">
@@ -5644,20 +5648,20 @@
         <v>64</v>
       </c>
       <c r="B193" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C193" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D193" s="4">
-        <v>96.549568532818498</v>
+        <v>121.70438910895101</v>
       </c>
       <c r="E193" s="6">
         <v>20</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="2"/>
-        <v>77.239654826254792</v>
+        <v>97.363511287160804</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="8" t="s">
@@ -5669,20 +5673,20 @@
         <v>65</v>
       </c>
       <c r="B194" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C194" s="9">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D194" s="4">
-        <v>33.537220200440998</v>
+        <v>36.531976421847197</v>
       </c>
       <c r="E194" s="6">
         <v>20</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="2"/>
-        <v>26.8297761603528</v>
+        <v>29.225581137477757</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="8" t="s">
@@ -5694,20 +5698,20 @@
         <v>134</v>
       </c>
       <c r="B195" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C195" s="9">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D195" s="4">
-        <v>111.99980555555599</v>
+        <v>111.60568840051801</v>
       </c>
       <c r="E195" s="6">
         <v>20</v>
       </c>
       <c r="F195" s="3">
         <f t="shared" si="2"/>
-        <v>89.599844444444798</v>
+        <v>89.284550720414401</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="8"/>
@@ -5717,20 +5721,20 @@
         <v>133</v>
       </c>
       <c r="B196" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C196" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D196" s="4">
-        <v>27.8946928571429</v>
+        <v>26.323296875</v>
       </c>
       <c r="E196" s="6">
         <v>20</v>
       </c>
       <c r="F196" s="3">
         <f t="shared" ref="F196:F198" si="3">D196-(D196*E196)/100</f>
-        <v>22.31575428571432</v>
+        <v>21.0586375</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
@@ -5740,20 +5744,20 @@
         <v>135</v>
       </c>
       <c r="B197" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C197" s="9">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D197" s="4">
-        <v>37.066153846153803</v>
+        <v>36.585333333333303</v>
       </c>
       <c r="E197" s="6">
         <v>20</v>
       </c>
       <c r="F197" s="3">
         <f t="shared" si="3"/>
-        <v>29.652923076923042</v>
+        <v>29.268266666666641</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
@@ -5763,20 +5767,20 @@
         <v>136</v>
       </c>
       <c r="B198" s="7">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C198" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D198" s="4">
-        <v>40.717745980630703</v>
+        <v>40.986507011603003</v>
       </c>
       <c r="E198" s="6">
         <v>20</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="3"/>
-        <v>32.574196784504565</v>
+        <v>32.789205609282405</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$200</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="141">
   <si>
     <t>Tecnico</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>cyborg.3@hotmail.it</t>
+  </si>
+  <si>
+    <t>IRTE0000005 - ALFONSO ROBERTO</t>
+  </si>
+  <si>
+    <t>IRTE0000112 - PINTALDI ALEX</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
       <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,7 +544,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -545,6 +557,7 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -840,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,7 +1349,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="7">
@@ -1561,7 +1574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7">
@@ -2931,7 +2944,7 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B84" s="7">
@@ -3156,7 +3169,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="7">
@@ -4031,7 +4044,7 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="7">
@@ -4116,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131:F195" si="2">D131-(D131*E131)/100</f>
+        <f t="shared" ref="F131:F196" si="2">D131-(D131*E131)/100</f>
         <v>26.4587</v>
       </c>
       <c r="G131" s="1"/>
@@ -4127,20 +4140,20 @@
         <v>4</v>
       </c>
       <c r="B132" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C132" s="9">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D132" s="4">
-        <v>23.484425867507898</v>
+        <v>23.405858757062099</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>18.787540694006317</v>
+        <v>18.724687005649677</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>67</v>
@@ -4154,20 +4167,20 @@
         <v>5</v>
       </c>
       <c r="B133" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C133" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D133" s="4">
-        <v>31.9332142857143</v>
+        <v>45.767940026595703</v>
       </c>
       <c r="E133" s="6">
         <v>20</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="2"/>
-        <v>25.54657142857144</v>
+        <v>36.614352021276559</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>67</v>
@@ -4178,1615 +4191,1661 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B134" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C134" s="9">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D134" s="4">
-        <v>22.380329975698999</v>
+        <v>143.026170212766</v>
       </c>
       <c r="E134" s="6">
         <v>20</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>17.9042639805592</v>
+        <v>114.4209361702128</v>
       </c>
       <c r="G134" s="1"/>
-      <c r="H134" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B135" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C135" s="9">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D135" s="4">
-        <v>52.972809782608699</v>
+        <v>24.546376670750199</v>
       </c>
       <c r="E135" s="6">
         <v>20</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="2"/>
-        <v>42.378247826086962</v>
+        <v>19.637101336600161</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C136" s="9">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D136" s="4">
-        <v>23.762229730464899</v>
+        <v>55.253440217391301</v>
       </c>
       <c r="E136" s="6">
         <v>20</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>19.009783784371919</v>
+        <v>44.202752173913041</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C137" s="9">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D137" s="4">
-        <v>28.039414340776201</v>
+        <v>29.416705067778601</v>
       </c>
       <c r="E137" s="6">
         <v>20</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="2"/>
-        <v>22.431531472620961</v>
+        <v>23.533364054222879</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C138" s="9">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D138" s="4">
-        <v>27.8095</v>
+        <v>29.510803439479201</v>
       </c>
       <c r="E138" s="6">
         <v>20</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="2"/>
-        <v>22.247599999999998</v>
+        <v>23.608642751583361</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B139" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C139" s="9">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D139" s="4">
-        <v>29.039643274853798</v>
+        <v>27.423697674418602</v>
       </c>
       <c r="E139" s="6">
         <v>20</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="2"/>
-        <v>23.231714619883039</v>
+        <v>21.938958139534883</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B140" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C140" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D140" s="4">
-        <v>58.032376345163001</v>
+        <v>30.393394088669901</v>
       </c>
       <c r="E140" s="6">
         <v>20</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="2"/>
-        <v>46.425901076130401</v>
+        <v>24.31471527093592</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C141" s="9">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D141" s="4">
-        <v>55.952125116442403</v>
+        <v>58.796948733518498</v>
       </c>
       <c r="E141" s="6">
         <v>20</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="2"/>
-        <v>44.76170009315392</v>
+        <v>47.037558986814801</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B142" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C142" s="9">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D142" s="4">
-        <v>35.747595377332203</v>
+        <v>57.657570580764599</v>
       </c>
       <c r="E142" s="6">
         <v>20</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="2"/>
-        <v>28.598076301865763</v>
+        <v>46.126056464611679</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" s="7">
-        <v>45952</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="4"/>
+        <v>45957</v>
+      </c>
+      <c r="C143" s="9">
+        <v>23</v>
+      </c>
+      <c r="D143" s="4">
+        <v>164.14772914971101</v>
+      </c>
       <c r="E143" s="6">
         <v>20</v>
       </c>
       <c r="F143" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>131.31818331976882</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" s="7">
-        <v>45952</v>
-      </c>
-      <c r="C144" s="9">
-        <v>120</v>
-      </c>
-      <c r="D144" s="4">
-        <v>23.3413880904697</v>
-      </c>
+        <v>45957</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="6">
         <v>20</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="2"/>
-        <v>18.673110472375761</v>
+        <v>0</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C145" s="9">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D145" s="4">
-        <v>33.763718538324397</v>
+        <v>29.022520112150001</v>
       </c>
       <c r="E145" s="6">
         <v>20</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="2"/>
-        <v>27.010974830659517</v>
+        <v>23.218016089720003</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B146" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C146" s="9">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D146" s="4">
-        <v>27.938995833333301</v>
+        <v>34.768964616402101</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="2"/>
-        <v>22.351196666666642</v>
+        <v>27.81517169312168</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B147" s="7">
-        <v>45952</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="4"/>
+        <v>45957</v>
+      </c>
+      <c r="C147" s="9">
+        <v>168</v>
+      </c>
+      <c r="D147" s="4">
+        <v>27.9399038461539</v>
+      </c>
       <c r="E147" s="6">
         <v>20</v>
       </c>
       <c r="F147" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.351923076923121</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B148" s="7">
-        <v>45952</v>
-      </c>
-      <c r="C148" s="9">
-        <v>88</v>
-      </c>
-      <c r="D148" s="4">
-        <v>24.329128443966098</v>
-      </c>
+        <v>45957</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="4"/>
       <c r="E148" s="6">
         <v>20</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="2"/>
-        <v>19.463302755172879</v>
+        <v>0</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C149" s="9">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D149" s="4">
-        <v>27.589664657148099</v>
+        <v>24.6593254301138</v>
       </c>
       <c r="E149" s="6">
         <v>20</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="2"/>
-        <v>22.071731725718479</v>
+        <v>19.727460344091039</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B150" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C150" s="9">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D150" s="4">
-        <v>31.8876392356491</v>
+        <v>28.6741042857143</v>
       </c>
       <c r="E150" s="6">
         <v>20</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="2"/>
-        <v>25.510111388519281</v>
+        <v>22.939283428571439</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="1" t="s">
-        <v>23</v>
+      <c r="A151" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B151" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C151" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D151" s="4">
-        <v>30.559908333333301</v>
+        <v>32.238885192546597</v>
       </c>
       <c r="E151" s="6">
         <v>20</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="2"/>
-        <v>24.447926666666639</v>
+        <v>25.791108154037278</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C152" s="9">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D152" s="4">
-        <v>50.485115802048398</v>
+        <v>30.473182142857102</v>
       </c>
       <c r="E152" s="6">
         <v>20</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="2"/>
-        <v>40.388092641638721</v>
+        <v>24.378545714285682</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B153" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C153" s="9">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D153" s="4">
-        <v>34.1655235053654</v>
+        <v>57.497388208608903</v>
       </c>
       <c r="E153" s="6">
         <v>20</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="2"/>
-        <v>27.33241880429232</v>
+        <v>45.997910566887121</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B154" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C154" s="9">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D154" s="4">
-        <v>31.1678414548856</v>
+        <v>36.405158501020701</v>
       </c>
       <c r="E154" s="6">
         <v>20</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="2"/>
-        <v>24.934273163908479</v>
+        <v>29.124126800816562</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B155" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C155" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D155" s="4">
-        <v>39.393967826391901</v>
+        <v>31.892710166193801</v>
       </c>
       <c r="E155" s="6">
         <v>20</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="2"/>
-        <v>31.515174261113522</v>
+        <v>25.514168132955042</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B156" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C156" s="9">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D156" s="4">
-        <v>146.95989024390201</v>
+        <v>40.496605720737499</v>
       </c>
       <c r="E156" s="6">
         <v>20</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="2"/>
-        <v>117.56791219512161</v>
+        <v>32.397284576589996</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B157" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C157" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D157" s="4">
-        <v>38.147370689655197</v>
+        <v>143.026170212766</v>
       </c>
       <c r="E157" s="6">
         <v>20</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="2"/>
-        <v>30.517896551724156</v>
+        <v>114.4209361702128</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B158" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C158" s="9">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D158" s="4">
-        <v>22.4165499096834</v>
+        <v>38.0971785714286</v>
       </c>
       <c r="E158" s="6">
         <v>20</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="2"/>
-        <v>17.933239927746719</v>
+        <v>30.477742857142879</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B159" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C159" s="9">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D159" s="4">
-        <v>40.213982070950799</v>
+        <v>24.565155556014801</v>
       </c>
       <c r="E159" s="6">
         <v>20</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="2"/>
-        <v>32.171185656760642</v>
+        <v>19.65212444481184</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="8" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B160" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C160" s="9">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D160" s="4">
-        <v>40.062459067785198</v>
+        <v>40.438494996396599</v>
       </c>
       <c r="E160" s="6">
         <v>20</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="2"/>
-        <v>32.049967254228157</v>
+        <v>32.350795997117281</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="8" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="1" t="s">
-        <v>32</v>
+      <c r="A161" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B161" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C161" s="9">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D161" s="4">
-        <v>64.567901082233107</v>
+        <v>40.924182463762797</v>
       </c>
       <c r="E161" s="6">
         <v>20</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="2"/>
-        <v>51.654320865786488</v>
+        <v>32.739345971010238</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B162" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C162" s="9">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D162" s="4">
-        <v>26.024028472222199</v>
+        <v>61.6884391169189</v>
       </c>
       <c r="E162" s="6">
         <v>20</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="2"/>
-        <v>20.81922277777776</v>
+        <v>49.350751293535119</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B163" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C163" s="9">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="D163" s="4">
-        <v>37.645438755559397</v>
+        <v>26.737228693181802</v>
       </c>
       <c r="E163" s="6">
         <v>20</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="2"/>
-        <v>30.116351004447516</v>
+        <v>21.389782954545442</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C164" s="9">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D164" s="4">
-        <v>71.202320059426</v>
+        <v>38.877137464030397</v>
       </c>
       <c r="E164" s="6">
         <v>20</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="2"/>
-        <v>56.961856047540799</v>
+        <v>31.101709971224317</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B165" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C165" s="9">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D165" s="4">
-        <v>29.323228869578202</v>
+        <v>84.797902080098396</v>
       </c>
       <c r="E165" s="6">
         <v>20</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="2"/>
-        <v>23.458583095662561</v>
+        <v>67.83832166407872</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B166" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C166" s="9">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D166" s="4">
-        <v>50.4444836077557</v>
+        <v>28.527083389962801</v>
       </c>
       <c r="E166" s="6">
         <v>20</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="2"/>
-        <v>40.355586886204563</v>
+        <v>22.821666711970241</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B167" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C167" s="9">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D167" s="4">
-        <v>63.475825425953303</v>
+        <v>60.166545304890803</v>
       </c>
       <c r="E167" s="6">
         <v>20</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="2"/>
-        <v>50.780660340762644</v>
+        <v>48.133236243912641</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B168" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C168" s="9">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D168" s="4">
-        <v>136.391982723577</v>
+        <v>60.993662368152201</v>
       </c>
       <c r="E168" s="6">
         <v>20</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="2"/>
-        <v>109.1135861788616</v>
+        <v>48.794929894521758</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C169" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D169" s="4">
-        <v>22.7581639635515</v>
+        <v>127.952785274932</v>
       </c>
       <c r="E169" s="6">
         <v>20</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="2"/>
-        <v>18.206531170841199</v>
+        <v>102.36222821994559</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B170" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C170" s="9">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D170" s="4">
-        <v>27.3717045666106</v>
+        <v>24.7439829621384</v>
       </c>
       <c r="E170" s="6">
         <v>20</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="2"/>
-        <v>21.89736365328848</v>
+        <v>19.79518636971072</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B171" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C171" s="9">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D171" s="4">
-        <v>32.078083333333403</v>
+        <v>30.5238563954765</v>
       </c>
       <c r="E171" s="6">
         <v>20</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="2"/>
-        <v>25.662466666666724</v>
+        <v>24.419085116381201</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B172" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C172" s="9">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D172" s="4">
-        <v>37.267277343750003</v>
+        <v>34.672134210526302</v>
       </c>
       <c r="E172" s="6">
         <v>20</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="2"/>
-        <v>29.813821875000002</v>
+        <v>27.737707368421042</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B173" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C173" s="9">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D173" s="4">
-        <v>121.327050118095</v>
+        <v>37.8538</v>
       </c>
       <c r="E173" s="6">
         <v>20</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="2"/>
-        <v>97.061640094476004</v>
+        <v>30.28304</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B174" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C174" s="9">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D174" s="4">
-        <v>24.083633930530802</v>
+        <v>119.0881529413</v>
       </c>
       <c r="E174" s="6">
         <v>20</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="2"/>
-        <v>19.266907144424643</v>
+        <v>95.270522353039993</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B175" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C175" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D175" s="4">
-        <v>36.585333333333303</v>
+        <v>24.737093539682402</v>
       </c>
       <c r="E175" s="6">
         <v>20</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="2"/>
-        <v>29.268266666666641</v>
+        <v>19.78967483174592</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="8" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B176" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C176" s="9">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D176" s="4">
-        <v>66.520789757562298</v>
+        <v>46.686317567567599</v>
       </c>
       <c r="E176" s="6">
         <v>20</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="2"/>
-        <v>53.21663180604984</v>
+        <v>37.349054054054079</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C177" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D177" s="4">
-        <v>66.065149241603507</v>
+        <v>86.741216864001004</v>
       </c>
       <c r="E177" s="6">
         <v>20</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="2"/>
-        <v>52.852119393282806</v>
+        <v>69.392973491200806</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="8" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B178" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C178" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D178" s="4">
-        <v>46.833973214285699</v>
+        <v>83.828793746109397</v>
       </c>
       <c r="E178" s="6">
         <v>20</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="2"/>
-        <v>37.467178571428562</v>
+        <v>67.063034996887524</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="8" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B179" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C179" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D179" s="4">
-        <v>34.958366666666699</v>
+        <v>45.589440789473599</v>
       </c>
       <c r="E179" s="6">
         <v>20</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="2"/>
-        <v>27.96669333333336</v>
+        <v>36.471552631578881</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B180" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C180" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D180" s="4">
-        <v>45.487352777777801</v>
+        <v>35.371537396121902</v>
       </c>
       <c r="E180" s="6">
         <v>20</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="2"/>
-        <v>36.389882222222241</v>
+        <v>28.297229916897521</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B181" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C181" s="9">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D181" s="4">
-        <v>31.0937916666667</v>
+        <v>44.800876038781098</v>
       </c>
       <c r="E181" s="6">
         <v>20</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="2"/>
-        <v>24.875033333333359</v>
+        <v>35.840700831024876</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B182" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C182" s="9">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D182" s="4">
-        <v>28.955813194444499</v>
+        <v>32.989123961218802</v>
       </c>
       <c r="E182" s="6">
         <v>20</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="2"/>
-        <v>23.1646505555556</v>
+        <v>26.391299168975042</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B183" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C183" s="9">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="D183" s="4">
-        <v>24.710265146971999</v>
+        <v>27.7838885082387</v>
       </c>
       <c r="E183" s="6">
         <v>20</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="2"/>
-        <v>19.768212117577598</v>
+        <v>22.227110806590961</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B184" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C184" s="9">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D184" s="4">
-        <v>30.082779103535401</v>
+        <v>30.1912194353981</v>
       </c>
       <c r="E184" s="6">
         <v>20</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="2"/>
-        <v>24.066223282828322</v>
+        <v>24.15297554831848</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B185" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C185" s="9">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D185" s="4">
-        <v>32.9346700177936</v>
+        <v>31.171209075516199</v>
       </c>
       <c r="E185" s="6">
         <v>20</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="2"/>
-        <v>26.347736014234879</v>
+        <v>24.93696726041296</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B186" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C186" s="9">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D186" s="4">
-        <v>36.340249557913403</v>
+        <v>33.348073423913</v>
       </c>
       <c r="E186" s="6">
         <v>20</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="2"/>
-        <v>29.072199646330724</v>
+        <v>26.678458739130399</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B187" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C187" s="9">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D187" s="4">
-        <v>39.249717131681898</v>
+        <v>38.280663644405102</v>
       </c>
       <c r="E187" s="6">
         <v>20</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="2"/>
-        <v>31.399773705345517</v>
+        <v>30.624530915524083</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B188" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C188" s="9">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="D188" s="4">
-        <v>35.747595377332203</v>
+        <v>41.106783786674796</v>
       </c>
       <c r="E188" s="6">
         <v>20</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="2"/>
-        <v>28.598076301865763</v>
+        <v>32.885427029339837</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B189" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C189" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D189" s="4">
-        <v>41.8106851851852</v>
+        <v>164.14772914971101</v>
       </c>
       <c r="E189" s="6">
         <v>20</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="2"/>
-        <v>33.448548148148163</v>
+        <v>131.31818331976882</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B190" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C190" s="9">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D190" s="4">
-        <v>41.8106851851852</v>
+        <v>43.279424242424199</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="2"/>
-        <v>33.448548148148163</v>
+        <v>34.62353939393936</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B191" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C191" s="9">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D191" s="4">
-        <v>29.2276397355249</v>
+        <v>43.279424242424199</v>
       </c>
       <c r="E191" s="6">
         <v>20</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="2"/>
-        <v>23.38211178841992</v>
+        <v>34.62353939393936</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B192" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C192" s="9">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="D192" s="4">
-        <v>46.407247826087001</v>
+        <v>30.721294219684399</v>
       </c>
       <c r="E192" s="6">
         <v>20</v>
       </c>
       <c r="F192" s="3">
         <f t="shared" si="2"/>
-        <v>37.125798260869601</v>
+        <v>24.577035375747521</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B193" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C193" s="9">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D193" s="4">
-        <v>121.70438910895101</v>
+        <v>51.535427173913099</v>
       </c>
       <c r="E193" s="6">
         <v>20</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="2"/>
-        <v>97.363511287160804</v>
+        <v>41.228341739130478</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B194" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C194" s="9">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D194" s="4">
-        <v>36.531976421847197</v>
+        <v>120.773862073457</v>
       </c>
       <c r="E194" s="6">
         <v>20</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="2"/>
-        <v>29.225581137477757</v>
+        <v>96.619089658765603</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C195" s="9">
+        <v>168</v>
+      </c>
+      <c r="D195" s="4">
+        <v>37.264659877027697</v>
+      </c>
+      <c r="E195" s="6">
+        <v>20</v>
+      </c>
+      <c r="F195" s="3">
+        <f t="shared" si="2"/>
+        <v>29.811727901622156</v>
+      </c>
+      <c r="G195" s="1"/>
+      <c r="H195" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B195" s="7">
-        <v>45952</v>
-      </c>
-      <c r="C195" s="9">
-        <v>116</v>
-      </c>
-      <c r="D195" s="4">
-        <v>111.60568840051801</v>
-      </c>
-      <c r="E195" s="6">
-        <v>20</v>
-      </c>
-      <c r="F195" s="3">
-        <f t="shared" si="2"/>
-        <v>89.284550720414401</v>
-      </c>
-      <c r="G195" s="1"/>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="B196" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C196" s="9">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D196" s="4">
-        <v>26.323296875</v>
+        <v>108.266729710902</v>
       </c>
       <c r="E196" s="6">
         <v>20</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" ref="F196:F198" si="3">D196-(D196*E196)/100</f>
-        <v>21.0586375</v>
+        <f t="shared" si="2"/>
+        <v>86.613383768721604</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B197" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C197" s="9">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D197" s="4">
-        <v>36.585333333333303</v>
+        <v>29.8303041666667</v>
       </c>
       <c r="E197" s="6">
         <v>20</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" si="3"/>
-        <v>29.268266666666641</v>
+        <f t="shared" ref="F197:F199" si="3">D197-(D197*E197)/100</f>
+        <v>23.864243333333359</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B198" s="7">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C198" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D198" s="4">
-        <v>40.986507011603003</v>
+        <v>46.686317567567599</v>
       </c>
       <c r="E198" s="6">
         <v>20</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="3"/>
-        <v>32.789205609282405</v>
+        <v>37.349054054054079</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>
     </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B199" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C199" s="9">
+        <v>152</v>
+      </c>
+      <c r="D199" s="4">
+        <v>37.557839125653103</v>
+      </c>
+      <c r="E199" s="6">
+        <v>20</v>
+      </c>
+      <c r="F199" s="3">
+        <f t="shared" si="3"/>
+        <v>30.046271300522484</v>
+      </c>
+      <c r="G199" s="1"/>
+      <c r="H199" s="8"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B200" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C200" s="9">
+        <v>8</v>
+      </c>
+      <c r="D200" s="4">
+        <v>31.246849999999998</v>
+      </c>
+      <c r="E200" s="6">
+        <v>20</v>
+      </c>
+      <c r="F200" s="3">
+        <f t="shared" ref="F200" si="4">D200-(D200*E200)/100</f>
+        <v>24.997479999999999</v>
+      </c>
+      <c r="G200" s="1"/>
+      <c r="H200" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G64"/>
+  <autoFilter ref="A1:G200"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
@@ -5917,67 +5976,67 @@
     <hyperlink ref="G132" r:id="rId127"/>
     <hyperlink ref="H132" r:id="rId128"/>
     <hyperlink ref="H133" r:id="rId129"/>
-    <hyperlink ref="H134" r:id="rId130"/>
-    <hyperlink ref="H135" r:id="rId131"/>
-    <hyperlink ref="H136" r:id="rId132"/>
-    <hyperlink ref="H137" r:id="rId133"/>
-    <hyperlink ref="H138" r:id="rId134"/>
-    <hyperlink ref="H139" r:id="rId135"/>
-    <hyperlink ref="H140" r:id="rId136"/>
-    <hyperlink ref="H141" r:id="rId137"/>
-    <hyperlink ref="H142" r:id="rId138"/>
-    <hyperlink ref="H143" r:id="rId139"/>
-    <hyperlink ref="H144" r:id="rId140"/>
-    <hyperlink ref="H145" r:id="rId141"/>
-    <hyperlink ref="H146" r:id="rId142"/>
-    <hyperlink ref="H147" r:id="rId143"/>
-    <hyperlink ref="H148" r:id="rId144"/>
-    <hyperlink ref="H149" r:id="rId145"/>
-    <hyperlink ref="H150" r:id="rId146"/>
-    <hyperlink ref="H151" r:id="rId147"/>
-    <hyperlink ref="H152" r:id="rId148"/>
-    <hyperlink ref="H153" r:id="rId149"/>
-    <hyperlink ref="H154" r:id="rId150"/>
-    <hyperlink ref="H155" r:id="rId151"/>
-    <hyperlink ref="H156" r:id="rId152"/>
-    <hyperlink ref="H157" r:id="rId153"/>
-    <hyperlink ref="H158" r:id="rId154"/>
-    <hyperlink ref="H160" r:id="rId155"/>
-    <hyperlink ref="H161" r:id="rId156"/>
-    <hyperlink ref="H162" r:id="rId157"/>
-    <hyperlink ref="H163" r:id="rId158"/>
-    <hyperlink ref="H164" r:id="rId159"/>
-    <hyperlink ref="H165" r:id="rId160"/>
-    <hyperlink ref="H166" r:id="rId161"/>
-    <hyperlink ref="H167" r:id="rId162"/>
-    <hyperlink ref="H168" r:id="rId163"/>
-    <hyperlink ref="H169" r:id="rId164"/>
-    <hyperlink ref="H170" r:id="rId165"/>
-    <hyperlink ref="H171" r:id="rId166"/>
-    <hyperlink ref="H172" r:id="rId167"/>
-    <hyperlink ref="H173" r:id="rId168"/>
-    <hyperlink ref="H174" r:id="rId169"/>
-    <hyperlink ref="H175" r:id="rId170"/>
-    <hyperlink ref="H176" r:id="rId171"/>
-    <hyperlink ref="H177" r:id="rId172"/>
-    <hyperlink ref="H178" r:id="rId173"/>
-    <hyperlink ref="H179" r:id="rId174"/>
-    <hyperlink ref="H180" r:id="rId175"/>
-    <hyperlink ref="H181" r:id="rId176"/>
-    <hyperlink ref="H182" r:id="rId177"/>
-    <hyperlink ref="H183" r:id="rId178"/>
-    <hyperlink ref="H184" r:id="rId179"/>
-    <hyperlink ref="H185" r:id="rId180"/>
-    <hyperlink ref="H186" r:id="rId181"/>
-    <hyperlink ref="H187" r:id="rId182"/>
-    <hyperlink ref="H188" r:id="rId183"/>
-    <hyperlink ref="H189" r:id="rId184"/>
-    <hyperlink ref="H190" r:id="rId185"/>
-    <hyperlink ref="H191" r:id="rId186"/>
-    <hyperlink ref="H192" r:id="rId187"/>
-    <hyperlink ref="H193" r:id="rId188"/>
-    <hyperlink ref="H194" r:id="rId189"/>
-    <hyperlink ref="H159" r:id="rId190" display="mailto:cyborg.3@hotmail.it"/>
+    <hyperlink ref="H135" r:id="rId130"/>
+    <hyperlink ref="H136" r:id="rId131"/>
+    <hyperlink ref="H137" r:id="rId132"/>
+    <hyperlink ref="H138" r:id="rId133"/>
+    <hyperlink ref="H139" r:id="rId134"/>
+    <hyperlink ref="H140" r:id="rId135"/>
+    <hyperlink ref="H141" r:id="rId136"/>
+    <hyperlink ref="H142" r:id="rId137"/>
+    <hyperlink ref="H143" r:id="rId138"/>
+    <hyperlink ref="H144" r:id="rId139"/>
+    <hyperlink ref="H145" r:id="rId140"/>
+    <hyperlink ref="H146" r:id="rId141"/>
+    <hyperlink ref="H147" r:id="rId142"/>
+    <hyperlink ref="H148" r:id="rId143"/>
+    <hyperlink ref="H149" r:id="rId144"/>
+    <hyperlink ref="H150" r:id="rId145"/>
+    <hyperlink ref="H151" r:id="rId146"/>
+    <hyperlink ref="H152" r:id="rId147"/>
+    <hyperlink ref="H153" r:id="rId148"/>
+    <hyperlink ref="H154" r:id="rId149"/>
+    <hyperlink ref="H155" r:id="rId150"/>
+    <hyperlink ref="H156" r:id="rId151"/>
+    <hyperlink ref="H157" r:id="rId152"/>
+    <hyperlink ref="H158" r:id="rId153"/>
+    <hyperlink ref="H159" r:id="rId154"/>
+    <hyperlink ref="H161" r:id="rId155"/>
+    <hyperlink ref="H162" r:id="rId156"/>
+    <hyperlink ref="H163" r:id="rId157"/>
+    <hyperlink ref="H164" r:id="rId158"/>
+    <hyperlink ref="H165" r:id="rId159"/>
+    <hyperlink ref="H166" r:id="rId160"/>
+    <hyperlink ref="H167" r:id="rId161"/>
+    <hyperlink ref="H168" r:id="rId162"/>
+    <hyperlink ref="H169" r:id="rId163"/>
+    <hyperlink ref="H170" r:id="rId164"/>
+    <hyperlink ref="H171" r:id="rId165"/>
+    <hyperlink ref="H172" r:id="rId166"/>
+    <hyperlink ref="H173" r:id="rId167"/>
+    <hyperlink ref="H174" r:id="rId168"/>
+    <hyperlink ref="H175" r:id="rId169"/>
+    <hyperlink ref="H176" r:id="rId170"/>
+    <hyperlink ref="H177" r:id="rId171"/>
+    <hyperlink ref="H178" r:id="rId172"/>
+    <hyperlink ref="H179" r:id="rId173"/>
+    <hyperlink ref="H180" r:id="rId174"/>
+    <hyperlink ref="H181" r:id="rId175"/>
+    <hyperlink ref="H182" r:id="rId176"/>
+    <hyperlink ref="H183" r:id="rId177"/>
+    <hyperlink ref="H184" r:id="rId178"/>
+    <hyperlink ref="H185" r:id="rId179"/>
+    <hyperlink ref="H186" r:id="rId180"/>
+    <hyperlink ref="H187" r:id="rId181"/>
+    <hyperlink ref="H188" r:id="rId182"/>
+    <hyperlink ref="H189" r:id="rId183"/>
+    <hyperlink ref="H190" r:id="rId184"/>
+    <hyperlink ref="H191" r:id="rId185"/>
+    <hyperlink ref="H192" r:id="rId186"/>
+    <hyperlink ref="H193" r:id="rId187"/>
+    <hyperlink ref="H194" r:id="rId188"/>
+    <hyperlink ref="H195" r:id="rId189"/>
+    <hyperlink ref="H160" r:id="rId190" display="mailto:cyborg.3@hotmail.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$272</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="143">
   <si>
     <t>Tecnico</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>IRTE0000112 - PINTALDI ALEX</t>
+  </si>
+  <si>
+    <t>IRTE0000051 - RANDO PAOLO</t>
+  </si>
+  <si>
+    <t>IRTE0000054 - RUSSO MATTEO</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,16 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -853,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,20 +914,20 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C2" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D2" s="4">
-        <v>29.443330038759701</v>
+        <v>35.828451327433598</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F64" si="0">D2-(D2*E2)/100</f>
-        <v>23.554664031007761</v>
+        <f t="shared" ref="F2:F70" si="0">D2-(D2*E2)/100</f>
+        <v>28.662761061946878</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>67</v>
@@ -926,20 +941,20 @@
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C3" s="9">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4">
-        <v>37.471191269757803</v>
+        <v>30.894148854961799</v>
       </c>
       <c r="E3" s="6">
         <v>20</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>29.976953015806242</v>
+        <v>24.71531908396944</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
@@ -950,5093 +965,6911 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B4" s="7">
-        <v>45900</v>
-      </c>
-      <c r="C4" s="9">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4">
-        <v>35.873228451258399</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>28.698582761006719</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C5" s="9">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4">
-        <v>38.767588703437603</v>
+        <v>36.513907645728501</v>
       </c>
       <c r="E5" s="6">
         <v>20</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>31.014070962750083</v>
+        <v>29.2111261165828</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C6" s="9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4">
-        <v>33.901364035087703</v>
+        <v>99.829107420822197</v>
       </c>
       <c r="E6" s="6">
         <v>20</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>27.121091228070163</v>
+        <v>79.863285936657761</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C7" s="9">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4">
-        <v>33.8106152355397</v>
+        <v>22.14223046875</v>
       </c>
       <c r="E7" s="6">
         <v>20</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>27.048492188431759</v>
+        <v>17.713784374999999</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C8" s="9">
         <v>104</v>
       </c>
       <c r="D8" s="4">
-        <v>42.480804999999997</v>
+        <v>31.6033514667667</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>33.984643999999996</v>
+        <v>25.282681173413359</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C9" s="9">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4">
-        <v>33.410398368160898</v>
+        <v>50.9156714285714</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>26.728318694528717</v>
+        <v>40.732537142857119</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C10" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4">
-        <v>56.036142410714298</v>
+        <v>28.598950108459899</v>
       </c>
       <c r="E10" s="6">
         <v>20</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>44.828913928571438</v>
+        <v>22.879160086767918</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C11" s="9">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="D11" s="4">
-        <v>57.025137581168799</v>
+        <v>50.768685905223798</v>
       </c>
       <c r="E11" s="6">
         <v>20</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>45.620110064935041</v>
+        <v>40.614948724179037</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C12" s="9">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4">
-        <v>41.678208919916798</v>
+        <v>50.6234542272244</v>
       </c>
       <c r="E12" s="6">
         <v>20</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>33.342567135933436</v>
+        <v>40.498763381779519</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C13" s="9">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4">
-        <v>49.833428893489803</v>
+        <v>30.894148854961799</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>39.866743114791845</v>
+        <v>24.71531908396944</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C14" s="9">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="D14" s="4">
-        <v>33.901364035087703</v>
+        <v>46.128915635294199</v>
       </c>
       <c r="E14" s="6">
         <v>20</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>27.121091228070163</v>
+        <v>36.903132508235359</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C15" s="9">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D15" s="4">
-        <v>35.231900000000003</v>
+        <v>22.4244914366062</v>
       </c>
       <c r="E15" s="6">
         <v>20</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>28.185520000000004</v>
+        <v>17.93959314928496</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C16" s="9">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4">
-        <v>32.917370689655201</v>
+        <v>83.834125</v>
       </c>
       <c r="E16" s="6">
         <v>20</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>26.333896551724159</v>
+        <v>67.067300000000003</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C17" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4">
-        <v>50.621781176790499</v>
+        <v>38.357349999999997</v>
       </c>
       <c r="E17" s="6">
         <v>20</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>40.497424941432399</v>
+        <v>30.685879999999997</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C18" s="9">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4">
-        <v>29.428291115808801</v>
+        <v>38.182441082623697</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>23.542632892647042</v>
+        <v>30.545952866098958</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C19" s="9">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D19" s="4">
-        <v>33.143076233592602</v>
+        <v>34.371798452159403</v>
       </c>
       <c r="E19" s="6">
         <v>20</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>26.514460986874081</v>
+        <v>27.497438761727523</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
+      <c r="A20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="7">
-        <v>45900</v>
-      </c>
-      <c r="C20" s="9">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4">
-        <v>50.7137183306141</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="6">
         <v>20</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>40.570974664491281</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+      <c r="A21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C21" s="9">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D21" s="4">
-        <v>35.228261827458297</v>
+        <v>38.182441082623697</v>
       </c>
       <c r="E21" s="6">
         <v>20</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>28.182609461966639</v>
+        <v>30.545952866098958</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C22" s="9">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4">
-        <v>50.631631236291803</v>
+        <v>172.30962500000001</v>
       </c>
       <c r="E22" s="6">
         <v>20</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>40.505304989033441</v>
+        <v>137.8477</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+      <c r="A23" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C23" s="9">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D23" s="4">
-        <v>42.774616084751898</v>
+        <v>45.070199208174799</v>
       </c>
       <c r="E23" s="6">
         <v>20</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>34.21969286780152</v>
+        <v>36.056159366539838</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C24" s="9">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D24" s="4">
-        <v>33.827031536293198</v>
+        <v>45.606655574988302</v>
       </c>
       <c r="E24" s="6">
         <v>20</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>27.061625229034558</v>
+        <v>36.485324459990643</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C25" s="9">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D25" s="4">
-        <v>54.794365825797101</v>
+        <v>29.2405328160946</v>
       </c>
       <c r="E25" s="6">
         <v>20</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>43.835492660637684</v>
+        <v>23.39242625287568</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
+      <c r="A26" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C26" s="9">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D26" s="4">
-        <v>63.300873226190497</v>
+        <v>42.672372697255597</v>
       </c>
       <c r="E26" s="6">
         <v>20</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>50.640698580952396</v>
+        <v>34.137898157804479</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C27" s="9">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D27" s="4">
-        <v>35.9104838079122</v>
+        <v>80.883236154020906</v>
       </c>
       <c r="E27" s="6">
         <v>20</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>28.728387046329761</v>
+        <v>64.706588923216728</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C28" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4">
-        <v>36.147401980316403</v>
+        <v>467.7003125</v>
       </c>
       <c r="E28" s="6">
         <v>20</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>28.917921584253122</v>
+        <v>374.16025000000002</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
-        <v>31</v>
+      <c r="A29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C29" s="9">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="D29" s="4">
-        <v>55.133829571613298</v>
+        <v>22.015570720638198</v>
       </c>
       <c r="E29" s="6">
         <v>20</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>44.107063657290638</v>
+        <v>17.61245657651056</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B30" s="7">
-        <v>45900</v>
-      </c>
-      <c r="C30" s="9">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4">
-        <v>65.598487654321005</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="6">
         <v>20</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>52.478790123456804</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
+      <c r="A31" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C31" s="9">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4">
-        <v>38.993916666666699</v>
+        <v>42.6380592368821</v>
       </c>
       <c r="E31" s="6">
         <v>20</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>31.195133333333359</v>
+        <v>34.11044738950568</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="8" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C32" s="9">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D32" s="4">
-        <v>43.648220252569899</v>
+        <v>54.330377651209702</v>
       </c>
       <c r="E32" s="6">
         <v>20</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>34.918576202055917</v>
+        <v>43.464302120967758</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B33" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C33" s="9">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4">
-        <v>49.817302907696998</v>
+        <v>28.598950108459899</v>
       </c>
       <c r="E33" s="6">
         <v>20</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>39.853842326157597</v>
+        <v>22.879160086767918</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C34" s="9">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4">
-        <v>39.548839420416499</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
+        <v>51.365650000000002</v>
+      </c>
+      <c r="E34" s="6">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>41.09252</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C35" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4">
-        <v>35.366809782608698</v>
+        <v>45.797037039018797</v>
       </c>
       <c r="E35" s="6">
         <v>20</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>28.293447826086958</v>
+        <v>36.637629631215034</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B36" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C36" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4">
-        <v>49.989056165476498</v>
+        <v>64.207062500000006</v>
       </c>
       <c r="E36" s="6">
         <v>20</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>39.9912449323812</v>
+        <v>51.365650000000002</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C37" s="9">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4">
-        <v>66.910549107142899</v>
+        <v>46.192223907367101</v>
       </c>
       <c r="E37" s="6">
         <v>20</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>53.52843928571432</v>
+        <v>36.953779125893682</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B38" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C38" s="9">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4">
-        <v>62.975282023377297</v>
+        <v>28.026484374999999</v>
       </c>
       <c r="E38" s="6">
         <v>20</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>50.380225618701836</v>
+        <v>22.421187499999998</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45869</v>
+      </c>
+      <c r="C39" s="9">
         <v>40</v>
       </c>
-      <c r="B39" s="7">
-        <v>45900</v>
-      </c>
-      <c r="C39" s="9">
-        <v>88</v>
-      </c>
       <c r="D39" s="4">
-        <v>36.858174027143399</v>
+        <v>30.58775</v>
       </c>
       <c r="E39" s="6">
         <v>20</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>29.486539221714718</v>
+        <v>24.470199999999998</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
+      <c r="A40" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B40" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C40" s="9">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="D40" s="4">
-        <v>43.032317067420998</v>
+        <v>45.070199208174799</v>
       </c>
       <c r="E40" s="6">
         <v>20</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="0"/>
-        <v>34.425853653936798</v>
+        <v>36.056159366539838</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C41" s="9">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="D41" s="4">
-        <v>35.906135714285703</v>
+        <v>54.220901757286001</v>
       </c>
       <c r="E41" s="6">
         <v>20</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="0"/>
-        <v>28.724908571428564</v>
+        <v>43.376721405828803</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C42" s="9">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D42" s="4">
-        <v>40.199076704545497</v>
+        <v>80.883236154020906</v>
       </c>
       <c r="E42" s="6">
         <v>20</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="0"/>
-        <v>32.159261363636396</v>
+        <v>64.706588923216728</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C43" s="9">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="D43" s="4">
-        <v>55.735333333333301</v>
+        <v>22.130669593411401</v>
       </c>
       <c r="E43" s="6">
         <v>20</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="0"/>
-        <v>44.588266666666641</v>
+        <v>17.704535674729122</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C44" s="9">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4">
-        <v>30.8341437850064</v>
+        <v>28.026484374999999</v>
       </c>
       <c r="E44" s="6">
         <v>20</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
-        <v>24.66731502800512</v>
+        <v>22.421187499999998</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C45" s="9">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="D45" s="4">
-        <v>34.819682315967803</v>
+        <v>39.844905595996401</v>
       </c>
       <c r="E45" s="6">
         <v>20</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="0"/>
-        <v>27.855745852774241</v>
+        <v>31.87592447679712</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C46" s="9">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4">
-        <v>49.269868126838801</v>
+        <v>34.373044642857202</v>
       </c>
       <c r="E46" s="6">
         <v>20</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="0"/>
-        <v>39.415894501471044</v>
+        <v>27.498435714285762</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C47" s="9">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4">
-        <v>49.269868126838801</v>
+        <v>73.458750070305996</v>
       </c>
       <c r="E47" s="6">
         <v>20</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="0"/>
-        <v>39.415894501471044</v>
+        <v>58.767000056244797</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C48" s="9">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D48" s="4">
-        <v>38.888214285714199</v>
+        <v>34.377331339722303</v>
       </c>
       <c r="E48" s="6">
         <v>20</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="0"/>
-        <v>31.110571428571358</v>
+        <v>27.501865071777843</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C49" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D49" s="4">
-        <v>37.0796970731474</v>
+        <v>181.36562499999999</v>
       </c>
       <c r="E49" s="6">
         <v>20</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="0"/>
-        <v>29.66375765851792</v>
+        <v>145.0925</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
+      <c r="A50" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B50" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C50" s="9">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="D50" s="4">
-        <v>40.680184210526299</v>
+        <v>49.543563829787203</v>
       </c>
       <c r="E50" s="6">
         <v>20</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="0"/>
-        <v>32.544147368421037</v>
+        <v>39.634851063829764</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
+      <c r="A51" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B51" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C51" s="9">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D51" s="4">
-        <v>39.904647620700104</v>
+        <v>49.543563829787203</v>
       </c>
       <c r="E51" s="6">
         <v>20</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="0"/>
-        <v>31.923718096560084</v>
+        <v>39.634851063829764</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C52" s="9">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="D52" s="4">
-        <v>35.748658582615001</v>
+        <v>594.66250000000002</v>
       </c>
       <c r="E52" s="6">
         <v>20</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="0"/>
-        <v>28.598926866092</v>
+        <v>475.73</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C53" s="9">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4">
-        <v>35.489615384615398</v>
+        <v>1203.28125</v>
       </c>
       <c r="E53" s="6">
         <v>20</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="0"/>
-        <v>28.391692307692317</v>
+        <v>962.625</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C54" s="9">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4">
-        <v>37.692864038656097</v>
+        <v>594.66250000000002</v>
       </c>
       <c r="E54" s="6">
         <v>20</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="0"/>
-        <v>30.154291230924876</v>
+        <v>475.73</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C55" s="9">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4">
-        <v>35.489615384615398</v>
+        <v>181.36562499999999</v>
       </c>
       <c r="E55" s="6">
         <v>20</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="0"/>
-        <v>28.391692307692317</v>
+        <v>145.0925</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C56" s="9">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="D56" s="4">
-        <v>35.756832265699899</v>
+        <v>43.074697857142901</v>
       </c>
       <c r="E56" s="6">
         <v>20</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="0"/>
-        <v>28.60546581255992</v>
+        <v>34.459758285714322</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C57" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D57" s="4">
-        <v>39.940754471405803</v>
+        <v>286.21479411764699</v>
       </c>
       <c r="E57" s="6">
         <v>20</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="0"/>
-        <v>31.952603577124641</v>
+        <v>228.9718352941176</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C58" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D58" s="4">
-        <v>103.419017857143</v>
+        <v>105.3334875</v>
       </c>
       <c r="E58" s="6">
         <v>20</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="0"/>
-        <v>82.735214285714406</v>
+        <v>84.26679</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C59" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4">
-        <v>54.355906976744201</v>
+        <v>286.21479411764699</v>
       </c>
       <c r="E59" s="6">
         <v>20</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="0"/>
-        <v>43.484725581395359</v>
+        <v>228.9718352941176</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C60" s="9">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4">
-        <v>54.355906976744201</v>
+        <v>754.03499999999894</v>
       </c>
       <c r="E60" s="6">
         <v>20</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="0"/>
-        <v>43.484725581395359</v>
+        <v>603.22799999999916</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C61" s="9">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="4">
-        <v>37.093207839738596</v>
+        <v>23.4363963081727</v>
       </c>
       <c r="E61" s="6">
         <v>20</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="0"/>
-        <v>29.674566271790876</v>
+        <v>18.74911704653816</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C62" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D62" s="4">
-        <v>64.570401411675505</v>
+        <v>57.102068409132499</v>
       </c>
       <c r="E62" s="6">
         <v>20</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="0"/>
-        <v>51.656321129340405</v>
+        <v>45.681654727305997</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B63" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C63" s="9">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D63" s="4">
-        <v>47.510096316225201</v>
+        <v>89.254472891566294</v>
       </c>
       <c r="E63" s="6">
         <v>20</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="0"/>
-        <v>38.008077052980163</v>
+        <v>71.403578313253036</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B64" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C64" s="9">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D64" s="4">
-        <v>40.199076704545497</v>
+        <v>89.254472891566294</v>
       </c>
       <c r="E64" s="6">
         <v>20</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="0"/>
-        <v>32.159261363636396</v>
+        <v>71.403578313253036</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B65" s="7">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="C65" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D65" s="4">
-        <v>55.147397817460302</v>
+        <v>50.9156714285714</v>
       </c>
       <c r="E65" s="6">
         <v>20</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ref="F65:F130" si="1">D65-(D65*E65)/100</f>
-        <v>44.117918253968242</v>
+        <f t="shared" si="0"/>
+        <v>40.732537142857119</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B66" s="7">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="C66" s="9">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D66" s="4">
-        <v>29.098407310896601</v>
+        <v>60.011268181090401</v>
       </c>
       <c r="E66" s="6">
         <v>20</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="1"/>
-        <v>23.278725848717279</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>48.009014544872322</v>
+      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="8" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B67" s="7">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="C67" s="9">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D67" s="4">
-        <v>43.208398147101398</v>
+        <v>65.199244743113994</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="1"/>
-        <v>34.566718517681117</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>52.159395794491196</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="8" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B68" s="7">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="C68" s="9">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="D68" s="4">
-        <v>26.998544461743599</v>
+        <v>34.373044642857202</v>
       </c>
       <c r="E68" s="6">
         <v>20</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="1"/>
-        <v>21.598835569394879</v>
+        <f t="shared" si="0"/>
+        <v>27.498435714285762</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>7</v>
+      <c r="A69" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B69" s="7">
-        <v>45930</v>
-      </c>
-      <c r="C69" s="9">
-        <v>184</v>
-      </c>
-      <c r="D69" s="4">
-        <v>44.040239923619303</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="1"/>
-        <v>35.23219193889544</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B70" s="7">
-        <v>45930</v>
-      </c>
-      <c r="C70" s="9">
-        <v>176</v>
-      </c>
-      <c r="D70" s="4">
-        <v>28.5732775665399</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="6">
         <v>20</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="1"/>
-        <v>22.858622053231919</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="B71" s="7">
-        <v>45930</v>
-      </c>
-      <c r="C71" s="9">
-        <v>120</v>
-      </c>
-      <c r="D71" s="4">
-        <v>38.021105914220598</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="6">
         <v>20</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="1"/>
-        <v>30.416884731376477</v>
+        <f t="shared" ref="F71:F73" si="1">D71-(D71*E71)/100</f>
+        <v>0</v>
       </c>
       <c r="G71" s="1"/>
-      <c r="H71" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B72" s="7">
-        <v>45930</v>
-      </c>
-      <c r="C72" s="9">
-        <v>184</v>
-      </c>
-      <c r="D72" s="4">
-        <v>32.000048780487802</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="6">
         <v>20</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="1"/>
-        <v>25.600039024390242</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1"/>
-      <c r="H72" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B73" s="7">
-        <v>45930</v>
-      </c>
-      <c r="C73" s="9">
-        <v>128</v>
-      </c>
-      <c r="D73" s="4">
-        <v>31.8993314716536</v>
-      </c>
+        <v>45869</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="6">
         <v>20</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="1"/>
-        <v>25.519465177322878</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B74" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C74" s="9">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D74" s="4">
-        <v>63.121971294066903</v>
+        <v>29.443330038759701</v>
       </c>
       <c r="E74" s="6">
         <v>20</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="1"/>
-        <v>50.497577035253521</v>
-      </c>
-      <c r="G74" s="1"/>
+        <f t="shared" ref="F74:F136" si="2">D74-(D74*E74)/100</f>
+        <v>23.554664031007761</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H74" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B75" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C75" s="9">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D75" s="4">
-        <v>64.596179022975704</v>
+        <v>37.471191269757803</v>
       </c>
       <c r="E75" s="6">
         <v>20</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="1"/>
-        <v>51.676943218380565</v>
-      </c>
-      <c r="G75" s="1"/>
+        <f t="shared" si="2"/>
+        <v>29.976953015806242</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H75" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B76" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C76" s="9">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D76" s="4">
-        <v>54.058329031371301</v>
+        <v>35.873228451258399</v>
       </c>
       <c r="E76" s="6">
         <v>20</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="1"/>
-        <v>43.246663225097038</v>
+        <f t="shared" si="2"/>
+        <v>28.698582761006719</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B77" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C77" s="9">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>44.972536565901301</v>
+        <v>38.767588703437603</v>
       </c>
       <c r="E77" s="6">
         <v>20</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="1"/>
-        <v>35.978029252721043</v>
+        <f t="shared" si="2"/>
+        <v>31.014070962750083</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B78" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C78" s="9">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="D78" s="4">
-        <v>28.5732775665399</v>
+        <v>33.901364035087703</v>
       </c>
       <c r="E78" s="6">
         <v>20</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="1"/>
-        <v>22.858622053231919</v>
+        <f t="shared" si="2"/>
+        <v>27.121091228070163</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B79" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C79" s="9">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D79" s="4">
-        <v>36.556056285178201</v>
+        <v>33.8106152355397</v>
       </c>
       <c r="E79" s="6">
         <v>20</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="1"/>
-        <v>29.24484502814256</v>
+        <f t="shared" si="2"/>
+        <v>27.048492188431759</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B80" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C80" s="9">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D80" s="4">
-        <v>35.585638888888901</v>
+        <v>42.480804999999997</v>
       </c>
       <c r="E80" s="6">
         <v>20</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="1"/>
-        <v>28.46851111111112</v>
+        <f t="shared" si="2"/>
+        <v>33.984643999999996</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B81" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C81" s="9">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="D81" s="4">
-        <v>43.636136627907</v>
+        <v>33.410398368160898</v>
       </c>
       <c r="E81" s="6">
         <v>20</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="1"/>
-        <v>34.908909302325597</v>
+        <f t="shared" si="2"/>
+        <v>26.728318694528717</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B82" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C82" s="9">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4">
-        <v>25.809749326889001</v>
+        <v>56.036142410714298</v>
       </c>
       <c r="E82" s="6">
         <v>20</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="1"/>
-        <v>20.647799461511202</v>
+        <f t="shared" si="2"/>
+        <v>44.828913928571438</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B83" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C83" s="9">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D83" s="4">
-        <v>31.424534920634901</v>
+        <v>57.025137581168799</v>
       </c>
       <c r="E83" s="6">
         <v>20</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="1"/>
-        <v>25.139627936507921</v>
+        <f t="shared" si="2"/>
+        <v>45.620110064935041</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="10" t="s">
-        <v>22</v>
+      <c r="A84" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B84" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C84" s="9">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="D84" s="4">
-        <v>44.031594599410397</v>
+        <v>41.678208919916798</v>
       </c>
       <c r="E84" s="6">
         <v>20</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="1"/>
-        <v>35.225275679528316</v>
+        <f t="shared" si="2"/>
+        <v>33.342567135933436</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B85" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C85" s="9">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="D85" s="4">
-        <v>31.4199073391813</v>
+        <v>49.833428893489803</v>
       </c>
       <c r="E85" s="6">
         <v>20</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="1"/>
-        <v>25.135925871345041</v>
+        <f t="shared" si="2"/>
+        <v>39.866743114791845</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B86" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C86" s="9">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D86" s="4">
-        <v>49.901317293941098</v>
+        <v>33.901364035087703</v>
       </c>
       <c r="E86" s="6">
         <v>20</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="1"/>
-        <v>39.921053835152875</v>
+        <f t="shared" si="2"/>
+        <v>27.121091228070163</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B87" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C87" s="9">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D87" s="4">
-        <v>40.947826534259697</v>
+        <v>35.231900000000003</v>
       </c>
       <c r="E87" s="6">
         <v>20</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="1"/>
-        <v>32.758261227407758</v>
+        <f t="shared" si="2"/>
+        <v>28.185520000000004</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B88" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C88" s="9">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D88" s="4">
-        <v>34.718156071366998</v>
+        <v>32.917370689655201</v>
       </c>
       <c r="E88" s="6">
         <v>20</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="1"/>
-        <v>27.774524857093599</v>
+        <f t="shared" si="2"/>
+        <v>26.333896551724159</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B89" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C89" s="9">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
-        <v>49.568454434259202</v>
+        <v>50.621781176790499</v>
       </c>
       <c r="E89" s="6">
         <v>20</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="1"/>
-        <v>39.654763547407363</v>
+        <f t="shared" si="2"/>
+        <v>40.497424941432399</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B90" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C90" s="9">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D90" s="4">
-        <v>93.436506818957</v>
+        <v>29.428291115808801</v>
       </c>
       <c r="E90" s="6">
         <v>20</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="1"/>
-        <v>74.749205455165594</v>
+        <f t="shared" si="2"/>
+        <v>23.542632892647042</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B91" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C91" s="9">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4">
-        <v>32.306667307692301</v>
+        <v>33.143076233592602</v>
       </c>
       <c r="E91" s="6">
         <v>20</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="1"/>
-        <v>25.845333846153842</v>
+        <f t="shared" si="2"/>
+        <v>26.514460986874081</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>30</v>
+      <c r="A92" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B92" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C92" s="9">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D92" s="4">
-        <v>25.389892626012099</v>
+        <v>50.7137183306141</v>
       </c>
       <c r="E92" s="6">
         <v>20</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="1"/>
-        <v>20.31191410080968</v>
+        <f t="shared" si="2"/>
+        <v>40.570974664491281</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="10" t="s">
-        <v>31</v>
+      <c r="A93" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B93" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C93" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D93" s="4">
-        <v>47.438137801035097</v>
+        <v>35.228261827458297</v>
       </c>
       <c r="E93" s="6">
         <v>20</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="1"/>
-        <v>37.950510240828081</v>
+        <f t="shared" si="2"/>
+        <v>28.182609461966639</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="1" t="s">
-        <v>32</v>
+      <c r="A94" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B94" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C94" s="9">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D94" s="4">
-        <v>49.418090015832</v>
+        <v>50.631631236291803</v>
       </c>
       <c r="E94" s="6">
         <v>20</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="1"/>
-        <v>39.534472012665603</v>
+        <f t="shared" si="2"/>
+        <v>40.505304989033441</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B95" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C95" s="9">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D95" s="4">
-        <v>33.215114583333303</v>
+        <v>42.774616084751898</v>
       </c>
       <c r="E95" s="6">
         <v>20</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="1"/>
-        <v>26.572091666666644</v>
+        <f t="shared" si="2"/>
+        <v>34.21969286780152</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B96" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C96" s="9">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4">
-        <v>43.806541776313701</v>
+        <v>33.827031536293198</v>
       </c>
       <c r="E96" s="6">
         <v>20</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="1"/>
-        <v>35.045233421050959</v>
+        <f t="shared" si="2"/>
+        <v>27.061625229034558</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>35</v>
+      <c r="A97" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B97" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C97" s="9">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D97" s="4">
-        <v>81.029703389830502</v>
+        <v>54.794365825797101</v>
       </c>
       <c r="E97" s="6">
         <v>20</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="1"/>
-        <v>64.823762711864404</v>
+        <f t="shared" si="2"/>
+        <v>43.835492660637684</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B98" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C98" s="9">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D98" s="4">
-        <v>32.315026785714302</v>
+        <v>63.300873226190497</v>
       </c>
       <c r="E98" s="6">
         <v>20</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="1"/>
-        <v>25.85202142857144</v>
+        <f t="shared" si="2"/>
+        <v>50.640698580952396</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B99" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C99" s="9">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D99" s="4">
-        <v>50.760818994742202</v>
+        <v>35.9104838079122</v>
       </c>
       <c r="E99" s="6">
         <v>20</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="1"/>
-        <v>40.608655195793759</v>
+        <f t="shared" si="2"/>
+        <v>28.728387046329761</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B100" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C100" s="9">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D100" s="4">
-        <v>46.9609618386243</v>
+        <v>36.147401980316403</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="1"/>
-        <v>37.56876947089944</v>
+        <f t="shared" si="2"/>
+        <v>28.917921584253122</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>39</v>
+      <c r="A101" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B101" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C101" s="9">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4">
-        <v>94.810272204832899</v>
+        <v>55.133829571613298</v>
       </c>
       <c r="E101" s="6">
         <v>20</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="1"/>
-        <v>75.848217763866316</v>
+        <f t="shared" si="2"/>
+        <v>44.107063657290638</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B102" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C102" s="9">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D102" s="4">
-        <v>26.0752479039311</v>
+        <v>65.598487654321005</v>
       </c>
       <c r="E102" s="6">
         <v>20</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="1"/>
-        <v>20.860198323144878</v>
+        <f t="shared" si="2"/>
+        <v>52.478790123456804</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B103" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C103" s="9">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="D103" s="4">
-        <v>30.550951417632401</v>
+        <v>38.993916666666699</v>
       </c>
       <c r="E103" s="6">
         <v>20</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="1"/>
-        <v>24.440761134105919</v>
+        <f t="shared" si="2"/>
+        <v>31.195133333333359</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="8" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B104" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C104" s="9">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D104" s="4">
-        <v>39.553742521367603</v>
+        <v>43.648220252569899</v>
       </c>
       <c r="E104" s="6">
         <v>20</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="1"/>
-        <v>31.642994017094082</v>
+        <f t="shared" si="2"/>
+        <v>34.918576202055917</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B105" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C105" s="9">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D105" s="4">
-        <v>37.3849826388889</v>
+        <v>49.817302907696998</v>
       </c>
       <c r="E105" s="6">
         <v>20</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="1"/>
-        <v>29.907986111111121</v>
+        <f t="shared" si="2"/>
+        <v>39.853842326157597</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B106" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C106" s="9">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D106" s="4">
-        <v>73.9490740427796</v>
-      </c>
-      <c r="E106" s="6">
-        <v>20</v>
-      </c>
-      <c r="F106" s="3">
-        <f t="shared" si="1"/>
-        <v>59.159259234223683</v>
-      </c>
+        <v>39.548839420416499</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="3"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B107" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C107" s="9">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D107" s="4">
-        <v>26.3897464259841</v>
+        <v>35.366809782608698</v>
       </c>
       <c r="E107" s="6">
         <v>20</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="1"/>
-        <v>21.111797140787282</v>
+        <f t="shared" si="2"/>
+        <v>28.293447826086958</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="8" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>46</v>
+      <c r="A108" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B108" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C108" s="9">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D108" s="4">
-        <v>35.714481249999999</v>
+        <v>49.989056165476498</v>
       </c>
       <c r="E108" s="6">
         <v>20</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="1"/>
-        <v>28.571584999999999</v>
+        <f t="shared" si="2"/>
+        <v>39.9912449323812</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B109" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C109" s="9">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="D109" s="4">
-        <v>81.029703389830502</v>
+        <v>66.910549107142899</v>
       </c>
       <c r="E109" s="6">
         <v>20</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="1"/>
-        <v>64.823762711864404</v>
+        <f t="shared" si="2"/>
+        <v>53.52843928571432</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B110" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C110" s="9">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D110" s="4">
-        <v>81.029703389830502</v>
+        <v>62.975282023377297</v>
       </c>
       <c r="E110" s="6">
         <v>20</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="1"/>
-        <v>64.823762711864404</v>
+        <f t="shared" si="2"/>
+        <v>50.380225618701836</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="8" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B111" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C111" s="9">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="D111" s="4">
-        <v>42.041652962155702</v>
+        <v>36.858174027143399</v>
       </c>
       <c r="E111" s="6">
         <v>20</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="1"/>
-        <v>33.63332236972456</v>
+        <f t="shared" si="2"/>
+        <v>29.486539221714718</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B112" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C112" s="9">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="D112" s="4">
-        <v>35.0972051363348</v>
+        <v>43.032317067420998</v>
       </c>
       <c r="E112" s="6">
         <v>20</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="1"/>
-        <v>28.077764109067839</v>
+        <f t="shared" si="2"/>
+        <v>34.425853653936798</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B113" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C113" s="9">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D113" s="4">
-        <v>41.72819933281</v>
+        <v>35.906135714285703</v>
       </c>
       <c r="E113" s="6">
         <v>20</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="1"/>
-        <v>33.382559466247997</v>
+        <f t="shared" si="2"/>
+        <v>28.724908571428564</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="8" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B114" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C114" s="9">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D114" s="4">
-        <v>33.8435735713743</v>
+        <v>40.199076704545497</v>
       </c>
       <c r="E114" s="6">
         <v>20</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="1"/>
-        <v>27.074858857099439</v>
+        <f t="shared" si="2"/>
+        <v>32.159261363636396</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B115" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C115" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D115" s="4">
-        <v>33.525773090277802</v>
+        <v>55.735333333333301</v>
       </c>
       <c r="E115" s="6">
         <v>20</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="1"/>
-        <v>26.820618472222243</v>
+        <f t="shared" si="2"/>
+        <v>44.588266666666641</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B116" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C116" s="9">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D116" s="4">
-        <v>38.985430906360101</v>
+        <v>30.8341437850064</v>
       </c>
       <c r="E116" s="6">
         <v>20</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="1"/>
-        <v>31.188344725088079</v>
+        <f t="shared" si="2"/>
+        <v>24.66731502800512</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="8" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B117" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C117" s="9">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="D117" s="4">
-        <v>33.412511168981503</v>
+        <v>34.819682315967803</v>
       </c>
       <c r="E117" s="6">
         <v>20</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="1"/>
-        <v>26.730008935185204</v>
+        <f t="shared" si="2"/>
+        <v>27.855745852774241</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="1" t="s">
-        <v>56</v>
+      <c r="A118" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B118" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C118" s="9">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D118" s="4">
-        <v>31.474488636363599</v>
+        <v>49.269868126838801</v>
       </c>
       <c r="E118" s="6">
         <v>20</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="1"/>
-        <v>25.17959090909088</v>
+        <f t="shared" si="2"/>
+        <v>39.415894501471044</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="1" t="s">
-        <v>57</v>
+      <c r="A119" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B119" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C119" s="9">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D119" s="4">
-        <v>29.6587761470985</v>
+        <v>49.269868126838801</v>
       </c>
       <c r="E119" s="6">
         <v>20</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="1"/>
-        <v>23.7270209176788</v>
+        <f t="shared" si="2"/>
+        <v>39.415894501471044</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B120" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C120" s="9">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D120" s="4">
-        <v>28.5732775665399</v>
+        <v>38.888214285714199</v>
       </c>
       <c r="E120" s="6">
         <v>20</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="1"/>
-        <v>22.858622053231919</v>
+        <f t="shared" si="2"/>
+        <v>31.110571428571358</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B121" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C121" s="9">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="D121" s="4">
-        <v>70.010830736722298</v>
+        <v>37.0796970731474</v>
       </c>
       <c r="E121" s="6">
         <v>20</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="1"/>
-        <v>56.008664589377837</v>
+        <f t="shared" si="2"/>
+        <v>29.66375765851792</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B122" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C122" s="9">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D122" s="4">
-        <v>42.516226024360599</v>
+        <v>40.680184210526299</v>
       </c>
       <c r="E122" s="6">
         <v>20</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="1"/>
-        <v>34.012980819488476</v>
+        <f t="shared" si="2"/>
+        <v>32.544147368421037</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B123" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C123" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D123" s="4">
-        <v>43.319398809523797</v>
+        <v>39.904647620700104</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="1"/>
-        <v>34.655519047619038</v>
+        <f t="shared" si="2"/>
+        <v>31.923718096560084</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B124" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C124" s="9">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D124" s="4">
-        <v>30.457376481564602</v>
+        <v>35.748658582615001</v>
       </c>
       <c r="E124" s="6">
         <v>20</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="1"/>
-        <v>24.36590118525168</v>
+        <f t="shared" si="2"/>
+        <v>28.598926866092</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B125" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C125" s="9">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D125" s="4">
-        <v>43.304056056055998</v>
+        <v>35.489615384615398</v>
       </c>
       <c r="E125" s="6">
         <v>20</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="1"/>
-        <v>34.643244844844801</v>
+        <f t="shared" si="2"/>
+        <v>28.391692307692317</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B126" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C126" s="9">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D126" s="4">
-        <v>71.316579918616796</v>
+        <v>37.692864038656097</v>
       </c>
       <c r="E126" s="6">
         <v>20</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="1"/>
-        <v>57.053263934893437</v>
+        <f t="shared" si="2"/>
+        <v>30.154291230924876</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B127" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C127" s="9">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="D127" s="4">
-        <v>35.704538261217998</v>
+        <v>35.489615384615398</v>
       </c>
       <c r="E127" s="6">
         <v>20</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="1"/>
-        <v>28.5636306089744</v>
+        <f t="shared" si="2"/>
+        <v>28.391692307692317</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="10" t="s">
-        <v>134</v>
+      <c r="A128" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B128" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C128" s="9">
         <v>184</v>
       </c>
       <c r="D128" s="4">
-        <v>101.082867346939</v>
+        <v>35.756832265699899</v>
       </c>
       <c r="E128" s="6">
         <v>20</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="1"/>
-        <v>80.8662938775512</v>
+        <f t="shared" si="2"/>
+        <v>28.60546581255992</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B129" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C129" s="9">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D129" s="4">
-        <v>30.661132450331099</v>
+        <v>39.940754471405803</v>
       </c>
       <c r="E129" s="6">
         <v>20</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="1"/>
-        <v>24.528905960264879</v>
+        <f t="shared" si="2"/>
+        <v>31.952603577124641</v>
       </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B130" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C130" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D130" s="4">
-        <v>35.714481249999999</v>
+        <v>103.419017857143</v>
       </c>
       <c r="E130" s="6">
         <v>20</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="1"/>
-        <v>28.571584999999999</v>
+        <f t="shared" si="2"/>
+        <v>82.735214285714406</v>
       </c>
       <c r="G130" s="1"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="B131" s="7">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="C131" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D131" s="4">
-        <v>33.073374999999999</v>
+        <v>54.355906976744201</v>
       </c>
       <c r="E131" s="6">
         <v>20</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131:F196" si="2">D131-(D131*E131)/100</f>
-        <v>26.4587</v>
+        <f t="shared" si="2"/>
+        <v>43.484725581395359</v>
       </c>
       <c r="G131" s="1"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B132" s="7">
-        <v>45957</v>
+        <v>45900</v>
       </c>
       <c r="C132" s="9">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D132" s="4">
-        <v>23.405858757062099</v>
+        <v>54.355906976744201</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>18.724687005649677</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>43.484725581395359</v>
+      </c>
+      <c r="G132" s="1"/>
       <c r="H132" s="8" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B133" s="7">
-        <v>45957</v>
+        <v>45900</v>
       </c>
       <c r="C133" s="9">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="D133" s="4">
-        <v>45.767940026595703</v>
+        <v>37.093207839738596</v>
       </c>
       <c r="E133" s="6">
         <v>20</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="2"/>
-        <v>36.614352021276559</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>29.674566271790876</v>
+      </c>
+      <c r="G133" s="1"/>
       <c r="H133" s="8" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B134" s="7">
-        <v>45957</v>
+        <v>45900</v>
       </c>
       <c r="C134" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D134" s="4">
-        <v>143.026170212766</v>
+        <v>64.570401411675505</v>
       </c>
       <c r="E134" s="6">
         <v>20</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>114.4209361702128</v>
+        <v>51.656321129340405</v>
       </c>
       <c r="G134" s="1"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B135" s="7">
-        <v>45957</v>
+        <v>45900</v>
       </c>
       <c r="C135" s="9">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D135" s="4">
-        <v>24.546376670750199</v>
+        <v>47.510096316225201</v>
       </c>
       <c r="E135" s="6">
         <v>20</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="2"/>
-        <v>19.637101336600161</v>
+        <v>38.008077052980163</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="8" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B136" s="7">
-        <v>45957</v>
+        <v>45900</v>
       </c>
       <c r="C136" s="9">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D136" s="4">
-        <v>55.253440217391301</v>
+        <v>40.199076704545497</v>
       </c>
       <c r="E136" s="6">
         <v>20</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>44.202752173913041</v>
+        <v>32.159261363636396</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="7">
+        <v>45900</v>
+      </c>
+      <c r="C137" s="9">
         <v>8</v>
       </c>
-      <c r="B137" s="7">
-        <v>45957</v>
-      </c>
-      <c r="C137" s="9">
-        <v>116</v>
-      </c>
       <c r="D137" s="4">
-        <v>29.416705067778601</v>
+        <v>55.147397817460302</v>
       </c>
       <c r="E137" s="6">
         <v>20</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="2"/>
-        <v>23.533364054222879</v>
+        <f t="shared" ref="F137:F202" si="3">D137-(D137*E137)/100</f>
+        <v>44.117918253968242</v>
       </c>
       <c r="G137" s="1"/>
-      <c r="H137" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B138" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C138" s="9">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D138" s="4">
-        <v>29.510803439479201</v>
+        <v>29.098407310896601</v>
       </c>
       <c r="E138" s="6">
         <v>20</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="2"/>
-        <v>23.608642751583361</v>
-      </c>
-      <c r="G138" s="1"/>
+        <f t="shared" si="3"/>
+        <v>23.278725848717279</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H138" s="8" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B139" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C139" s="9">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D139" s="4">
-        <v>27.423697674418602</v>
+        <v>43.208398147101398</v>
       </c>
       <c r="E139" s="6">
         <v>20</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="2"/>
-        <v>21.938958139534883</v>
-      </c>
-      <c r="G139" s="1"/>
+        <f t="shared" si="3"/>
+        <v>34.566718517681117</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H139" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B140" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C140" s="9">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D140" s="4">
-        <v>30.393394088669901</v>
+        <v>26.998544461743599</v>
       </c>
       <c r="E140" s="6">
         <v>20</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="2"/>
-        <v>24.31471527093592</v>
+        <f t="shared" si="3"/>
+        <v>21.598835569394879</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B141" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C141" s="9">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D141" s="4">
-        <v>58.796948733518498</v>
+        <v>44.040239923619303</v>
       </c>
       <c r="E141" s="6">
         <v>20</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="2"/>
-        <v>47.037558986814801</v>
+        <f t="shared" si="3"/>
+        <v>35.23219193889544</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B142" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C142" s="9">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D142" s="4">
-        <v>57.657570580764599</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E142" s="6">
         <v>20</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="2"/>
-        <v>46.126056464611679</v>
+        <f t="shared" si="3"/>
+        <v>22.858622053231919</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B143" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C143" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D143" s="4">
-        <v>164.14772914971101</v>
+        <v>38.021105914220598</v>
       </c>
       <c r="E143" s="6">
         <v>20</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="2"/>
-        <v>131.31818331976882</v>
+        <f t="shared" si="3"/>
+        <v>30.416884731376477</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B144" s="7">
-        <v>45957</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="4"/>
+        <v>45930</v>
+      </c>
+      <c r="C144" s="9">
+        <v>184</v>
+      </c>
+      <c r="D144" s="4">
+        <v>32.000048780487802</v>
+      </c>
       <c r="E144" s="6">
         <v>20</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25.600039024390242</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B145" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C145" s="9">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D145" s="4">
-        <v>29.022520112150001</v>
+        <v>31.8993314716536</v>
       </c>
       <c r="E145" s="6">
         <v>20</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="2"/>
-        <v>23.218016089720003</v>
+        <f t="shared" si="3"/>
+        <v>25.519465177322878</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B146" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C146" s="9">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D146" s="4">
-        <v>34.768964616402101</v>
+        <v>63.121971294066903</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="2"/>
-        <v>27.81517169312168</v>
+        <f t="shared" si="3"/>
+        <v>50.497577035253521</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B147" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C147" s="9">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D147" s="4">
-        <v>27.9399038461539</v>
+        <v>64.596179022975704</v>
       </c>
       <c r="E147" s="6">
         <v>20</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="2"/>
-        <v>22.351923076923121</v>
+        <f t="shared" si="3"/>
+        <v>51.676943218380565</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B148" s="7">
-        <v>45957</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="4"/>
+        <v>45930</v>
+      </c>
+      <c r="C148" s="9">
+        <v>132</v>
+      </c>
+      <c r="D148" s="4">
+        <v>54.058329031371301</v>
+      </c>
       <c r="E148" s="6">
         <v>20</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>43.246663225097038</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B149" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C149" s="9">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D149" s="4">
-        <v>24.6593254301138</v>
+        <v>44.972536565901301</v>
       </c>
       <c r="E149" s="6">
         <v>20</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="2"/>
-        <v>19.727460344091039</v>
+        <f t="shared" si="3"/>
+        <v>35.978029252721043</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B150" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C150" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D150" s="4">
-        <v>28.6741042857143</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E150" s="6">
         <v>20</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="2"/>
-        <v>22.939283428571439</v>
+        <f t="shared" si="3"/>
+        <v>22.858622053231919</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="10" t="s">
-        <v>22</v>
+      <c r="A151" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B151" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C151" s="9">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D151" s="4">
-        <v>32.238885192546597</v>
+        <v>36.556056285178201</v>
       </c>
       <c r="E151" s="6">
         <v>20</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="2"/>
-        <v>25.791108154037278</v>
+        <f t="shared" si="3"/>
+        <v>29.24484502814256</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B152" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C152" s="9">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D152" s="4">
-        <v>30.473182142857102</v>
+        <v>35.585638888888901</v>
       </c>
       <c r="E152" s="6">
         <v>20</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="2"/>
-        <v>24.378545714285682</v>
+        <f t="shared" si="3"/>
+        <v>28.46851111111112</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="8" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B153" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C153" s="9">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D153" s="4">
-        <v>57.497388208608903</v>
+        <v>43.636136627907</v>
       </c>
       <c r="E153" s="6">
         <v>20</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="2"/>
-        <v>45.997910566887121</v>
+        <f t="shared" si="3"/>
+        <v>34.908909302325597</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B154" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C154" s="9">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="D154" s="4">
-        <v>36.405158501020701</v>
+        <v>25.809749326889001</v>
       </c>
       <c r="E154" s="6">
         <v>20</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="2"/>
-        <v>29.124126800816562</v>
+        <f t="shared" si="3"/>
+        <v>20.647799461511202</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B155" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C155" s="9">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D155" s="4">
-        <v>31.892710166193801</v>
+        <v>31.424534920634901</v>
       </c>
       <c r="E155" s="6">
         <v>20</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="2"/>
-        <v>25.514168132955042</v>
+        <f t="shared" si="3"/>
+        <v>25.139627936507921</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="1" t="s">
-        <v>27</v>
+      <c r="A156" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B156" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C156" s="9">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D156" s="4">
-        <v>40.496605720737499</v>
+        <v>44.031594599410397</v>
       </c>
       <c r="E156" s="6">
         <v>20</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="2"/>
-        <v>32.397284576589996</v>
+        <f t="shared" si="3"/>
+        <v>35.225275679528316</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B157" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C157" s="9">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D157" s="4">
-        <v>143.026170212766</v>
+        <v>31.4199073391813</v>
       </c>
       <c r="E157" s="6">
         <v>20</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="2"/>
-        <v>114.4209361702128</v>
+        <f t="shared" si="3"/>
+        <v>25.135925871345041</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="1" t="s">
-        <v>29</v>
+      <c r="A158" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B158" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C158" s="9">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D158" s="4">
-        <v>38.0971785714286</v>
+        <v>49.901317293941098</v>
       </c>
       <c r="E158" s="6">
         <v>20</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="2"/>
-        <v>30.477742857142879</v>
+        <f t="shared" si="3"/>
+        <v>39.921053835152875</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B159" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C159" s="9">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D159" s="4">
-        <v>24.565155556014801</v>
+        <v>40.947826534259697</v>
       </c>
       <c r="E159" s="6">
         <v>20</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="2"/>
-        <v>19.65212444481184</v>
+        <f t="shared" si="3"/>
+        <v>32.758261227407758</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="B160" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C160" s="9">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="D160" s="4">
-        <v>40.438494996396599</v>
+        <v>34.718156071366998</v>
       </c>
       <c r="E160" s="6">
         <v>20</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="2"/>
-        <v>32.350795997117281</v>
+        <f t="shared" si="3"/>
+        <v>27.774524857093599</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="8" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B161" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C161" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D161" s="4">
-        <v>40.924182463762797</v>
+        <v>49.568454434259202</v>
       </c>
       <c r="E161" s="6">
         <v>20</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="2"/>
-        <v>32.739345971010238</v>
+        <f t="shared" si="3"/>
+        <v>39.654763547407363</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B162" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C162" s="9">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D162" s="4">
-        <v>61.6884391169189</v>
+        <v>93.436506818957</v>
       </c>
       <c r="E162" s="6">
         <v>20</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" si="2"/>
-        <v>49.350751293535119</v>
+        <f t="shared" si="3"/>
+        <v>74.749205455165594</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B163" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C163" s="9">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D163" s="4">
-        <v>26.737228693181802</v>
+        <v>32.306667307692301</v>
       </c>
       <c r="E163" s="6">
         <v>20</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="2"/>
-        <v>21.389782954545442</v>
+        <f t="shared" si="3"/>
+        <v>25.845333846153842</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="8" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B164" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C164" s="9">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D164" s="4">
-        <v>38.877137464030397</v>
+        <v>25.389892626012099</v>
       </c>
       <c r="E164" s="6">
         <v>20</v>
       </c>
       <c r="F164" s="3">
-        <f t="shared" si="2"/>
-        <v>31.101709971224317</v>
+        <f t="shared" si="3"/>
+        <v>20.31191410080968</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="1" t="s">
-        <v>35</v>
+      <c r="A165" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B165" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C165" s="9">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D165" s="4">
-        <v>84.797902080098396</v>
+        <v>47.438137801035097</v>
       </c>
       <c r="E165" s="6">
         <v>20</v>
       </c>
       <c r="F165" s="3">
-        <f t="shared" si="2"/>
-        <v>67.83832166407872</v>
+        <f t="shared" si="3"/>
+        <v>37.950510240828081</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B166" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C166" s="9">
         <v>176</v>
       </c>
       <c r="D166" s="4">
-        <v>28.527083389962801</v>
+        <v>49.418090015832</v>
       </c>
       <c r="E166" s="6">
         <v>20</v>
       </c>
       <c r="F166" s="3">
-        <f t="shared" si="2"/>
-        <v>22.821666711970241</v>
+        <f t="shared" si="3"/>
+        <v>39.534472012665603</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B167" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C167" s="9">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="D167" s="4">
-        <v>60.166545304890803</v>
+        <v>33.215114583333303</v>
       </c>
       <c r="E167" s="6">
         <v>20</v>
       </c>
       <c r="F167" s="3">
-        <f t="shared" si="2"/>
-        <v>48.133236243912641</v>
+        <f t="shared" si="3"/>
+        <v>26.572091666666644</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="8" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B168" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C168" s="9">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D168" s="4">
-        <v>60.993662368152201</v>
+        <v>43.806541776313701</v>
       </c>
       <c r="E168" s="6">
         <v>20</v>
       </c>
       <c r="F168" s="3">
-        <f t="shared" si="2"/>
-        <v>48.794929894521758</v>
+        <f t="shared" si="3"/>
+        <v>35.045233421050959</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B169" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C169" s="9">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D169" s="4">
-        <v>127.952785274932</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E169" s="6">
         <v>20</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" si="2"/>
-        <v>102.36222821994559</v>
+        <f t="shared" si="3"/>
+        <v>64.823762711864404</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B170" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C170" s="9">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D170" s="4">
-        <v>24.7439829621384</v>
+        <v>32.315026785714302</v>
       </c>
       <c r="E170" s="6">
         <v>20</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="2"/>
-        <v>19.79518636971072</v>
+        <f t="shared" si="3"/>
+        <v>25.85202142857144</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="1" t="s">
-        <v>41</v>
+      <c r="A171" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B171" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C171" s="9">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D171" s="4">
-        <v>30.5238563954765</v>
+        <v>50.760818994742202</v>
       </c>
       <c r="E171" s="6">
         <v>20</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="2"/>
-        <v>24.419085116381201</v>
+        <f t="shared" si="3"/>
+        <v>40.608655195793759</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B172" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C172" s="9">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D172" s="4">
-        <v>34.672134210526302</v>
+        <v>46.9609618386243</v>
       </c>
       <c r="E172" s="6">
         <v>20</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="2"/>
-        <v>27.737707368421042</v>
+        <f t="shared" si="3"/>
+        <v>37.56876947089944</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B173" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C173" s="9">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D173" s="4">
-        <v>37.8538</v>
+        <v>94.810272204832899</v>
       </c>
       <c r="E173" s="6">
         <v>20</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="2"/>
-        <v>30.28304</v>
+        <f t="shared" si="3"/>
+        <v>75.848217763866316</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B174" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C174" s="9">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D174" s="4">
-        <v>119.0881529413</v>
+        <v>26.0752479039311</v>
       </c>
       <c r="E174" s="6">
         <v>20</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="2"/>
-        <v>95.270522353039993</v>
+        <f t="shared" si="3"/>
+        <v>20.860198323144878</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B175" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C175" s="9">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D175" s="4">
-        <v>24.737093539682402</v>
+        <v>30.550951417632401</v>
       </c>
       <c r="E175" s="6">
         <v>20</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="2"/>
-        <v>19.78967483174592</v>
+        <f t="shared" si="3"/>
+        <v>24.440761134105919</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="8" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B176" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C176" s="9">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D176" s="4">
-        <v>46.686317567567599</v>
+        <v>39.553742521367603</v>
       </c>
       <c r="E176" s="6">
         <v>20</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="2"/>
-        <v>37.349054054054079</v>
+        <f t="shared" si="3"/>
+        <v>31.642994017094082</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B177" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C177" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D177" s="4">
-        <v>86.741216864001004</v>
+        <v>37.3849826388889</v>
       </c>
       <c r="E177" s="6">
         <v>20</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="2"/>
-        <v>69.392973491200806</v>
+        <f t="shared" si="3"/>
+        <v>29.907986111111121</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B178" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C178" s="9">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D178" s="4">
-        <v>83.828793746109397</v>
+        <v>73.9490740427796</v>
       </c>
       <c r="E178" s="6">
         <v>20</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="2"/>
-        <v>67.063034996887524</v>
+        <f t="shared" si="3"/>
+        <v>59.159259234223683</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B179" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C179" s="9">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D179" s="4">
-        <v>45.589440789473599</v>
+        <v>26.3897464259841</v>
       </c>
       <c r="E179" s="6">
         <v>20</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="2"/>
-        <v>36.471552631578881</v>
+        <f t="shared" si="3"/>
+        <v>21.111797140787282</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="8" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B180" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C180" s="9">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D180" s="4">
-        <v>35.371537396121902</v>
+        <v>35.714481249999999</v>
       </c>
       <c r="E180" s="6">
         <v>20</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="2"/>
-        <v>28.297229916897521</v>
+        <f t="shared" si="3"/>
+        <v>28.571584999999999</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="8" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="1" t="s">
-        <v>51</v>
+      <c r="A181" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B181" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C181" s="9">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D181" s="4">
-        <v>44.800876038781098</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E181" s="6">
         <v>20</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" si="2"/>
-        <v>35.840700831024876</v>
+        <f t="shared" si="3"/>
+        <v>64.823762711864404</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="1" t="s">
-        <v>52</v>
+      <c r="A182" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B182" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C182" s="9">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D182" s="4">
-        <v>32.989123961218802</v>
+        <v>81.029703389830502</v>
       </c>
       <c r="E182" s="6">
         <v>20</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" si="2"/>
-        <v>26.391299168975042</v>
+        <f t="shared" si="3"/>
+        <v>64.823762711864404</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B183" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C183" s="9">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D183" s="4">
-        <v>27.7838885082387</v>
+        <v>42.041652962155702</v>
       </c>
       <c r="E183" s="6">
         <v>20</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="2"/>
-        <v>22.227110806590961</v>
+        <f t="shared" si="3"/>
+        <v>33.63332236972456</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B184" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C184" s="9">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D184" s="4">
-        <v>30.1912194353981</v>
+        <v>35.0972051363348</v>
       </c>
       <c r="E184" s="6">
         <v>20</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="2"/>
-        <v>24.15297554831848</v>
+        <f t="shared" si="3"/>
+        <v>28.077764109067839</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B185" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C185" s="9">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D185" s="4">
-        <v>31.171209075516199</v>
+        <v>41.72819933281</v>
       </c>
       <c r="E185" s="6">
         <v>20</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="2"/>
-        <v>24.93696726041296</v>
+        <f t="shared" si="3"/>
+        <v>33.382559466247997</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B186" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C186" s="9">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D186" s="4">
-        <v>33.348073423913</v>
+        <v>33.8435735713743</v>
       </c>
       <c r="E186" s="6">
         <v>20</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="2"/>
-        <v>26.678458739130399</v>
+        <f t="shared" si="3"/>
+        <v>27.074858857099439</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B187" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C187" s="9">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D187" s="4">
-        <v>38.280663644405102</v>
+        <v>33.525773090277802</v>
       </c>
       <c r="E187" s="6">
         <v>20</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="2"/>
-        <v>30.624530915524083</v>
+        <f t="shared" si="3"/>
+        <v>26.820618472222243</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B188" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C188" s="9">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D188" s="4">
-        <v>41.106783786674796</v>
+        <v>38.985430906360101</v>
       </c>
       <c r="E188" s="6">
         <v>20</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" si="2"/>
-        <v>32.885427029339837</v>
+        <f t="shared" si="3"/>
+        <v>31.188344725088079</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B189" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C189" s="9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D189" s="4">
-        <v>164.14772914971101</v>
+        <v>33.412511168981503</v>
       </c>
       <c r="E189" s="6">
         <v>20</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="2"/>
-        <v>131.31818331976882</v>
+        <f t="shared" si="3"/>
+        <v>26.730008935185204</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B190" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C190" s="9">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D190" s="4">
-        <v>43.279424242424199</v>
+        <v>31.474488636363599</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="2"/>
-        <v>34.62353939393936</v>
+        <f t="shared" si="3"/>
+        <v>25.17959090909088</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B191" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C191" s="9">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D191" s="4">
-        <v>43.279424242424199</v>
+        <v>29.6587761470985</v>
       </c>
       <c r="E191" s="6">
         <v>20</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="2"/>
-        <v>34.62353939393936</v>
+        <f t="shared" si="3"/>
+        <v>23.7270209176788</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B192" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C192" s="9">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D192" s="4">
-        <v>30.721294219684399</v>
+        <v>28.5732775665399</v>
       </c>
       <c r="E192" s="6">
         <v>20</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="2"/>
-        <v>24.577035375747521</v>
+        <f t="shared" si="3"/>
+        <v>22.858622053231919</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B193" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C193" s="9">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D193" s="4">
-        <v>51.535427173913099</v>
+        <v>70.010830736722298</v>
       </c>
       <c r="E193" s="6">
         <v>20</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="2"/>
-        <v>41.228341739130478</v>
+        <f t="shared" si="3"/>
+        <v>56.008664589377837</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B194" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C194" s="9">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D194" s="4">
-        <v>120.773862073457</v>
+        <v>42.516226024360599</v>
       </c>
       <c r="E194" s="6">
         <v>20</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="2"/>
-        <v>96.619089658765603</v>
+        <f t="shared" si="3"/>
+        <v>34.012980819488476</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B195" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C195" s="9">
         <v>168</v>
       </c>
       <c r="D195" s="4">
-        <v>37.264659877027697</v>
+        <v>43.319398809523797</v>
       </c>
       <c r="E195" s="6">
         <v>20</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" si="2"/>
-        <v>29.811727901622156</v>
+        <f t="shared" si="3"/>
+        <v>34.655519047619038</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="10" t="s">
-        <v>134</v>
+      <c r="A196" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B196" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C196" s="9">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="D196" s="4">
-        <v>108.266729710902</v>
+        <v>30.457376481564602</v>
       </c>
       <c r="E196" s="6">
         <v>20</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="2"/>
-        <v>86.613383768721604</v>
+        <f t="shared" si="3"/>
+        <v>24.36590118525168</v>
       </c>
       <c r="G196" s="1"/>
-      <c r="H196" s="8"/>
+      <c r="H196" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B197" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C197" s="9">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D197" s="4">
-        <v>29.8303041666667</v>
+        <v>43.304056056055998</v>
       </c>
       <c r="E197" s="6">
         <v>20</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" ref="F197:F199" si="3">D197-(D197*E197)/100</f>
-        <v>23.864243333333359</v>
+        <f t="shared" si="3"/>
+        <v>34.643244844844801</v>
       </c>
       <c r="G197" s="1"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B198" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C198" s="9">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="D198" s="4">
-        <v>46.686317567567599</v>
+        <v>71.316579918616796</v>
       </c>
       <c r="E198" s="6">
         <v>20</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="3"/>
-        <v>37.349054054054079</v>
+        <v>57.053263934893437</v>
       </c>
       <c r="G198" s="1"/>
-      <c r="H198" s="8"/>
+      <c r="H198" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B199" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C199" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D199" s="4">
-        <v>37.557839125653103</v>
+        <v>35.704538261217998</v>
       </c>
       <c r="E199" s="6">
         <v>20</v>
       </c>
       <c r="F199" s="3">
         <f t="shared" si="3"/>
-        <v>30.046271300522484</v>
+        <v>28.5636306089744</v>
       </c>
       <c r="G199" s="1"/>
-      <c r="H199" s="8"/>
+      <c r="H199" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="1" t="s">
-        <v>140</v>
+      <c r="A200" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B200" s="7">
-        <v>45957</v>
+        <v>45930</v>
       </c>
       <c r="C200" s="9">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="D200" s="4">
-        <v>31.246849999999998</v>
+        <v>101.082867346939</v>
       </c>
       <c r="E200" s="6">
         <v>20</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" ref="F200" si="4">D200-(D200*E200)/100</f>
-        <v>24.997479999999999</v>
+        <f t="shared" si="3"/>
+        <v>80.8662938775512</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="8"/>
     </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B201" s="7">
+        <v>45930</v>
+      </c>
+      <c r="C201" s="9">
+        <v>96</v>
+      </c>
+      <c r="D201" s="4">
+        <v>30.661132450331099</v>
+      </c>
+      <c r="E201" s="6">
+        <v>20</v>
+      </c>
+      <c r="F201" s="3">
+        <f t="shared" si="3"/>
+        <v>24.528905960264879</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="8"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B202" s="7">
+        <v>45930</v>
+      </c>
+      <c r="C202" s="9">
+        <v>112</v>
+      </c>
+      <c r="D202" s="4">
+        <v>35.714481249999999</v>
+      </c>
+      <c r="E202" s="6">
+        <v>20</v>
+      </c>
+      <c r="F202" s="3">
+        <f t="shared" si="3"/>
+        <v>28.571584999999999</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="8"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B203" s="7">
+        <v>45930</v>
+      </c>
+      <c r="C203" s="9">
+        <v>104</v>
+      </c>
+      <c r="D203" s="4">
+        <v>33.073374999999999</v>
+      </c>
+      <c r="E203" s="6">
+        <v>20</v>
+      </c>
+      <c r="F203" s="3">
+        <f t="shared" ref="F203:F268" si="4">D203-(D203*E203)/100</f>
+        <v>26.4587</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="8"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C204" s="9">
+        <v>128</v>
+      </c>
+      <c r="D204" s="4">
+        <v>23.405858757062099</v>
+      </c>
+      <c r="E204" s="6">
+        <v>20</v>
+      </c>
+      <c r="F204" s="3">
+        <f t="shared" si="4"/>
+        <v>18.724687005649677</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C205" s="9">
+        <v>64</v>
+      </c>
+      <c r="D205" s="4">
+        <v>45.767940026595703</v>
+      </c>
+      <c r="E205" s="6">
+        <v>20</v>
+      </c>
+      <c r="F205" s="3">
+        <f t="shared" si="4"/>
+        <v>36.614352021276559</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B206" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C206" s="9">
+        <v>8</v>
+      </c>
+      <c r="D206" s="4">
+        <v>143.026170212766</v>
+      </c>
+      <c r="E206" s="6">
+        <v>20</v>
+      </c>
+      <c r="F206" s="3">
+        <f t="shared" si="4"/>
+        <v>114.4209361702128</v>
+      </c>
+      <c r="G206" s="1"/>
+      <c r="H206" s="8"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C207" s="9">
+        <v>136</v>
+      </c>
+      <c r="D207" s="4">
+        <v>24.546376670750199</v>
+      </c>
+      <c r="E207" s="6">
+        <v>20</v>
+      </c>
+      <c r="F207" s="3">
+        <f t="shared" si="4"/>
+        <v>19.637101336600161</v>
+      </c>
+      <c r="G207" s="1"/>
+      <c r="H207" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C208" s="9">
+        <v>88</v>
+      </c>
+      <c r="D208" s="4">
+        <v>55.253440217391301</v>
+      </c>
+      <c r="E208" s="6">
+        <v>20</v>
+      </c>
+      <c r="F208" s="3">
+        <f t="shared" si="4"/>
+        <v>44.202752173913041</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C209" s="9">
+        <v>116</v>
+      </c>
+      <c r="D209" s="4">
+        <v>29.416705067778601</v>
+      </c>
+      <c r="E209" s="6">
+        <v>20</v>
+      </c>
+      <c r="F209" s="3">
+        <f t="shared" si="4"/>
+        <v>23.533364054222879</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="H209" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C210" s="9">
+        <v>112</v>
+      </c>
+      <c r="D210" s="4">
+        <v>29.510803439479201</v>
+      </c>
+      <c r="E210" s="6">
+        <v>20</v>
+      </c>
+      <c r="F210" s="3">
+        <f t="shared" si="4"/>
+        <v>23.608642751583361</v>
+      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C211" s="9">
+        <v>141</v>
+      </c>
+      <c r="D211" s="4">
+        <v>27.423697674418602</v>
+      </c>
+      <c r="E211" s="6">
+        <v>20</v>
+      </c>
+      <c r="F211" s="3">
+        <f t="shared" si="4"/>
+        <v>21.938958139534883</v>
+      </c>
+      <c r="G211" s="1"/>
+      <c r="H211" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C212" s="9">
+        <v>120</v>
+      </c>
+      <c r="D212" s="4">
+        <v>30.393394088669901</v>
+      </c>
+      <c r="E212" s="6">
+        <v>20</v>
+      </c>
+      <c r="F212" s="3">
+        <f t="shared" si="4"/>
+        <v>24.31471527093592</v>
+      </c>
+      <c r="G212" s="1"/>
+      <c r="H212" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C213" s="9">
+        <v>150</v>
+      </c>
+      <c r="D213" s="4">
+        <v>58.796948733518498</v>
+      </c>
+      <c r="E213" s="6">
+        <v>20</v>
+      </c>
+      <c r="F213" s="3">
+        <f t="shared" si="4"/>
+        <v>47.037558986814801</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C214" s="9">
+        <v>128</v>
+      </c>
+      <c r="D214" s="4">
+        <v>57.657570580764599</v>
+      </c>
+      <c r="E214" s="6">
+        <v>20</v>
+      </c>
+      <c r="F214" s="3">
+        <f t="shared" si="4"/>
+        <v>46.126056464611679</v>
+      </c>
+      <c r="G214" s="1"/>
+      <c r="H214" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C215" s="9">
+        <v>23</v>
+      </c>
+      <c r="D215" s="4">
+        <v>164.14772914971101</v>
+      </c>
+      <c r="E215" s="6">
+        <v>20</v>
+      </c>
+      <c r="F215" s="3">
+        <f t="shared" si="4"/>
+        <v>131.31818331976882</v>
+      </c>
+      <c r="G215" s="1"/>
+      <c r="H215" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="6">
+        <v>20</v>
+      </c>
+      <c r="F216" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="1"/>
+      <c r="H216" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C217" s="9">
+        <v>144</v>
+      </c>
+      <c r="D217" s="4">
+        <v>29.022520112150001</v>
+      </c>
+      <c r="E217" s="6">
+        <v>20</v>
+      </c>
+      <c r="F217" s="3">
+        <f t="shared" si="4"/>
+        <v>23.218016089720003</v>
+      </c>
+      <c r="G217" s="1"/>
+      <c r="H217" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C218" s="9">
+        <v>144</v>
+      </c>
+      <c r="D218" s="4">
+        <v>34.768964616402101</v>
+      </c>
+      <c r="E218" s="6">
+        <v>20</v>
+      </c>
+      <c r="F218" s="3">
+        <f t="shared" si="4"/>
+        <v>27.81517169312168</v>
+      </c>
+      <c r="G218" s="1"/>
+      <c r="H218" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C219" s="9">
+        <v>168</v>
+      </c>
+      <c r="D219" s="4">
+        <v>27.9399038461539</v>
+      </c>
+      <c r="E219" s="6">
+        <v>20</v>
+      </c>
+      <c r="F219" s="3">
+        <f t="shared" si="4"/>
+        <v>22.351923076923121</v>
+      </c>
+      <c r="G219" s="1"/>
+      <c r="H219" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="6">
+        <v>20</v>
+      </c>
+      <c r="F220" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="1"/>
+      <c r="H220" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C221" s="9">
+        <v>112</v>
+      </c>
+      <c r="D221" s="4">
+        <v>24.6593254301138</v>
+      </c>
+      <c r="E221" s="6">
+        <v>20</v>
+      </c>
+      <c r="F221" s="3">
+        <f t="shared" si="4"/>
+        <v>19.727460344091039</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C222" s="9">
+        <v>160</v>
+      </c>
+      <c r="D222" s="4">
+        <v>28.6741042857143</v>
+      </c>
+      <c r="E222" s="6">
+        <v>20</v>
+      </c>
+      <c r="F222" s="3">
+        <f t="shared" si="4"/>
+        <v>22.939283428571439</v>
+      </c>
+      <c r="G222" s="1"/>
+      <c r="H222" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C223" s="9">
+        <v>100</v>
+      </c>
+      <c r="D223" s="4">
+        <v>32.238885192546597</v>
+      </c>
+      <c r="E223" s="6">
+        <v>20</v>
+      </c>
+      <c r="F223" s="3">
+        <f t="shared" si="4"/>
+        <v>25.791108154037278</v>
+      </c>
+      <c r="G223" s="1"/>
+      <c r="H223" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C224" s="9">
+        <v>144</v>
+      </c>
+      <c r="D224" s="4">
+        <v>30.473182142857102</v>
+      </c>
+      <c r="E224" s="6">
+        <v>20</v>
+      </c>
+      <c r="F224" s="3">
+        <f t="shared" si="4"/>
+        <v>24.378545714285682</v>
+      </c>
+      <c r="G224" s="1"/>
+      <c r="H224" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C225" s="9">
+        <v>129</v>
+      </c>
+      <c r="D225" s="4">
+        <v>57.497388208608903</v>
+      </c>
+      <c r="E225" s="6">
+        <v>20</v>
+      </c>
+      <c r="F225" s="3">
+        <f t="shared" si="4"/>
+        <v>45.997910566887121</v>
+      </c>
+      <c r="G225" s="1"/>
+      <c r="H225" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C226" s="9">
+        <v>81</v>
+      </c>
+      <c r="D226" s="4">
+        <v>36.405158501020701</v>
+      </c>
+      <c r="E226" s="6">
+        <v>20</v>
+      </c>
+      <c r="F226" s="3">
+        <f t="shared" si="4"/>
+        <v>29.124126800816562</v>
+      </c>
+      <c r="G226" s="1"/>
+      <c r="H226" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C227" s="9">
+        <v>112</v>
+      </c>
+      <c r="D227" s="4">
+        <v>31.892710166193801</v>
+      </c>
+      <c r="E227" s="6">
+        <v>20</v>
+      </c>
+      <c r="F227" s="3">
+        <f t="shared" si="4"/>
+        <v>25.514168132955042</v>
+      </c>
+      <c r="G227" s="1"/>
+      <c r="H227" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C228" s="9">
+        <v>135</v>
+      </c>
+      <c r="D228" s="4">
+        <v>40.496605720737499</v>
+      </c>
+      <c r="E228" s="6">
+        <v>20</v>
+      </c>
+      <c r="F228" s="3">
+        <f t="shared" si="4"/>
+        <v>32.397284576589996</v>
+      </c>
+      <c r="G228" s="1"/>
+      <c r="H228" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C229" s="9">
+        <v>112</v>
+      </c>
+      <c r="D229" s="4">
+        <v>143.026170212766</v>
+      </c>
+      <c r="E229" s="6">
+        <v>20</v>
+      </c>
+      <c r="F229" s="3">
+        <f t="shared" si="4"/>
+        <v>114.4209361702128</v>
+      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B230" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C230" s="9">
+        <v>128</v>
+      </c>
+      <c r="D230" s="4">
+        <v>38.0971785714286</v>
+      </c>
+      <c r="E230" s="6">
+        <v>20</v>
+      </c>
+      <c r="F230" s="3">
+        <f t="shared" si="4"/>
+        <v>30.477742857142879</v>
+      </c>
+      <c r="G230" s="1"/>
+      <c r="H230" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C231" s="9">
+        <v>134</v>
+      </c>
+      <c r="D231" s="4">
+        <v>24.565155556014801</v>
+      </c>
+      <c r="E231" s="6">
+        <v>20</v>
+      </c>
+      <c r="F231" s="3">
+        <f t="shared" si="4"/>
+        <v>19.65212444481184</v>
+      </c>
+      <c r="G231" s="1"/>
+      <c r="H231" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B232" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C232" s="9">
+        <v>96</v>
+      </c>
+      <c r="D232" s="4">
+        <v>40.438494996396599</v>
+      </c>
+      <c r="E232" s="6">
+        <v>20</v>
+      </c>
+      <c r="F232" s="3">
+        <f t="shared" si="4"/>
+        <v>32.350795997117281</v>
+      </c>
+      <c r="G232" s="1"/>
+      <c r="H232" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C233" s="9">
+        <v>133</v>
+      </c>
+      <c r="D233" s="4">
+        <v>40.924182463762797</v>
+      </c>
+      <c r="E233" s="6">
+        <v>20</v>
+      </c>
+      <c r="F233" s="3">
+        <f t="shared" si="4"/>
+        <v>32.739345971010238</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="H233" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C234" s="9">
+        <v>127</v>
+      </c>
+      <c r="D234" s="4">
+        <v>61.6884391169189</v>
+      </c>
+      <c r="E234" s="6">
+        <v>20</v>
+      </c>
+      <c r="F234" s="3">
+        <f t="shared" si="4"/>
+        <v>49.350751293535119</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="H234" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B235" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C235" s="9">
+        <v>176</v>
+      </c>
+      <c r="D235" s="4">
+        <v>26.737228693181802</v>
+      </c>
+      <c r="E235" s="6">
+        <v>20</v>
+      </c>
+      <c r="F235" s="3">
+        <f t="shared" si="4"/>
+        <v>21.389782954545442</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="H235" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B236" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C236" s="9">
+        <v>133</v>
+      </c>
+      <c r="D236" s="4">
+        <v>38.877137464030397</v>
+      </c>
+      <c r="E236" s="6">
+        <v>20</v>
+      </c>
+      <c r="F236" s="3">
+        <f t="shared" si="4"/>
+        <v>31.101709971224317</v>
+      </c>
+      <c r="G236" s="1"/>
+      <c r="H236" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B237" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C237" s="9">
+        <v>112</v>
+      </c>
+      <c r="D237" s="4">
+        <v>84.797902080098396</v>
+      </c>
+      <c r="E237" s="6">
+        <v>20</v>
+      </c>
+      <c r="F237" s="3">
+        <f t="shared" si="4"/>
+        <v>67.83832166407872</v>
+      </c>
+      <c r="G237" s="1"/>
+      <c r="H237" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B238" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C238" s="9">
+        <v>176</v>
+      </c>
+      <c r="D238" s="4">
+        <v>28.527083389962801</v>
+      </c>
+      <c r="E238" s="6">
+        <v>20</v>
+      </c>
+      <c r="F238" s="3">
+        <f t="shared" si="4"/>
+        <v>22.821666711970241</v>
+      </c>
+      <c r="G238" s="1"/>
+      <c r="H238" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B239" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C239" s="9">
+        <v>132</v>
+      </c>
+      <c r="D239" s="4">
+        <v>60.166545304890803</v>
+      </c>
+      <c r="E239" s="6">
+        <v>20</v>
+      </c>
+      <c r="F239" s="3">
+        <f t="shared" si="4"/>
+        <v>48.133236243912641</v>
+      </c>
+      <c r="G239" s="1"/>
+      <c r="H239" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C240" s="9">
+        <v>135</v>
+      </c>
+      <c r="D240" s="4">
+        <v>60.993662368152201</v>
+      </c>
+      <c r="E240" s="6">
+        <v>20</v>
+      </c>
+      <c r="F240" s="3">
+        <f t="shared" si="4"/>
+        <v>48.794929894521758</v>
+      </c>
+      <c r="G240" s="1"/>
+      <c r="H240" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C241" s="9">
+        <v>120</v>
+      </c>
+      <c r="D241" s="4">
+        <v>127.952785274932</v>
+      </c>
+      <c r="E241" s="6">
+        <v>20</v>
+      </c>
+      <c r="F241" s="3">
+        <f t="shared" si="4"/>
+        <v>102.36222821994559</v>
+      </c>
+      <c r="G241" s="1"/>
+      <c r="H241" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C242" s="9">
+        <v>136</v>
+      </c>
+      <c r="D242" s="4">
+        <v>24.7439829621384</v>
+      </c>
+      <c r="E242" s="6">
+        <v>20</v>
+      </c>
+      <c r="F242" s="3">
+        <f t="shared" si="4"/>
+        <v>19.79518636971072</v>
+      </c>
+      <c r="G242" s="1"/>
+      <c r="H242" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C243" s="9">
+        <v>132</v>
+      </c>
+      <c r="D243" s="4">
+        <v>30.5238563954765</v>
+      </c>
+      <c r="E243" s="6">
+        <v>20</v>
+      </c>
+      <c r="F243" s="3">
+        <f t="shared" si="4"/>
+        <v>24.419085116381201</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C244" s="9">
+        <v>152</v>
+      </c>
+      <c r="D244" s="4">
+        <v>34.672134210526302</v>
+      </c>
+      <c r="E244" s="6">
+        <v>20</v>
+      </c>
+      <c r="F244" s="3">
+        <f t="shared" si="4"/>
+        <v>27.737707368421042</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B245" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C245" s="9">
+        <v>168</v>
+      </c>
+      <c r="D245" s="4">
+        <v>37.8538</v>
+      </c>
+      <c r="E245" s="6">
+        <v>20</v>
+      </c>
+      <c r="F245" s="3">
+        <f t="shared" si="4"/>
+        <v>30.28304</v>
+      </c>
+      <c r="G245" s="1"/>
+      <c r="H245" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B246" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C246" s="9">
+        <v>88</v>
+      </c>
+      <c r="D246" s="4">
+        <v>119.0881529413</v>
+      </c>
+      <c r="E246" s="6">
+        <v>20</v>
+      </c>
+      <c r="F246" s="3">
+        <f t="shared" si="4"/>
+        <v>95.270522353039993</v>
+      </c>
+      <c r="G246" s="1"/>
+      <c r="H246" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C247" s="9">
+        <v>152</v>
+      </c>
+      <c r="D247" s="4">
+        <v>24.737093539682402</v>
+      </c>
+      <c r="E247" s="6">
+        <v>20</v>
+      </c>
+      <c r="F247" s="3">
+        <f t="shared" si="4"/>
+        <v>19.78967483174592</v>
+      </c>
+      <c r="G247" s="1"/>
+      <c r="H247" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C248" s="9">
+        <v>152</v>
+      </c>
+      <c r="D248" s="4">
+        <v>46.686317567567599</v>
+      </c>
+      <c r="E248" s="6">
+        <v>20</v>
+      </c>
+      <c r="F248" s="3">
+        <f t="shared" si="4"/>
+        <v>37.349054054054079</v>
+      </c>
+      <c r="G248" s="1"/>
+      <c r="H248" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B249" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C249" s="9">
+        <v>112</v>
+      </c>
+      <c r="D249" s="4">
+        <v>86.741216864001004</v>
+      </c>
+      <c r="E249" s="6">
+        <v>20</v>
+      </c>
+      <c r="F249" s="3">
+        <f t="shared" si="4"/>
+        <v>69.392973491200806</v>
+      </c>
+      <c r="G249" s="1"/>
+      <c r="H249" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B250" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C250" s="9">
+        <v>114</v>
+      </c>
+      <c r="D250" s="4">
+        <v>83.828793746109397</v>
+      </c>
+      <c r="E250" s="6">
+        <v>20</v>
+      </c>
+      <c r="F250" s="3">
+        <f t="shared" si="4"/>
+        <v>67.063034996887524</v>
+      </c>
+      <c r="G250" s="1"/>
+      <c r="H250" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B251" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C251" s="9">
+        <v>152</v>
+      </c>
+      <c r="D251" s="4">
+        <v>45.589440789473599</v>
+      </c>
+      <c r="E251" s="6">
+        <v>20</v>
+      </c>
+      <c r="F251" s="3">
+        <f t="shared" si="4"/>
+        <v>36.471552631578881</v>
+      </c>
+      <c r="G251" s="1"/>
+      <c r="H251" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B252" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C252" s="9">
+        <v>152</v>
+      </c>
+      <c r="D252" s="4">
+        <v>35.371537396121902</v>
+      </c>
+      <c r="E252" s="6">
+        <v>20</v>
+      </c>
+      <c r="F252" s="3">
+        <f t="shared" si="4"/>
+        <v>28.297229916897521</v>
+      </c>
+      <c r="G252" s="1"/>
+      <c r="H252" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B253" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C253" s="9">
+        <v>152</v>
+      </c>
+      <c r="D253" s="4">
+        <v>44.800876038781098</v>
+      </c>
+      <c r="E253" s="6">
+        <v>20</v>
+      </c>
+      <c r="F253" s="3">
+        <f t="shared" si="4"/>
+        <v>35.840700831024876</v>
+      </c>
+      <c r="G253" s="1"/>
+      <c r="H253" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B254" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C254" s="9">
+        <v>152</v>
+      </c>
+      <c r="D254" s="4">
+        <v>32.989123961218802</v>
+      </c>
+      <c r="E254" s="6">
+        <v>20</v>
+      </c>
+      <c r="F254" s="3">
+        <f t="shared" si="4"/>
+        <v>26.391299168975042</v>
+      </c>
+      <c r="G254" s="1"/>
+      <c r="H254" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B255" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C255" s="9">
+        <v>168</v>
+      </c>
+      <c r="D255" s="4">
+        <v>27.7838885082387</v>
+      </c>
+      <c r="E255" s="6">
+        <v>20</v>
+      </c>
+      <c r="F255" s="3">
+        <f t="shared" si="4"/>
+        <v>22.227110806590961</v>
+      </c>
+      <c r="G255" s="1"/>
+      <c r="H255" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B256" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C256" s="9">
+        <v>148</v>
+      </c>
+      <c r="D256" s="4">
+        <v>30.1912194353981</v>
+      </c>
+      <c r="E256" s="6">
+        <v>20</v>
+      </c>
+      <c r="F256" s="3">
+        <f t="shared" si="4"/>
+        <v>24.15297554831848</v>
+      </c>
+      <c r="G256" s="1"/>
+      <c r="H256" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C257" s="9">
+        <v>168</v>
+      </c>
+      <c r="D257" s="4">
+        <v>31.171209075516199</v>
+      </c>
+      <c r="E257" s="6">
+        <v>20</v>
+      </c>
+      <c r="F257" s="3">
+        <f t="shared" si="4"/>
+        <v>24.93696726041296</v>
+      </c>
+      <c r="G257" s="1"/>
+      <c r="H257" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B258" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C258" s="9">
+        <v>160</v>
+      </c>
+      <c r="D258" s="4">
+        <v>33.348073423913</v>
+      </c>
+      <c r="E258" s="6">
+        <v>20</v>
+      </c>
+      <c r="F258" s="3">
+        <f t="shared" si="4"/>
+        <v>26.678458739130399</v>
+      </c>
+      <c r="G258" s="1"/>
+      <c r="H258" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B259" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C259" s="9">
+        <v>136</v>
+      </c>
+      <c r="D259" s="4">
+        <v>38.280663644405102</v>
+      </c>
+      <c r="E259" s="6">
+        <v>20</v>
+      </c>
+      <c r="F259" s="3">
+        <f t="shared" si="4"/>
+        <v>30.624530915524083</v>
+      </c>
+      <c r="G259" s="1"/>
+      <c r="H259" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C260" s="9">
+        <v>144</v>
+      </c>
+      <c r="D260" s="4">
+        <v>41.106783786674796</v>
+      </c>
+      <c r="E260" s="6">
+        <v>20</v>
+      </c>
+      <c r="F260" s="3">
+        <f t="shared" si="4"/>
+        <v>32.885427029339837</v>
+      </c>
+      <c r="G260" s="1"/>
+      <c r="H260" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B261" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C261" s="9">
+        <v>23</v>
+      </c>
+      <c r="D261" s="4">
+        <v>164.14772914971101</v>
+      </c>
+      <c r="E261" s="6">
+        <v>20</v>
+      </c>
+      <c r="F261" s="3">
+        <f t="shared" si="4"/>
+        <v>131.31818331976882</v>
+      </c>
+      <c r="G261" s="1"/>
+      <c r="H261" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B262" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C262" s="9">
+        <v>127</v>
+      </c>
+      <c r="D262" s="4">
+        <v>43.279424242424199</v>
+      </c>
+      <c r="E262" s="6">
+        <v>20</v>
+      </c>
+      <c r="F262" s="3">
+        <f t="shared" si="4"/>
+        <v>34.62353939393936</v>
+      </c>
+      <c r="G262" s="1"/>
+      <c r="H262" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B263" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C263" s="9">
+        <v>132</v>
+      </c>
+      <c r="D263" s="4">
+        <v>43.279424242424199</v>
+      </c>
+      <c r="E263" s="6">
+        <v>20</v>
+      </c>
+      <c r="F263" s="3">
+        <f t="shared" si="4"/>
+        <v>34.62353939393936</v>
+      </c>
+      <c r="G263" s="1"/>
+      <c r="H263" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C264" s="9">
+        <v>160</v>
+      </c>
+      <c r="D264" s="4">
+        <v>30.721294219684399</v>
+      </c>
+      <c r="E264" s="6">
+        <v>20</v>
+      </c>
+      <c r="F264" s="3">
+        <f t="shared" si="4"/>
+        <v>24.577035375747521</v>
+      </c>
+      <c r="G264" s="1"/>
+      <c r="H264" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B265" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C265" s="9">
+        <v>40</v>
+      </c>
+      <c r="D265" s="4">
+        <v>51.535427173913099</v>
+      </c>
+      <c r="E265" s="6">
+        <v>20</v>
+      </c>
+      <c r="F265" s="3">
+        <f t="shared" si="4"/>
+        <v>41.228341739130478</v>
+      </c>
+      <c r="G265" s="1"/>
+      <c r="H265" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B266" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C266" s="9">
+        <v>56</v>
+      </c>
+      <c r="D266" s="4">
+        <v>120.773862073457</v>
+      </c>
+      <c r="E266" s="6">
+        <v>20</v>
+      </c>
+      <c r="F266" s="3">
+        <f t="shared" si="4"/>
+        <v>96.619089658765603</v>
+      </c>
+      <c r="G266" s="1"/>
+      <c r="H266" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B267" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C267" s="9">
+        <v>168</v>
+      </c>
+      <c r="D267" s="4">
+        <v>37.264659877027697</v>
+      </c>
+      <c r="E267" s="6">
+        <v>20</v>
+      </c>
+      <c r="F267" s="3">
+        <f t="shared" si="4"/>
+        <v>29.811727901622156</v>
+      </c>
+      <c r="G267" s="1"/>
+      <c r="H267" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B268" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C268" s="9">
+        <v>132</v>
+      </c>
+      <c r="D268" s="4">
+        <v>108.266729710902</v>
+      </c>
+      <c r="E268" s="6">
+        <v>20</v>
+      </c>
+      <c r="F268" s="3">
+        <f t="shared" si="4"/>
+        <v>86.613383768721604</v>
+      </c>
+      <c r="G268" s="1"/>
+      <c r="H268" s="8"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B269" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C269" s="9">
+        <v>112</v>
+      </c>
+      <c r="D269" s="4">
+        <v>29.8303041666667</v>
+      </c>
+      <c r="E269" s="6">
+        <v>20</v>
+      </c>
+      <c r="F269" s="3">
+        <f t="shared" ref="F269:F271" si="5">D269-(D269*E269)/100</f>
+        <v>23.864243333333359</v>
+      </c>
+      <c r="G269" s="1"/>
+      <c r="H269" s="8"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B270" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C270" s="9">
+        <v>144</v>
+      </c>
+      <c r="D270" s="4">
+        <v>46.686317567567599</v>
+      </c>
+      <c r="E270" s="6">
+        <v>20</v>
+      </c>
+      <c r="F270" s="3">
+        <f t="shared" si="5"/>
+        <v>37.349054054054079</v>
+      </c>
+      <c r="G270" s="1"/>
+      <c r="H270" s="8"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B271" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C271" s="9">
+        <v>152</v>
+      </c>
+      <c r="D271" s="4">
+        <v>37.557839125653103</v>
+      </c>
+      <c r="E271" s="6">
+        <v>20</v>
+      </c>
+      <c r="F271" s="3">
+        <f t="shared" si="5"/>
+        <v>30.046271300522484</v>
+      </c>
+      <c r="G271" s="1"/>
+      <c r="H271" s="8"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B272" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C272" s="9">
+        <v>8</v>
+      </c>
+      <c r="D272" s="4">
+        <v>31.246849999999998</v>
+      </c>
+      <c r="E272" s="6">
+        <v>20</v>
+      </c>
+      <c r="F272" s="3">
+        <f t="shared" ref="F272" si="6">D272-(D272*E272)/100</f>
+        <v>24.997479999999999</v>
+      </c>
+      <c r="G272" s="1"/>
+      <c r="H272" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G200"/>
+  <autoFilter ref="A1:G205"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H14" r:id="rId14"/>
-    <hyperlink ref="H15" r:id="rId15"/>
-    <hyperlink ref="H16" r:id="rId16"/>
-    <hyperlink ref="H17" r:id="rId17"/>
-    <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H19" r:id="rId19"/>
-    <hyperlink ref="H20" r:id="rId20"/>
-    <hyperlink ref="H21" r:id="rId21"/>
-    <hyperlink ref="H22" r:id="rId22"/>
-    <hyperlink ref="H23" r:id="rId23"/>
-    <hyperlink ref="H24" r:id="rId24"/>
-    <hyperlink ref="H25" r:id="rId25"/>
-    <hyperlink ref="H26" r:id="rId26"/>
-    <hyperlink ref="H27" r:id="rId27"/>
-    <hyperlink ref="H28" r:id="rId28"/>
-    <hyperlink ref="H29" r:id="rId29"/>
-    <hyperlink ref="H30" r:id="rId30"/>
-    <hyperlink ref="H31" r:id="rId31"/>
-    <hyperlink ref="H32" r:id="rId32"/>
-    <hyperlink ref="H33" r:id="rId33"/>
-    <hyperlink ref="H35" r:id="rId34"/>
-    <hyperlink ref="H36" r:id="rId35"/>
-    <hyperlink ref="H37" r:id="rId36"/>
-    <hyperlink ref="H38" r:id="rId37"/>
-    <hyperlink ref="H39" r:id="rId38"/>
-    <hyperlink ref="H40" r:id="rId39"/>
-    <hyperlink ref="H41" r:id="rId40"/>
-    <hyperlink ref="H42" r:id="rId41"/>
-    <hyperlink ref="H43" r:id="rId42"/>
-    <hyperlink ref="H44" r:id="rId43"/>
-    <hyperlink ref="H45" r:id="rId44"/>
-    <hyperlink ref="H46" r:id="rId45"/>
-    <hyperlink ref="H47" r:id="rId46"/>
-    <hyperlink ref="H48" r:id="rId47"/>
-    <hyperlink ref="H49" r:id="rId48"/>
-    <hyperlink ref="H50" r:id="rId49"/>
-    <hyperlink ref="H51" r:id="rId50"/>
-    <hyperlink ref="H52" r:id="rId51"/>
-    <hyperlink ref="H53" r:id="rId52"/>
-    <hyperlink ref="H54" r:id="rId53"/>
-    <hyperlink ref="H55" r:id="rId54"/>
-    <hyperlink ref="H56" r:id="rId55"/>
-    <hyperlink ref="H57" r:id="rId56"/>
-    <hyperlink ref="H58" r:id="rId57"/>
-    <hyperlink ref="H59" r:id="rId58"/>
-    <hyperlink ref="H60" r:id="rId59"/>
-    <hyperlink ref="H61" r:id="rId60"/>
-    <hyperlink ref="H62" r:id="rId61"/>
-    <hyperlink ref="H63" r:id="rId62"/>
-    <hyperlink ref="H64" r:id="rId63"/>
-    <hyperlink ref="G66" r:id="rId64"/>
-    <hyperlink ref="H66" r:id="rId65"/>
-    <hyperlink ref="H67" r:id="rId66"/>
-    <hyperlink ref="H68" r:id="rId67"/>
-    <hyperlink ref="H69" r:id="rId68"/>
-    <hyperlink ref="H70" r:id="rId69"/>
-    <hyperlink ref="H71" r:id="rId70"/>
-    <hyperlink ref="H72" r:id="rId71"/>
-    <hyperlink ref="H73" r:id="rId72"/>
-    <hyperlink ref="H74" r:id="rId73"/>
-    <hyperlink ref="H75" r:id="rId74"/>
-    <hyperlink ref="H76" r:id="rId75"/>
-    <hyperlink ref="H77" r:id="rId76"/>
-    <hyperlink ref="H78" r:id="rId77"/>
-    <hyperlink ref="H79" r:id="rId78"/>
-    <hyperlink ref="H80" r:id="rId79"/>
-    <hyperlink ref="H81" r:id="rId80"/>
-    <hyperlink ref="H82" r:id="rId81"/>
-    <hyperlink ref="H83" r:id="rId82"/>
-    <hyperlink ref="H84" r:id="rId83"/>
-    <hyperlink ref="H85" r:id="rId84"/>
-    <hyperlink ref="H86" r:id="rId85"/>
-    <hyperlink ref="H87" r:id="rId86"/>
-    <hyperlink ref="H88" r:id="rId87"/>
-    <hyperlink ref="H89" r:id="rId88"/>
-    <hyperlink ref="H90" r:id="rId89"/>
-    <hyperlink ref="H91" r:id="rId90"/>
-    <hyperlink ref="H92" r:id="rId91"/>
-    <hyperlink ref="H93" r:id="rId92"/>
-    <hyperlink ref="H94" r:id="rId93"/>
-    <hyperlink ref="H95" r:id="rId94"/>
-    <hyperlink ref="H96" r:id="rId95"/>
-    <hyperlink ref="H97" r:id="rId96"/>
-    <hyperlink ref="H98" r:id="rId97"/>
-    <hyperlink ref="H99" r:id="rId98"/>
-    <hyperlink ref="H100" r:id="rId99"/>
-    <hyperlink ref="H101" r:id="rId100"/>
-    <hyperlink ref="H102" r:id="rId101"/>
-    <hyperlink ref="H103" r:id="rId102"/>
-    <hyperlink ref="H104" r:id="rId103"/>
-    <hyperlink ref="H105" r:id="rId104"/>
-    <hyperlink ref="H106" r:id="rId105"/>
-    <hyperlink ref="H107" r:id="rId106"/>
-    <hyperlink ref="H108" r:id="rId107"/>
-    <hyperlink ref="H109" r:id="rId108"/>
-    <hyperlink ref="H110" r:id="rId109"/>
-    <hyperlink ref="H111" r:id="rId110"/>
-    <hyperlink ref="H112" r:id="rId111"/>
-    <hyperlink ref="H113" r:id="rId112"/>
-    <hyperlink ref="H114" r:id="rId113"/>
-    <hyperlink ref="H115" r:id="rId114"/>
-    <hyperlink ref="H116" r:id="rId115"/>
-    <hyperlink ref="H117" r:id="rId116"/>
-    <hyperlink ref="H118" r:id="rId117"/>
-    <hyperlink ref="H119" r:id="rId118"/>
-    <hyperlink ref="H120" r:id="rId119"/>
-    <hyperlink ref="H121" r:id="rId120"/>
-    <hyperlink ref="H122" r:id="rId121"/>
-    <hyperlink ref="H123" r:id="rId122"/>
-    <hyperlink ref="H124" r:id="rId123"/>
-    <hyperlink ref="H125" r:id="rId124"/>
-    <hyperlink ref="H126" r:id="rId125"/>
-    <hyperlink ref="H127" r:id="rId126"/>
-    <hyperlink ref="G132" r:id="rId127"/>
-    <hyperlink ref="H132" r:id="rId128"/>
-    <hyperlink ref="H133" r:id="rId129"/>
-    <hyperlink ref="H135" r:id="rId130"/>
-    <hyperlink ref="H136" r:id="rId131"/>
-    <hyperlink ref="H137" r:id="rId132"/>
-    <hyperlink ref="H138" r:id="rId133"/>
-    <hyperlink ref="H139" r:id="rId134"/>
-    <hyperlink ref="H140" r:id="rId135"/>
-    <hyperlink ref="H141" r:id="rId136"/>
-    <hyperlink ref="H142" r:id="rId137"/>
-    <hyperlink ref="H143" r:id="rId138"/>
-    <hyperlink ref="H144" r:id="rId139"/>
-    <hyperlink ref="H145" r:id="rId140"/>
-    <hyperlink ref="H146" r:id="rId141"/>
-    <hyperlink ref="H147" r:id="rId142"/>
-    <hyperlink ref="H148" r:id="rId143"/>
-    <hyperlink ref="H149" r:id="rId144"/>
-    <hyperlink ref="H150" r:id="rId145"/>
-    <hyperlink ref="H151" r:id="rId146"/>
-    <hyperlink ref="H152" r:id="rId147"/>
-    <hyperlink ref="H153" r:id="rId148"/>
-    <hyperlink ref="H154" r:id="rId149"/>
-    <hyperlink ref="H155" r:id="rId150"/>
-    <hyperlink ref="H156" r:id="rId151"/>
-    <hyperlink ref="H157" r:id="rId152"/>
-    <hyperlink ref="H158" r:id="rId153"/>
-    <hyperlink ref="H159" r:id="rId154"/>
-    <hyperlink ref="H161" r:id="rId155"/>
-    <hyperlink ref="H162" r:id="rId156"/>
-    <hyperlink ref="H163" r:id="rId157"/>
-    <hyperlink ref="H164" r:id="rId158"/>
-    <hyperlink ref="H165" r:id="rId159"/>
-    <hyperlink ref="H166" r:id="rId160"/>
-    <hyperlink ref="H167" r:id="rId161"/>
-    <hyperlink ref="H168" r:id="rId162"/>
-    <hyperlink ref="H169" r:id="rId163"/>
-    <hyperlink ref="H170" r:id="rId164"/>
-    <hyperlink ref="H171" r:id="rId165"/>
-    <hyperlink ref="H172" r:id="rId166"/>
-    <hyperlink ref="H173" r:id="rId167"/>
-    <hyperlink ref="H174" r:id="rId168"/>
-    <hyperlink ref="H175" r:id="rId169"/>
-    <hyperlink ref="H176" r:id="rId170"/>
-    <hyperlink ref="H177" r:id="rId171"/>
-    <hyperlink ref="H178" r:id="rId172"/>
-    <hyperlink ref="H179" r:id="rId173"/>
-    <hyperlink ref="H180" r:id="rId174"/>
-    <hyperlink ref="H181" r:id="rId175"/>
-    <hyperlink ref="H182" r:id="rId176"/>
-    <hyperlink ref="H183" r:id="rId177"/>
-    <hyperlink ref="H184" r:id="rId178"/>
-    <hyperlink ref="H185" r:id="rId179"/>
-    <hyperlink ref="H186" r:id="rId180"/>
-    <hyperlink ref="H187" r:id="rId181"/>
-    <hyperlink ref="H188" r:id="rId182"/>
-    <hyperlink ref="H189" r:id="rId183"/>
-    <hyperlink ref="H190" r:id="rId184"/>
-    <hyperlink ref="H191" r:id="rId185"/>
-    <hyperlink ref="H192" r:id="rId186"/>
-    <hyperlink ref="H193" r:id="rId187"/>
-    <hyperlink ref="H194" r:id="rId188"/>
-    <hyperlink ref="H195" r:id="rId189"/>
-    <hyperlink ref="H160" r:id="rId190" display="mailto:cyborg.3@hotmail.it"/>
+    <hyperlink ref="G74" r:id="rId1"/>
+    <hyperlink ref="H74" r:id="rId2"/>
+    <hyperlink ref="H75" r:id="rId3"/>
+    <hyperlink ref="H76" r:id="rId4"/>
+    <hyperlink ref="H77" r:id="rId5"/>
+    <hyperlink ref="H78" r:id="rId6"/>
+    <hyperlink ref="H79" r:id="rId7"/>
+    <hyperlink ref="H80" r:id="rId8"/>
+    <hyperlink ref="H81" r:id="rId9"/>
+    <hyperlink ref="H82" r:id="rId10"/>
+    <hyperlink ref="H83" r:id="rId11"/>
+    <hyperlink ref="H84" r:id="rId12"/>
+    <hyperlink ref="H85" r:id="rId13"/>
+    <hyperlink ref="H86" r:id="rId14"/>
+    <hyperlink ref="H87" r:id="rId15"/>
+    <hyperlink ref="H88" r:id="rId16"/>
+    <hyperlink ref="H89" r:id="rId17"/>
+    <hyperlink ref="H90" r:id="rId18"/>
+    <hyperlink ref="H91" r:id="rId19"/>
+    <hyperlink ref="H92" r:id="rId20"/>
+    <hyperlink ref="H93" r:id="rId21"/>
+    <hyperlink ref="H94" r:id="rId22"/>
+    <hyperlink ref="H95" r:id="rId23"/>
+    <hyperlink ref="H96" r:id="rId24"/>
+    <hyperlink ref="H97" r:id="rId25"/>
+    <hyperlink ref="H98" r:id="rId26"/>
+    <hyperlink ref="H99" r:id="rId27"/>
+    <hyperlink ref="H100" r:id="rId28"/>
+    <hyperlink ref="H101" r:id="rId29"/>
+    <hyperlink ref="H102" r:id="rId30"/>
+    <hyperlink ref="H103" r:id="rId31"/>
+    <hyperlink ref="H104" r:id="rId32"/>
+    <hyperlink ref="H105" r:id="rId33"/>
+    <hyperlink ref="H107" r:id="rId34"/>
+    <hyperlink ref="H108" r:id="rId35"/>
+    <hyperlink ref="H109" r:id="rId36"/>
+    <hyperlink ref="H110" r:id="rId37"/>
+    <hyperlink ref="H111" r:id="rId38"/>
+    <hyperlink ref="H112" r:id="rId39"/>
+    <hyperlink ref="H113" r:id="rId40"/>
+    <hyperlink ref="H114" r:id="rId41"/>
+    <hyperlink ref="H115" r:id="rId42"/>
+    <hyperlink ref="H116" r:id="rId43"/>
+    <hyperlink ref="H117" r:id="rId44"/>
+    <hyperlink ref="H118" r:id="rId45"/>
+    <hyperlink ref="H119" r:id="rId46"/>
+    <hyperlink ref="H120" r:id="rId47"/>
+    <hyperlink ref="H121" r:id="rId48"/>
+    <hyperlink ref="H122" r:id="rId49"/>
+    <hyperlink ref="H123" r:id="rId50"/>
+    <hyperlink ref="H124" r:id="rId51"/>
+    <hyperlink ref="H125" r:id="rId52"/>
+    <hyperlink ref="H126" r:id="rId53"/>
+    <hyperlink ref="H127" r:id="rId54"/>
+    <hyperlink ref="H128" r:id="rId55"/>
+    <hyperlink ref="H129" r:id="rId56"/>
+    <hyperlink ref="H130" r:id="rId57"/>
+    <hyperlink ref="H131" r:id="rId58"/>
+    <hyperlink ref="H132" r:id="rId59"/>
+    <hyperlink ref="H133" r:id="rId60"/>
+    <hyperlink ref="H134" r:id="rId61"/>
+    <hyperlink ref="H135" r:id="rId62"/>
+    <hyperlink ref="H136" r:id="rId63"/>
+    <hyperlink ref="G138" r:id="rId64"/>
+    <hyperlink ref="H138" r:id="rId65"/>
+    <hyperlink ref="H139" r:id="rId66"/>
+    <hyperlink ref="H140" r:id="rId67"/>
+    <hyperlink ref="H141" r:id="rId68"/>
+    <hyperlink ref="H142" r:id="rId69"/>
+    <hyperlink ref="H143" r:id="rId70"/>
+    <hyperlink ref="H144" r:id="rId71"/>
+    <hyperlink ref="H145" r:id="rId72"/>
+    <hyperlink ref="H146" r:id="rId73"/>
+    <hyperlink ref="H147" r:id="rId74"/>
+    <hyperlink ref="H148" r:id="rId75"/>
+    <hyperlink ref="H149" r:id="rId76"/>
+    <hyperlink ref="H150" r:id="rId77"/>
+    <hyperlink ref="H151" r:id="rId78"/>
+    <hyperlink ref="H152" r:id="rId79"/>
+    <hyperlink ref="H153" r:id="rId80"/>
+    <hyperlink ref="H154" r:id="rId81"/>
+    <hyperlink ref="H155" r:id="rId82"/>
+    <hyperlink ref="H156" r:id="rId83"/>
+    <hyperlink ref="H157" r:id="rId84"/>
+    <hyperlink ref="H158" r:id="rId85"/>
+    <hyperlink ref="H159" r:id="rId86"/>
+    <hyperlink ref="H160" r:id="rId87"/>
+    <hyperlink ref="H161" r:id="rId88"/>
+    <hyperlink ref="H162" r:id="rId89"/>
+    <hyperlink ref="H163" r:id="rId90"/>
+    <hyperlink ref="H164" r:id="rId91"/>
+    <hyperlink ref="H165" r:id="rId92"/>
+    <hyperlink ref="H166" r:id="rId93"/>
+    <hyperlink ref="H167" r:id="rId94"/>
+    <hyperlink ref="H168" r:id="rId95"/>
+    <hyperlink ref="H169" r:id="rId96"/>
+    <hyperlink ref="H170" r:id="rId97"/>
+    <hyperlink ref="H171" r:id="rId98"/>
+    <hyperlink ref="H172" r:id="rId99"/>
+    <hyperlink ref="H173" r:id="rId100"/>
+    <hyperlink ref="H174" r:id="rId101"/>
+    <hyperlink ref="H175" r:id="rId102"/>
+    <hyperlink ref="H176" r:id="rId103"/>
+    <hyperlink ref="H177" r:id="rId104"/>
+    <hyperlink ref="H178" r:id="rId105"/>
+    <hyperlink ref="H179" r:id="rId106"/>
+    <hyperlink ref="H180" r:id="rId107"/>
+    <hyperlink ref="H181" r:id="rId108"/>
+    <hyperlink ref="H182" r:id="rId109"/>
+    <hyperlink ref="H183" r:id="rId110"/>
+    <hyperlink ref="H184" r:id="rId111"/>
+    <hyperlink ref="H185" r:id="rId112"/>
+    <hyperlink ref="H186" r:id="rId113"/>
+    <hyperlink ref="H187" r:id="rId114"/>
+    <hyperlink ref="H188" r:id="rId115"/>
+    <hyperlink ref="H189" r:id="rId116"/>
+    <hyperlink ref="H190" r:id="rId117"/>
+    <hyperlink ref="H191" r:id="rId118"/>
+    <hyperlink ref="H192" r:id="rId119"/>
+    <hyperlink ref="H193" r:id="rId120"/>
+    <hyperlink ref="H194" r:id="rId121"/>
+    <hyperlink ref="H195" r:id="rId122"/>
+    <hyperlink ref="H196" r:id="rId123"/>
+    <hyperlink ref="H197" r:id="rId124"/>
+    <hyperlink ref="H198" r:id="rId125"/>
+    <hyperlink ref="H199" r:id="rId126"/>
+    <hyperlink ref="G204" r:id="rId127"/>
+    <hyperlink ref="H204" r:id="rId128"/>
+    <hyperlink ref="H205" r:id="rId129"/>
+    <hyperlink ref="H207" r:id="rId130"/>
+    <hyperlink ref="H208" r:id="rId131"/>
+    <hyperlink ref="H209" r:id="rId132"/>
+    <hyperlink ref="H210" r:id="rId133"/>
+    <hyperlink ref="H211" r:id="rId134"/>
+    <hyperlink ref="H212" r:id="rId135"/>
+    <hyperlink ref="H213" r:id="rId136"/>
+    <hyperlink ref="H214" r:id="rId137"/>
+    <hyperlink ref="H215" r:id="rId138"/>
+    <hyperlink ref="H216" r:id="rId139"/>
+    <hyperlink ref="H217" r:id="rId140"/>
+    <hyperlink ref="H218" r:id="rId141"/>
+    <hyperlink ref="H219" r:id="rId142"/>
+    <hyperlink ref="H220" r:id="rId143"/>
+    <hyperlink ref="H221" r:id="rId144"/>
+    <hyperlink ref="H222" r:id="rId145"/>
+    <hyperlink ref="H223" r:id="rId146"/>
+    <hyperlink ref="H224" r:id="rId147"/>
+    <hyperlink ref="H225" r:id="rId148"/>
+    <hyperlink ref="H226" r:id="rId149"/>
+    <hyperlink ref="H227" r:id="rId150"/>
+    <hyperlink ref="H228" r:id="rId151"/>
+    <hyperlink ref="H229" r:id="rId152"/>
+    <hyperlink ref="H230" r:id="rId153"/>
+    <hyperlink ref="H231" r:id="rId154"/>
+    <hyperlink ref="H233" r:id="rId155"/>
+    <hyperlink ref="H234" r:id="rId156"/>
+    <hyperlink ref="H235" r:id="rId157"/>
+    <hyperlink ref="H236" r:id="rId158"/>
+    <hyperlink ref="H237" r:id="rId159"/>
+    <hyperlink ref="H238" r:id="rId160"/>
+    <hyperlink ref="H239" r:id="rId161"/>
+    <hyperlink ref="H240" r:id="rId162"/>
+    <hyperlink ref="H241" r:id="rId163"/>
+    <hyperlink ref="H242" r:id="rId164"/>
+    <hyperlink ref="H243" r:id="rId165"/>
+    <hyperlink ref="H244" r:id="rId166"/>
+    <hyperlink ref="H245" r:id="rId167"/>
+    <hyperlink ref="H246" r:id="rId168"/>
+    <hyperlink ref="H247" r:id="rId169"/>
+    <hyperlink ref="H248" r:id="rId170"/>
+    <hyperlink ref="H249" r:id="rId171"/>
+    <hyperlink ref="H250" r:id="rId172"/>
+    <hyperlink ref="H251" r:id="rId173"/>
+    <hyperlink ref="H252" r:id="rId174"/>
+    <hyperlink ref="H253" r:id="rId175"/>
+    <hyperlink ref="H254" r:id="rId176"/>
+    <hyperlink ref="H255" r:id="rId177"/>
+    <hyperlink ref="H256" r:id="rId178"/>
+    <hyperlink ref="H257" r:id="rId179"/>
+    <hyperlink ref="H258" r:id="rId180"/>
+    <hyperlink ref="H259" r:id="rId181"/>
+    <hyperlink ref="H260" r:id="rId182"/>
+    <hyperlink ref="H261" r:id="rId183"/>
+    <hyperlink ref="H262" r:id="rId184"/>
+    <hyperlink ref="H263" r:id="rId185"/>
+    <hyperlink ref="H264" r:id="rId186"/>
+    <hyperlink ref="H265" r:id="rId187"/>
+    <hyperlink ref="H266" r:id="rId188"/>
+    <hyperlink ref="H267" r:id="rId189"/>
+    <hyperlink ref="H232" r:id="rId190" display="mailto:cyborg.3@hotmail.it"/>
+    <hyperlink ref="G2" r:id="rId191"/>
+    <hyperlink ref="H2" r:id="rId192"/>
+    <hyperlink ref="H3" r:id="rId193"/>
+    <hyperlink ref="H5" r:id="rId194"/>
+    <hyperlink ref="H6" r:id="rId195"/>
+    <hyperlink ref="H7" r:id="rId196"/>
+    <hyperlink ref="H8" r:id="rId197"/>
+    <hyperlink ref="H9" r:id="rId198"/>
+    <hyperlink ref="H10" r:id="rId199"/>
+    <hyperlink ref="H11" r:id="rId200"/>
+    <hyperlink ref="H12" r:id="rId201"/>
+    <hyperlink ref="H13" r:id="rId202"/>
+    <hyperlink ref="H14" r:id="rId203"/>
+    <hyperlink ref="H15" r:id="rId204"/>
+    <hyperlink ref="H16" r:id="rId205"/>
+    <hyperlink ref="H17" r:id="rId206"/>
+    <hyperlink ref="H18" r:id="rId207"/>
+    <hyperlink ref="H19" r:id="rId208"/>
+    <hyperlink ref="H20" r:id="rId209"/>
+    <hyperlink ref="H21" r:id="rId210"/>
+    <hyperlink ref="H22" r:id="rId211"/>
+    <hyperlink ref="H23" r:id="rId212"/>
+    <hyperlink ref="H24" r:id="rId213"/>
+    <hyperlink ref="H25" r:id="rId214"/>
+    <hyperlink ref="H26" r:id="rId215"/>
+    <hyperlink ref="H27" r:id="rId216"/>
+    <hyperlink ref="H28" r:id="rId217"/>
+    <hyperlink ref="H29" r:id="rId218"/>
+    <hyperlink ref="H31" r:id="rId219"/>
+    <hyperlink ref="H32" r:id="rId220"/>
+    <hyperlink ref="H34" r:id="rId221"/>
+    <hyperlink ref="H35" r:id="rId222"/>
+    <hyperlink ref="H37" r:id="rId223"/>
+    <hyperlink ref="H39" r:id="rId224"/>
+    <hyperlink ref="H40" r:id="rId225"/>
+    <hyperlink ref="H41" r:id="rId226"/>
+    <hyperlink ref="H42" r:id="rId227"/>
+    <hyperlink ref="H43" r:id="rId228"/>
+    <hyperlink ref="H44" r:id="rId229"/>
+    <hyperlink ref="H45" r:id="rId230"/>
+    <hyperlink ref="H46" r:id="rId231"/>
+    <hyperlink ref="H47" r:id="rId232"/>
+    <hyperlink ref="H48" r:id="rId233"/>
+    <hyperlink ref="H49" r:id="rId234"/>
+    <hyperlink ref="H50" r:id="rId235"/>
+    <hyperlink ref="H51" r:id="rId236"/>
+    <hyperlink ref="H52" r:id="rId237"/>
+    <hyperlink ref="H53" r:id="rId238"/>
+    <hyperlink ref="H54" r:id="rId239"/>
+    <hyperlink ref="H55" r:id="rId240"/>
+    <hyperlink ref="H56" r:id="rId241"/>
+    <hyperlink ref="H57" r:id="rId242"/>
+    <hyperlink ref="H58" r:id="rId243"/>
+    <hyperlink ref="H59" r:id="rId244"/>
+    <hyperlink ref="H60" r:id="rId245"/>
+    <hyperlink ref="H61" r:id="rId246"/>
+    <hyperlink ref="H62" r:id="rId247"/>
+    <hyperlink ref="H63" r:id="rId248"/>
+    <hyperlink ref="H64" r:id="rId249"/>
+    <hyperlink ref="H65" r:id="rId250"/>
+    <hyperlink ref="H66" r:id="rId251"/>
+    <hyperlink ref="H67" r:id="rId252"/>
+    <hyperlink ref="H68" r:id="rId253"/>
+    <hyperlink ref="H30" r:id="rId254" display="mailto:cyborg.3@hotmail.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$G$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="151">
   <si>
     <t>Tecnico</t>
   </si>
@@ -446,6 +448,30 @@
   </si>
   <si>
     <t>IRTE0000054 - RUSSO MATTEO</t>
+  </si>
+  <si>
+    <t>Luglio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Settembre</t>
+  </si>
+  <si>
+    <t>Ottobre</t>
+  </si>
+  <si>
+    <t>Produzione Reale</t>
+  </si>
+  <si>
+    <t>Sconto %</t>
+  </si>
+  <si>
+    <t>Avanzamento scontato</t>
+  </si>
+  <si>
+    <t>Mese</t>
   </si>
 </sst>
 </file>
@@ -569,16 +595,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -870,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5909,20 +5926,20 @@
         <v>4</v>
       </c>
       <c r="B204" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C204" s="9">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D204" s="4">
-        <v>23.405858757062099</v>
+        <v>24.556250651225799</v>
       </c>
       <c r="E204" s="6">
         <v>20</v>
       </c>
       <c r="F204" s="3">
         <f t="shared" si="4"/>
-        <v>18.724687005649677</v>
+        <v>19.645000520980638</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>67</v>
@@ -5936,20 +5953,20 @@
         <v>5</v>
       </c>
       <c r="B205" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C205" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D205" s="4">
-        <v>45.767940026595703</v>
+        <v>41.883979854190599</v>
       </c>
       <c r="E205" s="6">
         <v>20</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="4"/>
-        <v>36.614352021276559</v>
+        <v>33.507183883352482</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>67</v>
@@ -5963,20 +5980,20 @@
         <v>139</v>
       </c>
       <c r="B206" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C206" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D206" s="4">
-        <v>143.026170212766</v>
+        <v>93.460071986016601</v>
       </c>
       <c r="E206" s="6">
         <v>20</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="4"/>
-        <v>114.4209361702128</v>
+        <v>74.768057588813278</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="8"/>
@@ -5986,20 +6003,20 @@
         <v>6</v>
       </c>
       <c r="B207" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C207" s="9">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D207" s="4">
-        <v>24.546376670750199</v>
+        <v>23.745086223943701</v>
       </c>
       <c r="E207" s="6">
         <v>20</v>
       </c>
       <c r="F207" s="3">
         <f t="shared" si="4"/>
-        <v>19.637101336600161</v>
+        <v>18.996068979154963</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="8" t="s">
@@ -6011,20 +6028,20 @@
         <v>7</v>
       </c>
       <c r="B208" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C208" s="9">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D208" s="4">
-        <v>55.253440217391301</v>
+        <v>58.399199074074097</v>
       </c>
       <c r="E208" s="6">
         <v>20</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="4"/>
-        <v>44.202752173913041</v>
+        <v>46.719359259259278</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="8" t="s">
@@ -6036,20 +6053,20 @@
         <v>8</v>
       </c>
       <c r="B209" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C209" s="9">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D209" s="4">
-        <v>29.416705067778601</v>
+        <v>29.8099401517172</v>
       </c>
       <c r="E209" s="6">
         <v>20</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="4"/>
-        <v>23.533364054222879</v>
+        <v>23.847952121373758</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="8" t="s">
@@ -6061,20 +6078,20 @@
         <v>9</v>
       </c>
       <c r="B210" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C210" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D210" s="4">
-        <v>29.510803439479201</v>
+        <v>29.548206421502499</v>
       </c>
       <c r="E210" s="6">
         <v>20</v>
       </c>
       <c r="F210" s="3">
         <f t="shared" si="4"/>
-        <v>23.608642751583361</v>
+        <v>23.638565137202001</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="8" t="s">
@@ -6086,20 +6103,20 @@
         <v>10</v>
       </c>
       <c r="B211" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C211" s="9">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D211" s="4">
-        <v>27.423697674418602</v>
+        <v>31.034859872611499</v>
       </c>
       <c r="E211" s="6">
         <v>20</v>
       </c>
       <c r="F211" s="3">
         <f t="shared" si="4"/>
-        <v>21.938958139534883</v>
+        <v>24.827887898089198</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="8" t="s">
@@ -6111,20 +6128,20 @@
         <v>11</v>
       </c>
       <c r="B212" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C212" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D212" s="4">
-        <v>30.393394088669901</v>
+        <v>28.915716599190301</v>
       </c>
       <c r="E212" s="6">
         <v>20</v>
       </c>
       <c r="F212" s="3">
         <f t="shared" si="4"/>
-        <v>24.31471527093592</v>
+        <v>23.13257327935224</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="8" t="s">
@@ -6136,20 +6153,20 @@
         <v>12</v>
       </c>
       <c r="B213" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C213" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D213" s="4">
-        <v>58.796948733518498</v>
+        <v>51.070103638084198</v>
       </c>
       <c r="E213" s="6">
         <v>20</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="4"/>
-        <v>47.037558986814801</v>
+        <v>40.856082910467357</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="8" t="s">
@@ -6161,20 +6178,20 @@
         <v>13</v>
       </c>
       <c r="B214" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C214" s="9">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D214" s="4">
-        <v>57.657570580764599</v>
+        <v>49.855904368061701</v>
       </c>
       <c r="E214" s="6">
         <v>20</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="4"/>
-        <v>46.126056464611679</v>
+        <v>39.884723494449361</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="8" t="s">
@@ -6186,20 +6203,20 @@
         <v>14</v>
       </c>
       <c r="B215" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C215" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D215" s="4">
-        <v>164.14772914971101</v>
+        <v>95.550421387620702</v>
       </c>
       <c r="E215" s="6">
         <v>20</v>
       </c>
       <c r="F215" s="3">
         <f t="shared" si="4"/>
-        <v>131.31818331976882</v>
+        <v>76.440337110096564</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="8" t="s">
@@ -6211,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="B216" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="4"/>
@@ -6232,20 +6249,20 @@
         <v>16</v>
       </c>
       <c r="B217" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C217" s="9">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D217" s="4">
-        <v>29.022520112150001</v>
+        <v>29.683272180618701</v>
       </c>
       <c r="E217" s="6">
         <v>20</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="4"/>
-        <v>23.218016089720003</v>
+        <v>23.746617744494962</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="8" t="s">
@@ -6257,20 +6274,20 @@
         <v>17</v>
       </c>
       <c r="B218" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C218" s="9">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D218" s="4">
-        <v>34.768964616402101</v>
+        <v>36.731199514678003</v>
       </c>
       <c r="E218" s="6">
         <v>20</v>
       </c>
       <c r="F218" s="3">
         <f t="shared" si="4"/>
-        <v>27.81517169312168</v>
+        <v>29.384959611742403</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="8" t="s">
@@ -6282,20 +6299,20 @@
         <v>18</v>
       </c>
       <c r="B219" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C219" s="9">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D219" s="4">
-        <v>27.9399038461539</v>
+        <v>30.8638085106383</v>
       </c>
       <c r="E219" s="6">
         <v>20</v>
       </c>
       <c r="F219" s="3">
         <f t="shared" si="4"/>
-        <v>22.351923076923121</v>
+        <v>24.691046808510642</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="8" t="s">
@@ -6307,7 +6324,7 @@
         <v>19</v>
       </c>
       <c r="B220" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="4"/>
@@ -6328,20 +6345,20 @@
         <v>20</v>
       </c>
       <c r="B221" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C221" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D221" s="4">
-        <v>24.6593254301138</v>
+        <v>25.559059325678898</v>
       </c>
       <c r="E221" s="6">
         <v>20</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="4"/>
-        <v>19.727460344091039</v>
+        <v>20.447247460543117</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="8" t="s">
@@ -6353,20 +6370,20 @@
         <v>21</v>
       </c>
       <c r="B222" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C222" s="9">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D222" s="4">
-        <v>28.6741042857143</v>
+        <v>29.3411431354351</v>
       </c>
       <c r="E222" s="6">
         <v>20</v>
       </c>
       <c r="F222" s="3">
         <f t="shared" si="4"/>
-        <v>22.939283428571439</v>
+        <v>23.472914508348079</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="8" t="s">
@@ -6378,20 +6395,20 @@
         <v>22</v>
       </c>
       <c r="B223" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C223" s="9">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D223" s="4">
-        <v>32.238885192546597</v>
+        <v>47.0326204901098</v>
       </c>
       <c r="E223" s="6">
         <v>20</v>
       </c>
       <c r="F223" s="3">
         <f t="shared" si="4"/>
-        <v>25.791108154037278</v>
+        <v>37.626096392087838</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="8" t="s">
@@ -6403,20 +6420,20 @@
         <v>23</v>
       </c>
       <c r="B224" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C224" s="9">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D224" s="4">
-        <v>30.473182142857102</v>
+        <v>30.405407441136099</v>
       </c>
       <c r="E224" s="6">
         <v>20</v>
       </c>
       <c r="F224" s="3">
         <f t="shared" si="4"/>
-        <v>24.378545714285682</v>
+        <v>24.324325952908879</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="8" t="s">
@@ -6428,20 +6445,20 @@
         <v>24</v>
       </c>
       <c r="B225" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C225" s="9">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D225" s="4">
-        <v>57.497388208608903</v>
+        <v>49.383673149958099</v>
       </c>
       <c r="E225" s="6">
         <v>20</v>
       </c>
       <c r="F225" s="3">
         <f t="shared" si="4"/>
-        <v>45.997910566887121</v>
+        <v>39.506938519966482</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="8" t="s">
@@ -6453,20 +6470,20 @@
         <v>25</v>
       </c>
       <c r="B226" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C226" s="9">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D226" s="4">
-        <v>36.405158501020701</v>
+        <v>40.155588959462399</v>
       </c>
       <c r="E226" s="6">
         <v>20</v>
       </c>
       <c r="F226" s="3">
         <f t="shared" si="4"/>
-        <v>29.124126800816562</v>
+        <v>32.124471167569922</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="8" t="s">
@@ -6478,20 +6495,20 @@
         <v>26</v>
       </c>
       <c r="B227" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C227" s="9">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D227" s="4">
-        <v>31.892710166193801</v>
+        <v>31.824558319702099</v>
       </c>
       <c r="E227" s="6">
         <v>20</v>
       </c>
       <c r="F227" s="3">
         <f t="shared" si="4"/>
-        <v>25.514168132955042</v>
+        <v>25.459646655761681</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="8" t="s">
@@ -6503,20 +6520,20 @@
         <v>27</v>
       </c>
       <c r="B228" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C228" s="9">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D228" s="4">
-        <v>40.496605720737499</v>
+        <v>42.155652901881197</v>
       </c>
       <c r="E228" s="6">
         <v>20</v>
       </c>
       <c r="F228" s="3">
         <f t="shared" si="4"/>
-        <v>32.397284576589996</v>
+        <v>33.724522321504956</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="8" t="s">
@@ -6528,20 +6545,20 @@
         <v>28</v>
       </c>
       <c r="B229" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C229" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D229" s="4">
-        <v>143.026170212766</v>
+        <v>128.520944897959</v>
       </c>
       <c r="E229" s="6">
         <v>20</v>
       </c>
       <c r="F229" s="3">
         <f t="shared" si="4"/>
-        <v>114.4209361702128</v>
+        <v>102.81675591836719</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="8" t="s">
@@ -6553,20 +6570,20 @@
         <v>29</v>
       </c>
       <c r="B230" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C230" s="9">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D230" s="4">
-        <v>38.0971785714286</v>
+        <v>37.656819444444402</v>
       </c>
       <c r="E230" s="6">
         <v>20</v>
       </c>
       <c r="F230" s="3">
         <f t="shared" si="4"/>
-        <v>30.477742857142879</v>
+        <v>30.125455555555522</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="8" t="s">
@@ -6578,20 +6595,20 @@
         <v>30</v>
       </c>
       <c r="B231" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C231" s="9">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D231" s="4">
-        <v>24.565155556014801</v>
+        <v>23.756145595407698</v>
       </c>
       <c r="E231" s="6">
         <v>20</v>
       </c>
       <c r="F231" s="3">
         <f t="shared" si="4"/>
-        <v>19.65212444481184</v>
+        <v>19.004916476326159</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="8" t="s">
@@ -6603,20 +6620,20 @@
         <v>137</v>
       </c>
       <c r="B232" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C232" s="9">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D232" s="4">
-        <v>40.438494996396599</v>
+        <v>56.214611520404702</v>
       </c>
       <c r="E232" s="6">
         <v>20</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="4"/>
-        <v>32.350795997117281</v>
+        <v>44.97168921632376</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="8" t="s">
@@ -6628,20 +6645,20 @@
         <v>31</v>
       </c>
       <c r="B233" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C233" s="9">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D233" s="4">
-        <v>40.924182463762797</v>
+        <v>42.6541712039974</v>
       </c>
       <c r="E233" s="6">
         <v>20</v>
       </c>
       <c r="F233" s="3">
         <f t="shared" si="4"/>
-        <v>32.739345971010238</v>
+        <v>34.123336963197922</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="8" t="s">
@@ -6653,20 +6670,20 @@
         <v>32</v>
       </c>
       <c r="B234" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C234" s="9">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D234" s="4">
-        <v>61.6884391169189</v>
+        <v>61.222939564920999</v>
       </c>
       <c r="E234" s="6">
         <v>20</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="4"/>
-        <v>49.350751293535119</v>
+        <v>48.978351651936798</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="8" t="s">
@@ -6678,20 +6695,20 @@
         <v>33</v>
       </c>
       <c r="B235" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C235" s="9">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D235" s="4">
-        <v>26.737228693181802</v>
+        <v>27.858926510989001</v>
       </c>
       <c r="E235" s="6">
         <v>20</v>
       </c>
       <c r="F235" s="3">
         <f t="shared" si="4"/>
-        <v>21.389782954545442</v>
+        <v>22.287141208791201</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="8" t="s">
@@ -6703,20 +6720,20 @@
         <v>34</v>
       </c>
       <c r="B236" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C236" s="9">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D236" s="4">
-        <v>38.877137464030397</v>
+        <v>41.937270714926797</v>
       </c>
       <c r="E236" s="6">
         <v>20</v>
       </c>
       <c r="F236" s="3">
         <f t="shared" si="4"/>
-        <v>31.101709971224317</v>
+        <v>33.549816571941435</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="8" t="s">
@@ -6728,20 +6745,20 @@
         <v>35</v>
       </c>
       <c r="B237" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C237" s="9">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D237" s="4">
-        <v>84.797902080098396</v>
+        <v>102.315830440111</v>
       </c>
       <c r="E237" s="6">
         <v>20</v>
       </c>
       <c r="F237" s="3">
         <f t="shared" si="4"/>
-        <v>67.83832166407872</v>
+        <v>81.852664352088794</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="8" t="s">
@@ -6753,20 +6770,20 @@
         <v>36</v>
       </c>
       <c r="B238" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C238" s="9">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D238" s="4">
-        <v>28.527083389962801</v>
+        <v>30.530111096863301</v>
       </c>
       <c r="E238" s="6">
         <v>20</v>
       </c>
       <c r="F238" s="3">
         <f t="shared" si="4"/>
-        <v>22.821666711970241</v>
+        <v>24.42408887749064</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="8" t="s">
@@ -6778,20 +6795,20 @@
         <v>37</v>
       </c>
       <c r="B239" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C239" s="9">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D239" s="4">
-        <v>60.166545304890803</v>
+        <v>51.205852293794898</v>
       </c>
       <c r="E239" s="6">
         <v>20</v>
       </c>
       <c r="F239" s="3">
         <f t="shared" si="4"/>
-        <v>48.133236243912641</v>
+        <v>40.964681835035918</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="8" t="s">
@@ -6803,20 +6820,20 @@
         <v>38</v>
       </c>
       <c r="B240" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C240" s="9">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D240" s="4">
-        <v>60.993662368152201</v>
+        <v>60.862228343337797</v>
       </c>
       <c r="E240" s="6">
         <v>20</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="4"/>
-        <v>48.794929894521758</v>
+        <v>48.689782674670241</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="8" t="s">
@@ -6828,20 +6845,20 @@
         <v>39</v>
       </c>
       <c r="B241" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C241" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D241" s="4">
-        <v>127.952785274932</v>
+        <v>118.12350508725</v>
       </c>
       <c r="E241" s="6">
         <v>20</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="4"/>
-        <v>102.36222821994559</v>
+        <v>94.498804069800002</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="8" t="s">
@@ -6853,20 +6870,20 @@
         <v>40</v>
       </c>
       <c r="B242" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C242" s="9">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D242" s="4">
-        <v>24.7439829621384</v>
+        <v>24.629650832686298</v>
       </c>
       <c r="E242" s="6">
         <v>20</v>
       </c>
       <c r="F242" s="3">
         <f t="shared" si="4"/>
-        <v>19.79518636971072</v>
+        <v>19.703720666149039</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="8" t="s">
@@ -6878,20 +6895,20 @@
         <v>41</v>
       </c>
       <c r="B243" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C243" s="9">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D243" s="4">
-        <v>30.5238563954765</v>
+        <v>33.657681160842202</v>
       </c>
       <c r="E243" s="6">
         <v>20</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="4"/>
-        <v>24.419085116381201</v>
+        <v>26.926144928673761</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="8" t="s">
@@ -6903,20 +6920,20 @@
         <v>42</v>
       </c>
       <c r="B244" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C244" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D244" s="4">
-        <v>34.672134210526302</v>
+        <v>34.942946986607197</v>
       </c>
       <c r="E244" s="6">
         <v>20</v>
       </c>
       <c r="F244" s="3">
         <f t="shared" si="4"/>
-        <v>27.737707368421042</v>
+        <v>27.954357589285756</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="8" t="s">
@@ -6928,20 +6945,20 @@
         <v>43</v>
       </c>
       <c r="B245" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C245" s="9">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D245" s="4">
-        <v>37.8538</v>
+        <v>41.103364583333303</v>
       </c>
       <c r="E245" s="6">
         <v>20</v>
       </c>
       <c r="F245" s="3">
         <f t="shared" si="4"/>
-        <v>30.28304</v>
+        <v>32.882691666666645</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="8" t="s">
@@ -6953,20 +6970,20 @@
         <v>44</v>
       </c>
       <c r="B246" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C246" s="9">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D246" s="4">
-        <v>119.0881529413</v>
+        <v>105.14702962333099</v>
       </c>
       <c r="E246" s="6">
         <v>20</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="4"/>
-        <v>95.270522353039993</v>
+        <v>84.117623698664801</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="8" t="s">
@@ -6978,20 +6995,20 @@
         <v>45</v>
       </c>
       <c r="B247" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C247" s="9">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D247" s="4">
-        <v>24.737093539682402</v>
+        <v>25.501648001833999</v>
       </c>
       <c r="E247" s="6">
         <v>20</v>
       </c>
       <c r="F247" s="3">
         <f t="shared" si="4"/>
-        <v>19.78967483174592</v>
+        <v>20.401318401467201</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="8" t="s">
@@ -7003,20 +7020,20 @@
         <v>46</v>
       </c>
       <c r="B248" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C248" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D248" s="4">
-        <v>46.686317567567599</v>
+        <v>48.783151736111101</v>
       </c>
       <c r="E248" s="6">
         <v>20</v>
       </c>
       <c r="F248" s="3">
         <f t="shared" si="4"/>
-        <v>37.349054054054079</v>
+        <v>39.026521388888881</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="8" t="s">
@@ -7028,20 +7045,20 @@
         <v>47</v>
       </c>
       <c r="B249" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C249" s="9">
         <v>112</v>
       </c>
       <c r="D249" s="4">
-        <v>86.741216864001004</v>
+        <v>108.28110001941</v>
       </c>
       <c r="E249" s="6">
         <v>20</v>
       </c>
       <c r="F249" s="3">
         <f t="shared" si="4"/>
-        <v>69.392973491200806</v>
+        <v>86.624880015528007</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="8" t="s">
@@ -7053,20 +7070,20 @@
         <v>48</v>
       </c>
       <c r="B250" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C250" s="9">
         <v>114</v>
       </c>
       <c r="D250" s="4">
-        <v>83.828793746109397</v>
+        <v>101.559582193434</v>
       </c>
       <c r="E250" s="6">
         <v>20</v>
       </c>
       <c r="F250" s="3">
         <f t="shared" si="4"/>
-        <v>67.063034996887524</v>
+        <v>81.247665754747203</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="8" t="s">
@@ -7078,20 +7095,20 @@
         <v>49</v>
       </c>
       <c r="B251" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C251" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D251" s="4">
-        <v>45.589440789473599</v>
+        <v>42.2607552083333</v>
       </c>
       <c r="E251" s="6">
         <v>20</v>
       </c>
       <c r="F251" s="3">
         <f t="shared" si="4"/>
-        <v>36.471552631578881</v>
+        <v>33.80860416666664</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="8" t="s">
@@ -7103,20 +7120,20 @@
         <v>50</v>
       </c>
       <c r="B252" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C252" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D252" s="4">
-        <v>35.371537396121902</v>
+        <v>34.215032510964903</v>
       </c>
       <c r="E252" s="6">
         <v>20</v>
       </c>
       <c r="F252" s="3">
         <f t="shared" si="4"/>
-        <v>28.297229916897521</v>
+        <v>27.372026008771922</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="8" t="s">
@@ -7128,20 +7145,20 @@
         <v>51</v>
       </c>
       <c r="B253" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C253" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D253" s="4">
-        <v>44.800876038781098</v>
+        <v>41.755538324652697</v>
       </c>
       <c r="E253" s="6">
         <v>20</v>
       </c>
       <c r="F253" s="3">
         <f t="shared" si="4"/>
-        <v>35.840700831024876</v>
+        <v>33.404430659722159</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="8" t="s">
@@ -7153,20 +7170,20 @@
         <v>52</v>
       </c>
       <c r="B254" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C254" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D254" s="4">
-        <v>32.989123961218802</v>
+        <v>32.086606853070201</v>
       </c>
       <c r="E254" s="6">
         <v>20</v>
       </c>
       <c r="F254" s="3">
         <f t="shared" si="4"/>
-        <v>26.391299168975042</v>
+        <v>25.669285482456161</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="8" t="s">
@@ -7178,20 +7195,20 @@
         <v>53</v>
       </c>
       <c r="B255" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C255" s="9">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D255" s="4">
-        <v>27.7838885082387</v>
+        <v>30.149885149236699</v>
       </c>
       <c r="E255" s="6">
         <v>20</v>
       </c>
       <c r="F255" s="3">
         <f t="shared" si="4"/>
-        <v>22.227110806590961</v>
+        <v>24.119908119389358</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="8" t="s">
@@ -7203,20 +7220,20 @@
         <v>54</v>
       </c>
       <c r="B256" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C256" s="9">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D256" s="4">
-        <v>30.1912194353981</v>
+        <v>30.518174343398801</v>
       </c>
       <c r="E256" s="6">
         <v>20</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="4"/>
-        <v>24.15297554831848</v>
+        <v>24.414539474719042</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="8" t="s">
@@ -7228,20 +7245,20 @@
         <v>55</v>
       </c>
       <c r="B257" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C257" s="9">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D257" s="4">
-        <v>31.171209075516199</v>
+        <v>31.657339526858301</v>
       </c>
       <c r="E257" s="6">
         <v>20</v>
       </c>
       <c r="F257" s="3">
         <f t="shared" si="4"/>
-        <v>24.93696726041296</v>
+        <v>25.325871621486641</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="8" t="s">
@@ -7253,20 +7270,20 @@
         <v>56</v>
       </c>
       <c r="B258" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C258" s="9">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D258" s="4">
-        <v>33.348073423913</v>
+        <v>32.552515459763796</v>
       </c>
       <c r="E258" s="6">
         <v>20</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="4"/>
-        <v>26.678458739130399</v>
+        <v>26.042012367811036</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="8" t="s">
@@ -7278,20 +7295,20 @@
         <v>57</v>
       </c>
       <c r="B259" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C259" s="9">
         <v>136</v>
       </c>
       <c r="D259" s="4">
-        <v>38.280663644405102</v>
+        <v>37.7512602941176</v>
       </c>
       <c r="E259" s="6">
         <v>20</v>
       </c>
       <c r="F259" s="3">
         <f t="shared" si="4"/>
-        <v>30.624530915524083</v>
+        <v>30.201008235294079</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="8" t="s">
@@ -7303,20 +7320,20 @@
         <v>58</v>
       </c>
       <c r="B260" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C260" s="9">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D260" s="4">
-        <v>41.106783786674796</v>
+        <v>40.2454495023552</v>
       </c>
       <c r="E260" s="6">
         <v>20</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" si="4"/>
-        <v>32.885427029339837</v>
+        <v>32.196359601884161</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="8" t="s">
@@ -7328,20 +7345,20 @@
         <v>59</v>
       </c>
       <c r="B261" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C261" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D261" s="4">
-        <v>164.14772914971101</v>
+        <v>95.550421387620702</v>
       </c>
       <c r="E261" s="6">
         <v>20</v>
       </c>
       <c r="F261" s="3">
         <f t="shared" si="4"/>
-        <v>131.31818331976882</v>
+        <v>76.440337110096564</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="8" t="s">
@@ -7353,20 +7370,20 @@
         <v>60</v>
       </c>
       <c r="B262" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C262" s="9">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D262" s="4">
-        <v>43.279424242424199</v>
+        <v>43.751764705882302</v>
       </c>
       <c r="E262" s="6">
         <v>20</v>
       </c>
       <c r="F262" s="3">
         <f t="shared" si="4"/>
-        <v>34.62353939393936</v>
+        <v>35.001411764705843</v>
       </c>
       <c r="G262" s="1"/>
       <c r="H262" s="8" t="s">
@@ -7378,20 +7395,20 @@
         <v>61</v>
       </c>
       <c r="B263" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C263" s="9">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D263" s="4">
-        <v>43.279424242424199</v>
+        <v>43.417481339519199</v>
       </c>
       <c r="E263" s="6">
         <v>20</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="4"/>
-        <v>34.62353939393936</v>
+        <v>34.733985071615358</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="8" t="s">
@@ -7403,20 +7420,20 @@
         <v>62</v>
       </c>
       <c r="B264" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C264" s="9">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D264" s="4">
-        <v>30.721294219684399</v>
+        <v>33.150785066798903</v>
       </c>
       <c r="E264" s="6">
         <v>20</v>
       </c>
       <c r="F264" s="3">
         <f t="shared" si="4"/>
-        <v>24.577035375747521</v>
+        <v>26.520628053439122</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="8" t="s">
@@ -7428,20 +7445,20 @@
         <v>63</v>
       </c>
       <c r="B265" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C265" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D265" s="4">
-        <v>51.535427173913099</v>
+        <v>79.688872347992003</v>
       </c>
       <c r="E265" s="6">
         <v>20</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="4"/>
-        <v>41.228341739130478</v>
+        <v>63.751097878393601</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="8" t="s">
@@ -7453,20 +7470,20 @@
         <v>64</v>
       </c>
       <c r="B266" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C266" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D266" s="4">
-        <v>120.773862073457</v>
+        <v>117.41042583033899</v>
       </c>
       <c r="E266" s="6">
         <v>20</v>
       </c>
       <c r="F266" s="3">
         <f t="shared" si="4"/>
-        <v>96.619089658765603</v>
+        <v>93.92834066427119</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="8" t="s">
@@ -7478,20 +7495,20 @@
         <v>65</v>
       </c>
       <c r="B267" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C267" s="9">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D267" s="4">
-        <v>37.264659877027697</v>
+        <v>40.385340205008802</v>
       </c>
       <c r="E267" s="6">
         <v>20</v>
       </c>
       <c r="F267" s="3">
         <f t="shared" si="4"/>
-        <v>29.811727901622156</v>
+        <v>32.308272164007043</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="8" t="s">
@@ -7503,20 +7520,20 @@
         <v>134</v>
       </c>
       <c r="B268" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C268" s="9">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D268" s="4">
-        <v>108.266729710902</v>
+        <v>106.846041513274</v>
       </c>
       <c r="E268" s="6">
         <v>20</v>
       </c>
       <c r="F268" s="3">
         <f t="shared" si="4"/>
-        <v>86.613383768721604</v>
+        <v>85.476833210619205</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="8"/>
@@ -7526,20 +7543,20 @@
         <v>133</v>
       </c>
       <c r="B269" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C269" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D269" s="4">
-        <v>29.8303041666667</v>
+        <v>33.173814569536397</v>
       </c>
       <c r="E269" s="6">
         <v>20</v>
       </c>
       <c r="F269" s="3">
         <f t="shared" ref="F269:F271" si="5">D269-(D269*E269)/100</f>
-        <v>23.864243333333359</v>
+        <v>26.539051655629116</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="8"/>
@@ -7549,20 +7566,20 @@
         <v>135</v>
       </c>
       <c r="B270" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C270" s="9">
         <v>144</v>
       </c>
       <c r="D270" s="4">
-        <v>46.686317567567599</v>
+        <v>49.276283333333303</v>
       </c>
       <c r="E270" s="6">
         <v>20</v>
       </c>
       <c r="F270" s="3">
         <f t="shared" si="5"/>
-        <v>37.349054054054079</v>
+        <v>39.421026666666641</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="8"/>
@@ -7572,20 +7589,20 @@
         <v>136</v>
       </c>
       <c r="B271" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C271" s="9">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D271" s="4">
-        <v>37.557839125653103</v>
+        <v>38.650163449432398</v>
       </c>
       <c r="E271" s="6">
         <v>20</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="5"/>
-        <v>30.046271300522484</v>
+        <v>30.92013075954592</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="8"/>
@@ -7595,26 +7612,26 @@
         <v>140</v>
       </c>
       <c r="B272" s="7">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="C272" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D272" s="4">
-        <v>31.246849999999998</v>
+        <v>46.707957175925898</v>
       </c>
       <c r="E272" s="6">
         <v>20</v>
       </c>
       <c r="F272" s="3">
         <f t="shared" ref="F272" si="6">D272-(D272*E272)/100</f>
-        <v>24.997479999999999</v>
+        <v>37.366365740740719</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G205"/>
+  <autoFilter ref="A1:G272"/>
   <hyperlinks>
     <hyperlink ref="G74" r:id="rId1"/>
     <hyperlink ref="H74" r:id="rId2"/>
@@ -7873,4 +7890,668 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="9">
+        <v>160</v>
+      </c>
+      <c r="D2" s="4">
+        <v>38.182441082623697</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>30.545952866098958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="9">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4">
+        <v>50.7137183306141</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>40.570974664491281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="9">
+        <v>175</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44.031594599410397</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>35.225275679528316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="9">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32.238885192546597</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>25.791108154037278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="9">
+        <v>186</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45.070199208174799</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>36.056159366539838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="9">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50.631631236291803</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40.505304989033441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="9">
+        <v>144</v>
+      </c>
+      <c r="D8" s="4">
+        <v>49.901317293941098</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>39.921053835152875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="9">
+        <v>129</v>
+      </c>
+      <c r="D9" s="4">
+        <v>57.497388208608903</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45.997910566887121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="9">
+        <v>168</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42.672372697255597</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34.137898157804479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="9">
+        <v>128</v>
+      </c>
+      <c r="D11" s="4">
+        <v>54.794365825797101</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43.835492660637684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="9">
+        <v>132</v>
+      </c>
+      <c r="D12" s="4">
+        <v>49.568454434259202</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>39.654763547407363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="9">
+        <v>135</v>
+      </c>
+      <c r="D13" s="4">
+        <v>40.496605720737499</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>32.397284576589996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="9">
+        <v>166</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42.6380592368821</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>34.11044738950568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="9">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4">
+        <v>55.133829571613298</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44.107063657290638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="9">
+        <v>140</v>
+      </c>
+      <c r="D16" s="4">
+        <v>47.438137801035097</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3">
+        <v>37.950510240828081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="9">
+        <v>133</v>
+      </c>
+      <c r="D17" s="4">
+        <v>40.924182463762797</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>32.739345971010238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="9">
+        <v>186</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45.070199208174799</v>
+      </c>
+      <c r="E18" s="6">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36.056159366539838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="9">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4">
+        <v>49.989056165476498</v>
+      </c>
+      <c r="E19" s="6">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3">
+        <v>39.9912449323812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="9">
+        <v>172</v>
+      </c>
+      <c r="D20" s="4">
+        <v>50.760818994742202</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>40.608655195793759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="9">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4">
+        <v>60.166545304890803</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>48.133236243912641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="9">
+        <v>162</v>
+      </c>
+      <c r="D22" s="4">
+        <v>49.543563829787203</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>39.634851063829764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="9">
+        <v>152</v>
+      </c>
+      <c r="D23" s="4">
+        <v>49.269868126838801</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>39.415894501471044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="9">
+        <v>176</v>
+      </c>
+      <c r="D24" s="4">
+        <v>81.029703389830502</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>64.823762711864404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="9">
+        <v>112</v>
+      </c>
+      <c r="D25" s="4">
+        <v>86.741216864001004</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3">
+        <v>69.392973491200806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="9">
+        <v>154</v>
+      </c>
+      <c r="D26" s="4">
+        <v>49.543563829787203</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>39.634851063829764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="9">
+        <v>152</v>
+      </c>
+      <c r="D27" s="4">
+        <v>49.269868126838801</v>
+      </c>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>39.415894501471044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="9">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4">
+        <v>81.029703389830502</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>64.823762711864404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="9">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4">
+        <v>83.828793746109397</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
+        <v>67.063034996887524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="9">
+        <v>184</v>
+      </c>
+      <c r="D31" s="4">
+        <v>101.082867346939</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3">
+        <v>80.8662938775512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="9">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4">
+        <v>108.266729710902</v>
+      </c>
+      <c r="E32" s="6">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>86.613383768721604</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F32">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="M223" sqref="M223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5932,14 +5932,14 @@
         <v>160</v>
       </c>
       <c r="D204" s="4">
-        <v>24.556250651225799</v>
+        <v>28.163225231762699</v>
       </c>
       <c r="E204" s="6">
         <v>20</v>
       </c>
       <c r="F204" s="3">
         <f t="shared" si="4"/>
-        <v>19.645000520980638</v>
+        <v>22.530580185410159</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>67</v>
@@ -5959,14 +5959,14 @@
         <v>94</v>
       </c>
       <c r="D205" s="4">
-        <v>41.883979854190599</v>
+        <v>39.622296686216103</v>
       </c>
       <c r="E205" s="6">
         <v>20</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="4"/>
-        <v>33.507183883352482</v>
+        <v>31.697837348972882</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>67</v>
@@ -5986,14 +5986,14 @@
         <v>16</v>
       </c>
       <c r="D206" s="4">
-        <v>93.460071986016601</v>
+        <v>88.009383353234895</v>
       </c>
       <c r="E206" s="6">
         <v>20</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="4"/>
-        <v>74.768057588813278</v>
+        <v>70.407506682587922</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="8"/>
@@ -6009,14 +6009,14 @@
         <v>168</v>
       </c>
       <c r="D207" s="4">
-        <v>23.745086223943701</v>
+        <v>23.730244768429898</v>
       </c>
       <c r="E207" s="6">
         <v>20</v>
       </c>
       <c r="F207" s="3">
         <f t="shared" si="4"/>
-        <v>18.996068979154963</v>
+        <v>18.98419581474392</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="8" t="s">
@@ -6031,17 +6031,17 @@
         <v>45961</v>
       </c>
       <c r="C208" s="9">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="D208" s="4">
-        <v>58.399199074074097</v>
+        <v>47.497821808510601</v>
       </c>
       <c r="E208" s="6">
         <v>20</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="4"/>
-        <v>46.719359259259278</v>
+        <v>37.998257446808481</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="8" t="s">
@@ -6059,14 +6059,14 @@
         <v>132</v>
       </c>
       <c r="D209" s="4">
-        <v>29.8099401517172</v>
+        <v>29.9429649546218</v>
       </c>
       <c r="E209" s="6">
         <v>20</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="4"/>
-        <v>23.847952121373758</v>
+        <v>23.95437196369744</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="8" t="s">
@@ -6109,14 +6109,14 @@
         <v>173</v>
       </c>
       <c r="D211" s="4">
-        <v>31.034859872611499</v>
+        <v>31.559254777070102</v>
       </c>
       <c r="E211" s="6">
         <v>20</v>
       </c>
       <c r="F211" s="3">
         <f t="shared" si="4"/>
-        <v>24.827887898089198</v>
+        <v>25.247403821656082</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="8" t="s">
@@ -6159,14 +6159,14 @@
         <v>190</v>
       </c>
       <c r="D213" s="4">
-        <v>51.070103638084198</v>
+        <v>54.612138014692597</v>
       </c>
       <c r="E213" s="6">
         <v>20</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="4"/>
-        <v>40.856082910467357</v>
+        <v>43.689710411754078</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="8" t="s">
@@ -6184,14 +6184,14 @@
         <v>160</v>
       </c>
       <c r="D214" s="4">
-        <v>49.855904368061701</v>
+        <v>53.846914406617699</v>
       </c>
       <c r="E214" s="6">
         <v>20</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="4"/>
-        <v>39.884723494449361</v>
+        <v>43.077531525294162</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="8" t="s">
@@ -6209,14 +6209,14 @@
         <v>47</v>
       </c>
       <c r="D215" s="4">
-        <v>95.550421387620702</v>
+        <v>116.800066777692</v>
       </c>
       <c r="E215" s="6">
         <v>20</v>
       </c>
       <c r="F215" s="3">
         <f t="shared" si="4"/>
-        <v>76.440337110096564</v>
+        <v>93.440053422153596</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="8" t="s">
@@ -6255,14 +6255,14 @@
         <v>176</v>
       </c>
       <c r="D217" s="4">
-        <v>29.683272180618701</v>
+        <v>29.7135916993353</v>
       </c>
       <c r="E217" s="6">
         <v>20</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="4"/>
-        <v>23.746617744494962</v>
+        <v>23.77087335946824</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="8" t="s">
@@ -6351,14 +6351,14 @@
         <v>144</v>
       </c>
       <c r="D221" s="4">
-        <v>25.559059325678898</v>
+        <v>28.4042403770537</v>
       </c>
       <c r="E221" s="6">
         <v>20</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="4"/>
-        <v>20.447247460543117</v>
+        <v>22.72339230164296</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="8" t="s">
@@ -6376,14 +6376,14 @@
         <v>192</v>
       </c>
       <c r="D222" s="4">
-        <v>29.3411431354351</v>
+        <v>29.463940010435099</v>
       </c>
       <c r="E222" s="6">
         <v>20</v>
       </c>
       <c r="F222" s="3">
         <f t="shared" si="4"/>
-        <v>23.472914508348079</v>
+        <v>23.571152008348079</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="8" t="s">
@@ -6426,14 +6426,14 @@
         <v>176</v>
       </c>
       <c r="D224" s="4">
-        <v>30.405407441136099</v>
+        <v>32.080023571956502</v>
       </c>
       <c r="E224" s="6">
         <v>20</v>
       </c>
       <c r="F224" s="3">
         <f t="shared" si="4"/>
-        <v>24.324325952908879</v>
+        <v>25.664018857565203</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="8" t="s">
@@ -6501,14 +6501,14 @@
         <v>152</v>
       </c>
       <c r="D227" s="4">
-        <v>31.824558319702099</v>
+        <v>31.979670161807402</v>
       </c>
       <c r="E227" s="6">
         <v>20</v>
       </c>
       <c r="F227" s="3">
         <f t="shared" si="4"/>
-        <v>25.459646655761681</v>
+        <v>25.583736129445921</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="8" t="s">
@@ -6576,14 +6576,14 @@
         <v>168</v>
       </c>
       <c r="D230" s="4">
-        <v>37.656819444444402</v>
+        <v>39.123702182539702</v>
       </c>
       <c r="E230" s="6">
         <v>20</v>
       </c>
       <c r="F230" s="3">
         <f t="shared" si="4"/>
-        <v>30.125455555555522</v>
+        <v>31.298961746031761</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="8" t="s">
@@ -6601,14 +6601,14 @@
         <v>166</v>
       </c>
       <c r="D231" s="4">
-        <v>23.756145595407698</v>
+        <v>23.742914498044701</v>
       </c>
       <c r="E231" s="6">
         <v>20</v>
       </c>
       <c r="F231" s="3">
         <f t="shared" si="4"/>
-        <v>19.004916476326159</v>
+        <v>18.99433159843576</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="8" t="s">
@@ -6626,14 +6626,14 @@
         <v>134</v>
       </c>
       <c r="D232" s="4">
-        <v>56.214611520404702</v>
+        <v>54.705107325216296</v>
       </c>
       <c r="E232" s="6">
         <v>20</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="4"/>
-        <v>44.97168921632376</v>
+        <v>43.76408586017304</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="8" t="s">
@@ -6676,14 +6676,14 @@
         <v>159</v>
       </c>
       <c r="D234" s="4">
-        <v>61.222939564920999</v>
+        <v>61.9939509948912</v>
       </c>
       <c r="E234" s="6">
         <v>20</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="4"/>
-        <v>48.978351651936798</v>
+        <v>49.59516079591296</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="8" t="s">
@@ -6701,14 +6701,14 @@
         <v>208</v>
       </c>
       <c r="D235" s="4">
-        <v>27.858926510989001</v>
+        <v>27.915601991758201</v>
       </c>
       <c r="E235" s="6">
         <v>20</v>
       </c>
       <c r="F235" s="3">
         <f t="shared" si="4"/>
-        <v>22.287141208791201</v>
+        <v>22.332481593406563</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="8" t="s">
@@ -6726,14 +6726,14 @@
         <v>173</v>
       </c>
       <c r="D236" s="4">
-        <v>41.937270714926797</v>
+        <v>41.8657239767915</v>
       </c>
       <c r="E236" s="6">
         <v>20</v>
       </c>
       <c r="F236" s="3">
         <f t="shared" si="4"/>
-        <v>33.549816571941435</v>
+        <v>33.4925791814332</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="8" t="s">
@@ -6776,14 +6776,14 @@
         <v>208</v>
       </c>
       <c r="D238" s="4">
-        <v>30.530111096863301</v>
+        <v>30.550280131650101</v>
       </c>
       <c r="E238" s="6">
         <v>20</v>
       </c>
       <c r="F238" s="3">
         <f t="shared" si="4"/>
-        <v>24.42408887749064</v>
+        <v>24.44022410532008</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="8" t="s">
@@ -6826,14 +6826,14 @@
         <v>167</v>
       </c>
       <c r="D240" s="4">
-        <v>60.862228343337797</v>
+        <v>61.637372324835802</v>
       </c>
       <c r="E240" s="6">
         <v>20</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="4"/>
-        <v>48.689782674670241</v>
+        <v>49.309897859868641</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="8" t="s">
@@ -6851,14 +6851,14 @@
         <v>152</v>
       </c>
       <c r="D241" s="4">
-        <v>118.12350508725</v>
+        <v>121.328630025037</v>
       </c>
       <c r="E241" s="6">
         <v>20</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="4"/>
-        <v>94.498804069800002</v>
+        <v>97.062904020029606</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="8" t="s">
@@ -6876,14 +6876,14 @@
         <v>168</v>
       </c>
       <c r="D242" s="4">
-        <v>24.629650832686298</v>
+        <v>24.5864784076661</v>
       </c>
       <c r="E242" s="6">
         <v>20</v>
       </c>
       <c r="F242" s="3">
         <f t="shared" si="4"/>
-        <v>19.703720666149039</v>
+        <v>19.669182726132881</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="8" t="s">
@@ -6901,14 +6901,14 @@
         <v>162</v>
       </c>
       <c r="D243" s="4">
-        <v>33.657681160842202</v>
+        <v>32.457665340386001</v>
       </c>
       <c r="E243" s="6">
         <v>20</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="4"/>
-        <v>26.926144928673761</v>
+        <v>25.966132272308801</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="8" t="s">
@@ -6976,14 +6976,14 @@
         <v>96</v>
       </c>
       <c r="D246" s="4">
-        <v>105.14702962333099</v>
+        <v>101.513237201476</v>
       </c>
       <c r="E246" s="6">
         <v>20</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="4"/>
-        <v>84.117623698664801</v>
+        <v>81.210589761180799</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="8" t="s">
@@ -7001,14 +7001,14 @@
         <v>184</v>
       </c>
       <c r="D247" s="4">
-        <v>25.501648001833999</v>
+        <v>28.480336334680999</v>
       </c>
       <c r="E247" s="6">
         <v>20</v>
       </c>
       <c r="F247" s="3">
         <f t="shared" si="4"/>
-        <v>20.401318401467201</v>
+        <v>22.784269067744798</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="8" t="s">
@@ -7026,14 +7026,14 @@
         <v>192</v>
       </c>
       <c r="D248" s="4">
-        <v>48.783151736111101</v>
+        <v>48.844550173611097</v>
       </c>
       <c r="E248" s="6">
         <v>20</v>
       </c>
       <c r="F248" s="3">
         <f t="shared" si="4"/>
-        <v>39.026521388888881</v>
+        <v>39.075640138888879</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="8" t="s">
@@ -7101,14 +7101,14 @@
         <v>192</v>
       </c>
       <c r="D251" s="4">
-        <v>42.2607552083333</v>
+        <v>43.5045572916666</v>
       </c>
       <c r="E251" s="6">
         <v>20</v>
       </c>
       <c r="F251" s="3">
         <f t="shared" si="4"/>
-        <v>33.80860416666664</v>
+        <v>34.803645833333277</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="8" t="s">
@@ -7126,14 +7126,14 @@
         <v>192</v>
       </c>
       <c r="D252" s="4">
-        <v>34.215032510964903</v>
+        <v>34.331984594298198</v>
       </c>
       <c r="E252" s="6">
         <v>20</v>
       </c>
       <c r="F252" s="3">
         <f t="shared" si="4"/>
-        <v>27.372026008771922</v>
+        <v>27.46558767543856</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="8" t="s">
@@ -7151,14 +7151,14 @@
         <v>192</v>
       </c>
       <c r="D253" s="4">
-        <v>41.755538324652697</v>
+        <v>43.064467404513799</v>
       </c>
       <c r="E253" s="6">
         <v>20</v>
       </c>
       <c r="F253" s="3">
         <f t="shared" si="4"/>
-        <v>33.404430659722159</v>
+        <v>34.451573923611036</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="8" t="s">
@@ -7176,14 +7176,14 @@
         <v>192</v>
       </c>
       <c r="D254" s="4">
-        <v>32.086606853070201</v>
+        <v>33.606983936403502</v>
       </c>
       <c r="E254" s="6">
         <v>20</v>
       </c>
       <c r="F254" s="3">
         <f t="shared" si="4"/>
-        <v>25.669285482456161</v>
+        <v>26.885587149122802</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="8" t="s">
@@ -7201,14 +7201,14 @@
         <v>192</v>
       </c>
       <c r="D255" s="4">
-        <v>30.149885149236699</v>
+        <v>30.3616311586355</v>
       </c>
       <c r="E255" s="6">
         <v>20</v>
       </c>
       <c r="F255" s="3">
         <f t="shared" si="4"/>
-        <v>24.119908119389358</v>
+        <v>24.2893049269084</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="8" t="s">
@@ -7226,14 +7226,14 @@
         <v>188</v>
       </c>
       <c r="D256" s="4">
-        <v>30.518174343398801</v>
+        <v>31.329644236320501</v>
       </c>
       <c r="E256" s="6">
         <v>20</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="4"/>
-        <v>24.414539474719042</v>
+        <v>25.063715389056402</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="8" t="s">
@@ -7251,14 +7251,14 @@
         <v>200</v>
       </c>
       <c r="D257" s="4">
-        <v>31.657339526858301</v>
+        <v>33.0327525512485</v>
       </c>
       <c r="E257" s="6">
         <v>20</v>
       </c>
       <c r="F257" s="3">
         <f t="shared" si="4"/>
-        <v>25.325871621486641</v>
+        <v>26.426202040998799</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="8" t="s">
@@ -7276,14 +7276,14 @@
         <v>200</v>
       </c>
       <c r="D258" s="4">
-        <v>32.552515459763796</v>
+        <v>33.844043564339003</v>
       </c>
       <c r="E258" s="6">
         <v>20</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="4"/>
-        <v>26.042012367811036</v>
+        <v>27.075234851471201</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="8" t="s">
@@ -7301,14 +7301,14 @@
         <v>136</v>
       </c>
       <c r="D259" s="4">
-        <v>37.7512602941176</v>
+        <v>39.0432110294118</v>
       </c>
       <c r="E259" s="6">
         <v>20</v>
       </c>
       <c r="F259" s="3">
         <f t="shared" si="4"/>
-        <v>30.201008235294079</v>
+        <v>31.23456882352944</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="8" t="s">
@@ -7323,17 +7323,17 @@
         <v>45961</v>
       </c>
       <c r="C260" s="9">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D260" s="4">
-        <v>40.2454495023552</v>
+        <v>38.693879617818901</v>
       </c>
       <c r="E260" s="6">
         <v>20</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" si="4"/>
-        <v>32.196359601884161</v>
+        <v>30.955103694255122</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="8" t="s">
@@ -7351,14 +7351,14 @@
         <v>47</v>
       </c>
       <c r="D261" s="4">
-        <v>95.550421387620702</v>
+        <v>116.800066777692</v>
       </c>
       <c r="E261" s="6">
         <v>20</v>
       </c>
       <c r="F261" s="3">
         <f t="shared" si="4"/>
-        <v>76.440337110096564</v>
+        <v>93.440053422153596</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="8" t="s">
@@ -7376,14 +7376,14 @@
         <v>159</v>
       </c>
       <c r="D262" s="4">
-        <v>43.751764705882302</v>
+        <v>45.085823529411797</v>
       </c>
       <c r="E262" s="6">
         <v>20</v>
       </c>
       <c r="F262" s="3">
         <f t="shared" si="4"/>
-        <v>35.001411764705843</v>
+        <v>36.068658823529439</v>
       </c>
       <c r="G262" s="1"/>
       <c r="H262" s="8" t="s">
@@ -7401,14 +7401,14 @@
         <v>172</v>
       </c>
       <c r="D263" s="4">
-        <v>43.417481339519199</v>
+        <v>44.720515539245604</v>
       </c>
       <c r="E263" s="6">
         <v>20</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="4"/>
-        <v>34.733985071615358</v>
+        <v>35.77641243139648</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="8" t="s">
@@ -7426,14 +7426,14 @@
         <v>184</v>
       </c>
       <c r="D264" s="4">
-        <v>33.150785066798903</v>
+        <v>33.5368057339507</v>
       </c>
       <c r="E264" s="6">
         <v>20</v>
       </c>
       <c r="F264" s="3">
         <f t="shared" si="4"/>
-        <v>26.520628053439122</v>
+        <v>26.829444587160559</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="8" t="s">
@@ -7448,17 +7448,17 @@
         <v>45961</v>
       </c>
       <c r="C265" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D265" s="4">
-        <v>79.688872347992003</v>
+        <v>77.978648046341604</v>
       </c>
       <c r="E265" s="6">
         <v>20</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="4"/>
-        <v>63.751097878393601</v>
+        <v>62.382918437073286</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="8" t="s">
@@ -7501,14 +7501,14 @@
         <v>200</v>
       </c>
       <c r="D267" s="4">
-        <v>40.385340205008802</v>
+        <v>40.444282705008803</v>
       </c>
       <c r="E267" s="6">
         <v>20</v>
       </c>
       <c r="F267" s="3">
         <f t="shared" si="4"/>
-        <v>32.308272164007043</v>
+        <v>32.355426164007042</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="8" t="s">
@@ -7549,14 +7549,14 @@
         <v>144</v>
       </c>
       <c r="D269" s="4">
-        <v>33.173814569536397</v>
+        <v>31.9114602649007</v>
       </c>
       <c r="E269" s="6">
         <v>20</v>
       </c>
       <c r="F269" s="3">
         <f t="shared" ref="F269:F271" si="5">D269-(D269*E269)/100</f>
-        <v>26.539051655629116</v>
+        <v>25.52916821192056</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="8"/>
@@ -7595,14 +7595,14 @@
         <v>192</v>
       </c>
       <c r="D271" s="4">
-        <v>38.650163449432398</v>
+        <v>40.132829062517999</v>
       </c>
       <c r="E271" s="6">
         <v>20</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="5"/>
-        <v>30.92013075954592</v>
+        <v>32.106263250014401</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="8"/>
@@ -7615,17 +7615,17 @@
         <v>45961</v>
       </c>
       <c r="C272" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D272" s="4">
-        <v>46.707957175925898</v>
+        <v>45.775460434725503</v>
       </c>
       <c r="E272" s="6">
         <v>20</v>
       </c>
       <c r="F272" s="3">
         <f t="shared" ref="F272" si="6">D272-(D272*E272)/100</f>
-        <v>37.366365740740719</v>
+        <v>36.620368347780399</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="M223" sqref="M223"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5959,14 +5959,14 @@
         <v>94</v>
       </c>
       <c r="D205" s="4">
-        <v>39.622296686216103</v>
+        <v>39.793691562464502</v>
       </c>
       <c r="E205" s="6">
         <v>20</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="4"/>
-        <v>31.697837348972882</v>
+        <v>31.834953249971601</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>67</v>
@@ -5986,14 +5986,14 @@
         <v>16</v>
       </c>
       <c r="D206" s="4">
-        <v>88.009383353234895</v>
+        <v>88.284824261832398</v>
       </c>
       <c r="E206" s="6">
         <v>20</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="4"/>
-        <v>70.407506682587922</v>
+        <v>70.627859409465913</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="8"/>
@@ -6009,14 +6009,14 @@
         <v>168</v>
       </c>
       <c r="D207" s="4">
-        <v>23.730244768429898</v>
+        <v>23.679460210882201</v>
       </c>
       <c r="E207" s="6">
         <v>20</v>
       </c>
       <c r="F207" s="3">
         <f t="shared" si="4"/>
-        <v>18.98419581474392</v>
+        <v>18.94356816870576</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="8" t="s">
@@ -6034,14 +6034,14 @@
         <v>184</v>
       </c>
       <c r="D208" s="4">
-        <v>47.497821808510601</v>
+        <v>46.034813829787197</v>
       </c>
       <c r="E208" s="6">
         <v>20</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="4"/>
-        <v>37.998257446808481</v>
+        <v>36.827851063829755</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="8" t="s">
@@ -6059,14 +6059,14 @@
         <v>132</v>
       </c>
       <c r="D209" s="4">
-        <v>29.9429649546218</v>
+        <v>29.993174327587798</v>
       </c>
       <c r="E209" s="6">
         <v>20</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="4"/>
-        <v>23.95437196369744</v>
+        <v>23.994539462070239</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="8" t="s">
@@ -6084,14 +6084,14 @@
         <v>144</v>
       </c>
       <c r="D210" s="4">
-        <v>29.548206421502499</v>
+        <v>29.232213618983401</v>
       </c>
       <c r="E210" s="6">
         <v>20</v>
       </c>
       <c r="F210" s="3">
         <f t="shared" si="4"/>
-        <v>23.638565137202001</v>
+        <v>23.38577089518672</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="8" t="s">
@@ -6134,14 +6134,14 @@
         <v>152</v>
       </c>
       <c r="D212" s="4">
-        <v>28.915716599190301</v>
+        <v>28.5602246963563</v>
       </c>
       <c r="E212" s="6">
         <v>20</v>
       </c>
       <c r="F212" s="3">
         <f t="shared" si="4"/>
-        <v>23.13257327935224</v>
+        <v>22.848179757085042</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="8" t="s">
@@ -6159,14 +6159,14 @@
         <v>190</v>
       </c>
       <c r="D213" s="4">
-        <v>54.612138014692597</v>
+        <v>59.321030355944799</v>
       </c>
       <c r="E213" s="6">
         <v>20</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="4"/>
-        <v>43.689710411754078</v>
+        <v>47.456824284755839</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="8" t="s">
@@ -6184,14 +6184,14 @@
         <v>160</v>
       </c>
       <c r="D214" s="4">
-        <v>53.846914406617699</v>
+        <v>59.0453053240619</v>
       </c>
       <c r="E214" s="6">
         <v>20</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="4"/>
-        <v>43.077531525294162</v>
+        <v>47.236244259249517</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="8" t="s">
@@ -6209,14 +6209,14 @@
         <v>47</v>
       </c>
       <c r="D215" s="4">
-        <v>116.800066777692</v>
+        <v>122.35614210717701</v>
       </c>
       <c r="E215" s="6">
         <v>20</v>
       </c>
       <c r="F215" s="3">
         <f t="shared" si="4"/>
-        <v>93.440053422153596</v>
+        <v>97.884913685741608</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="8" t="s">
@@ -6255,14 +6255,14 @@
         <v>176</v>
       </c>
       <c r="D217" s="4">
-        <v>29.7135916993353</v>
+        <v>29.747237435146999</v>
       </c>
       <c r="E217" s="6">
         <v>20</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="4"/>
-        <v>23.77087335946824</v>
+        <v>23.7977899481176</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="8" t="s">
@@ -6351,14 +6351,14 @@
         <v>144</v>
       </c>
       <c r="D221" s="4">
-        <v>28.4042403770537</v>
+        <v>28.405353891373501</v>
       </c>
       <c r="E221" s="6">
         <v>20</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="4"/>
-        <v>22.72339230164296</v>
+        <v>22.724283113098799</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="8" t="s">
@@ -6401,14 +6401,14 @@
         <v>132</v>
       </c>
       <c r="D223" s="4">
-        <v>47.0326204901098</v>
+        <v>46.965378395248202</v>
       </c>
       <c r="E223" s="6">
         <v>20</v>
       </c>
       <c r="F223" s="3">
         <f t="shared" si="4"/>
-        <v>37.626096392087838</v>
+        <v>37.572302716198564</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="8" t="s">
@@ -6451,14 +6451,14 @@
         <v>169</v>
       </c>
       <c r="D225" s="4">
-        <v>49.383673149958099</v>
+        <v>49.311700677614397</v>
       </c>
       <c r="E225" s="6">
         <v>20</v>
       </c>
       <c r="F225" s="3">
         <f t="shared" si="4"/>
-        <v>39.506938519966482</v>
+        <v>39.449360542091519</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="8" t="s">
@@ -6501,14 +6501,14 @@
         <v>152</v>
       </c>
       <c r="D227" s="4">
-        <v>31.979670161807402</v>
+        <v>31.736438859868301</v>
       </c>
       <c r="E227" s="6">
         <v>20</v>
       </c>
       <c r="F227" s="3">
         <f t="shared" si="4"/>
-        <v>25.583736129445921</v>
+        <v>25.389151087894639</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="8" t="s">
@@ -6526,14 +6526,14 @@
         <v>172</v>
       </c>
       <c r="D228" s="4">
-        <v>42.155652901881197</v>
+        <v>41.849537980867403</v>
       </c>
       <c r="E228" s="6">
         <v>20</v>
       </c>
       <c r="F228" s="3">
         <f t="shared" si="4"/>
-        <v>33.724522321504956</v>
+        <v>33.47963038469392</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="8" t="s">
@@ -6551,14 +6551,14 @@
         <v>144</v>
       </c>
       <c r="D229" s="4">
-        <v>128.520944897959</v>
+        <v>130.534834693878</v>
       </c>
       <c r="E229" s="6">
         <v>20</v>
       </c>
       <c r="F229" s="3">
         <f t="shared" si="4"/>
-        <v>102.81675591836719</v>
+        <v>104.4278677551024</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="8" t="s">
@@ -6601,14 +6601,14 @@
         <v>166</v>
       </c>
       <c r="D231" s="4">
-        <v>23.742914498044701</v>
+        <v>23.691518078357898</v>
       </c>
       <c r="E231" s="6">
         <v>20</v>
       </c>
       <c r="F231" s="3">
         <f t="shared" si="4"/>
-        <v>18.99433159843576</v>
+        <v>18.953214462686319</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="8" t="s">
@@ -6626,14 +6626,14 @@
         <v>134</v>
       </c>
       <c r="D232" s="4">
-        <v>54.705107325216296</v>
+        <v>55.077469074596401</v>
       </c>
       <c r="E232" s="6">
         <v>20</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="4"/>
-        <v>43.76408586017304</v>
+        <v>44.061975259677119</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="8" t="s">
@@ -6651,14 +6651,14 @@
         <v>173</v>
       </c>
       <c r="D233" s="4">
-        <v>42.6541712039974</v>
+        <v>42.328923245331801</v>
       </c>
       <c r="E233" s="6">
         <v>20</v>
       </c>
       <c r="F233" s="3">
         <f t="shared" si="4"/>
-        <v>34.123336963197922</v>
+        <v>33.863138596265443</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="8" t="s">
@@ -6676,14 +6676,14 @@
         <v>159</v>
       </c>
       <c r="D234" s="4">
-        <v>61.9939509948912</v>
+        <v>63.5346849245675</v>
       </c>
       <c r="E234" s="6">
         <v>20</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="4"/>
-        <v>49.59516079591296</v>
+        <v>50.827747939654003</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="8" t="s">
@@ -6751,14 +6751,14 @@
         <v>136</v>
       </c>
       <c r="D237" s="4">
-        <v>102.315830440111</v>
+        <v>102.288730602621</v>
       </c>
       <c r="E237" s="6">
         <v>20</v>
       </c>
       <c r="F237" s="3">
         <f t="shared" si="4"/>
-        <v>81.852664352088794</v>
+        <v>81.830984482096795</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="8" t="s">
@@ -6801,14 +6801,14 @@
         <v>172</v>
       </c>
       <c r="D239" s="4">
-        <v>51.205852293794898</v>
+        <v>51.154247895412702</v>
       </c>
       <c r="E239" s="6">
         <v>20</v>
       </c>
       <c r="F239" s="3">
         <f t="shared" si="4"/>
-        <v>40.964681835035918</v>
+        <v>40.923398316330164</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="8" t="s">
@@ -6826,14 +6826,14 @@
         <v>167</v>
       </c>
       <c r="D240" s="4">
-        <v>61.637372324835802</v>
+        <v>63.175570181865297</v>
       </c>
       <c r="E240" s="6">
         <v>20</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="4"/>
-        <v>49.309897859868641</v>
+        <v>50.540456145492236</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="8" t="s">
@@ -6851,14 +6851,14 @@
         <v>152</v>
       </c>
       <c r="D241" s="4">
-        <v>121.328630025037</v>
+        <v>123.130531421385</v>
       </c>
       <c r="E241" s="6">
         <v>20</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="4"/>
-        <v>97.062904020029606</v>
+        <v>98.504425137108001</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="8" t="s">
@@ -6876,14 +6876,14 @@
         <v>168</v>
       </c>
       <c r="D242" s="4">
-        <v>24.5864784076661</v>
+        <v>24.535693850118399</v>
       </c>
       <c r="E242" s="6">
         <v>20</v>
       </c>
       <c r="F242" s="3">
         <f t="shared" si="4"/>
-        <v>19.669182726132881</v>
+        <v>19.628555080094721</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="8" t="s">
@@ -6901,14 +6901,14 @@
         <v>162</v>
       </c>
       <c r="D243" s="4">
-        <v>32.457665340386001</v>
+        <v>32.441431309253403</v>
       </c>
       <c r="E243" s="6">
         <v>20</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="4"/>
-        <v>25.966132272308801</v>
+        <v>25.953145047402721</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="8" t="s">
@@ -6976,14 +6976,14 @@
         <v>96</v>
       </c>
       <c r="D246" s="4">
-        <v>101.513237201476</v>
+        <v>102.368161072514</v>
       </c>
       <c r="E246" s="6">
         <v>20</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="4"/>
-        <v>81.210589761180799</v>
+        <v>81.894528858011199</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="8" t="s">
@@ -7051,14 +7051,14 @@
         <v>112</v>
       </c>
       <c r="D249" s="4">
-        <v>108.28110001941</v>
+        <v>108.27233589868</v>
       </c>
       <c r="E249" s="6">
         <v>20</v>
       </c>
       <c r="F249" s="3">
         <f t="shared" si="4"/>
-        <v>86.624880015528007</v>
+        <v>86.617868718943996</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="8" t="s">
@@ -7076,14 +7076,14 @@
         <v>114</v>
       </c>
       <c r="D250" s="4">
-        <v>101.559582193434</v>
+        <v>101.556414255474</v>
       </c>
       <c r="E250" s="6">
         <v>20</v>
       </c>
       <c r="F250" s="3">
         <f t="shared" si="4"/>
-        <v>81.247665754747203</v>
+        <v>81.245131404379194</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="8" t="s">
@@ -7226,14 +7226,14 @@
         <v>188</v>
       </c>
       <c r="D256" s="4">
-        <v>31.329644236320501</v>
+        <v>31.3121581123612</v>
       </c>
       <c r="E256" s="6">
         <v>20</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="4"/>
-        <v>25.063715389056402</v>
+        <v>25.049726489888961</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="8" t="s">
@@ -7276,14 +7276,14 @@
         <v>200</v>
       </c>
       <c r="D258" s="4">
-        <v>33.844043564339003</v>
+        <v>33.8391124773825</v>
       </c>
       <c r="E258" s="6">
         <v>20</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="4"/>
-        <v>27.075234851471201</v>
+        <v>27.071289981905998</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="8" t="s">
@@ -7326,14 +7326,14 @@
         <v>184</v>
       </c>
       <c r="D260" s="4">
-        <v>38.693879617818901</v>
+        <v>38.411854172615499</v>
       </c>
       <c r="E260" s="6">
         <v>20</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" si="4"/>
-        <v>30.955103694255122</v>
+        <v>30.7294833380924</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="8" t="s">
@@ -7351,14 +7351,14 @@
         <v>47</v>
       </c>
       <c r="D261" s="4">
-        <v>116.800066777692</v>
+        <v>122.35614210717701</v>
       </c>
       <c r="E261" s="6">
         <v>20</v>
       </c>
       <c r="F261" s="3">
         <f t="shared" si="4"/>
-        <v>93.440053422153596</v>
+        <v>97.884913685741608</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="8" t="s">
@@ -7401,14 +7401,14 @@
         <v>172</v>
       </c>
       <c r="D263" s="4">
-        <v>44.720515539245604</v>
+        <v>44.7217585319747</v>
       </c>
       <c r="E263" s="6">
         <v>20</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="4"/>
-        <v>35.77641243139648</v>
+        <v>35.77740682557976</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="8" t="s">
@@ -7451,14 +7451,14 @@
         <v>69</v>
       </c>
       <c r="D265" s="4">
-        <v>77.978648046341604</v>
+        <v>77.743450460332099</v>
       </c>
       <c r="E265" s="6">
         <v>20</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="4"/>
-        <v>62.382918437073286</v>
+        <v>62.194760368265676</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="8" t="s">
@@ -7476,14 +7476,14 @@
         <v>61</v>
       </c>
       <c r="D266" s="4">
-        <v>117.41042583033899</v>
+        <v>118.05711026462799</v>
       </c>
       <c r="E266" s="6">
         <v>20</v>
       </c>
       <c r="F266" s="3">
         <f t="shared" si="4"/>
-        <v>93.92834066427119</v>
+        <v>94.445688211702389</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="8" t="s">
@@ -7526,14 +7526,14 @@
         <v>148</v>
       </c>
       <c r="D268" s="4">
-        <v>106.846041513274</v>
+        <v>107.57585908084199</v>
       </c>
       <c r="E268" s="6">
         <v>20</v>
       </c>
       <c r="F268" s="3">
         <f t="shared" si="4"/>
-        <v>85.476833210619205</v>
+        <v>86.060687264673589</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="8"/>
@@ -7595,14 +7595,14 @@
         <v>192</v>
       </c>
       <c r="D271" s="4">
-        <v>40.132829062517999</v>
+        <v>40.127692513604899</v>
       </c>
       <c r="E271" s="6">
         <v>20</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="5"/>
-        <v>32.106263250014401</v>
+        <v>32.102154010883922</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="8"/>
@@ -7618,14 +7618,14 @@
         <v>72</v>
       </c>
       <c r="D272" s="4">
-        <v>45.775460434725503</v>
+        <v>44.4750088980825</v>
       </c>
       <c r="E272" s="6">
         <v>20</v>
       </c>
       <c r="F272" s="3">
         <f t="shared" ref="F272" si="6">D272-(D272*E272)/100</f>
-        <v>36.620368347780399</v>
+        <v>35.580007118466</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="8"/>

--- a/Avanzamento.xlsx
+++ b/Avanzamento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="154">
   <si>
     <t>Tecnico</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Mese</t>
+  </si>
+  <si>
+    <t>IRTE0000027 - FORNITO IGNAZIO</t>
+  </si>
+  <si>
+    <t>IRTE0000087 - GULLOTTO GIUSEPPE</t>
+  </si>
+  <si>
+    <t>IRTE0000115 - LA PIANA GIUSEPPE</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -590,6 +599,14 @@
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -885,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5959,14 +5976,14 @@
         <v>94</v>
       </c>
       <c r="D205" s="4">
-        <v>39.793691562464502</v>
+        <v>39.873178839928698</v>
       </c>
       <c r="E205" s="6">
         <v>20</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="4"/>
-        <v>31.834953249971601</v>
+        <v>31.89854307194296</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>67</v>
@@ -5986,14 +6003,14 @@
         <v>16</v>
       </c>
       <c r="D206" s="4">
-        <v>88.284824261832398</v>
+        <v>89.526538080764198</v>
       </c>
       <c r="E206" s="6">
         <v>20</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="4"/>
-        <v>70.627859409465913</v>
+        <v>71.621230464611358</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="8"/>
@@ -6034,14 +6051,14 @@
         <v>184</v>
       </c>
       <c r="D208" s="4">
-        <v>46.034813829787197</v>
+        <v>47.584265957446803</v>
       </c>
       <c r="E208" s="6">
         <v>20</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="4"/>
-        <v>36.827851063829755</v>
+        <v>38.067412765957442</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="8" t="s">
@@ -6059,14 +6076,14 @@
         <v>132</v>
       </c>
       <c r="D209" s="4">
-        <v>29.993174327587798</v>
+        <v>29.2474614469918</v>
       </c>
       <c r="E209" s="6">
         <v>20</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="4"/>
-        <v>23.994539462070239</v>
+        <v>23.39796915759344</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="8" t="s">
@@ -6159,14 +6176,14 @@
         <v>190</v>
       </c>
       <c r="D213" s="4">
-        <v>59.321030355944799</v>
+        <v>59.907286567027398</v>
       </c>
       <c r="E213" s="6">
         <v>20</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="4"/>
-        <v>47.456824284755839</v>
+        <v>47.92582925362192</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="8" t="s">
@@ -6184,14 +6201,14 @@
         <v>160</v>
       </c>
       <c r="D214" s="4">
-        <v>59.0453053240619</v>
+        <v>59.669316149931802</v>
       </c>
       <c r="E214" s="6">
         <v>20</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="4"/>
-        <v>47.236244259249517</v>
+        <v>47.735452919945445</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="8" t="s">
@@ -6255,14 +6272,14 @@
         <v>176</v>
       </c>
       <c r="D217" s="4">
-        <v>29.747237435146999</v>
+        <v>29.007538368104299</v>
       </c>
       <c r="E217" s="6">
         <v>20</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="4"/>
-        <v>23.7977899481176</v>
+        <v>23.206030694483438</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="8" t="s">
@@ -6351,14 +6368,14 @@
         <v>144</v>
       </c>
       <c r="D221" s="4">
-        <v>28.405353891373501</v>
+        <v>28.388815904102199</v>
       </c>
       <c r="E221" s="6">
         <v>20</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="4"/>
-        <v>22.724283113098799</v>
+        <v>22.71105272328176</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="8" t="s">
@@ -6401,14 +6418,14 @@
         <v>132</v>
       </c>
       <c r="D223" s="4">
-        <v>46.965378395248202</v>
+        <v>46.962235509872698</v>
       </c>
       <c r="E223" s="6">
         <v>20</v>
       </c>
       <c r="F223" s="3">
         <f t="shared" si="4"/>
-        <v>37.572302716198564</v>
+        <v>37.569788407898159</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="8" t="s">
@@ -6451,14 +6468,14 @@
         <v>169</v>
       </c>
       <c r="D225" s="4">
-        <v>49.311700677614397</v>
+        <v>49.308336695108601</v>
       </c>
       <c r="E225" s="6">
         <v>20</v>
       </c>
       <c r="F225" s="3">
         <f t="shared" si="4"/>
-        <v>39.449360542091519</v>
+        <v>39.446669356086879</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="8" t="s">
@@ -6526,14 +6543,14 @@
         <v>172</v>
       </c>
       <c r="D228" s="4">
-        <v>41.849537980867403</v>
+        <v>41.835423420705602</v>
       </c>
       <c r="E228" s="6">
         <v>20</v>
       </c>
       <c r="F228" s="3">
         <f t="shared" si="4"/>
-        <v>33.47963038469392</v>
+        <v>33.468338736564483</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="8" t="s">
@@ -6551,14 +6568,14 @@
         <v>144</v>
       </c>
       <c r="D229" s="4">
-        <v>130.534834693878</v>
+        <v>131.46881020408199</v>
       </c>
       <c r="E229" s="6">
         <v>20</v>
       </c>
       <c r="F229" s="3">
         <f t="shared" si="4"/>
-        <v>104.4278677551024</v>
+        <v>105.17504816326559</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="8" t="s">
@@ -6626,14 +6643,14 @@
         <v>134</v>
       </c>
       <c r="D232" s="4">
-        <v>55.077469074596401</v>
+        <v>55.393012607042699</v>
       </c>
       <c r="E232" s="6">
         <v>20</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="4"/>
-        <v>44.061975259677119</v>
+        <v>44.314410085634158</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="8" t="s">
@@ -6651,14 +6668,14 @@
         <v>173</v>
       </c>
       <c r="D233" s="4">
-        <v>42.328923245331801</v>
+        <v>42.3139132930825</v>
       </c>
       <c r="E233" s="6">
         <v>20</v>
       </c>
       <c r="F233" s="3">
         <f t="shared" si="4"/>
-        <v>33.863138596265443</v>
+        <v>33.851130634466003</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="8" t="s">
@@ -6676,14 +6693,14 @@
         <v>159</v>
       </c>
       <c r="D234" s="4">
-        <v>63.5346849245675</v>
+        <v>63.628669881569202</v>
       </c>
       <c r="E234" s="6">
         <v>20</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="4"/>
-        <v>50.827747939654003</v>
+        <v>50.902935905255362</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="8" t="s">
@@ -6751,14 +6768,14 @@
         <v>136</v>
       </c>
       <c r="D237" s="4">
-        <v>102.288730602621</v>
+        <v>102.287374848146</v>
       </c>
       <c r="E237" s="6">
         <v>20</v>
       </c>
       <c r="F237" s="3">
         <f t="shared" si="4"/>
-        <v>81.830984482096795</v>
+        <v>81.829899878516798</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="8" t="s">
@@ -6801,14 +6818,14 @@
         <v>172</v>
       </c>
       <c r="D239" s="4">
-        <v>51.154247895412702</v>
+        <v>51.151835913612899</v>
       </c>
       <c r="E239" s="6">
         <v>20</v>
       </c>
       <c r="F239" s="3">
         <f t="shared" si="4"/>
-        <v>40.923398316330164</v>
+        <v>40.921468730890318</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="8" t="s">
@@ -6826,14 +6843,14 @@
         <v>167</v>
       </c>
       <c r="D240" s="4">
-        <v>63.175570181865297</v>
+        <v>63.2650528654776</v>
       </c>
       <c r="E240" s="6">
         <v>20</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="4"/>
-        <v>50.540456145492236</v>
+        <v>50.612042292382078</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="8" t="s">
@@ -6851,14 +6868,14 @@
         <v>152</v>
       </c>
       <c r="D241" s="4">
-        <v>123.130531421385</v>
+        <v>123.96619371998899</v>
       </c>
       <c r="E241" s="6">
         <v>20</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="4"/>
-        <v>98.504425137108001</v>
+        <v>99.172954975991189</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="8" t="s">
@@ -6901,14 +6918,14 @@
         <v>162</v>
       </c>
       <c r="D243" s="4">
-        <v>32.441431309253403</v>
+        <v>32.440672533085902</v>
       </c>
       <c r="E243" s="6">
         <v>20</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="4"/>
-        <v>25.953145047402721</v>
+        <v>25.952538026468723</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="8" t="s">
@@ -6976,14 +6993,14 @@
         <v>96</v>
       </c>
       <c r="D246" s="4">
-        <v>102.368161072514</v>
+        <v>103.50729545520301</v>
       </c>
       <c r="E246" s="6">
         <v>20</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="4"/>
-        <v>81.894528858011199</v>
+        <v>82.805836364162403</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="8" t="s">
@@ -7051,14 +7068,14 @@
         <v>112</v>
       </c>
       <c r="D249" s="4">
-        <v>108.27233589868</v>
+        <v>108.271787140916</v>
       </c>
       <c r="E249" s="6">
         <v>20</v>
       </c>
       <c r="F249" s="3">
         <f t="shared" si="4"/>
-        <v>86.617868718943996</v>
+        <v>86.6174297127328</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="8" t="s">
@@ -7076,14 +7093,14 @@
         <v>114</v>
       </c>
       <c r="D250" s="4">
-        <v>101.556414255474</v>
+        <v>101.556144690256</v>
       </c>
       <c r="E250" s="6">
         <v>20</v>
       </c>
       <c r="F250" s="3">
         <f t="shared" si="4"/>
-        <v>81.245131404379194</v>
+        <v>81.244915752204804</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="8" t="s">
@@ -7226,14 +7243,14 @@
         <v>188</v>
       </c>
       <c r="D256" s="4">
-        <v>31.3121581123612</v>
+        <v>31.311340813563799</v>
       </c>
       <c r="E256" s="6">
         <v>20</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="4"/>
-        <v>25.049726489888961</v>
+        <v>25.049072650851038</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="8" t="s">
@@ -7276,14 +7293,14 @@
         <v>200</v>
       </c>
       <c r="D258" s="4">
-        <v>33.8391124773825</v>
+        <v>33.838881999121597</v>
       </c>
       <c r="E258" s="6">
         <v>20</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="4"/>
-        <v>27.071289981905998</v>
+        <v>27.071105599297276</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="8" t="s">
@@ -7326,14 +7343,14 @@
         <v>184</v>
       </c>
       <c r="D260" s="4">
-        <v>38.411854172615499</v>
+        <v>38.213723655592197</v>
       </c>
       <c r="E260" s="6">
         <v>20</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" si="4"/>
-        <v>30.7294833380924</v>
+        <v>30.570978924473756</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="8" t="s">
@@ -7401,14 +7418,14 @@
         <v>172</v>
       </c>
       <c r="D263" s="4">
-        <v>44.7217585319747</v>
+        <v>44.703297522927699</v>
       </c>
       <c r="E263" s="6">
         <v>20</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="4"/>
-        <v>35.77740682557976</v>
+        <v>35.762638018342159</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="8" t="s">
@@ -7451,14 +7468,14 @@
         <v>69</v>
       </c>
       <c r="D265" s="4">
-        <v>77.743450460332099</v>
+        <v>78.925936993964996</v>
       </c>
       <c r="E265" s="6">
         <v>20</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="4"/>
-        <v>62.194760368265676</v>
+        <v>63.140749595171997</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="8" t="s">
@@ -7476,14 +7493,14 @@
         <v>61</v>
       </c>
       <c r="D266" s="4">
-        <v>118.05711026462799</v>
+        <v>118.37864281732099</v>
       </c>
       <c r="E266" s="6">
         <v>20</v>
       </c>
       <c r="F266" s="3">
         <f t="shared" si="4"/>
-        <v>94.445688211702389</v>
+        <v>94.70291425385679</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="8" t="s">
@@ -7595,14 +7612,14 @@
         <v>192</v>
       </c>
       <c r="D271" s="4">
-        <v>40.127692513604899</v>
+        <v>40.127452432083203</v>
       </c>
       <c r="E271" s="6">
         <v>20</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="5"/>
-        <v>32.102154010883922</v>
+        <v>32.101961945666559</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="8"/>
@@ -7618,17 +7635,1802 @@
         <v>72</v>
       </c>
       <c r="D272" s="4">
-        <v>44.4750088980825</v>
+        <v>45.852299678224298</v>
       </c>
       <c r="E272" s="6">
         <v>20</v>
       </c>
       <c r="F272" s="3">
-        <f t="shared" ref="F272" si="6">D272-(D272*E272)/100</f>
-        <v>35.580007118466</v>
+        <f t="shared" ref="F272:F338" si="6">D272-(D272*E272)/100</f>
+        <v>36.681839742579442</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="8"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="11">
+        <v>45979</v>
+      </c>
+      <c r="C273" s="12">
+        <v>60</v>
+      </c>
+      <c r="D273" s="13">
+        <v>29.346096938775499</v>
+      </c>
+      <c r="E273" s="14">
+        <v>20</v>
+      </c>
+      <c r="F273" s="15">
+        <f t="shared" si="6"/>
+        <v>23.476877551020401</v>
+      </c>
+      <c r="G273" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C274" s="9">
+        <v>64</v>
+      </c>
+      <c r="D274" s="4">
+        <v>28.6650595515537</v>
+      </c>
+      <c r="E274" s="6">
+        <v>20</v>
+      </c>
+      <c r="F274" s="3">
+        <f t="shared" si="6"/>
+        <v>22.93204764124296</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B275" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="6">
+        <v>20</v>
+      </c>
+      <c r="F275" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G275" s="1"/>
+      <c r="H275" s="8"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C276" s="9">
+        <v>69</v>
+      </c>
+      <c r="D276" s="4">
+        <v>43.425407592332903</v>
+      </c>
+      <c r="E276" s="6">
+        <v>20</v>
+      </c>
+      <c r="F276" s="3">
+        <f t="shared" si="6"/>
+        <v>34.740326073866321</v>
+      </c>
+      <c r="G276" s="1"/>
+      <c r="H276" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C277" s="9">
+        <v>8</v>
+      </c>
+      <c r="D277" s="4">
+        <v>791.60524999999996</v>
+      </c>
+      <c r="E277" s="6">
+        <v>20</v>
+      </c>
+      <c r="F277" s="3">
+        <f t="shared" si="6"/>
+        <v>633.28419999999994</v>
+      </c>
+      <c r="G277" s="1"/>
+      <c r="H277" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C278" s="9">
+        <v>88</v>
+      </c>
+      <c r="D278" s="4">
+        <v>27.603030921459499</v>
+      </c>
+      <c r="E278" s="6">
+        <v>20</v>
+      </c>
+      <c r="F278" s="3">
+        <f t="shared" si="6"/>
+        <v>22.082424737167599</v>
+      </c>
+      <c r="G278" s="1"/>
+      <c r="H278" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C279" s="9">
+        <v>87</v>
+      </c>
+      <c r="D279" s="4">
+        <v>32.3825986394558</v>
+      </c>
+      <c r="E279" s="6">
+        <v>20</v>
+      </c>
+      <c r="F279" s="3">
+        <f t="shared" si="6"/>
+        <v>25.906078911564641</v>
+      </c>
+      <c r="G279" s="1"/>
+      <c r="H279" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C280" s="9">
+        <v>104</v>
+      </c>
+      <c r="D280" s="4">
+        <v>34.770215</v>
+      </c>
+      <c r="E280" s="6">
+        <v>20</v>
+      </c>
+      <c r="F280" s="3">
+        <f t="shared" si="6"/>
+        <v>27.816172000000002</v>
+      </c>
+      <c r="G280" s="1"/>
+      <c r="H280" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C281" s="9">
+        <v>95</v>
+      </c>
+      <c r="D281" s="4">
+        <v>32.3825986394558</v>
+      </c>
+      <c r="E281" s="6">
+        <v>20</v>
+      </c>
+      <c r="F281" s="3">
+        <f t="shared" si="6"/>
+        <v>25.906078911564641</v>
+      </c>
+      <c r="G281" s="1"/>
+      <c r="H281" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C282" s="9">
+        <v>110</v>
+      </c>
+      <c r="D282" s="4">
+        <v>24.5925847457627</v>
+      </c>
+      <c r="E282" s="6">
+        <v>20</v>
+      </c>
+      <c r="F282" s="3">
+        <f t="shared" si="6"/>
+        <v>19.67406779661016</v>
+      </c>
+      <c r="G282" s="1"/>
+      <c r="H282" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C283" s="9">
+        <v>110</v>
+      </c>
+      <c r="D283" s="4">
+        <v>24.5925847457627</v>
+      </c>
+      <c r="E283" s="6">
+        <v>20</v>
+      </c>
+      <c r="F283" s="3">
+        <f t="shared" si="6"/>
+        <v>19.67406779661016</v>
+      </c>
+      <c r="G283" s="1"/>
+      <c r="H283" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C284" s="9">
+        <v>88</v>
+      </c>
+      <c r="D284" s="4">
+        <v>52.361870530303001</v>
+      </c>
+      <c r="E284" s="6">
+        <v>20</v>
+      </c>
+      <c r="F284" s="3">
+        <f t="shared" si="6"/>
+        <v>41.889496424242402</v>
+      </c>
+      <c r="G284" s="1"/>
+      <c r="H284" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C285" s="9"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="6">
+        <v>20</v>
+      </c>
+      <c r="F285" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G285" s="1"/>
+      <c r="H285" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C286" s="9">
+        <v>96</v>
+      </c>
+      <c r="D286" s="4">
+        <v>27.748286422902499</v>
+      </c>
+      <c r="E286" s="6">
+        <v>20</v>
+      </c>
+      <c r="F286" s="3">
+        <f t="shared" si="6"/>
+        <v>22.198629138321998</v>
+      </c>
+      <c r="G286" s="1"/>
+      <c r="H286" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B287" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C287" s="9">
+        <v>61</v>
+      </c>
+      <c r="D287" s="4">
+        <v>98.040274962742203</v>
+      </c>
+      <c r="E287" s="6">
+        <v>20</v>
+      </c>
+      <c r="F287" s="3">
+        <f t="shared" si="6"/>
+        <v>78.432219970193756</v>
+      </c>
+      <c r="G287" s="1"/>
+      <c r="H287" s="8"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C288" s="9">
+        <v>72</v>
+      </c>
+      <c r="D288" s="4">
+        <v>35.915104166666701</v>
+      </c>
+      <c r="E288" s="6">
+        <v>20</v>
+      </c>
+      <c r="F288" s="3">
+        <f t="shared" si="6"/>
+        <v>28.73208333333336</v>
+      </c>
+      <c r="G288" s="1"/>
+      <c r="H288" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C289" s="9">
+        <v>88</v>
+      </c>
+      <c r="D289" s="4">
+        <v>28.036716018884501</v>
+      </c>
+      <c r="E289" s="6">
+        <v>20</v>
+      </c>
+      <c r="F289" s="3">
+        <f t="shared" si="6"/>
+        <v>22.429372815107602</v>
+      </c>
+      <c r="G289" s="1"/>
+      <c r="H289" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B290" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C290" s="9"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="6">
+        <v>20</v>
+      </c>
+      <c r="F290" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G290" s="1"/>
+      <c r="H290" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C291" s="9">
+        <v>92</v>
+      </c>
+      <c r="D291" s="4">
+        <v>32.164854642023002</v>
+      </c>
+      <c r="E291" s="6">
+        <v>20</v>
+      </c>
+      <c r="F291" s="3">
+        <f t="shared" si="6"/>
+        <v>25.731883713618402</v>
+      </c>
+      <c r="G291" s="1"/>
+      <c r="H291" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C292" s="9">
+        <v>104</v>
+      </c>
+      <c r="D292" s="4">
+        <v>34.249028517481499</v>
+      </c>
+      <c r="E292" s="6">
+        <v>20</v>
+      </c>
+      <c r="F292" s="3">
+        <f t="shared" si="6"/>
+        <v>27.399222813985197</v>
+      </c>
+      <c r="G292" s="1"/>
+      <c r="H292" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C293" s="9">
+        <v>73</v>
+      </c>
+      <c r="D293" s="4">
+        <v>56.364232531030197</v>
+      </c>
+      <c r="E293" s="6">
+        <v>20</v>
+      </c>
+      <c r="F293" s="3">
+        <f t="shared" si="6"/>
+        <v>45.09138602482416</v>
+      </c>
+      <c r="G293" s="1"/>
+      <c r="H293" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C294" s="9">
+        <v>64</v>
+      </c>
+      <c r="D294" s="4">
+        <v>29.681458688447002</v>
+      </c>
+      <c r="E294" s="6">
+        <v>20</v>
+      </c>
+      <c r="F294" s="3">
+        <f t="shared" si="6"/>
+        <v>23.7451669507576</v>
+      </c>
+      <c r="G294" s="1"/>
+      <c r="H294" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C295" s="9">
+        <v>88</v>
+      </c>
+      <c r="D295" s="4">
+        <v>66.424341818395206</v>
+      </c>
+      <c r="E295" s="6">
+        <v>20</v>
+      </c>
+      <c r="F295" s="3">
+        <f t="shared" si="6"/>
+        <v>53.139473454716168</v>
+      </c>
+      <c r="G295" s="1"/>
+      <c r="H295" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C296" s="9">
+        <v>14</v>
+      </c>
+      <c r="D296" s="4">
+        <v>117.66158</v>
+      </c>
+      <c r="E296" s="6">
+        <v>20</v>
+      </c>
+      <c r="F296" s="3">
+        <f t="shared" si="6"/>
+        <v>94.129264000000006</v>
+      </c>
+      <c r="G296" s="1"/>
+      <c r="H296" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C297" s="9">
+        <v>96</v>
+      </c>
+      <c r="D297" s="4">
+        <v>32.019694007464103</v>
+      </c>
+      <c r="E297" s="6">
+        <v>20</v>
+      </c>
+      <c r="F297" s="3">
+        <f t="shared" si="6"/>
+        <v>25.615755205971283</v>
+      </c>
+      <c r="G297" s="1"/>
+      <c r="H297" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B298" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C298" s="9">
+        <v>77</v>
+      </c>
+      <c r="D298" s="4">
+        <v>45.581570352003197</v>
+      </c>
+      <c r="E298" s="6">
+        <v>20</v>
+      </c>
+      <c r="F298" s="3">
+        <f t="shared" si="6"/>
+        <v>36.465256281602556</v>
+      </c>
+      <c r="G298" s="1"/>
+      <c r="H298" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C299" s="9">
+        <v>69</v>
+      </c>
+      <c r="D299" s="4">
+        <v>103.274454545455</v>
+      </c>
+      <c r="E299" s="6">
+        <v>20</v>
+      </c>
+      <c r="F299" s="3">
+        <f t="shared" si="6"/>
+        <v>82.619563636364006</v>
+      </c>
+      <c r="G299" s="1"/>
+      <c r="H299" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B300" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C300" s="9">
+        <v>96</v>
+      </c>
+      <c r="D300" s="4">
+        <v>32.011510416666702</v>
+      </c>
+      <c r="E300" s="6">
+        <v>20</v>
+      </c>
+      <c r="F300" s="3">
+        <f t="shared" si="6"/>
+        <v>25.609208333333363</v>
+      </c>
+      <c r="G300" s="1"/>
+      <c r="H300" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C301" s="9">
+        <v>85</v>
+      </c>
+      <c r="D301" s="4">
+        <v>41.469765200222</v>
+      </c>
+      <c r="E301" s="6">
+        <v>20</v>
+      </c>
+      <c r="F301" s="3">
+        <f t="shared" si="6"/>
+        <v>33.1758121601776</v>
+      </c>
+      <c r="G301" s="1"/>
+      <c r="H301" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B302" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C302" s="9">
+        <v>42</v>
+      </c>
+      <c r="D302" s="4">
+        <v>98.080272611832598</v>
+      </c>
+      <c r="E302" s="6">
+        <v>20</v>
+      </c>
+      <c r="F302" s="3">
+        <f t="shared" si="6"/>
+        <v>78.464218089466073</v>
+      </c>
+      <c r="G302" s="1"/>
+      <c r="H302" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B303" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C303" s="9">
+        <v>85</v>
+      </c>
+      <c r="D303" s="4">
+        <v>44.8543698230323</v>
+      </c>
+      <c r="E303" s="6">
+        <v>20</v>
+      </c>
+      <c r="F303" s="3">
+        <f t="shared" si="6"/>
+        <v>35.883495858425839</v>
+      </c>
+      <c r="G303" s="1"/>
+      <c r="H303" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C304" s="9">
+        <v>80</v>
+      </c>
+      <c r="D304" s="4">
+        <v>63.363835227272702</v>
+      </c>
+      <c r="E304" s="6">
+        <v>20</v>
+      </c>
+      <c r="F304" s="3">
+        <f t="shared" si="6"/>
+        <v>50.69106818181816</v>
+      </c>
+      <c r="G304" s="1"/>
+      <c r="H304" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B305" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C305" s="9">
+        <v>16</v>
+      </c>
+      <c r="D305" s="4">
+        <v>103.274454545455</v>
+      </c>
+      <c r="E305" s="6">
+        <v>20</v>
+      </c>
+      <c r="F305" s="3">
+        <f t="shared" si="6"/>
+        <v>82.619563636364006</v>
+      </c>
+      <c r="G305" s="1"/>
+      <c r="H305" s="8"/>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B306" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C306" s="9">
+        <v>96</v>
+      </c>
+      <c r="D306" s="4">
+        <v>28.126445652173899</v>
+      </c>
+      <c r="E306" s="6">
+        <v>20</v>
+      </c>
+      <c r="F306" s="3">
+        <f t="shared" si="6"/>
+        <v>22.501156521739119</v>
+      </c>
+      <c r="G306" s="1"/>
+      <c r="H306" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B307" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C307" s="9">
+        <v>94</v>
+      </c>
+      <c r="D307" s="4">
+        <v>115.874940343171</v>
+      </c>
+      <c r="E307" s="6">
+        <v>20</v>
+      </c>
+      <c r="F307" s="3">
+        <f t="shared" si="6"/>
+        <v>92.699952274536798</v>
+      </c>
+      <c r="G307" s="1"/>
+      <c r="H307" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B308" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C308" s="9">
+        <v>87</v>
+      </c>
+      <c r="D308" s="4">
+        <v>64.704009900990101</v>
+      </c>
+      <c r="E308" s="6">
+        <v>20</v>
+      </c>
+      <c r="F308" s="3">
+        <f t="shared" si="6"/>
+        <v>51.763207920792084</v>
+      </c>
+      <c r="G308" s="1"/>
+      <c r="H308" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B309" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C309" s="9">
+        <v>104</v>
+      </c>
+      <c r="D309" s="4">
+        <v>31.229027243589702</v>
+      </c>
+      <c r="E309" s="6">
+        <v>20</v>
+      </c>
+      <c r="F309" s="3">
+        <f t="shared" si="6"/>
+        <v>24.98322179487176</v>
+      </c>
+      <c r="G309" s="1"/>
+      <c r="H309" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B310" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C310" s="9">
+        <v>88</v>
+      </c>
+      <c r="D310" s="4">
+        <v>66.972437992236706</v>
+      </c>
+      <c r="E310" s="6">
+        <v>20</v>
+      </c>
+      <c r="F310" s="3">
+        <f t="shared" si="6"/>
+        <v>53.577950393789365</v>
+      </c>
+      <c r="G310" s="1"/>
+      <c r="H310" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B311" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C311" s="9">
+        <v>88</v>
+      </c>
+      <c r="D311" s="4">
+        <v>63.363835227272702</v>
+      </c>
+      <c r="E311" s="6">
+        <v>20</v>
+      </c>
+      <c r="F311" s="3">
+        <f t="shared" si="6"/>
+        <v>50.69106818181816</v>
+      </c>
+      <c r="G311" s="1"/>
+      <c r="H311" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B312" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C312" s="9">
+        <v>62</v>
+      </c>
+      <c r="D312" s="4">
+        <v>93.173415097909398</v>
+      </c>
+      <c r="E312" s="6">
+        <v>20</v>
+      </c>
+      <c r="F312" s="3">
+        <f t="shared" si="6"/>
+        <v>74.538732078327513</v>
+      </c>
+      <c r="G312" s="1"/>
+      <c r="H312" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B313" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C313" s="9">
+        <v>84</v>
+      </c>
+      <c r="D313" s="4">
+        <v>69.129963316404897</v>
+      </c>
+      <c r="E313" s="6">
+        <v>20</v>
+      </c>
+      <c r="F313" s="3">
+        <f t="shared" si="6"/>
+        <v>55.303970653123919</v>
+      </c>
+      <c r="G313" s="1"/>
+      <c r="H313" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B314" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C314" s="9">
+        <v>88</v>
+      </c>
+      <c r="D314" s="4">
+        <v>27.2976363636364</v>
+      </c>
+      <c r="E314" s="6">
+        <v>20</v>
+      </c>
+      <c r="F314" s="3">
+        <f t="shared" si="6"/>
+        <v>21.838109090909121</v>
+      </c>
+      <c r="G314" s="1"/>
+      <c r="H314" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B315" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C315" s="9">
+        <v>96</v>
+      </c>
+      <c r="D315" s="4">
+        <v>38.761173333333304</v>
+      </c>
+      <c r="E315" s="6">
+        <v>20</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" si="6"/>
+        <v>31.008938666666644</v>
+      </c>
+      <c r="G315" s="1"/>
+      <c r="H315" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B316" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C316" s="9">
+        <v>72</v>
+      </c>
+      <c r="D316" s="4">
+        <v>36.366624999999999</v>
+      </c>
+      <c r="E316" s="6">
+        <v>20</v>
+      </c>
+      <c r="F316" s="3">
+        <f t="shared" si="6"/>
+        <v>29.093299999999999</v>
+      </c>
+      <c r="G316" s="1"/>
+      <c r="H316" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B317" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C317" s="9"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="6">
+        <v>20</v>
+      </c>
+      <c r="F317" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G317" s="1"/>
+      <c r="H317" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B318" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C318" s="9">
+        <v>68</v>
+      </c>
+      <c r="D318" s="4">
+        <v>30.1475120048019</v>
+      </c>
+      <c r="E318" s="6">
+        <v>20</v>
+      </c>
+      <c r="F318" s="3">
+        <f t="shared" si="6"/>
+        <v>24.118009603841521</v>
+      </c>
+      <c r="G318" s="1"/>
+      <c r="H318" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B319" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C319" s="9">
+        <v>96</v>
+      </c>
+      <c r="D319" s="4">
+        <v>49.737972826087002</v>
+      </c>
+      <c r="E319" s="6">
+        <v>20</v>
+      </c>
+      <c r="F319" s="3">
+        <f t="shared" si="6"/>
+        <v>39.790378260869602</v>
+      </c>
+      <c r="G319" s="1"/>
+      <c r="H319" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B320" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C320" s="9">
+        <v>96</v>
+      </c>
+      <c r="D320" s="4">
+        <v>64.704009900990101</v>
+      </c>
+      <c r="E320" s="6">
+        <v>20</v>
+      </c>
+      <c r="F320" s="3">
+        <f t="shared" si="6"/>
+        <v>51.763207920792084</v>
+      </c>
+      <c r="G320" s="1"/>
+      <c r="H320" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B321" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C321" s="9">
+        <v>88</v>
+      </c>
+      <c r="D321" s="4">
+        <v>64.704009900990101</v>
+      </c>
+      <c r="E321" s="6">
+        <v>20</v>
+      </c>
+      <c r="F321" s="3">
+        <f t="shared" si="6"/>
+        <v>51.763207920792084</v>
+      </c>
+      <c r="G321" s="1"/>
+      <c r="H321" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B322" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C322" s="9">
+        <v>112</v>
+      </c>
+      <c r="D322" s="4">
+        <v>29.926879464285701</v>
+      </c>
+      <c r="E322" s="6">
+        <v>20</v>
+      </c>
+      <c r="F322" s="3">
+        <f t="shared" si="6"/>
+        <v>23.941503571428562</v>
+      </c>
+      <c r="G322" s="1"/>
+      <c r="H322" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B323" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C323" s="9">
+        <v>96</v>
+      </c>
+      <c r="D323" s="4">
+        <v>48.371413043478199</v>
+      </c>
+      <c r="E323" s="6">
+        <v>20</v>
+      </c>
+      <c r="F323" s="3">
+        <f t="shared" si="6"/>
+        <v>38.697130434782558</v>
+      </c>
+      <c r="G323" s="1"/>
+      <c r="H323" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B324" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C324" s="9">
+        <v>104</v>
+      </c>
+      <c r="D324" s="4">
+        <v>29.447552884615401</v>
+      </c>
+      <c r="E324" s="6">
+        <v>20</v>
+      </c>
+      <c r="F324" s="3">
+        <f t="shared" si="6"/>
+        <v>23.558042307692322</v>
+      </c>
+      <c r="G324" s="1"/>
+      <c r="H324" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B325" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C325" s="9">
+        <v>104</v>
+      </c>
+      <c r="D325" s="4">
+        <v>46.492445652173899</v>
+      </c>
+      <c r="E325" s="6">
+        <v>20</v>
+      </c>
+      <c r="F325" s="3">
+        <f t="shared" si="6"/>
+        <v>37.193956521739118</v>
+      </c>
+      <c r="G325" s="1"/>
+      <c r="H325" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B326" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C326" s="9">
+        <v>104</v>
+      </c>
+      <c r="D326" s="4">
+        <v>32.176956559829101</v>
+      </c>
+      <c r="E326" s="6">
+        <v>20</v>
+      </c>
+      <c r="F326" s="3">
+        <f t="shared" si="6"/>
+        <v>25.741565247863281</v>
+      </c>
+      <c r="G326" s="1"/>
+      <c r="H326" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B327" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C327" s="9">
+        <v>96</v>
+      </c>
+      <c r="D327" s="4">
+        <v>31.346785496470499</v>
+      </c>
+      <c r="E327" s="6">
+        <v>20</v>
+      </c>
+      <c r="F327" s="3">
+        <f t="shared" si="6"/>
+        <v>25.077428397176398</v>
+      </c>
+      <c r="G327" s="1"/>
+      <c r="H327" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B328" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C328" s="9">
+        <v>13</v>
+      </c>
+      <c r="D328" s="4">
+        <v>103.274454545455</v>
+      </c>
+      <c r="E328" s="6">
+        <v>20</v>
+      </c>
+      <c r="F328" s="3">
+        <f t="shared" si="6"/>
+        <v>82.619563636364006</v>
+      </c>
+      <c r="G328" s="1"/>
+      <c r="H328" s="8"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B329" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C329" s="9">
+        <v>96</v>
+      </c>
+      <c r="D329" s="4">
+        <v>32.350611342992899</v>
+      </c>
+      <c r="E329" s="6">
+        <v>20</v>
+      </c>
+      <c r="F329" s="3">
+        <f t="shared" si="6"/>
+        <v>25.880489074394319</v>
+      </c>
+      <c r="G329" s="1"/>
+      <c r="H329" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B330" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C330" s="9">
+        <v>96</v>
+      </c>
+      <c r="D330" s="4">
+        <v>30.421940789473702</v>
+      </c>
+      <c r="E330" s="6">
+        <v>20</v>
+      </c>
+      <c r="F330" s="3">
+        <f t="shared" si="6"/>
+        <v>24.337552631578962</v>
+      </c>
+      <c r="G330" s="1"/>
+      <c r="H330" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B331" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C331" s="9">
+        <v>88</v>
+      </c>
+      <c r="D331" s="4">
+        <v>32.660236742424303</v>
+      </c>
+      <c r="E331" s="6">
+        <v>20</v>
+      </c>
+      <c r="F331" s="3">
+        <f t="shared" si="6"/>
+        <v>26.128189393939444</v>
+      </c>
+      <c r="G331" s="1"/>
+      <c r="H331" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B332" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C332" s="9">
+        <v>88</v>
+      </c>
+      <c r="D332" s="4">
+        <v>40.3757801390529</v>
+      </c>
+      <c r="E332" s="6">
+        <v>20</v>
+      </c>
+      <c r="F332" s="3">
+        <f t="shared" si="6"/>
+        <v>32.300624111242321</v>
+      </c>
+      <c r="G332" s="1"/>
+      <c r="H332" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B333" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C333" s="9">
+        <v>56</v>
+      </c>
+      <c r="D333" s="4">
+        <v>34.434678571428599</v>
+      </c>
+      <c r="E333" s="6">
+        <v>20</v>
+      </c>
+      <c r="F333" s="3">
+        <f t="shared" si="6"/>
+        <v>27.547742857142879</v>
+      </c>
+      <c r="G333" s="1"/>
+      <c r="H333" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B334" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C334" s="9">
+        <v>48</v>
+      </c>
+      <c r="D334" s="4">
+        <v>38.463169312169299</v>
+      </c>
+      <c r="E334" s="6">
+        <v>20</v>
+      </c>
+      <c r="F334" s="3">
+        <f t="shared" si="6"/>
+        <v>30.770535449735441</v>
+      </c>
+      <c r="G334" s="1"/>
+      <c r="H334" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B335" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C335" s="9">
+        <v>80</v>
+      </c>
+      <c r="D335" s="4">
+        <v>40.651797619047599</v>
+      </c>
+      <c r="E335" s="6">
+        <v>20</v>
+      </c>
+      <c r="F335" s="3">
+        <f t="shared" si="6"/>
+        <v>32.521438095238082</v>
+      </c>
+      <c r="G335" s="1"/>
+      <c r="H335" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B336" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C336" s="9">
+        <v>104</v>
+      </c>
+      <c r="D336" s="4">
+        <v>41.4668669481606</v>
+      </c>
+      <c r="E336" s="6">
+        <v>20</v>
+      </c>
+      <c r="F336" s="3">
+        <f t="shared" si="6"/>
+        <v>33.173493558528477</v>
+      </c>
+      <c r="G336" s="1"/>
+      <c r="H336" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B337" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C337" s="9">
+        <v>64</v>
+      </c>
+      <c r="D337" s="4">
+        <v>56.425414381099102</v>
+      </c>
+      <c r="E337" s="6">
+        <v>20</v>
+      </c>
+      <c r="F337" s="3">
+        <f t="shared" si="6"/>
+        <v>45.140331504879285</v>
+      </c>
+      <c r="G337" s="1"/>
+      <c r="H337" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B338" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C338" s="9">
+        <v>21</v>
+      </c>
+      <c r="D338" s="4">
+        <v>107.8525579528</v>
+      </c>
+      <c r="E338" s="6">
+        <v>20</v>
+      </c>
+      <c r="F338" s="3">
+        <f t="shared" si="6"/>
+        <v>86.282046362239996</v>
+      </c>
+      <c r="G338" s="1"/>
+      <c r="H338" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B339" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C339" s="9">
+        <v>104</v>
+      </c>
+      <c r="D339" s="4">
+        <v>38.006612446581201</v>
+      </c>
+      <c r="E339" s="6">
+        <v>20</v>
+      </c>
+      <c r="F339" s="3">
+        <f t="shared" ref="F339:F344" si="7">D339-(D339*E339)/100</f>
+        <v>30.405289957264962</v>
+      </c>
+      <c r="G339" s="1"/>
+      <c r="H339" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B340" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C340" s="9">
+        <v>80</v>
+      </c>
+      <c r="D340" s="4">
+        <v>89.243906249999995</v>
+      </c>
+      <c r="E340" s="6">
+        <v>20</v>
+      </c>
+      <c r="F340" s="3">
+        <f t="shared" si="7"/>
+        <v>71.395124999999993</v>
+      </c>
+      <c r="G340" s="1"/>
+      <c r="H340" s="8"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B341" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C341" s="9">
+        <v>88</v>
+      </c>
+      <c r="D341" s="4">
+        <v>27.2976363636364</v>
+      </c>
+      <c r="E341" s="6">
+        <v>20</v>
+      </c>
+      <c r="F341" s="3">
+        <f t="shared" si="7"/>
+        <v>21.838109090909121</v>
+      </c>
+      <c r="G341" s="1"/>
+      <c r="H341" s="8"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B342" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C342" s="9"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="6">
+        <v>20</v>
+      </c>
+      <c r="F342" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G342" s="1"/>
+      <c r="H342" s="8"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B343" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C343" s="9">
+        <v>104</v>
+      </c>
+      <c r="D343" s="4">
+        <v>50.264938719342197</v>
+      </c>
+      <c r="E343" s="6">
+        <v>20</v>
+      </c>
+      <c r="F343" s="3">
+        <f t="shared" si="7"/>
+        <v>40.211950975473755</v>
+      </c>
+      <c r="G343" s="1"/>
+      <c r="H343" s="8"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B344" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C344" s="9"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="6">
+        <v>20</v>
+      </c>
+      <c r="F344" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G344" s="1"/>
+      <c r="H344" s="8"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B345" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C345" s="9">
+        <v>37</v>
+      </c>
+      <c r="D345" s="4">
+        <v>103.274454545455</v>
+      </c>
+      <c r="E345" s="6">
+        <v>20</v>
+      </c>
+      <c r="F345" s="3">
+        <f t="shared" ref="F345" si="8">D345-(D345*E345)/100</f>
+        <v>82.619563636364006</v>
+      </c>
+      <c r="G345" s="1"/>
+      <c r="H345" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G272"/>
@@ -7887,6 +9689,70 @@
     <hyperlink ref="H67" r:id="rId252"/>
     <hyperlink ref="H68" r:id="rId253"/>
     <hyperlink ref="H30" r:id="rId254" display="mailto:cyborg.3@hotmail.it"/>
+    <hyperlink ref="G273" r:id="rId255"/>
+    <hyperlink ref="H273" r:id="rId256"/>
+    <hyperlink ref="H274" r:id="rId257"/>
+    <hyperlink ref="H276" r:id="rId258"/>
+    <hyperlink ref="H277" r:id="rId259"/>
+    <hyperlink ref="H278" r:id="rId260"/>
+    <hyperlink ref="H279" r:id="rId261"/>
+    <hyperlink ref="H280" r:id="rId262"/>
+    <hyperlink ref="H281" r:id="rId263"/>
+    <hyperlink ref="H282" r:id="rId264"/>
+    <hyperlink ref="H283" r:id="rId265"/>
+    <hyperlink ref="H284" r:id="rId266"/>
+    <hyperlink ref="H285" r:id="rId267"/>
+    <hyperlink ref="H286" r:id="rId268"/>
+    <hyperlink ref="H288" r:id="rId269"/>
+    <hyperlink ref="H289" r:id="rId270"/>
+    <hyperlink ref="H290" r:id="rId271"/>
+    <hyperlink ref="H291" r:id="rId272"/>
+    <hyperlink ref="H292" r:id="rId273"/>
+    <hyperlink ref="H293" r:id="rId274"/>
+    <hyperlink ref="H294" r:id="rId275"/>
+    <hyperlink ref="H295" r:id="rId276"/>
+    <hyperlink ref="H296" r:id="rId277"/>
+    <hyperlink ref="H297" r:id="rId278"/>
+    <hyperlink ref="H298" r:id="rId279"/>
+    <hyperlink ref="H299" r:id="rId280"/>
+    <hyperlink ref="H300" r:id="rId281"/>
+    <hyperlink ref="H301" r:id="rId282"/>
+    <hyperlink ref="H303" r:id="rId283"/>
+    <hyperlink ref="H304" r:id="rId284"/>
+    <hyperlink ref="H306" r:id="rId285"/>
+    <hyperlink ref="H307" r:id="rId286"/>
+    <hyperlink ref="H308" r:id="rId287"/>
+    <hyperlink ref="H309" r:id="rId288"/>
+    <hyperlink ref="H310" r:id="rId289"/>
+    <hyperlink ref="H311" r:id="rId290"/>
+    <hyperlink ref="H312" r:id="rId291"/>
+    <hyperlink ref="H313" r:id="rId292"/>
+    <hyperlink ref="H314" r:id="rId293"/>
+    <hyperlink ref="H315" r:id="rId294"/>
+    <hyperlink ref="H316" r:id="rId295"/>
+    <hyperlink ref="H317" r:id="rId296"/>
+    <hyperlink ref="H318" r:id="rId297"/>
+    <hyperlink ref="H319" r:id="rId298"/>
+    <hyperlink ref="H320" r:id="rId299"/>
+    <hyperlink ref="H321" r:id="rId300"/>
+    <hyperlink ref="H322" r:id="rId301"/>
+    <hyperlink ref="H323" r:id="rId302"/>
+    <hyperlink ref="H324" r:id="rId303"/>
+    <hyperlink ref="H325" r:id="rId304"/>
+    <hyperlink ref="H326" r:id="rId305"/>
+    <hyperlink ref="H327" r:id="rId306"/>
+    <hyperlink ref="H329" r:id="rId307"/>
+    <hyperlink ref="H330" r:id="rId308"/>
+    <hyperlink ref="H331" r:id="rId309"/>
+    <hyperlink ref="H332" r:id="rId310"/>
+    <hyperlink ref="H333" r:id="rId311"/>
+    <hyperlink ref="H334" r:id="rId312"/>
+    <hyperlink ref="H335" r:id="rId313"/>
+    <hyperlink ref="H336" r:id="rId314"/>
+    <hyperlink ref="H337" r:id="rId315"/>
+    <hyperlink ref="H338" r:id="rId316"/>
+    <hyperlink ref="H339" r:id="rId317"/>
+    <hyperlink ref="H302" r:id="rId318" display="mailto:cyborg.3@hotmail.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
